--- a/server/files/orderExport.xlsx
+++ b/server/files/orderExport.xlsx
@@ -413,379 +413,379 @@
       </c>
     </row>
     <row r="2">
+      <c r="A2" t="str">
+        <v>138</v>
+      </c>
       <c r="B2" t="str">
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΑΝΑΤΟΛΙΚΗΣ ΑΧΑΪΑΣ</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>141</v>
+      </c>
+      <c r="B3" t="str">
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΒΟΛΟΥ</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>208</v>
+      </c>
+      <c r="B4" t="str">
+        <v>ΛΑΒΡΑΝΟΣ  ΧΡΙΣΤΟΔΟΥΛΟΣ ΣΠΥΡΙΔΩΝ</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>210</v>
+      </c>
+      <c r="B5" t="str">
+        <v>ΥΠΟΥΡΓΕΙΟ ΔΙΚΑΙΟΣΥΝΗΣ</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>212</v>
+      </c>
+      <c r="B6" t="str">
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΑΡΔΙΤΣΑΣ</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>295</v>
+      </c>
+      <c r="B7" t="str">
+        <v>ΔΙΟΙΚ 6ΗΣ ΥΓΕΙΟΝ ΠΕΡΙΦ ΠΕΛΛΟΠ. ΙΩΝΙΩΝ ΔΥ</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>298</v>
+      </c>
+      <c r="B8" t="str">
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΕΝΤΡΟ ΥΓΕΙΑΣ ΛΗΜΝΟΥ</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>414</v>
+      </c>
+      <c r="B9" t="str">
+        <v>ΒΡΥΣΗΣ ΙΩΑΝΝΗΣ ΚΑΙ ΣΙΑ ΟΕ</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>415</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Γ ΖΑΒΑΝΤΙΑΣ-Χ ΚΑΡΑΦΥΛΛΙΔΗΣ ΟΕ</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>448</v>
+      </c>
+      <c r="B11" t="str">
+        <v>ΠΑΡΔΑΣ ΓΕΩΡΓΙΟΣ</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>454</v>
+      </c>
+      <c r="B12" t="str">
+        <v>PRIME POWER ΜΟΝΟΠΡΟΣΩΠΗ ΙΚΕ</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>498</v>
+      </c>
+      <c r="B13" t="str">
+        <v>ΜΩΡΑΙΤΗ  ΜΑΡΙΑ ΑΘΑΝΑΣΙΟΣ</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>594</v>
+      </c>
+      <c r="B14" t="str">
+        <v>ΓΑΒΡΙΗΛΙΔΗΣ  ΑΝΕΣΤΗΣ ΚΩΝΣΤΑΝΤΙΝΟΣ</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>597</v>
+      </c>
+      <c r="B15" t="str">
+        <v>ΚΑΝΤΑΡΕΛΗΣ ΗΛΙΑΣ</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>658</v>
+      </c>
+      <c r="B16" t="str">
+        <v>ΖΑΡΙΦΗΣ  ΜΙΧΑΗΛ ΓΕΩΡΓΙΟΣ</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>749</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Γ.Ν ΙΠΠΟΚΡΑΤΕΙΟ ΘΕΣ/ΝΙΚΗΣ</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>759</v>
+      </c>
+      <c r="B18" t="str">
+        <v>ΚΑΚΟΛΥΡΗΣ ΓΡΗΓΟΡΗΣ</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>780</v>
+      </c>
+      <c r="B19" t="str">
+        <v>ΧΡΥΣΑΓΗΣ  ΝΙΚΟΛΑΟΣ</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>975</v>
+      </c>
+      <c r="B20" t="str">
+        <v>ΕΥΑΓΓΕΛΟΣ ΔΑΝΙΗΛ ΚΑΙ ΣΙΑ ΟΕ</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>1137</v>
+      </c>
+      <c r="B21" t="str">
+        <v>ΓΕΩΡΓΙΟΣ ΜΠΑΛΗΣ-ΖΗΝΟΒΙΑ ΜΠΑΛΗ ΟΕ</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>1160</v>
+      </c>
+      <c r="B22" t="str">
+        <v>ΚΙΝΤΩΝΗ  ΠΑΝΑΓΙΩΤΑ</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>1242</v>
+      </c>
+      <c r="B23" t="str">
+        <v>ΕΛΕΥΘΕΡΙΑΔΗΣ  ΧΑΡΑΛΑΜΠΟΣ</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>1352</v>
+      </c>
+      <c r="B24" t="str">
+        <v>ΜΑΝΙΟΣ  ΓΕΩΡΓΙΟΣ</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>1507</v>
+      </c>
+      <c r="B25" t="str">
+        <v>ΤΣΕΡΕΜΕΓΚΛΗΣ  ΠΑΝΑΓΙΩΤΗΣ ΑΝΔΡΕΑΣ</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>1508</v>
+      </c>
+      <c r="B26" t="str">
+        <v>ΠΑΠΑΙΩΑΝΝΟΥ  ΑΠΟΣΤΟΛΟΣ</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>1578</v>
+      </c>
+      <c r="B27" t="str">
+        <v>ΤΣΑΡΙΔΗΣ  ΓΕΩΡΓΙΟΣ ΕΥΣΤΑΘΙΟΣ</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>1737</v>
+      </c>
+      <c r="B28" t="str">
+        <v>ΓΟΥΛΑΣ  ΓΕΩΡΓΙΟΣ</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>1905</v>
+      </c>
+      <c r="B29" t="str">
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΑΧΕΠΑ</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>1972</v>
+      </c>
+      <c r="B30" t="str">
+        <v>ΣΑΜΑΡΑ  ΚΑΛΛΙΟΠΗ</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2032</v>
+      </c>
+      <c r="B31" t="str">
+        <v>CC-LIT Α.Ε.</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2044</v>
+      </c>
+      <c r="B32" t="str">
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΗΛΕΙΑΣ</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2045</v>
+      </c>
+      <c r="B33" t="str">
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΟΡΙΝΘΟΥ</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2048</v>
+      </c>
+      <c r="B34" t="str">
+        <v>1η ΥΠΕ - ΓΕΝ. ΟΓΚΟΛΟΓΙΚΟ ΝΟΣΟΚΟΜΕΙΟ</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2049</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Γ.ΝΟΣΟΚ. ΑΤΤΙΚΗΣ ΣΙΣΜΑΝΟΓΛΕΙΟ</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2052</v>
+      </c>
+      <c r="B36" t="str">
+        <v>ΕΦΚΑ - ΕΝΙΑΙΟΣ ΦΟΡΕΑΣ ΚΟΙΝΩΝΙΚΗΣ ΑΣΦΑΛΙΣ</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2054</v>
+      </c>
+      <c r="B37" t="str">
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΠΕΛΛΑΣ</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2065</v>
+      </c>
+      <c r="B38" t="str">
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΛΑΚΩΝΙΑΣ</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2067</v>
+      </c>
+      <c r="B39" t="str">
+        <v>ΕΘΝΙΚΟΣ ΟΡΓΑΝΙΣΜΟΣ ΜΕΤΑΜΟΣΧΕΥΣΕΩΝ</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2076</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Γ. ΠΑΠΑΝΙΚΟΛΑΟΥ ΝΟΣΟΚΟΜΕΙΟ ΘΕΣ/ΝΙΚΗΣ</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>2078</v>
+      </c>
+      <c r="B41" t="str">
+        <v>ΠΑΠΑΒΑΣΙΛΕΙΟΥ  ΓΕΩΡΓΙΟΣ</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2080</v>
+      </c>
+      <c r="B42" t="str">
+        <v>ΒΑΣΙΛΕΙΟΥ  ΦΩΤΙΟΣ</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2082</v>
+      </c>
+      <c r="B43" t="str">
+        <v>ΝΟΣΟΚΟΜΕΙΟ ΣΑΜΟΥ</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2097</v>
+      </c>
+      <c r="B44" t="str">
+        <v>SPOT4TONER Ι Κ Ε</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>2099</v>
+      </c>
+      <c r="B45" t="str">
+        <v>ΗΛΙΟΠΟΥΛΟΣ  ΓΕΩΡΓΙΟΣ ΕΥΣΤΑΘΙΟΣ</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>2102</v>
+      </c>
+      <c r="B46" t="str">
+        <v>ΤΑΤΣΗΣ  ΓΕΩΡΓΙΟΣ</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>2109</v>
+      </c>
+      <c r="B47" t="str">
+        <v>ΕΠΙΜΕΛΗΤΗΡΙΟ ΙΩΑΝΝΙΝΩΝ</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>18</v>
+      </c>
+      <c r="B48" t="str">
         <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΕΡΚΥΡΑΣ</v>
-      </c>
-      <c r="C2" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΑΝΑΤΟΛΙΚΗΣ ΑΧΑΪΑΣ</v>
-      </c>
-      <c r="C3" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΒΟΛΟΥ</v>
-      </c>
-      <c r="C4" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="str">
-        <v>ΛΑΒΡΑΝΟΣ  ΧΡΙΣΤΟΔΟΥΛΟΣ ΣΠΥΡΙΔΩΝ</v>
-      </c>
-      <c r="C5" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="str">
-        <v>ΥΠΟΥΡΓΕΙΟ ΔΙΚΑΙΟΣΥΝΗΣ</v>
-      </c>
-      <c r="C6" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΑΡΔΙΤΣΑΣ</v>
-      </c>
-      <c r="C7" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="str">
-        <v>ΔΙΟΙΚ 6ΗΣ ΥΓΕΙΟΝ ΠΕΡΙΦ ΠΕΛΛΟΠ. ΙΩΝΙΩΝ ΔΥ</v>
-      </c>
-      <c r="C8" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΕΝΤΡΟ ΥΓΕΙΑΣ ΛΗΜΝΟΥ</v>
-      </c>
-      <c r="C9" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="str">
-        <v>ΒΡΥΣΗΣ ΙΩΑΝΝΗΣ ΚΑΙ ΣΙΑ ΟΕ</v>
-      </c>
-      <c r="C10" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="str">
-        <v>Γ ΖΑΒΑΝΤΙΑΣ-Χ ΚΑΡΑΦΥΛΛΙΔΗΣ ΟΕ</v>
-      </c>
-      <c r="C11" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="str">
-        <v>ΠΑΡΔΑΣ ΓΕΩΡΓΙΟΣ</v>
-      </c>
-      <c r="C12" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="str">
-        <v>PRIME POWER ΜΟΝΟΠΡΟΣΩΠΗ ΙΚΕ</v>
-      </c>
-      <c r="C13" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="str">
-        <v>ΜΩΡΑΙΤΗ  ΜΑΡΙΑ ΑΘΑΝΑΣΙΟΣ</v>
-      </c>
-      <c r="C14" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="str">
-        <v>ΓΑΒΡΙΗΛΙΔΗΣ  ΑΝΕΣΤΗΣ ΚΩΝΣΤΑΝΤΙΝΟΣ</v>
-      </c>
-      <c r="C15" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="str">
-        <v>ΚΑΝΤΑΡΕΛΗΣ ΗΛΙΑΣ</v>
-      </c>
-      <c r="C16" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="str">
-        <v>ΖΑΡΙΦΗΣ  ΜΙΧΑΗΛ ΓΕΩΡΓΙΟΣ</v>
-      </c>
-      <c r="C17" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="str">
-        <v>Γ.Ν ΙΠΠΟΚΡΑΤΕΙΟ ΘΕΣ/ΝΙΚΗΣ</v>
-      </c>
-      <c r="C18" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="str">
-        <v>ΚΑΚΟΛΥΡΗΣ ΓΡΗΓΟΡΗΣ</v>
-      </c>
-      <c r="C19" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="str">
-        <v>ΧΡΥΣΑΓΗΣ  ΝΙΚΟΛΑΟΣ</v>
-      </c>
-      <c r="C20" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="str">
-        <v>ΕΥΑΓΓΕΛΟΣ ΔΑΝΙΗΛ ΚΑΙ ΣΙΑ ΟΕ</v>
-      </c>
-      <c r="C21" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="str">
-        <v>ΓΕΩΡΓΙΟΣ ΜΠΑΛΗΣ-ΖΗΝΟΒΙΑ ΜΠΑΛΗ ΟΕ</v>
-      </c>
-      <c r="C22" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="str">
-        <v>ΚΙΝΤΩΝΗ  ΠΑΝΑΓΙΩΤΑ</v>
-      </c>
-      <c r="C23" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="str">
-        <v>ΕΛΕΥΘΕΡΙΑΔΗΣ  ΧΑΡΑΛΑΜΠΟΣ</v>
-      </c>
-      <c r="C24" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="str">
-        <v>ΜΑΝΙΟΣ  ΓΕΩΡΓΙΟΣ</v>
-      </c>
-      <c r="C25" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="str">
-        <v>ΤΣΕΡΕΜΕΓΚΛΗΣ  ΠΑΝΑΓΙΩΤΗΣ ΑΝΔΡΕΑΣ</v>
-      </c>
-      <c r="C26" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="str">
-        <v>ΠΑΠΑΙΩΑΝΝΟΥ  ΑΠΟΣΤΟΛΟΣ</v>
-      </c>
-      <c r="C27" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" t="str">
-        <v>ΤΣΑΡΙΔΗΣ  ΓΕΩΡΓΙΟΣ ΕΥΣΤΑΘΙΟΣ</v>
-      </c>
-      <c r="C28" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" t="str">
-        <v>ΓΟΥΛΑΣ  ΓΕΩΡΓΙΟΣ</v>
-      </c>
-      <c r="C29" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΑΧΕΠΑ</v>
-      </c>
-      <c r="C30" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" t="str">
-        <v>ΣΑΜΑΡΑ  ΚΑΛΛΙΟΠΗ</v>
-      </c>
-      <c r="C31" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" t="str">
-        <v>CC-LIT Α.Ε.</v>
-      </c>
-      <c r="C32" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΗΛΕΙΑΣ</v>
-      </c>
-      <c r="C33" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΟΡΙΝΘΟΥ</v>
-      </c>
-      <c r="C34" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="str">
-        <v>1η ΥΠΕ - ΓΕΝ. ΟΓΚΟΛΟΓΙΚΟ ΝΟΣΟΚΟΜΕΙΟ</v>
-      </c>
-      <c r="C35" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="str">
-        <v>Γ.ΝΟΣΟΚ. ΑΤΤΙΚΗΣ ΣΙΣΜΑΝΟΓΛΕΙΟ</v>
-      </c>
-      <c r="C36" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="str">
-        <v>ΕΦΚΑ - ΕΝΙΑΙΟΣ ΦΟΡΕΑΣ ΚΟΙΝΩΝΙΚΗΣ ΑΣΦΑΛΙΣ</v>
-      </c>
-      <c r="C37" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΠΕΛΛΑΣ</v>
-      </c>
-      <c r="C38" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΛΑΚΩΝΙΑΣ</v>
-      </c>
-      <c r="C39" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" t="str">
-        <v>ΕΘΝΙΚΟΣ ΟΡΓΑΝΙΣΜΟΣ ΜΕΤΑΜΟΣΧΕΥΣΕΩΝ</v>
-      </c>
-      <c r="C40" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="str">
-        <v>Γ. ΠΑΠΑΝΙΚΟΛΑΟΥ ΝΟΣΟΚΟΜΕΙΟ ΘΕΣ/ΝΙΚΗΣ</v>
-      </c>
-      <c r="C41" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" t="str">
-        <v>ΠΑΠΑΒΑΣΙΛΕΙΟΥ  ΓΕΩΡΓΙΟΣ</v>
-      </c>
-      <c r="C42" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="str">
-        <v>ΒΑΣΙΛΕΙΟΥ  ΦΩΤΙΟΣ</v>
-      </c>
-      <c r="C43" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" t="str">
-        <v>ΝΟΣΟΚΟΜΕΙΟ ΣΑΜΟΥ</v>
-      </c>
-      <c r="C44" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="str">
-        <v>SPOT4TONER Ι Κ Ε</v>
-      </c>
-      <c r="C45" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="str">
-        <v>ΗΛΙΟΠΟΥΛΟΣ  ΓΕΩΡΓΙΟΣ ΕΥΣΤΑΘΙΟΣ</v>
-      </c>
-      <c r="C46" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="str">
-        <v>ΤΑΤΣΗΣ  ΓΕΩΡΓΙΟΣ</v>
-      </c>
-      <c r="C47" t="str">
-        <v>noemail</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" t="str">
-        <v>ΕΠΙΜΕΛΗΤΗΡΙΟ ΙΩΑΝΝΙΝΩΝ</v>
-      </c>
-      <c r="C48" t="str">
-        <v>noemail</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +795,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Couriers"/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -826,21 +826,6 @@
         <v>ΕΛΤΑ COURIER</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Courieras</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>Blurbos</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>adidas</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -848,7 +833,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Products"/>
-  <dimension ref="A1:B785"/>
+  <dimension ref="A1:B784"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -863,6274 +848,6266 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>GPD-0001</v>
+        <v>GPT-0515</v>
       </c>
       <c r="B2" t="str">
-        <v>OKI DRUM B410/420/430/440/MB460/470/480 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER X340/ X342 X340A11G BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>GPD-0002</v>
+        <v>GPT-0516</v>
       </c>
       <c r="B3" t="str">
-        <v>OKI DRUM B411/431/461/471/491 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER 2300 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>GPD-0003</v>
+        <v>GPT-0517</v>
       </c>
       <c r="B4" t="str">
-        <v>SAMSUNG DRUM R116 BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER 2300 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>GPD-0004</v>
+        <v>GPT-0518</v>
       </c>
       <c r="B5" t="str">
-        <v>OKI DRUM B4400/4500/4550/4600 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER 2300 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>GPD-0005</v>
+        <v>GPT-0519</v>
       </c>
       <c r="B6" t="str">
-        <v>PANASONIC DRUM FAD412 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER 2300 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>GPD-0006</v>
+        <v>GPT-0520</v>
       </c>
       <c r="B7" t="str">
-        <v>PANASONIC DRUM FAD84X BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q7516A BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>GPD-0007</v>
+        <v>GPT-0521</v>
       </c>
       <c r="B8" t="str">
-        <v>PANASONIC DRUM FAD93X BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q2613X BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>GPD-0008</v>
+        <v>GPT-0522</v>
       </c>
       <c r="B9" t="str">
-        <v>PANASONIC DRUM FAD89X BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER D1320 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>GPD-0009</v>
+        <v>GPT-0523</v>
       </c>
       <c r="B10" t="str">
-        <v>LEXMARK DRUM CE250/450 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER D1320 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>GPD-0010</v>
+        <v>GPT-0524</v>
       </c>
       <c r="B11" t="str">
-        <v>XEROX DRUM 3215/3260 - 101R00474 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER 4650EN/4650DN BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>GPD-0012</v>
+        <v>GPT-0525</v>
       </c>
       <c r="B12" t="str">
-        <v>HP DRUM CB384A BLACK ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER 4650EN/4650DN CYAN ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>GPD-0013</v>
+        <v>GPT-0526</v>
       </c>
       <c r="B13" t="str">
-        <v>BROTHER DRUM DR570/DR3000/DR6000/DR7000 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER 4650EN/4650DN MAGENTA ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>GPD-0014</v>
+        <v>GPT-0527</v>
       </c>
       <c r="B14" t="str">
-        <v>BROTHER DRUM B720/DR3300/3350/51J BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER 4650EN/4650DN YELLOW ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>GPD-0015</v>
+        <v>GPT-0528</v>
       </c>
       <c r="B15" t="str">
-        <v>BROTHER DRUM DR2000/DR350/DR2005 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>CANON TONER E30 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>GPD-0016</v>
+        <v>GPT-0529</v>
       </c>
       <c r="B16" t="str">
-        <v>BROTHER DRUM DR2120/DR360/DR2100 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER C4127X BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>GPD-0017</v>
+        <v>GPT-0530</v>
       </c>
       <c r="B17" t="str">
-        <v>BROTHER DRUM DR2220/DR450/DR2200/DR2255 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER BK C3100/3000/3200/5100/5150/5200/5300/5400/5510 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>GPD-0018</v>
+        <v>GPT-0531</v>
       </c>
       <c r="B18" t="str">
-        <v>BROTHER DRUM DR1050 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C C3100/3000/3200/5100/5150/5200/5300/5400/5510 CYAN ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>GPD-0019</v>
+        <v>GPT-0532</v>
       </c>
       <c r="B19" t="str">
-        <v>BROTHER DRUM DR2300/DR630 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER M C3100/3000/3200/5100/5150/5200/5300/5400/5510 MAGENTA ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>GPD-0020</v>
+        <v>GPT-0533</v>
       </c>
       <c r="B20" t="str">
-        <v>BROTHER DRUM DR3100/DR3200/DR3170/DR3280/DR580/DR520 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER Y C3100/3000/3200/5100/5150/5200/5300/5400/5510 YELLOW ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>GPD-0021</v>
+        <v>GPT-0535</v>
       </c>
       <c r="B21" t="str">
-        <v>HP DRUM 164A - CE314A CP1025 BLACK ΣΥΜΒΑΤΟ 14000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B432 BLACK ΣΥΜΒΑΤΟ 12000  ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>GPD-0022</v>
+        <v>GPT-0536</v>
       </c>
       <c r="B22" t="str">
-        <v>BROTHER DRUM DR130 BLACK ΣΥΜΒΑΤΟ 17000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT - D111XL BLACK ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>GPD-0023</v>
+        <v>GPT-0537</v>
       </c>
       <c r="B23" t="str">
-        <v>LEXMARK DRUM DR8302/DR230/DELL1700/D4283 BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER E360 BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>GPD-0024</v>
+        <v>GPT-0538</v>
       </c>
       <c r="B24" t="str">
-        <v>OKI DRUM 5500/C5800 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK140 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>GPD-0025</v>
+        <v>GPT-0539</v>
       </c>
       <c r="B25" t="str">
-        <v>OKI DRUM 5500/C5800 CYAN ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER X264 / X364X BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>GPD-0026</v>
+        <v>DTS-0017</v>
       </c>
       <c r="B26" t="str">
-        <v>OKI DRUM 5500/C5800 MAGENTA ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC TONER KX-FAT88X/92X/411X ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>GPD-0027</v>
+        <v>DTS-0018</v>
       </c>
       <c r="B27" t="str">
-        <v>OKI DRUM 5500/C5800 YELLOW ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER MS310 - 50F2H00 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>GPD-0028</v>
+        <v>DTS-0019</v>
       </c>
       <c r="B28" t="str">
-        <v>LEXMARK DRUM E260 BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
+        <v>ΣΥΜΒΑΤΗ ΜΕΛΑΝΟΤΑΙΝΙΑ EPSON ERC-32B BLACK</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>GPD-0029</v>
+        <v>DTS-0025</v>
       </c>
       <c r="B29" t="str">
-        <v>OKI DRUM B401/MB441/MB451 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK 79XL - T7894XXL YELLOW ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>GPD-0030</v>
+        <v>DTS-0026</v>
       </c>
       <c r="B30" t="str">
-        <v>LEXMARK DRUM E120 12026XW BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3315/3325 - 106R02311 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>GPD-0031</v>
+        <v>HEL-0255</v>
       </c>
       <c r="B31" t="str">
-        <v>SAMSUNG DRUM CLT 407DR / 409DR BLACK ΣΥΜΒΑΤΟ 24000 ΣΕΛΙΔΕΣ</v>
+        <v>CITIZEN RIBBON 3000025 GSX145 BLACK ΣΥΜΒΑΤΗ 17 m</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>GPI-0002</v>
+        <v>TON-0551</v>
       </c>
       <c r="B32" t="str">
-        <v>EPSON INK T0712/T0892 CYAN ΣΥΜΒΑΤΟ 14ml</v>
+        <v>LEXMARK T650 - T650H11E REBUILT BLACK 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>GPI-0003</v>
+        <v>GPI-0019</v>
       </c>
       <c r="B33" t="str">
-        <v>EPSON INK T0713/T0893 MAGENTA ΣΥΜΒΑΤΟ 14ml</v>
+        <v>EPSON INK No 26XL - T2621XL BLACK ΣΥΜΒΑΤΟ 22ml</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>GPI-0004</v>
+        <v>GPI-0021</v>
       </c>
       <c r="B34" t="str">
-        <v>EPSON INK T0714/T0894 YELLOW ΣΥΜΒΑΤΟ 14ml</v>
+        <v>EPSON INK No 26XL - T2632XL CYAN ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>GPI-0005</v>
+        <v>GPI-0024</v>
       </c>
       <c r="B35" t="str">
-        <v>EPSON INK T0801 BLACK ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP INK No 363XL - C8721 BLACK ΣΥΜΒΑΤΟ 35ml</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>GPI-0006</v>
+        <v>GPI-0027</v>
       </c>
       <c r="B36" t="str">
-        <v>EPSON INK T0802 CYAN ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP INK No 363XL - C8771E CYAN ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>GPI-0007</v>
+        <v>GPI-0028</v>
       </c>
       <c r="B37" t="str">
-        <v>EPSON INK T0803 MAGENTA ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP INK No 363XL - C8772E MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>GPI-0008</v>
+        <v>GPI-0029</v>
       </c>
       <c r="B38" t="str">
-        <v>EPSON INK T0804 YELLOW ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP INK No 363XL - C8773E YELLOW ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>GPI-0009</v>
+        <v>GPI-0030</v>
       </c>
       <c r="B39" t="str">
-        <v>EPSON INK T0805 LIGHT CYAN ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP INK No 932XL - CN053AA BLACK ΣΥΜΒΑΤΟ 32ml</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>GPI-0010</v>
+        <v>GPI-0031</v>
       </c>
       <c r="B40" t="str">
-        <v>EPSON INK T0806 LIGHT MAGENTA ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP INK No 933XL - CN054AA CYAN ΣΥΜΒΑΤΟ 16ml</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>GPI-0011</v>
+        <v>GPI-0032</v>
       </c>
       <c r="B41" t="str">
-        <v>EPSON INK T01281 BLACK ΣΥΜΒΑΤΟ 10.5ml</v>
+        <v>HP INK No 933XL - CN055AA MAGENTA ΣΥΜΒΑΤΟ 16ml</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>GPI-0012</v>
+        <v>GPI-0033</v>
       </c>
       <c r="B42" t="str">
-        <v>EPSON INK T01282 CYAN ΣΥΜΒΑΤΟ 8ml</v>
+        <v>HP INK No 933XL - CN056AA YELLOW ΣΥΜΒΑΤΟ 16ml</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>GPI-0013</v>
+        <v>GPI-0034</v>
       </c>
       <c r="B43" t="str">
-        <v>EPSON INK T01283 MAGENTA ΣΥΜΒΑΤΟ 8ml</v>
+        <v>HP INK No 21XL - C9351A  BLACK ΣΥΜΒΑΤΟ 22ml</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>GPI-0014</v>
+        <v>GPI-0035</v>
       </c>
       <c r="B44" t="str">
-        <v>EPSON INK T01284 YELLOW ΣΥΜΒΑΤΟ 8ml</v>
+        <v>HP INK No 22XL - C9352C COLOR ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>GPI-0015</v>
+        <v>GPI-0036</v>
       </c>
       <c r="B45" t="str">
-        <v>EPSON INK T01811 BLACK ΣΥΜΒΑΤΟ 14ml</v>
+        <v>HP INK No 901XL - CC654A BLACK ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>GPI-0016</v>
+        <v>GPI-0038</v>
       </c>
       <c r="B46" t="str">
-        <v>EPSON INK T01812 CYAN ΣΥΜΒΑΤΟ 10ml</v>
+        <v>HP INK No 301XL - CH564EE COLOR ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>GPI-0017</v>
+        <v>GPI-0040</v>
       </c>
       <c r="B47" t="str">
-        <v>EPSON INK T01813 MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
+        <v>HP INK No 300XL - CC641EE BLACK ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>GPI-0018</v>
+        <v>GPI-0041</v>
       </c>
       <c r="B48" t="str">
-        <v>EPSON INK T01814 YELLOW ΣΥΜΒΑΤΟ 10ml</v>
+        <v>HP INK No 300XL - CC644EE COLOR ΣΥΜΒΑΤΟ 21 ml</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>GPI-0019</v>
+        <v>GPI-0042</v>
       </c>
       <c r="B49" t="str">
-        <v>EPSON INK No 26XL - T2621XL BLACK ΣΥΜΒΑΤΟ 22ml</v>
+        <v>EPSON INK T01291 BLACK ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>GPI-0020</v>
+        <v>GPI-0043</v>
       </c>
       <c r="B50" t="str">
-        <v>EPSON INK No 26XL - T2631XL PHOTO BLACK ΣΥΜΒΑΤΟ 10ml -</v>
+        <v>EPSON INK T01292 CYAN ΣΥΜΒΑΤΟ 12ml</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>GPI-0021</v>
+        <v>GPI-0044</v>
       </c>
       <c r="B51" t="str">
-        <v>EPSON INK No 26XL - T2632XL CYAN ΣΥΜΒΑΤΟ 10ml</v>
+        <v>EPSON INK T01293 MAGENTA ΣΥΜΒΑΤΟ 12ml</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>GPI-0022</v>
+        <v>GPI-0045</v>
       </c>
       <c r="B52" t="str">
-        <v>EPSON INK No 26XL - T2633XL MAGENTA  ΣΥΜΒΑΤΟ 10ml</v>
+        <v>EPSON INK T01294 YELLOW ΣΥΜΒΑΤΟ 12ml</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>GPI-0023</v>
+        <v>GPI-0046</v>
       </c>
       <c r="B53" t="str">
-        <v>EPSON INK No 26XL - T2634XL YELLOW ΣΥΜΒΑΤΟ 10ml</v>
+        <v>HP INK No 301XL - CH563EE BLACK ΣΥΜΒΑΤΟ 16ml</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>GPI-0024</v>
+        <v>GPI-0047</v>
       </c>
       <c r="B54" t="str">
-        <v>HP INK No 363XL - C8721 BLACK ΣΥΜΒΑΤΟ 35ml</v>
+        <v>HP INK No  350XL - CB336EE BLACK ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>GPI-0025</v>
+        <v>GPI-0049</v>
       </c>
       <c r="B55" t="str">
-        <v>HP INK No 363XL - C8774E LIGHT CYAN ΣΥΜΒΑΤΟ 13ml</v>
+        <v>HP INK No 57 - C6657A COLOR ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>GPI-0026</v>
+        <v>GPI-0050</v>
       </c>
       <c r="B56" t="str">
-        <v>HP INK No 363XL - C8775E LIGHT MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
+        <v>HP INK No 27 - C8727A ΒLACΚ ΣΥΜΒΑΤΟ 17ml</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>GPI-0027</v>
+        <v>GPI-0051</v>
       </c>
       <c r="B57" t="str">
-        <v>HP INK No 363XL - C8771E CYAN ΣΥΜΒΑΤΟ 13ml</v>
+        <v>CANON INK PG-40 BLACK ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>GPI-0028</v>
+        <v>GPI-0052</v>
       </c>
       <c r="B58" t="str">
-        <v>HP INK No 363XL - C8772E MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
+        <v>CANON INK PG-550XL BLACK ΣΥΜΒΑΤΟ 25ml</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>GPI-0029</v>
+        <v>GPI-0053</v>
       </c>
       <c r="B59" t="str">
-        <v>HP INK No 363XL - C8773E YELLOW ΣΥΜΒΑΤΟ 13ml</v>
+        <v>CANON INK CLI-551XL CYAN ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>GPI-0030</v>
+        <v>GPI-0054</v>
       </c>
       <c r="B60" t="str">
-        <v>HP INK No 932XL - CN053AA BLACK ΣΥΜΒΑΤΟ 32ml</v>
+        <v>CANON INK CLI-551XL YELLOW ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>GPI-0031</v>
+        <v>GPI-0055</v>
       </c>
       <c r="B61" t="str">
-        <v>HP INK No 933XL - CN054AA CYAN ΣΥΜΒΑΤΟ 16ml</v>
+        <v>CANON INK CLI-551XL MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>GPI-0032</v>
+        <v>GPI-0056</v>
       </c>
       <c r="B62" t="str">
-        <v>HP INK No 933XL - CN055AA MAGENTA ΣΥΜΒΑΤΟ 16ml</v>
+        <v>HP INK No 940XL - 4906 BLACK ΣΥΜΒΑΤΟ 69ml</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>GPI-0033</v>
+        <v>GPI-0057</v>
       </c>
       <c r="B63" t="str">
-        <v>HP INK No 933XL - CN056AA YELLOW ΣΥΜΒΑΤΟ 16ml</v>
+        <v>HP INK No 940XL - 4907  CYAN ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>GPI-0034</v>
+        <v>GPI-0058</v>
       </c>
       <c r="B64" t="str">
-        <v>HP INK No 21XL - C9351A  BLACK ΣΥΜΒΑΤΟ 22ml</v>
+        <v>HP INK No 940XL - 4909 YELLOW ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>GPI-0035</v>
+        <v>GPI-0059</v>
       </c>
       <c r="B65" t="str">
-        <v>HP INK No 22XL - C9352C COLOR ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 940XL - 4908 MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>GPI-0036</v>
+        <v>GPI-0060</v>
       </c>
       <c r="B66" t="str">
-        <v>HP INK No 901XL - CC654A BLACK ΣΥΜΒΑΤΟ 20ml</v>
+        <v>HP INK No 950XL - CN045A BLACK ΣΥΜΒΑΤΟ 75ml</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>GPI-0038</v>
+        <v>GPI-0061</v>
       </c>
       <c r="B67" t="str">
-        <v>HP INK No 301XL - CH564EE COLOR ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 951XL - CN046A CYAN ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>GPI-0040</v>
+        <v>GPI-0062</v>
       </c>
       <c r="B68" t="str">
-        <v>HP INK No 300XL - CC641EE BLACK ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 951XL - CN047A MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>GPI-0041</v>
+        <v>GPI-0063</v>
       </c>
       <c r="B69" t="str">
-        <v>HP INK No 300XL - CC644EE COLOR ΣΥΜΒΑΤΟ 21 ml</v>
+        <v>HP INK No 951XL - CN048A YELLOW ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>GPI-0042</v>
+        <v>GPI-0064</v>
       </c>
       <c r="B70" t="str">
-        <v>EPSON INK T01291 BLACK ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP INK No 655XL - BLACK ΣΥΜΒΑΤΟ 30ml</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>GPI-0043</v>
+        <v>GPI-0065</v>
       </c>
       <c r="B71" t="str">
-        <v>EPSON INK T01292 CYAN ΣΥΜΒΑΤΟ 12ml</v>
+        <v>HP INK No 655XL CYAN ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>GPI-0044</v>
+        <v>GPI-0066</v>
       </c>
       <c r="B72" t="str">
-        <v>EPSON INK T01293 MAGENTA ΣΥΜΒΑΤΟ 12ml</v>
+        <v>HP INK No 655XL MAGENTA ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>GPI-0045</v>
+        <v>GPI-0067</v>
       </c>
       <c r="B73" t="str">
-        <v>EPSON INK T01294 YELLOW ΣΥΜΒΑΤΟ 12ml</v>
+        <v>HP INK No 655XL YELLOW ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>GPI-0046</v>
+        <v>GPI-0069</v>
       </c>
       <c r="B74" t="str">
-        <v>HP INK No 301XL - CH563EE BLACK ΣΥΜΒΑΤΟ 16ml</v>
+        <v>CANON INK CL-541XL COLOR ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>GPI-0047</v>
+        <v>GPI-0070</v>
       </c>
       <c r="B75" t="str">
-        <v>HP INK No  350XL - CB336EE BLACK ΣΥΜΒΑΤΟ 28ml</v>
+        <v>HP INK No 934XL - C2P19AA BLACK ΣΥΜΒΑΤΟ 55ml</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>GPI-0049</v>
+        <v>GPI-0071</v>
       </c>
       <c r="B76" t="str">
-        <v>HP INK No 57 - C6657A COLOR ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 935XL - C2P20AA CYAN ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>GPI-0050</v>
+        <v>GPI-0073</v>
       </c>
       <c r="B77" t="str">
-        <v>HP INK No 27 - C8727A ΒLACΚ ΣΥΜΒΑΤΟ 17ml</v>
+        <v>HP INK No 935XL - C2P22AA YELLOW ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>GPI-0051</v>
+        <v>GPI-0074</v>
       </c>
       <c r="B78" t="str">
-        <v>CANON INK PG-40 BLACK ΣΥΜΒΑΤΟ 18ml</v>
+        <v>CANON INK PGI-525 BLACK ΣΥΜΒΑΤΟ 21ml</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>GPI-0052</v>
+        <v>GPI-0075</v>
       </c>
       <c r="B79" t="str">
-        <v>CANON INK PG-550XL BLACK ΣΥΜΒΑΤΟ 25ml</v>
+        <v>CANON INK CLI-526 CYAN ΣΥΜΒΑΤΟ 11ml</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>GPI-0053</v>
+        <v>GPI-0076</v>
       </c>
       <c r="B80" t="str">
-        <v>CANON INK CLI-551XL CYAN ΣΥΜΒΑΤΟ 13ml</v>
+        <v>CANON INK CLI-526 MAGENTA ΣΥΜΒΑΤΟ 11ml</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>GPI-0054</v>
+        <v>GPI-0077</v>
       </c>
       <c r="B81" t="str">
-        <v>CANON INK CLI-551XL YELLOW ΣΥΜΒΑΤΟ 13ml</v>
+        <v>CANON INK CLI-526 YELLOW ΣΥΜΒΑΤΟ 11ml</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>GPI-0055</v>
+        <v>GPI-0079</v>
       </c>
       <c r="B82" t="str">
-        <v>CANON INK CLI-551XL MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
+        <v>HP INK No 351XL - CB338EE COLOR ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>GPI-0056</v>
+        <v>GPI-0082</v>
       </c>
       <c r="B83" t="str">
-        <v>HP INK No 940XL - 4906 BLACK ΣΥΜΒΑΤΟ 69ml</v>
+        <v>CANON INK PGI-520 BLACK ΣΥΜΒΑΤΟ 21ml</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>GPI-0057</v>
+        <v>GPI-0083</v>
       </c>
       <c r="B84" t="str">
-        <v>HP INK No 940XL - 4907  CYAN ΣΥΜΒΑΤΟ 28ml</v>
+        <v>CANON INK CLI-521 BLACK ΣΥΜΒΑΤΟ 11ml</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>GPI-0058</v>
+        <v>GPI-0084</v>
       </c>
       <c r="B85" t="str">
-        <v>HP INK No 940XL - 4909 YELLOW ΣΥΜΒΑΤΟ 28ml</v>
+        <v>CANON INK CLI-521 CYAN ΣΥΜΒΑΤΟ 11ml</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>GPI-0059</v>
+        <v>GPI-0085</v>
       </c>
       <c r="B86" t="str">
-        <v>HP INK No 940XL - 4908 MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
+        <v>CANON INK CLI-521 MAGENTA ΣΥΜΒΑΤΟ 11ml</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>GPI-0060</v>
+        <v>GPI-0086</v>
       </c>
       <c r="B87" t="str">
-        <v>HP INK No 950XL - CN045A BLACK ΣΥΜΒΑΤΟ 75ml</v>
+        <v>CANON INK CLI-521 YELLOW ΣΥΜΒΑΤΟ 11ml</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>GPI-0061</v>
+        <v>GPI-0088</v>
       </c>
       <c r="B88" t="str">
-        <v>HP INK No 951XL - CN046A CYAN ΣΥΜΒΑΤΟ 28ml</v>
+        <v>HP INK No 21XL - C9351C BLACK ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>GPI-0062</v>
+        <v>GPI-0091</v>
       </c>
       <c r="B89" t="str">
-        <v>HP INK No 951XL - CN047A MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
+        <v>HP INK No 78 - 6578D COLOR ΣΥΜΒΑΤΟ 48ml</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>GPI-0063</v>
+        <v>GPI-0093</v>
       </c>
       <c r="B90" t="str">
-        <v>HP INK No 951XL - CN048A YELLOW ΣΥΜΒΑΤΟ 28ml</v>
+        <v>CANON INK CL-41 COLOR ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>GPI-0064</v>
+        <v>GPI-0094</v>
       </c>
       <c r="B91" t="str">
-        <v>HP INK No 655XL - BLACK ΣΥΜΒΑΤΟ 30ml</v>
+        <v>HP INK No 364XL - CN684EE BLACK ΣΥΜΒΑΤΟ 26 ml</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>GPI-0065</v>
+        <v>GPI-0095</v>
       </c>
       <c r="B92" t="str">
-        <v>HP INK No 655XL CYAN ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 364XL - CB323E CYAN ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>GPI-0066</v>
+        <v>GPI-0096</v>
       </c>
       <c r="B93" t="str">
-        <v>HP INK No 655XL MAGENTA ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 364XL - CB324E MAGENTA ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>GPI-0067</v>
+        <v>GPI-0097</v>
       </c>
       <c r="B94" t="str">
-        <v>HP INK No 655XL YELLOW ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 364XL - CB325E YELLOW ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>GPI-0068</v>
+        <v>GPI-0099</v>
       </c>
       <c r="B95" t="str">
-        <v>CANON INK PG-540XL ΜΑΥΡΟ ΣΥΜΒΑΤΟ 600 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 343 - C8766E COLOR ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>GPI-0069</v>
+        <v>GPI-0100</v>
       </c>
       <c r="B96" t="str">
-        <v>CANON INK CL-541XL COLOR ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP INK No 339 - C8767 BLACK ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>GPI-0070</v>
+        <v>GPI-0105</v>
       </c>
       <c r="B97" t="str">
-        <v>HP INK No 934XL - C2P19AA BLACK ΣΥΜΒΑΤΟ 55ml</v>
+        <v>EPSON INK T0711/T0891 BLACK ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>GPI-0071</v>
+        <v>GPI-0108</v>
       </c>
       <c r="B98" t="str">
-        <v>HP INK No 935XL - C2P20AA CYAN ΣΥΜΒΑΤΟ 18ml</v>
+        <v>LEXMARK INK No 100XL BLACK ΣΥΜΒΑΤΟ 22ml</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>GPI-0072</v>
+        <v>GPI-0109</v>
       </c>
       <c r="B99" t="str">
-        <v>HP INK No 935XL - C2P21AA MAGENTA ΣΥΜΒΑΤΟ  18ml</v>
+        <v>LEXMARK INK No 100XL CYAN ΣΥΜΒΑΤΟ 12ml</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>GPI-0073</v>
+        <v>GPI-0110</v>
       </c>
       <c r="B100" t="str">
-        <v>HP INK No 935XL - C2P22AA YELLOW ΣΥΜΒΑΤΟ 18ml</v>
+        <v>LEXMARK INK No 100XL MAGENTA ΣΥΜΒΑΤΟ 12ml</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>GPI-0074</v>
+        <v>GPI-0111</v>
       </c>
       <c r="B101" t="str">
-        <v>CANON INK PGI-525 BLACK ΣΥΜΒΑΤΟ 21ml</v>
+        <v>LEXMARK INK No 100XL YELLOW ΣΥΜΒΑΤΟ 12ml</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>GPI-0075</v>
+        <v>GPI-0112</v>
       </c>
       <c r="B102" t="str">
-        <v>CANON INK CLI-526 CYAN ΣΥΜΒΑΤΟ 11ml</v>
+        <v>CANON INK PG-512 BLACK ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>GPI-0076</v>
+        <v>GPI-0116</v>
       </c>
       <c r="B103" t="str">
-        <v>CANON INK CLI-526 MAGENTA ΣΥΜΒΑΤΟ 11ml</v>
+        <v>HP INK No 336XL - C9362E BLACK ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>GPI-0077</v>
+        <v>GPI-0117</v>
       </c>
       <c r="B104" t="str">
-        <v>CANON INK CLI-526 YELLOW ΣΥΜΒΑΤΟ 11ml</v>
+        <v>HP INK No 337 - C9364E BLACK ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>GPI-0079</v>
+        <v>GPI-0118</v>
       </c>
       <c r="B105" t="str">
-        <v>HP INK No 351XL - CB338EE COLOR ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 344 - C9363E COLOR ΣΥΜΒΑΤΟ 18 ml</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>GPI-0082</v>
+        <v>GPI-0119</v>
       </c>
       <c r="B106" t="str">
-        <v>CANON INK PGI-520 BLACK ΣΥΜΒΑΤΟ 21ml</v>
+        <v>EPSON INK T0551 BLACK ΣΥΜΒΑΤΟ 13.5ml</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>GPI-0083</v>
+        <v>GPI-0120</v>
       </c>
       <c r="B107" t="str">
-        <v>CANON INK CLI-521 BLACK ΣΥΜΒΑΤΟ 11ml</v>
+        <v>EPSON INK T0552 CYAN ΣΥΜΒΑΤΟ 13.5ml</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>GPI-0084</v>
+        <v>GPI-0121</v>
       </c>
       <c r="B108" t="str">
-        <v>CANON INK CLI-521 CYAN ΣΥΜΒΑΤΟ 11ml</v>
+        <v>EPSON INK T0553 MAGENTA ΣΥΜΒΑΤΟ 13.5ml</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>GPI-0085</v>
+        <v>GPI-0122</v>
       </c>
       <c r="B109" t="str">
-        <v>CANON INK CLI-521 MAGENTA ΣΥΜΒΑΤΟ 11ml</v>
+        <v>EPSON INK T0554 YELLOW ΣΥΜΒΑΤΟ 13.5ml</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>GPI-0086</v>
+        <v>GPI-0123</v>
       </c>
       <c r="B110" t="str">
-        <v>CANON INK CLI-521 YELLOW ΣΥΜΒΑΤΟ 11ml</v>
+        <v>EPSON INK T2431XL BLACK ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>GPI-0087</v>
+        <v>GPI-0124</v>
       </c>
       <c r="B111" t="str">
-        <v>SAMSUNG INK M41/SF370/371/375TP BLACK ΣΥΜΒΑΤΟ 17ml</v>
+        <v>EPSON INK T2432XL CYAN ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>GPI-0088</v>
+        <v>GPI-0125</v>
       </c>
       <c r="B112" t="str">
-        <v>HP INK No 21XL - C9351C BLACK ΣΥΜΒΑΤΟ 18ml</v>
+        <v>EPSON INK T2433XL MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>GPI-0091</v>
+        <v>GPI-0126</v>
       </c>
       <c r="B113" t="str">
-        <v>HP INK No 78 - 6578D COLOR ΣΥΜΒΑΤΟ 48ml</v>
+        <v>EPSON INK T2434XL YELLOW ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>GPI-0093</v>
+        <v>GPI-0127</v>
       </c>
       <c r="B114" t="str">
-        <v>CANON INK CL-41 COLOR ΣΥΜΒΑΤΟ 15ml</v>
+        <v>CANON INK CLI-551XL BLACK ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>GPI-0094</v>
+        <v>GPI-0128</v>
       </c>
       <c r="B115" t="str">
-        <v>HP INK No 364XL - CN684EE BLACK ΣΥΜΒΑΤΟ 26 ml</v>
+        <v>HP INK No 23 - C1823D COLOR ΣΥΜΒΑΤΟ 38ml</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>GPI-0095</v>
+        <v>GPI-0129</v>
       </c>
       <c r="B116" t="str">
-        <v>HP INK No 364XL - CB323E CYAN ΣΥΜΒΑΤΟ 15ml</v>
+        <v>LEXMARK INK No 16 - 10N0016 BLACK ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>GPI-0096</v>
+        <v>GPI-0130</v>
       </c>
       <c r="B117" t="str">
-        <v>HP INK No 364XL - CB324E MAGENTA ΣΥΜΒΑΤΟ 15ml</v>
+        <v>LEXMARK INK No 26 - 10N0026 COLOR ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>GPI-0097</v>
+        <v>GPI-0131</v>
       </c>
       <c r="B118" t="str">
-        <v>HP INK No 364XL - CB325E YELLOW ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP INK No 342XL - C9361 COLOR ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>GPI-0099</v>
+        <v>GPI-0132</v>
       </c>
       <c r="B119" t="str">
-        <v>HP INK No 343 - C8766E COLOR ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 88XL - C9396A BLACK ΣΥΜΒΑΤΟ 69ml</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>GPI-0100</v>
+        <v>GPI-0133</v>
       </c>
       <c r="B120" t="str">
-        <v>HP INK No 339 - C8767 BLACK ΣΥΜΒΑΤΟ 28ml</v>
+        <v>HP INK No 88XL - C9391A CYAN ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>GPI-0105</v>
+        <v>GPI-0134</v>
       </c>
       <c r="B121" t="str">
-        <v>EPSON INK T0711/T0891 BLACK ΣΥΜΒΑΤΟ 14ml</v>
+        <v>HP INK No 88XL -  C9392A MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>GPI-0108</v>
+        <v>GPI-0135</v>
       </c>
       <c r="B122" t="str">
-        <v>LEXMARK INK No 100XL BLACK ΣΥΜΒΑΤΟ 22ml</v>
+        <v>HP INK No 88XL - C9393A YELLOW ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>GPI-0109</v>
+        <v>GPI-0136</v>
       </c>
       <c r="B123" t="str">
-        <v>LEXMARK INK No 100XL CYAN ΣΥΜΒΑΤΟ 12ml</v>
+        <v>BROTHER INK LC1240 BLACK ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>GPI-0110</v>
+        <v>GPI-0137</v>
       </c>
       <c r="B124" t="str">
-        <v>LEXMARK INK No 100XL MAGENTA ΣΥΜΒΑΤΟ 12ml</v>
+        <v>BROTHER INK LC1240 CYAN ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>GPI-0111</v>
+        <v>GPI-0138</v>
       </c>
       <c r="B125" t="str">
-        <v>LEXMARK INK No 100XL YELLOW ΣΥΜΒΑΤΟ 12ml</v>
+        <v>BROTHER INK LC1240 MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>GPI-0112</v>
+        <v>GPI-0139</v>
       </c>
       <c r="B126" t="str">
-        <v>CANON INK PG-512 BLACK ΣΥΜΒΑΤΟ 14ml</v>
+        <v>BROTHER INK LC1240 YELLOW ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>GPI-0113</v>
+        <v>GPI-0140</v>
       </c>
       <c r="B127" t="str">
-        <v>LEXMARK INK No 23 - 18C1523 BLACK ΣΥΜΒΑΤΟ  21ml</v>
+        <v>HP INK No 302XL - F6U68AE BLACK ΣΥΜΒΑΤΟ 21ml</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>GPI-0116</v>
+        <v>GPI-0141</v>
       </c>
       <c r="B128" t="str">
-        <v>HP INK No 336XL - C9362E BLACK ΣΥΜΒΑΤΟ 20ml</v>
+        <v>HP INK No 302XL - F6U67AE COLOR ΣΥΜΒΑΤΟ 22ml</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>GPI-0117</v>
+        <v>GPI-0142</v>
       </c>
       <c r="B129" t="str">
-        <v>HP INK No 337 - C9364E BLACK ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 348 - C9369E COLOR ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>GPI-0118</v>
+        <v>GPI-0143</v>
       </c>
       <c r="B130" t="str">
-        <v>HP INK No 344 - C9363E COLOR ΣΥΜΒΑΤΟ 18 ml</v>
+        <v>HP INK No 920XL - CD972AN CYAN ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>GPI-0119</v>
+        <v>GPI-0144</v>
       </c>
       <c r="B131" t="str">
-        <v>EPSON INK T0551 BLACK ΣΥΜΒΑΤΟ 13.5ml</v>
+        <v>HP INK No 920XL - CD973AN MAGENTA ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>GPI-0120</v>
+        <v>GPI-0145</v>
       </c>
       <c r="B132" t="str">
-        <v>EPSON INK T0552 CYAN ΣΥΜΒΑΤΟ 13.5ml</v>
+        <v>HP INK No 920XL - CD974AN YELLOW ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>GPI-0121</v>
+        <v>GPI-0146</v>
       </c>
       <c r="B133" t="str">
-        <v>EPSON INK T0553 MAGENTA ΣΥΜΒΑΤΟ 13.5ml</v>
+        <v>HP INK No 920XXL - CD975AN BLACK ΣΥΜΒΑΤΟ 55ml</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>GPI-0122</v>
+        <v>GPI-0147</v>
       </c>
       <c r="B134" t="str">
-        <v>EPSON INK T0554 YELLOW ΣΥΜΒΑΤΟ 13.5ml</v>
+        <v>CANON INK BCI-3e - 03/06 CYAN ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>GPI-0123</v>
+        <v>GPI-0148</v>
       </c>
       <c r="B135" t="str">
-        <v>EPSON INK T2431XL BLACK ΣΥΜΒΑΤΟ 15ml</v>
+        <v>CANON INK BCI-3e - 03/06 MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>GPI-0124</v>
+        <v>GPI-0149</v>
       </c>
       <c r="B136" t="str">
-        <v>EPSON INK T2432XL CYAN ΣΥΜΒΑΤΟ 10ml</v>
+        <v>CANON INK BCI-3e - 03/06 YELLOW ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>GPI-0125</v>
+        <v>GPI-0150</v>
       </c>
       <c r="B137" t="str">
-        <v>EPSON INK T2433XL MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
+        <v>CANON INK BCI-3e - 03/05 BLACK ΣΥΜΒΑΤΟ 25ml</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>GPI-0126</v>
+        <v>GPI-0153</v>
       </c>
       <c r="B138" t="str">
-        <v>EPSON INK T2434XL YELLOW ΣΥΜΒΑΤΟ 10ml</v>
+        <v>CANON INK CLI-526 GREY ΣΥΜΒΑΤΟ 11ml</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>GPI-0127</v>
+        <v>GPI-0154</v>
       </c>
       <c r="B139" t="str">
-        <v>CANON INK CLI-551XL BLACK ΣΥΜΒΑΤΟ 13ml</v>
+        <v>CANON INK PGI-570XL BLACK ΣΥΜΒΑΤΟ 24ml</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>GPI-0128</v>
+        <v>GPI-0155</v>
       </c>
       <c r="B140" t="str">
-        <v>HP INK No 23 - C1823D COLOR ΣΥΜΒΑΤΟ 38ml</v>
+        <v>CANON INK CLI-571XL CYAN ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>GPI-0129</v>
+        <v>GPI-0156</v>
       </c>
       <c r="B141" t="str">
-        <v>LEXMARK INK No 16 - 10N0016 BLACK ΣΥΜΒΑΤΟ 15ml</v>
+        <v>CANON INK CLI-571XL MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>GPI-0130</v>
+        <v>GPI-0157</v>
       </c>
       <c r="B142" t="str">
-        <v>LEXMARK INK No 26 - 10N0026 COLOR ΣΥΜΒΑΤΟ 14ml</v>
+        <v>CANON INK CLI-571XL YELLOW ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>GPI-0131</v>
+        <v>GPI-0158</v>
       </c>
       <c r="B143" t="str">
-        <v>HP INK No 342XL - C9361 COLOR ΣΥΜΒΑΤΟ 15ml</v>
+        <v>CANON INK CLI-571XL GRAY ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>GPI-0132</v>
+        <v>GPI-0159</v>
       </c>
       <c r="B144" t="str">
-        <v>HP INK No 88XL - C9396A BLACK ΣΥΜΒΑΤΟ 69ml</v>
+        <v>BROTHER INK LC1000/LC970XL CYAN ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>GPI-0133</v>
+        <v>GPI-0161</v>
       </c>
       <c r="B145" t="str">
-        <v>HP INK No 88XL - C9391A CYAN ΣΥΜΒΑΤΟ 28ml</v>
+        <v>BROTHER INK LC1000/LC970XL YELLOW ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>GPI-0134</v>
+        <v>GPI-0166</v>
       </c>
       <c r="B146" t="str">
-        <v>HP INK No 88XL -  C9392A MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
+        <v>BROTHER INK LC1280XL BLACK ΣΥΜΒΑΤΟ 28.5ml</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>GPI-0135</v>
+        <v>GPI-0167</v>
       </c>
       <c r="B147" t="str">
-        <v>HP INK No 88XL - C9393A YELLOW ΣΥΜΒΑΤΟ 28ml</v>
+        <v>BROTHER INK LC1280XL CYAN ΣΥΜΒΑΤΟ 18.5ml</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>GPI-0136</v>
+        <v>GPI-0168</v>
       </c>
       <c r="B148" t="str">
-        <v>BROTHER INK LC1240 BLACK ΣΥΜΒΑΤΟ 20ml</v>
+        <v>BROTHER INK LC1280XL MAGENTA ΣΥΜΒΑΤΟ 18.5ml</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>GPI-0137</v>
+        <v>GPI-0169</v>
       </c>
       <c r="B149" t="str">
-        <v>BROTHER INK LC1240 CYAN ΣΥΜΒΑΤΟ 10ml</v>
+        <v>BROTHER INK LC1280XL YELLOW ΣΥΜΒΑΤΟ 18.5ml</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>GPI-0138</v>
+        <v>GPI-0170</v>
       </c>
       <c r="B150" t="str">
-        <v>BROTHER INK LC1240 MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
+        <v>CANON INK CLI-8 BLACK ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>GPI-0139</v>
+        <v>GPI-0171</v>
       </c>
       <c r="B151" t="str">
-        <v>BROTHER INK LC1240 YELLOW ΣΥΜΒΑΤΟ 10ml</v>
+        <v>CANON INK CLI-8 CYAN ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>GPI-0140</v>
+        <v>GPI-0172</v>
       </c>
       <c r="B152" t="str">
-        <v>HP INK No 302XL - F6U68AE BLACK ΣΥΜΒΑΤΟ 21ml</v>
+        <v>CANON INK CLI-8 MAGENTA ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>GPI-0141</v>
+        <v>GPI-0173</v>
       </c>
       <c r="B153" t="str">
-        <v>HP INK No 302XL - F6U67AE COLOR ΣΥΜΒΑΤΟ 22ml</v>
+        <v>CANON INK CLI-8 YELLOW ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>GPI-0142</v>
+        <v>GPI-0174</v>
       </c>
       <c r="B154" t="str">
-        <v>HP INK No 348 - C9369E COLOR ΣΥΜΒΑΤΟ 15ml</v>
+        <v>CANON INK CLI-8 PHOTO CYAN ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>GPI-0143</v>
+        <v>GPI-0175</v>
       </c>
       <c r="B155" t="str">
-        <v>HP INK No 920XL - CD972AN CYAN ΣΥΜΒΑΤΟ 15ml</v>
+        <v>CANON INK CLI-8 PHOTO MAGENTA ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>GPI-0144</v>
+        <v>GPI-0176</v>
       </c>
       <c r="B156" t="str">
-        <v>HP INK No 920XL - CD973AN MAGENTA ΣΥΜΒΑΤΟ 15ml</v>
+        <v>CANON INK PGI-5 BLACK ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>GPI-0145</v>
+        <v>GPI-0177</v>
       </c>
       <c r="B157" t="str">
-        <v>HP INK No 920XL - CD974AN YELLOW ΣΥΜΒΑΤΟ 15ml</v>
+        <v>CANON INK PG-50 BLACK ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>GPI-0146</v>
+        <v>GPI-0178</v>
       </c>
       <c r="B158" t="str">
-        <v>HP INK No 920XXL - CD975AN BLACK ΣΥΜΒΑΤΟ 55ml</v>
+        <v>SAMSUNG INK M215 BLACK ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>GPI-0147</v>
+        <v>GPI-0179</v>
       </c>
       <c r="B159" t="str">
-        <v>CANON INK BCI-3e - 03/06 CYAN ΣΥΜΒΑΤΟ 13ml</v>
+        <v>EPSON INK T0422 CYAN ΣΥΜΒΑΤΟ 16ml</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>GPI-0148</v>
+        <v>GPI-0180</v>
       </c>
       <c r="B160" t="str">
-        <v>CANON INK BCI-3e - 03/06 MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
+        <v>EPSON INK T0423 MAGENTA ΣΥΜΒΑΤΟ 16ml</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>GPI-0149</v>
+        <v>GPI-0181</v>
       </c>
       <c r="B161" t="str">
-        <v>CANON INK BCI-3e - 03/06 YELLOW ΣΥΜΒΑΤΟ 13ml</v>
+        <v>EPSON INK T0424 YELLOW ΣΥΜΒΑΤΟ 16ml</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>GPI-0150</v>
+        <v>GPI-0182</v>
       </c>
       <c r="B162" t="str">
-        <v>CANON INK BCI-3e - 03/05 BLACK ΣΥΜΒΑΤΟ 25ml</v>
+        <v>EPSON INK T0441 BLACK ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>GPI-0151</v>
+        <v>GPI-0183</v>
       </c>
       <c r="B163" t="str">
-        <v>CANON INK BCI-3e - 03/06 PHOTO CYAN ΣΥΜΒΑΤΟ 13ml</v>
+        <v>EPSON INK T0442 CYAN ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>GPI-0152</v>
+        <v>GPI-0184</v>
       </c>
       <c r="B164" t="str">
-        <v>CANON INK BCI-3e - 03/06 PHOTO MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
+        <v>EPSON INK T0443 MAGENTA ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>GPI-0153</v>
+        <v>GPI-0185</v>
       </c>
       <c r="B165" t="str">
-        <v>CANON INK CLI-526 GREY ΣΥΜΒΑΤΟ 11ml</v>
+        <v>EPSON INK T0444 YELLOW ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>GPI-0154</v>
+        <v>GPI-0186</v>
       </c>
       <c r="B166" t="str">
-        <v>CANON INK PGI-570XL BLACK ΣΥΜΒΑΤΟ 24ml</v>
+        <v>EPSON INK T0481 BLACK ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>GPI-0155</v>
+        <v>GPI-0187</v>
       </c>
       <c r="B167" t="str">
-        <v>CANON INK CLI-571XL CYAN ΣΥΜΒΑΤΟ 13ml</v>
+        <v>EPSON INK T0482 CYAN ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>GPI-0156</v>
+        <v>GPI-0188</v>
       </c>
       <c r="B168" t="str">
-        <v>CANON INK CLI-571XL MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
+        <v>EPSON INK T0483 MAGENTA ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>GPI-0157</v>
+        <v>GPI-0189</v>
       </c>
       <c r="B169" t="str">
-        <v>CANON INK CLI-571XL YELLOW ΣΥΜΒΑΤΟ 13ml</v>
+        <v>EPSON INK T0484 YELLOW ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>GPI-0158</v>
+        <v>GPI-0190</v>
       </c>
       <c r="B170" t="str">
-        <v>CANON INK CLI-571XL GRAY ΣΥΜΒΑΤΟ 13ml</v>
+        <v>EPSON INK T0485 LIGHT CYAN ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>GPI-0159</v>
+        <v>GPI-0191</v>
       </c>
       <c r="B171" t="str">
-        <v>BROTHER INK LC1000/LC970XL CYAN ΣΥΜΒΑΤΟ 20ml</v>
+        <v>EPSON INK T0486 LIGHT MAGENTA ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>GPI-0160</v>
+        <v>GPI-0192</v>
       </c>
       <c r="B172" t="str">
-        <v>BROTHER INK LC1000/LC970XL MAGENTA ΣΥΜΒΑΤΟ 20ml</v>
+        <v>EPSON INK T0611 BLACK ΣΥΜΒΑΤΟ 13.5ml</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>GPI-0161</v>
+        <v>GPI-0193</v>
       </c>
       <c r="B173" t="str">
-        <v>BROTHER INK LC1000/LC970XL YELLOW ΣΥΜΒΑΤΟ 20ml</v>
+        <v>EPSON INK T0612 CYAN ΣΥΜΒΑΤΟ 13.5ml</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>GPI-0162</v>
+        <v>GPI-0194</v>
       </c>
       <c r="B174" t="str">
-        <v>BROTHER INK LC61/LC1100/LC980XL BLACK ΣΥΜΒΑΤΟ 28ml</v>
+        <v>EPSON INK T0613 MAGENTA ΣΥΜΒΑΤΟ 13.5ml</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>GPI-0163</v>
+        <v>GPI-0195</v>
       </c>
       <c r="B175" t="str">
-        <v>BROTHER INK LC61/LC1100/LC980XL CYAN ΣΥΜΒΑΤΟ 12ml</v>
+        <v>EPSON INK T0614 YELLOW ΣΥΜΒΑΤΟ 13.5ml</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>GPI-0164</v>
+        <v>GPI-0196</v>
       </c>
       <c r="B176" t="str">
-        <v>BROTHER INK LC61/LC1100/LC980XL MAGENTA ΣΥΜΒΑΤΟ 12ml</v>
+        <v>EPSON INK T7011 BLACK ΣΥΜΒΑΤΟ 72ml</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>GPI-0165</v>
+        <v>GPI-0197</v>
       </c>
       <c r="B177" t="str">
-        <v>BROTHER INK LC61/LC1100/LC980XL YELLOW ΣΥΜΒΑΤΟ 12ml</v>
+        <v>EPSON INK T7012 CYAN ΣΥΜΒΑΤΟ 45ml</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>GPI-0166</v>
+        <v>GPI-0198</v>
       </c>
       <c r="B178" t="str">
-        <v>BROTHER INK LC1280XL BLACK ΣΥΜΒΑΤΟ 28.5ml</v>
+        <v>EPSON INK T7013 MAGENTA ΣΥΜΒΑΤΟ 45ml</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>GPI-0167</v>
+        <v>GPI-0199</v>
       </c>
       <c r="B179" t="str">
-        <v>BROTHER INK LC1280XL CYAN ΣΥΜΒΑΤΟ 18.5ml</v>
+        <v>EPSON INK T7014 YELLOW ΣΥΜΒΑΤΟ 45ml</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>GPI-0168</v>
+        <v>GPI-0200</v>
       </c>
       <c r="B180" t="str">
-        <v>BROTHER INK LC1280XL MAGENTA ΣΥΜΒΑΤΟ 18.5ml</v>
+        <v>EPSON INK T1631 BLACK ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>GPI-0169</v>
+        <v>GPI-0201</v>
       </c>
       <c r="B181" t="str">
-        <v>BROTHER INK LC1280XL YELLOW ΣΥΜΒΑΤΟ 18.5ml</v>
+        <v>EPSON INK T1632 CYAN ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>GPI-0170</v>
+        <v>GPI-0202</v>
       </c>
       <c r="B182" t="str">
-        <v>CANON INK CLI-8 BLACK ΣΥΜΒΑΤΟ 14ml</v>
+        <v>EPSON INK T1634 YELLOW ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>GPI-0171</v>
+        <v>GPI-0203</v>
       </c>
       <c r="B183" t="str">
-        <v>CANON INK CLI-8 CYAN ΣΥΜΒΑΤΟ 14ml</v>
+        <v>EPSON INK T1633 MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>GPI-0172</v>
+        <v>GPI-0205</v>
       </c>
       <c r="B184" t="str">
-        <v>CANON INK CLI-8 MAGENTA ΣΥΜΒΑΤΟ 14ml</v>
+        <v>LEXMARK INK No 37XL - 18C2180 CMY ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>GPI-0173</v>
+        <v>GPI-0206</v>
       </c>
       <c r="B185" t="str">
-        <v>CANON INK CLI-8 YELLOW ΣΥΜΒΑΤΟ 14ml</v>
+        <v>LEXMARK INK No 200XL BLACK ΣΥΜΒΑΤΟ 82ml</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>GPI-0174</v>
+        <v>GPI-0207</v>
       </c>
       <c r="B186" t="str">
-        <v>CANON INK CLI-8 PHOTO CYAN ΣΥΜΒΑΤΟ 14ml</v>
+        <v>LEXMARK INK No 200XL CYAN ΣΥΜΒΑΤΟ 32ml</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>GPI-0175</v>
+        <v>GPI-0208</v>
       </c>
       <c r="B187" t="str">
-        <v>CANON INK CLI-8 PHOTO MAGENTA ΣΥΜΒΑΤΟ 14ml</v>
+        <v>LEXMARK INK No 200XL MAGENTA  ΣΥΜΒΑΤΟ 32ml</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>GPI-0176</v>
+        <v>GPI-0209</v>
       </c>
       <c r="B188" t="str">
-        <v>CANON INK PGI-5 BLACK ΣΥΜΒΑΤΟ 28ml</v>
+        <v>LEXMARK INK No 200XL YELLOW ΣΥΜΒΑΤΟ 32ml</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>GPI-0177</v>
+        <v>GPI-0214</v>
       </c>
       <c r="B189" t="str">
-        <v>CANON INK PG-50 BLACK ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 970XL BLACK ΣΥΜΒΑΤΟ 250ml</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>GPI-0178</v>
+        <v>GPI-0215</v>
       </c>
       <c r="B190" t="str">
-        <v>SAMSUNG INK M215 BLACK ΣΥΜΒΑΤΟ 20ml</v>
+        <v>LEXMARK INK No 14 - 18C2090 BLACK ΣΥΜΒΑΤΟ 21ml</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>GPI-0179</v>
+        <v>GPI-0216</v>
       </c>
       <c r="B191" t="str">
-        <v>EPSON INK T0422 CYAN ΣΥΜΒΑΤΟ 16ml</v>
+        <v>LEXMARK No 15 - 18C2110  CMY ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>GPI-0180</v>
+        <v>GPI-0217</v>
       </c>
       <c r="B192" t="str">
-        <v>EPSON INK T0423 MAGENTA ΣΥΜΒΑΤΟ 16ml</v>
+        <v>SAMSUNG INK M210 COLOR ΣΥΜΒΑΤΟ 40ml</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>GPI-0181</v>
+        <v>GPI-0218</v>
       </c>
       <c r="B193" t="str">
-        <v>EPSON INK T0424 YELLOW ΣΥΜΒΑΤΟ 16ml</v>
+        <v>SAMSUNG INK M40/SF365/331P BLACK ΣΥΜΒΑΤΟ 17ml</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>GPI-0182</v>
+        <v>GPI-0219</v>
       </c>
       <c r="B194" t="str">
-        <v>EPSON INK T0441 BLACK ΣΥΜΒΑΤΟ 20ml</v>
+        <v>HP INK 901XL - CC656A COLOR ΣΥΜΒΑΤΟ 18 ml</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>GPI-0183</v>
+        <v>GPI-0220</v>
       </c>
       <c r="B195" t="str">
-        <v>EPSON INK T0442 CYAN ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 56 - C6656A BLACK ΣΥΜΒΑΤΟ 22ml</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>GPI-0184</v>
+        <v>GPI-0221</v>
       </c>
       <c r="B196" t="str">
-        <v>EPSON INK T0443 MAGENTA ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 971XL CYAN ΣΥΜΒΑΤΟ 120ml</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>GPI-0185</v>
+        <v>GPI-0222</v>
       </c>
       <c r="B197" t="str">
-        <v>EPSON INK T0444 YELLOW ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 971XL MAGENTA ΣΥΜΒΑΤΟ 120ml</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>GPI-0186</v>
+        <v>GPI-0223</v>
       </c>
       <c r="B198" t="str">
-        <v>EPSON INK T0481 BLACK ΣΥΜΒΑΤΟ 20ml</v>
+        <v>HP INK No 971XL YELLOW ΣΥΜΒΑΤΟ 120 ML</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>GPI-0187</v>
+        <v>GPI-0224</v>
       </c>
       <c r="B199" t="str">
-        <v>EPSON INK T0482 CYAN ΣΥΜΒΑΤΟ 20ml</v>
+        <v>CANON INK CLI-551XL GRAY ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>GPI-0188</v>
+        <v>GPI-0225</v>
       </c>
       <c r="B200" t="str">
-        <v>EPSON INK T0483 MAGENTA ΣΥΜΒΑΤΟ 20ml</v>
+        <v>HP INK No 28 - C8728A COLOR ΣΥΜΒΑΤΟ 17ml</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>GPI-0189</v>
+        <v>GPI-0226</v>
       </c>
       <c r="B201" t="str">
-        <v>EPSON INK T0484 YELLOW ΣΥΜΒΑΤΟ 20ml</v>
+        <v>CANON INK CLI-526 BLACK ΣΥΜΒΑΤΟ 11ml</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>GPI-0190</v>
+        <v>GPI-0227</v>
       </c>
       <c r="B202" t="str">
-        <v>EPSON INK T0485 LIGHT CYAN ΣΥΜΒΑΤΟ 20ml</v>
+        <v>HP INK No 338 - C8765 BLACK ΣΥΜΒΑΤΟ 18 ML</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>GPI-0191</v>
+        <v>GPI-0228</v>
       </c>
       <c r="B203" t="str">
-        <v>EPSON INK T0486 LIGHT MAGENTA ΣΥΜΒΑΤΟ 20ml</v>
+        <v>HP INK No 11XL - C4836A CYAN ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>GPI-0192</v>
+        <v>GPI-0229</v>
       </c>
       <c r="B204" t="str">
-        <v>EPSON INK T0611 BLACK ΣΥΜΒΑΤΟ 13.5ml</v>
+        <v>HP INK No 11XL - C4837A MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>GPI-0193</v>
+        <v>GPI-0230</v>
       </c>
       <c r="B205" t="str">
-        <v>EPSON INK T0612 CYAN ΣΥΜΒΑΤΟ 13.5ml</v>
+        <v>HP INK No 11XL - C4838A YELLOW ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>GPI-0194</v>
+        <v>GPI-0231</v>
       </c>
       <c r="B206" t="str">
-        <v>EPSON INK T0613 MAGENTA ΣΥΜΒΑΤΟ 13.5ml</v>
+        <v>HP INK No 10XL - C4844A BLACK ΣΥΜΒΑΤΟ 69ml</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>GPI-0195</v>
+        <v>GPI-0232</v>
       </c>
       <c r="B207" t="str">
-        <v>EPSON INK T0614 YELLOW ΣΥΜΒΑΤΟ 13.5ml</v>
+        <v>HP ΙΝΚ Νo 56 - C6656A BLACK ΣΥΜΒΑΤΟ 21ML</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>GPI-0196</v>
+        <v>GPI-0233</v>
       </c>
       <c r="B208" t="str">
-        <v>EPSON INK T7011 BLACK ΣΥΜΒΑΤΟ 72ml</v>
+        <v>HP INK No 78 - 6578D COLOR ΣΥΜΒΑΤΟ 30 ML</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>GPI-0197</v>
+        <v>GPI-0234</v>
       </c>
       <c r="B209" t="str">
-        <v>EPSON INK T7012 CYAN ΣΥΜΒΑΤΟ 45ml</v>
+        <v>CANON INK PG 545XL BLACK ΣΥΜΒΑΤΟ 12 ml</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>GPI-0198</v>
+        <v>GPI-0239</v>
       </c>
       <c r="B210" t="str">
-        <v>EPSON INK T7013 MAGENTA ΣΥΜΒΑΤΟ 45ml</v>
+        <v>CANON INK CLI-521 GREY ΣΥΜΒΑΤΟ ml 10</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>GPI-0199</v>
+        <v>GPI-0240</v>
       </c>
       <c r="B211" t="str">
-        <v>EPSON INK T7014 YELLOW ΣΥΜΒΑΤΟ 45ml</v>
+        <v>HP INK No 57 - C6657A COLOR ΣΥΜΒΑΤΟ 17 ml</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>GPI-0200</v>
+        <v>GPI-0241</v>
       </c>
       <c r="B212" t="str">
-        <v>EPSON INK T1631 BLACK ΣΥΜΒΑΤΟ 14ml</v>
+        <v>HP INK No 302XL - F6U68AE BLACK ΣΥΜΒΑΤΟ 20 ml</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>GPI-0201</v>
+        <v>GPI-0242</v>
       </c>
       <c r="B213" t="str">
-        <v>EPSON INK T1632 CYAN ΣΥΜΒΑΤΟ 10ml</v>
+        <v>HP INK No 302XL - F6U67AE COLOR ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>GPI-0202</v>
+        <v>GPI-0243</v>
       </c>
       <c r="B214" t="str">
-        <v>EPSON INK T1634 YELLOW ΣΥΜΒΑΤΟ 10ml</v>
+        <v>BROTHER INK LC 223XL BLACK ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>GPI-0203</v>
+        <v>GPI-0244</v>
       </c>
       <c r="B215" t="str">
-        <v>EPSON INK T1633 MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
+        <v>BROTHER INK LC 223XL CYAN ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>GPI-0204</v>
+        <v>GPI-0245</v>
       </c>
       <c r="B216" t="str">
-        <v>LEXMARK INK No 36XL - 18C2170 BLACK ΣΥΜΒΑΤΟ 21ml</v>
+        <v>BROTHER INK LC 223XL MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>GPI-0205</v>
+        <v>GPI-0246</v>
       </c>
       <c r="B217" t="str">
-        <v>LEXMARK INK No 37XL - 18C2180 CMY ΣΥΜΒΑΤΟ 18ml</v>
+        <v>BROTHER INK LC 223XL YELLOW ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>GPI-0206</v>
+        <v>GPI-0247</v>
       </c>
       <c r="B218" t="str">
-        <v>LEXMARK INK No 200XL BLACK ΣΥΜΒΑΤΟ 82ml</v>
+        <v>HP INK No 17 - 6625D COLOR ΣΥΜΒΑΤΟ 30ml</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>GPI-0207</v>
+        <v>GPI-0248</v>
       </c>
       <c r="B219" t="str">
-        <v>LEXMARK INK No 200XL CYAN ΣΥΜΒΑΤΟ 32ml</v>
+        <v>HP INK No 711XL BLACK ΣΥΜΒΑΤΟ 75ml</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>GPI-0208</v>
+        <v>GPI-0249</v>
       </c>
       <c r="B220" t="str">
-        <v>LEXMARK INK No 200XL MAGENTA  ΣΥΜΒΑΤΟ 32ml</v>
+        <v>HP INK No 711XL CYAN ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>GPI-0209</v>
+        <v>GPI-0250</v>
       </c>
       <c r="B221" t="str">
-        <v>LEXMARK INK No 200XL YELLOW ΣΥΜΒΑΤΟ 32ml</v>
+        <v>HP INK No 711XL MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>GPI-0214</v>
+        <v>GPI-0251</v>
       </c>
       <c r="B222" t="str">
-        <v>HP INK No 970XL BLACK ΣΥΜΒΑΤΟ 250ml</v>
+        <v>HP INK No 711XL YELLOW ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>GPI-0215</v>
+        <v>GPI-0252</v>
       </c>
       <c r="B223" t="str">
-        <v>LEXMARK INK No 14 - 18C2090 BLACK ΣΥΜΒΑΤΟ 21ml</v>
+        <v>CANON INK CLI-571XL BLACK ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>GPI-0216</v>
+        <v>GPI-0253</v>
       </c>
       <c r="B224" t="str">
-        <v>LEXMARK No 15 - 18C2110  CMY ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 58 - C6658AE PHOTO COLOR ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>GPI-0217</v>
+        <v>GPI-0254</v>
       </c>
       <c r="B225" t="str">
-        <v>SAMSUNG INK M210 COLOR ΣΥΜΒΑΤΟ 40ml</v>
+        <v>CANON INK CL-546XL - 8288B001 COLOR ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>GPI-0218</v>
+        <v>GPI-0255</v>
       </c>
       <c r="B226" t="str">
-        <v>SAMSUNG INK M40/SF365/331P BLACK ΣΥΜΒΑΤΟ 17ml</v>
+        <v>CANON INK PG 545XL BLACK ΣΥΜΒΑΤΟ 9.5 ml</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>GPI-0219</v>
+        <v>GPI-0256</v>
       </c>
       <c r="B227" t="str">
-        <v>HP INK 901XL - CC656A COLOR ΣΥΜΒΑΤΟ 18 ml</v>
+        <v>HP INK No 27 - C8727A ΒLACΚ ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>GPI-0220</v>
+        <v>GPR-0002</v>
       </c>
       <c r="B228" t="str">
-        <v>HP INK No 56 - C6656A BLACK ΣΥΜΒΑΤΟ 22ml</v>
+        <v>PANASONIC RIBBON FA52X BLACK ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>GPI-0221</v>
+        <v>GPR-0003</v>
       </c>
       <c r="B229" t="str">
-        <v>HP INK No 971XL CYAN ΣΥΜΒΑΤΟ 120ml</v>
+        <v>PANASONIC RIBBON FA54X BLACK ΣΥΜΒΑΤΗ</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>GPI-0222</v>
+        <v>GPR-0004</v>
       </c>
       <c r="B230" t="str">
-        <v>HP INK No 971XL MAGENTA ΣΥΜΒΑΤΟ 120ml</v>
+        <v>OKI RIBBON ML393 BLACK ΣΥΜΒΑΤΗ</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>GPI-0223</v>
+        <v>GPT-0408</v>
       </c>
       <c r="B231" t="str">
-        <v>HP INK No 971XL YELLOW ΣΥΜΒΑΤΟ 120 ML</v>
+        <v>KYOCERA TONER TK1115 BLACK ΣΥΜΒΑΤΟ 1600ΣΕΛ</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>GPI-0224</v>
+        <v>GPT-0466</v>
       </c>
       <c r="B232" t="str">
-        <v>CANON INK CLI-551XL GRAY ΣΥΜΒΑΤΟ 13ml</v>
+        <v>OKI TONER C610 CYAN ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>GPI-0225</v>
+        <v>GPT-0467</v>
       </c>
       <c r="B233" t="str">
-        <v>HP INK No 28 - C8728A COLOR ΣΥΜΒΑΤΟ 17ml</v>
+        <v>OKI TONER C610 MAGENTA ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>GPI-0226</v>
+        <v>GPT-0468</v>
       </c>
       <c r="B234" t="str">
-        <v>CANON INK CLI-526 BLACK ΣΥΜΒΑΤΟ 11ml</v>
+        <v>OKI TONER C610 YELLOW ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>GPI-0227</v>
+        <v>GPT-0469</v>
       </c>
       <c r="B235" t="str">
-        <v>HP INK No 338 - C8765 BLACK ΣΥΜΒΑΤΟ 18 ML</v>
+        <v>OKI TONER C610 BLACK ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>GPI-0228</v>
+        <v>GPT-0493</v>
       </c>
       <c r="B236" t="str">
-        <v>HP INK No 11XL - C4836A CYAN ΣΥΜΒΑΤΟ 28ml</v>
+        <v>BROTHER TONER TN6600/TN460 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>GPI-0229</v>
+        <v>GPT-0494</v>
       </c>
       <c r="B237" t="str">
-        <v>HP INK No 11XL - C4837A MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
+        <v>EPSON TONER M300 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>GPI-0230</v>
+        <v>GPT-0495</v>
       </c>
       <c r="B238" t="str">
-        <v>HP INK No 11XL - C4838A YELLOW ΣΥΜΒΑΤΟ 28ml</v>
+        <v>OKI TONER C5850/5950 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>GPI-0231</v>
+        <v>GPT-0496</v>
       </c>
       <c r="B239" t="str">
-        <v>HP INK No 10XL - C4844A BLACK ΣΥΜΒΑΤΟ 69ml</v>
+        <v>OKI TONER C5850/5950 CYAN ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>GPI-0232</v>
+        <v>GPT-0497</v>
       </c>
       <c r="B240" t="str">
-        <v>HP ΙΝΚ Νo 56 - C6656A BLACK ΣΥΜΒΑΤΟ 21ML</v>
+        <v>OKI TONER C5850/5950 MAGENTA ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>GPI-0233</v>
+        <v>GPT-0498</v>
       </c>
       <c r="B241" t="str">
-        <v>HP INK No 78 - 6578D COLOR ΣΥΜΒΑΤΟ 30 ML</v>
+        <v>OKI TONER C5850/5950 YELLOW ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>GPI-0234</v>
+        <v>GPT-0499</v>
       </c>
       <c r="B242" t="str">
-        <v>CANON INK PG 545XL BLACK ΣΥΜΒΑΤΟ 12 ml</v>
+        <v>KYOCERA TONER TK1505 BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>GPI-0235</v>
+        <v>GPT-0500</v>
       </c>
       <c r="B243" t="str">
-        <v>EPSON INK T0711/T0712/T0713/T0714 COLOR ΣΥΜΒΑΤΟ  SET 10 ΤΜΧ (4* T0711 /2* T0712/2* T0713/2* T0714)</v>
+        <v>RICOH TONER SP150 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>GPI-0236</v>
+        <v>GPT-0501</v>
       </c>
       <c r="B244" t="str">
-        <v>CANON INK 0525BK/526BK/526C/526M/526Y COLOR ΣΥΜΒΑΤΟ SET 10 ΤΜΧ(2*0525BK/2*526BK/2*526C/2*526M/2*526Υ</v>
+        <v>XEROX TONER 3150 109R00747 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>GPI-0237</v>
+        <v>GPT-0502</v>
       </c>
       <c r="B245" t="str">
-        <v>HP INK No 650 - CZ101AE BLACK ΣΥΜΒΑΤΟ 360 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP 3200 113R00730 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>GPI-0238</v>
+        <v>GPT-0503</v>
       </c>
       <c r="B246" t="str">
-        <v>HP INK No 650 - CZ102AE COLOR ΣΥΜΒΑΤΟ 200 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3300 106R01412 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>GPI-0239</v>
+        <v>GPT-0504</v>
       </c>
       <c r="B247" t="str">
-        <v>CANON INK CLI-521 GREY ΣΥΜΒΑΤΟ ml 10</v>
+        <v>LEXMARK TONER X203 - X203A11G BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>GPI-0240</v>
+        <v>GPT-0505</v>
       </c>
       <c r="B248" t="str">
-        <v>HP INK No 57 - C6657A COLOR ΣΥΜΒΑΤΟ 17 ml</v>
+        <v>LEXMARK TONER CX310  / CX410 / CX510 80C2SK0 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>GPI-0241</v>
+        <v>GPT-0506</v>
       </c>
       <c r="B249" t="str">
-        <v>HP INK No 302XL - F6U68AE BLACK ΣΥΜΒΑΤΟ 20 ml</v>
+        <v>LEXMARK TONER CX310 / CX410 / CX510 80C2SC0 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>GPI-0242</v>
+        <v>GPT-0507</v>
       </c>
       <c r="B250" t="str">
-        <v>HP INK No 302XL - F6U67AE COLOR ΣΥΜΒΑΤΟ 18ml</v>
+        <v>LEXMARK TONER CX310 / CX410 / CX510 80C2SM0 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>GPI-0243</v>
+        <v>GPT-0508</v>
       </c>
       <c r="B251" t="str">
-        <v>BROTHER INK LC 223XL BLACK ΣΥΜΒΑΤΟ 20ml</v>
+        <v>LEXMARK TONER CX310 / CX410 / CX510 80C2SY0 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>GPI-0244</v>
+        <v>GPT-0509</v>
       </c>
       <c r="B252" t="str">
-        <v>BROTHER INK LC 223XL CYAN ΣΥΜΒΑΤΟ 10ml</v>
+        <v>LEXMARK TONER CS 310/410/510 70C2HK0 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>GPI-0245</v>
+        <v>GPT-0510</v>
       </c>
       <c r="B253" t="str">
-        <v>BROTHER INK LC 223XL MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
+        <v>LEXMARK TONER CS 310/410/510 70C2HC0 CYAN ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>GPI-0246</v>
+        <v>GPT-0511</v>
       </c>
       <c r="B254" t="str">
-        <v>BROTHER INK LC 223XL YELLOW ΣΥΜΒΑΤΟ 10ml</v>
+        <v>LEXMARK TONER CS 310/410/510 70C2HM0 MAGENTA ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>GPI-0247</v>
+        <v>GPT-0512</v>
       </c>
       <c r="B255" t="str">
-        <v>HP INK No 17 - 6625D COLOR ΣΥΜΒΑΤΟ 30ml</v>
+        <v>LEXMARK TONER CS 310/410/510 70C2HY0 YELLOW ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>GPI-0248</v>
+        <v>GPT-0513</v>
       </c>
       <c r="B256" t="str">
-        <v>HP INK No 711XL BLACK ΣΥΜΒΑΤΟ 75ml</v>
+        <v>LEXMARK TONER  X466 - X463A11G X463A21G BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>GPI-0249</v>
+        <v>GPT-0514</v>
       </c>
       <c r="B257" t="str">
-        <v>HP INK No 711XL CYAN ΣΥΜΒΑΤΟ 28ml</v>
+        <v>EPSON TONER M1200 S050523 C13S050523 BLACK ΣΥΜΒΑΤΟ 3200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>GPI-0250</v>
+        <v>GPT-0534</v>
       </c>
       <c r="B258" t="str">
-        <v>HP INK No 711XL MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
+        <v>HP TONER C4096A BLACK ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>GPI-0251</v>
+        <v>GPT-0540</v>
       </c>
       <c r="B259" t="str">
-        <v>HP INK No 711XL YELLOW ΣΥΜΒΑΤΟ 28ml</v>
+        <v>XEROX PHASER 4400 - 113R00628 BLACK ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>GPI-0252</v>
+        <v>DTS-0010</v>
       </c>
       <c r="B260" t="str">
-        <v>CANON INK CLI-571XL BLACK ΣΥΜΒΑΤΟ 13ml</v>
+        <v>OKI RIBBON 09002303 BLACK ΣΥΜΒΑΤΗ</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>GPI-0253</v>
+        <v>DTS-0016</v>
       </c>
       <c r="B261" t="str">
-        <v>HP INK No 58 - C6658AE PHOTO COLOR ΣΥΜΒΑΤΟ</v>
+        <v>EPSON RIBBON LQ800 - 8750/7753 BLACK ΣΥΜΒΑΤΗ</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>GPI-0254</v>
+        <v>DTS-0022</v>
       </c>
       <c r="B262" t="str">
-        <v>CANON INK CL-546XL - 8288B001 COLOR ΣΥΜΒΑΤΟ</v>
+        <v>EPSON INK 79XL - T7891XXL BLACK ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>GPI-0255</v>
+        <v>DTS-0023</v>
       </c>
       <c r="B263" t="str">
-        <v>CANON INK PG 545XL BLACK ΣΥΜΒΑΤΟ 9.5 ml</v>
+        <v>EPSON INK 79XL - T7892XXL CYAN ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>GPI-0256</v>
+        <v>DTS-0024</v>
       </c>
       <c r="B264" t="str">
-        <v>HP INK No 27 - C8727A ΒLACΚ ΣΥΜΒΑΤΟ 18ml</v>
+        <v>EPSON INK 79XL - T7893XXL MAGENTA ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>GPR-0001</v>
+        <v>GPD-0001</v>
       </c>
       <c r="B265" t="str">
-        <v>PHILIPS RIBBON  PFA351 MAGIC 5 BLACK ΣΥΜΒΑΤΗ 140 ΣΕΛΙΔΕΣ</v>
+        <v>OKI DRUM B410/420/430/440/MB460/470/480 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>GPR-0002</v>
+        <v>GPD-0002</v>
       </c>
       <c r="B266" t="str">
-        <v>PANASONIC RIBBON FA52X BLACK ΣΥΜΒΑΤΟ</v>
+        <v>OKI DRUM B411/431/461/471/491 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>GPR-0003</v>
+        <v>GPD-0003</v>
       </c>
       <c r="B267" t="str">
-        <v>PANASONIC RIBBON FA54X BLACK ΣΥΜΒΑΤΗ</v>
+        <v>SAMSUNG DRUM R116 BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>GPR-0004</v>
+        <v>GPD-0004</v>
       </c>
       <c r="B268" t="str">
-        <v>OKI RIBBON ML393 BLACK ΣΥΜΒΑΤΗ</v>
+        <v>OKI DRUM B4400/4500/4550/4600 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>GPR-0005</v>
+        <v>GPD-0005</v>
       </c>
       <c r="B269" t="str">
-        <v>EPSON RIBBON FX2190 C13S015327 BLACK ΣΥΜΒΑΤΗ 32 m</v>
+        <v>PANASONIC DRUM FAD412 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>GPT-0001</v>
+        <v>GPD-0006</v>
       </c>
       <c r="B270" t="str">
-        <v>EPSON TONER M1400/MX14 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC DRUM FAD84X BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>GPT-0002</v>
+        <v>GPD-0007</v>
       </c>
       <c r="B271" t="str">
-        <v>EPSON TONER M2000 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC DRUM FAD93X BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>GPT-0003</v>
+        <v>GPD-0008</v>
       </c>
       <c r="B272" t="str">
-        <v>HP TONER Q2612A/FX10/FX9/104 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC DRUM FAD89X BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>GPT-0004</v>
+        <v>GPD-0009</v>
       </c>
       <c r="B273" t="str">
-        <v>HP TONER CE285A/RG725 BLACK ΣΥΜΒΑΤΟ 1600 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK DRUM CE250/450 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>GPT-0005</v>
+        <v>GPD-0010</v>
       </c>
       <c r="B274" t="str">
-        <v>HP TONER CE278A/RG728 BLACK ΣΥΜΒΑΤΟ 2100 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX DRUM 3215/3260 - 101R00474 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>GPT-0006</v>
+        <v>GPD-0012</v>
       </c>
       <c r="B275" t="str">
-        <v>HP TONER CE505A BLACK ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
+        <v>HP DRUM CB384A BLACK ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>GPT-0007</v>
+        <v>GPD-0013</v>
       </c>
       <c r="B276" t="str">
-        <v>HP TONER CB540A BLACK ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER DRUM DR570/DR3000/DR6000/DR7000 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>GPT-0008</v>
+        <v>GPD-0014</v>
       </c>
       <c r="B277" t="str">
-        <v>HP TONER CB541A CYAN ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER DRUM B720/DR3300/3350/51J BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>GPT-0009</v>
+        <v>GPD-0015</v>
       </c>
       <c r="B278" t="str">
-        <v>HP TONER CB542A YELLOW ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER DRUM DR2000/DR350/DR2005 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>GPT-0010</v>
+        <v>GPD-0016</v>
       </c>
       <c r="B279" t="str">
-        <v>HP TONER CB543A MAGENTA ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER DRUM DR2120/DR360/DR2100 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>GPT-0011</v>
+        <v>GPD-0017</v>
       </c>
       <c r="B280" t="str">
-        <v>HP TONER CF350A BLACK ΣΥΜΒΑΤΟ 1300 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER DRUM DR2220/DR450/DR2200/DR2255 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>GPT-0012</v>
+        <v>GPD-0018</v>
       </c>
       <c r="B281" t="str">
-        <v>HP TONER CF351A CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER DRUM DR1050 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>GPT-0013</v>
+        <v>GPD-0019</v>
       </c>
       <c r="B282" t="str">
-        <v>HP TONER CF352A YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER DRUM DR2300/DR630 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>GPT-0014</v>
+        <v>GPD-0020</v>
       </c>
       <c r="B283" t="str">
-        <v>HP TONER CF353A MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER DRUM DR3100/DR3200/DR3170/DR3280/DR580/DR520 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>GPT-0015</v>
+        <v>GPD-0021</v>
       </c>
       <c r="B284" t="str">
-        <v>HP TONER Q5949X/7553X BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>HP DRUM 164A - CE314A CP1025 BLACK ΣΥΜΒΑΤΟ 14000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>GPT-0016</v>
+        <v>GPD-0022</v>
       </c>
       <c r="B285" t="str">
-        <v>HP TONER CF283A BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER DRUM DR130 BLACK ΣΥΜΒΑΤΟ 17000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>GPT-0017</v>
+        <v>GPD-0023</v>
       </c>
       <c r="B286" t="str">
-        <v>LEXMARK TONER E120 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK DRUM DR8302/DR230/DELL1700/D4283 BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>GPT-0018</v>
+        <v>GPD-0024</v>
       </c>
       <c r="B287" t="str">
-        <v>LEXMARK TONER CE230 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI DRUM 5500/C5800 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>GPT-0019</v>
+        <v>GPD-0025</v>
       </c>
       <c r="B288" t="str">
-        <v>LEXMARK TONER CE250/CE350 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>OKI DRUM 5500/C5800 CYAN ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>GPT-0020</v>
+        <v>GPD-0026</v>
       </c>
       <c r="B289" t="str">
-        <v>OKI TONER B401/MB441/451 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>OKI DRUM 5500/C5800 MAGENTA ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>GPT-0021</v>
+        <v>GPD-0027</v>
       </c>
       <c r="B290" t="str">
-        <v>RICOH TONER PH-1220D BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI DRUM 5500/C5800 YELLOW ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>GPT-0022</v>
+        <v>GPD-0028</v>
       </c>
       <c r="B291" t="str">
-        <v>RICOH TONER PH-1230D BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK DRUM E260 BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>GPT-0023</v>
+        <v>GPD-0029</v>
       </c>
       <c r="B292" t="str">
-        <v>RICOH TONER PH-2220D BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI DRUM B401/MB441/MB451 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>GPT-0024</v>
+        <v>GPD-0030</v>
       </c>
       <c r="B293" t="str">
-        <v>SAMSUNG TONER ML1660/MLT-D1042S BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK DRUM E120 12026XW BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>GPT-0025</v>
+        <v>GPD-0031</v>
       </c>
       <c r="B294" t="str">
-        <v>SAMSUNG TONER ML1710/1510/1520 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG DRUM CLT 407DR / 409DR BLACK ΣΥΜΒΑΤΟ 24000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>GPT-0026</v>
+        <v>GPI-0003</v>
       </c>
       <c r="B295" t="str">
-        <v>SAMSUNG TONER MLT-D101S BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T0713/T0893 MAGENTA ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>GPT-0027</v>
+        <v>GPI-0004</v>
       </c>
       <c r="B296" t="str">
-        <v>SAMSUNG TONER MLT-D111S BLACK ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T0714/T0894 YELLOW ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>GPT-0028</v>
+        <v>GPI-0005</v>
       </c>
       <c r="B297" t="str">
-        <v>SAMSUNG TONER MLT-D116L BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T0801 BLACK ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>GPT-0029</v>
+        <v>GPI-0006</v>
       </c>
       <c r="B298" t="str">
-        <v>SAMSUNG TONER MLT-D204L BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T0802 CYAN ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>GPT-0030</v>
+        <v>GPI-0007</v>
       </c>
       <c r="B299" t="str">
-        <v>SAMSUNG TONER MLTD205A/205L BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T0803 MAGENTA ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>GPT-0031</v>
+        <v>GPI-0008</v>
       </c>
       <c r="B300" t="str">
-        <v>SAMSUNG TONER CLP325/CLP320/4072 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T0804 YELLOW ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>GPT-0032</v>
+        <v>GPI-0009</v>
       </c>
       <c r="B301" t="str">
-        <v>SAMSUNG TONER CLP325/CLP320/4072 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T0805 LIGHT CYAN ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>GPT-0033</v>
+        <v>GPI-0010</v>
       </c>
       <c r="B302" t="str">
-        <v>SAMSUNG TONER CLP325/CLP320/4072 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T0806 LIGHT MAGENTA ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>GPT-0034</v>
+        <v>GPI-0011</v>
       </c>
       <c r="B303" t="str">
-        <v>SAMSUNG TONER CLP325/CLP320/4072 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T01281 BLACK ΣΥΜΒΑΤΟ 10.5ml</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>GPT-0035</v>
+        <v>GPI-0012</v>
       </c>
       <c r="B304" t="str">
-        <v>SAMSUNG TONER CLP406S/CLP360/365/3305 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T01282 CYAN ΣΥΜΒΑΤΟ 8ml</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>GPT-0036</v>
+        <v>GPI-0013</v>
       </c>
       <c r="B305" t="str">
-        <v>SAMSUNG TONER CLP406S/CLP360/365/3305 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T01283 MAGENTA ΣΥΜΒΑΤΟ 8ml</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>GPT-0037</v>
+        <v>GPI-0014</v>
       </c>
       <c r="B306" t="str">
-        <v>SAMSUNG TONER CLP406S/CLP360/365/3305 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T01284 YELLOW ΣΥΜΒΑΤΟ 8ml</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>GPT-0038</v>
+        <v>GPI-0015</v>
       </c>
       <c r="B307" t="str">
-        <v>SAMSUNG TONER CLP406S/CLP360/365/3305 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T01811 BLACK ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>GPT-0040</v>
+        <v>GPI-0016</v>
       </c>
       <c r="B308" t="str">
-        <v>XEROX TONER 3100 106R01379 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T01812 CYAN ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>GPT-0042</v>
+        <v>GPI-0017</v>
       </c>
       <c r="B309" t="str">
-        <v>HP TONER CE310A CP1025 126A  BLACK ΣΥΜΒΑΤΟ 1200 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T01813 MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>GPT-0043</v>
+        <v>GPI-0018</v>
       </c>
       <c r="B310" t="str">
-        <v>SAMSUNG TONER ML1910/MLT-D1052L/SCX4600/SCX4623 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T01814 YELLOW ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>GPT-0044</v>
+        <v>GPI-0020</v>
       </c>
       <c r="B311" t="str">
-        <v>SAMSUNG TONER CLP506L/680/6260 CYAN ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK No 26XL - T2631XL PHOTO BLACK ΣΥΜΒΑΤΟ 10ml -</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>GPT-0045</v>
+        <v>GPI-0022</v>
       </c>
       <c r="B312" t="str">
-        <v>SAMSUNG TONER CLP506L/680/6260 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK No 26XL - T2633XL MAGENTA  ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>GPT-0046</v>
+        <v>GPI-0023</v>
       </c>
       <c r="B313" t="str">
-        <v>SAMSUNG TONER CLP506L/680/6260 MAGENTA ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK No 26XL - T2634XL YELLOW ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>GPT-0047</v>
+        <v>GPI-0025</v>
       </c>
       <c r="B314" t="str">
-        <v>SAMSUNG TONER CLP506L/680/6260 YELLOW ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 363XL - C8774E LIGHT CYAN ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>GPT-0048</v>
+        <v>GPI-0026</v>
       </c>
       <c r="B315" t="str">
-        <v>HP TONER CE311A CP1025 126A CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 363XL - C8775E LIGHT MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>GPT-0049</v>
+        <v>GPI-0068</v>
       </c>
       <c r="B316" t="str">
-        <v>HP TONER CE312A CP1025 126A YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>CANON INK PG-540XL ΜΑΥΡΟ ΣΥΜΒΑΤΟ 600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>GPT-0050</v>
+        <v>GPI-0072</v>
       </c>
       <c r="B317" t="str">
-        <v>HP TONER CE313A CP1025 126A MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 935XL - C2P21AA MAGENTA ΣΥΜΒΑΤΟ  18ml</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>GPT-0051</v>
+        <v>GPI-0087</v>
       </c>
       <c r="B318" t="str">
-        <v>LEXMARK TONER E260X BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG INK M41/SF370/371/375TP BLACK ΣΥΜΒΑΤΟ 17ml</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>GPT-0052</v>
+        <v>GPI-0113</v>
       </c>
       <c r="B319" t="str">
-        <v>HP TONER CF280A BLACK ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK INK No 23 - 18C1523 BLACK ΣΥΜΒΑΤΟ  21ml</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>GPT-0053</v>
+        <v>GPI-0151</v>
       </c>
       <c r="B320" t="str">
-        <v>SAMSUNG TONER ML1640 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>CANON INK BCI-3e - 03/06 PHOTO CYAN ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>GPT-0054</v>
+        <v>GPI-0152</v>
       </c>
       <c r="B321" t="str">
-        <v>HP TONER Q6470 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>CANON INK BCI-3e - 03/06 PHOTO MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>GPT-0055</v>
+        <v>GPI-0160</v>
       </c>
       <c r="B322" t="str">
-        <v>OKI TONER C301/321 CYAN ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER INK LC1000/LC970XL MAGENTA ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>GPT-0056</v>
+        <v>GPI-0162</v>
       </c>
       <c r="B323" t="str">
-        <v>OKI TONER C301/321 MAGENTA ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER INK LC61/LC1100/LC980XL BLACK ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>GPT-0057</v>
+        <v>GPI-0163</v>
       </c>
       <c r="B324" t="str">
-        <v>OKI TONER C301/321 YELLOW ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER INK LC61/LC1100/LC980XL CYAN ΣΥΜΒΑΤΟ 12ml</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>GPT-0058</v>
+        <v>GPI-0164</v>
       </c>
       <c r="B325" t="str">
-        <v>OKI TONER C310/C330/C510/C530 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER INK LC61/LC1100/LC980XL MAGENTA ΣΥΜΒΑΤΟ 12ml</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>GPT-0059</v>
+        <v>GPI-0165</v>
       </c>
       <c r="B326" t="str">
-        <v>OKI TONER C310/C330/C510/C530 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER INK LC61/LC1100/LC980XL YELLOW ΣΥΜΒΑΤΟ 12ml</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>GPT-0060</v>
+        <v>GPI-0204</v>
       </c>
       <c r="B327" t="str">
-        <v>OKI TONER C310/C330/C510/C530 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK INK No 36XL - 18C2170 BLACK ΣΥΜΒΑΤΟ 21ml</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>GPT-0061</v>
+        <v>GPI-0235</v>
       </c>
       <c r="B328" t="str">
-        <v>OKI TONER C310/C330/C510/C530 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T0711/T0712/T0713/T0714 COLOR ΣΥΜΒΑΤΟ  SET 10 ΤΜΧ (4* T0711 /2* T0712/2* T0713/2* T0714)</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>GPT-0062</v>
+        <v>GPI-0236</v>
       </c>
       <c r="B329" t="str">
-        <v>HP TONER CF280X BLACK ΣΥΜΒΑΤΟ 6900 ΣΕΛΙΔΕΣ</v>
+        <v>CANON INK 0525BK/526BK/526C/526M/526Y COLOR ΣΥΜΒΑΤΟ SET 10 ΤΜΧ(2*0525BK/2*526BK/2*526C/2*526M/2*526Υ</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>GPT-0063</v>
+        <v>GPI-0237</v>
       </c>
       <c r="B330" t="str">
-        <v>OKI TONER B410/430/440/MB460/470/480 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 650 - CZ101AE BLACK ΣΥΜΒΑΤΟ 360 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>GPT-0065</v>
+        <v>GPI-0238</v>
       </c>
       <c r="B331" t="str">
-        <v>LEXMARK TONER C540H2KG BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 650 - CZ102AE COLOR ΣΥΜΒΑΤΟ 200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>GPT-0066</v>
+        <v>GPR-0001</v>
       </c>
       <c r="B332" t="str">
-        <v>LEXMARK TONER C540H2CG CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>PHILIPS RIBBON  PFA351 MAGIC 5 BLACK ΣΥΜΒΑΤΗ 140 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>GPT-0067</v>
+        <v>GPR-0005</v>
       </c>
       <c r="B333" t="str">
-        <v>LEXMARK TONER C540H2MG MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON RIBBON FX2190 C13S015327 BLACK ΣΥΜΒΑΤΗ 32 m</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>GPT-0068</v>
+        <v>GPT-0001</v>
       </c>
       <c r="B334" t="str">
-        <v>EPSON TONER C1700 - 50611 YELLOW ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER M1400/MX14 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>GPT-0069</v>
+        <v>GPT-0002</v>
       </c>
       <c r="B335" t="str">
-        <v>EPSON TONER C1700 - 50612 MAGENTA ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER M2000 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>GPT-0070</v>
+        <v>GPT-0003</v>
       </c>
       <c r="B336" t="str">
-        <v>EPSON TONER EPL6200L BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q2612A/FX10/FX9/104 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>GPT-0071</v>
+        <v>GPT-0004</v>
       </c>
       <c r="B337" t="str">
-        <v>KYOCERA TONER TK435 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE285A/RG725 BLACK ΣΥΜΒΑΤΟ 1600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>GPT-0072</v>
+        <v>GPT-0005</v>
       </c>
       <c r="B338" t="str">
-        <v>KYOCERA TONER TK715 BLACK ΣΥΜΒΑΤΟ 34000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE278A/RG728 BLACK ΣΥΜΒΑΤΟ 2100 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>GPT-0075</v>
+        <v>GPT-0006</v>
       </c>
       <c r="B339" t="str">
-        <v>OKI TONER B430/MB460/470 BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE505A BLACK ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>GPT-0076</v>
+        <v>GPT-0007</v>
       </c>
       <c r="B340" t="str">
-        <v>OKI TONER B411/431 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CB540A BLACK ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>GPT-0077</v>
+        <v>GPT-0008</v>
       </c>
       <c r="B341" t="str">
-        <v>OKI TONER B431 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CB541A CYAN ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>GPT-0078</v>
+        <v>GPT-0009</v>
       </c>
       <c r="B342" t="str">
-        <v>XEROX PHASER TONER 6000/6010/6015 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CB542A YELLOW ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>GPT-0079</v>
+        <v>GPT-0010</v>
       </c>
       <c r="B343" t="str">
-        <v>XEROX PHASER TONER 6000/6010/6015 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CB543A MAGENTA ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>GPT-0080</v>
+        <v>GPT-0011</v>
       </c>
       <c r="B344" t="str">
-        <v>XEROX PHASER TONER 6000/6010/6015 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF350A BLACK ΣΥΜΒΑΤΟ 1300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>GPT-0081</v>
+        <v>GPT-0012</v>
       </c>
       <c r="B345" t="str">
-        <v>XEROX PHASER TONER 6000/6010/6015 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF351A CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>GPT-0082</v>
+        <v>GPT-0013</v>
       </c>
       <c r="B346" t="str">
-        <v>XEROX PHASER TONER MFP 6121 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF352A YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>GPT-0083</v>
+        <v>GPT-0014</v>
       </c>
       <c r="B347" t="str">
-        <v>XEROX PHASER TONER MFP 6121 CYAN ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF353A MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>GPT-0084</v>
+        <v>GPT-0015</v>
       </c>
       <c r="B348" t="str">
-        <v>XEROX PHASER TONER MFP 6121 YELLOW ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q5949X/7553X BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>GPT-0085</v>
+        <v>GPT-0016</v>
       </c>
       <c r="B349" t="str">
-        <v>KONICA MINOLTA TONER 1600 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF283A BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>GPT-0086</v>
+        <v>GPT-0017</v>
       </c>
       <c r="B350" t="str">
-        <v>KONICA MINOLTA TONER 1600 CYAN ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER E120 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>GPT-0087</v>
+        <v>GPT-0018</v>
       </c>
       <c r="B351" t="str">
-        <v>KONICA MINOLTA TONER 1600 MAGENTA ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER CE230 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>GPT-0088</v>
+        <v>GPT-0019</v>
       </c>
       <c r="B352" t="str">
-        <v>KONICA MINOLTA TONER 1600 YELLOW ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER CE250/CE350 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>GPT-0089</v>
+        <v>GPT-0020</v>
       </c>
       <c r="B353" t="str">
-        <v>XEROX PHASER TONER 6125N BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B401/MB441/451 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>GPT-0090</v>
+        <v>GPT-0021</v>
       </c>
       <c r="B354" t="str">
-        <v>XEROX PHASER TONER 6125N CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER PH-1220D BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>GPT-0092</v>
+        <v>GPT-0022</v>
       </c>
       <c r="B355" t="str">
-        <v>XEROX PHASER TONER 6125N YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER PH-1230D BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>GPT-0093</v>
+        <v>GPT-0023</v>
       </c>
       <c r="B356" t="str">
-        <v>HP TONER C7115X BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER PH-2220D BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>GPT-0094</v>
+        <v>GPT-0024</v>
       </c>
       <c r="B357" t="str">
-        <v>HP TONER Q2624X BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML1660/MLT-D1042S BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>GPT-0095</v>
+        <v>GPT-0025</v>
       </c>
       <c r="B358" t="str">
-        <v>HP TONER Q7551X BLACK ΣΥΜΒΑΤΟ 13000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML1710/1510/1520 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>GPT-0096</v>
+        <v>GPT-0026</v>
       </c>
       <c r="B359" t="str">
-        <v>HP TONER C4092A BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D101S BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>GPT-0097</v>
+        <v>GPT-0027</v>
       </c>
       <c r="B360" t="str">
-        <v>HP TONER C7115A BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D111S BLACK ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>GPT-0099</v>
+        <v>GPT-0028</v>
       </c>
       <c r="B361" t="str">
-        <v>SAMSUNG TONER ML2850D/2851DN BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D116L BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>GPT-0100</v>
+        <v>GPT-0029</v>
       </c>
       <c r="B362" t="str">
-        <v>HP TONER CE400X/507X BLACK ΣΥΜΒΑΤΟ 11000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D204L BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>GPT-0101</v>
+        <v>GPT-0030</v>
       </c>
       <c r="B363" t="str">
-        <v>HP TONER CE401A/507A CYAN ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLTD205A/205L BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>GPT-0102</v>
+        <v>GPT-0031</v>
       </c>
       <c r="B364" t="str">
-        <v>SAMSUNG TONER MLT-D205X/205E BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP325/CLP320/4072 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>GPT-0103</v>
+        <v>GPT-0032</v>
       </c>
       <c r="B365" t="str">
-        <v>HP TONER Q6000 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP325/CLP320/4072 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>GPT-0104</v>
+        <v>GPT-0033</v>
       </c>
       <c r="B366" t="str">
-        <v>HP TONER Q6001 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP325/CLP320/4072 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>GPT-0105</v>
+        <v>GPT-0034</v>
       </c>
       <c r="B367" t="str">
-        <v>HP TONER Q6002 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP325/CLP320/4072 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>GPT-0106</v>
+        <v>GPT-0035</v>
       </c>
       <c r="B368" t="str">
-        <v>HP TONER Q6003 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP406S/CLP360/365/3305 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>GPT-0107</v>
+        <v>GPT-0036</v>
       </c>
       <c r="B369" t="str">
-        <v>HP TONER Q6471 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP406S/CLP360/365/3305 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>GPT-0108</v>
+        <v>GPT-0037</v>
       </c>
       <c r="B370" t="str">
-        <v>HP TONER Q6472 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP406S/CLP360/365/3305 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>GPT-0109</v>
+        <v>GPT-0038</v>
       </c>
       <c r="B371" t="str">
-        <v>HP TONER Q6473 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP406S/CLP360/365/3305 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>GPT-0110</v>
+        <v>GPT-0040</v>
       </c>
       <c r="B372" t="str">
-        <v>HP TONER CB400A BLACK ΣΥΜΒΑΤΟ 7500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3100 106R01379 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>GPT-0111</v>
+        <v>GPT-0042</v>
       </c>
       <c r="B373" t="str">
-        <v>HP TONER CB401A CYAN ΣΥΜΒΑΤΟ 7500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE310A CP1025 126A  BLACK ΣΥΜΒΑΤΟ 1200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>GPT-0112</v>
+        <v>GPT-0043</v>
       </c>
       <c r="B374" t="str">
-        <v>HP TONER CB402A YELLOW ΣΥΜΒΑΤΟ 7500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML1910/MLT-D1052L/SCX4600/SCX4623 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>GPT-0113</v>
+        <v>GPT-0044</v>
       </c>
       <c r="B375" t="str">
-        <v>HP TONER CB403A MAGENTA ΣΥΜΒΑΤΟ 7500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP506L/680/6260 CYAN ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>GPT-0114</v>
+        <v>GPT-0045</v>
       </c>
       <c r="B376" t="str">
-        <v>HP TONER CE402A/507A YELLOW ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP506L/680/6260 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>GPT-0115</v>
+        <v>GPT-0046</v>
       </c>
       <c r="B377" t="str">
-        <v>HP TONER CE403A/507A MAGENTA ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP506L/680/6260 MAGENTA ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>GPT-0116</v>
+        <v>GPT-0047</v>
       </c>
       <c r="B378" t="str">
-        <v>OKI TONER B6200 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP506L/680/6260 YELLOW ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>GPT-0117</v>
+        <v>GPT-0048</v>
       </c>
       <c r="B379" t="str">
-        <v>SAMSUNG TONER MLT-D103L BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE311A CP1025 126A CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>GPT-0118</v>
+        <v>GPT-0049</v>
       </c>
       <c r="B380" t="str">
-        <v>XEROX TONER 6180 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE312A CP1025 126A YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>GPT-0119</v>
+        <v>GPT-0050</v>
       </c>
       <c r="B381" t="str">
-        <v>XEROX TONER 6180 CYAN ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE313A CP1025 126A MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>GPT-0120</v>
+        <v>GPT-0051</v>
       </c>
       <c r="B382" t="str">
-        <v>XEROX TONER 6180 MAGENTA ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER E260X BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>GPT-0121</v>
+        <v>GPT-0052</v>
       </c>
       <c r="B383" t="str">
-        <v>XEROX TONER 6180 YELLOW ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF280A BLACK ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>GPT-0122</v>
+        <v>GPT-0053</v>
       </c>
       <c r="B384" t="str">
-        <v>XEROX TONER 6280 BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML1640 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>GPT-0123</v>
+        <v>GPT-0054</v>
       </c>
       <c r="B385" t="str">
-        <v>XEROX TONER 6280 CYAN ΣΥΜΒΑΤΟ 5900 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6470 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>GPT-0124</v>
+        <v>GPT-0055</v>
       </c>
       <c r="B386" t="str">
-        <v>XEROX TONER 6280 MAGENTA ΣΥΜΒΑΤΟ 5900 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C301/321 CYAN ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>GPT-0125</v>
+        <v>GPT-0056</v>
       </c>
       <c r="B387" t="str">
-        <v>XEROX TONER 6280 YELLOW  ΣΥΜΒΑΤΟ 5900 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C301/321 MAGENTA ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>GPT-0126</v>
+        <v>GPT-0057</v>
       </c>
       <c r="B388" t="str">
-        <v>XEROX PHASER TONER 3010 / 3040 BLACK ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C301/321 YELLOW ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>GPT-0127</v>
+        <v>GPT-0058</v>
       </c>
       <c r="B389" t="str">
-        <v>KYOCERA TONER TK410 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C310/C330/C510/C530 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>GPT-0128</v>
+        <v>GPT-0059</v>
       </c>
       <c r="B390" t="str">
-        <v>HP TONER CE505X BLACK ΣΥΜΒΑΤΟ 6500 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C310/C330/C510/C530 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
-        <v>GPT-0129</v>
+        <v>GPT-0060</v>
       </c>
       <c r="B391" t="str">
-        <v>HP TONER CE285A/CRG725/CB435A/436/CAN712/CAN713 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C310/C330/C510/C530 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>GPT-0130</v>
+        <v>GPT-0061</v>
       </c>
       <c r="B392" t="str">
-        <v>OKI TONER C301/321 BLACK ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C310/C330/C510/C530 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>GPT-0131</v>
+        <v>GPT-0062</v>
       </c>
       <c r="B393" t="str">
-        <v>HP TONER CE255A BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF280X BLACK ΣΥΜΒΑΤΟ 6900 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>GPT-0132</v>
+        <v>GPT-0063</v>
       </c>
       <c r="B394" t="str">
-        <v>HP TONER CE255X BLACK ΣΥΜΒΑΤΟ 12500 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B410/430/440/MB460/470/480 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>GPT-0133</v>
+        <v>GPT-0065</v>
       </c>
       <c r="B395" t="str">
-        <v>HP TONER Q5949A/7553A BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER C540H2KG BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>GPT-0134</v>
+        <v>GPT-0066</v>
       </c>
       <c r="B396" t="str">
-        <v>HP TONER CF380X BLACK ΣΥΜΒΑΤΟ 4400 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER C540H2CG CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>GPT-0135</v>
+        <v>GPT-0067</v>
       </c>
       <c r="B397" t="str">
-        <v>HP TONER Q2612X/FX9/FX10/104 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER C540H2MG MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
-        <v>GPT-0136</v>
+        <v>GPT-0068</v>
       </c>
       <c r="B398" t="str">
-        <v>EPSON TONER C900/50097 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C1700 - 50611 YELLOW ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="str">
-        <v>GPT-0137</v>
+        <v>GPT-0069</v>
       </c>
       <c r="B399" t="str">
-        <v>EPSON TONER C900/50098 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C1700 - 50612 MAGENTA ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
-        <v>GPT-0138</v>
+        <v>GPT-0070</v>
       </c>
       <c r="B400" t="str">
-        <v>EPSON TONER C900/50099 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER EPL6200L BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="str">
-        <v>GPT-0139</v>
+        <v>GPT-0071</v>
       </c>
       <c r="B401" t="str">
-        <v>EPSON TONER C900/50100 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK435 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
-        <v>GPT-0140</v>
+        <v>GPT-0072</v>
       </c>
       <c r="B402" t="str">
-        <v>HP TONER CF381A CYAN ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK715 BLACK ΣΥΜΒΑΤΟ 34000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
-        <v>GPT-0141</v>
+        <v>GPT-0075</v>
       </c>
       <c r="B403" t="str">
-        <v>HP TONER CF382A YELLOW ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B430/MB460/470 BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
-        <v>GPT-0142</v>
+        <v>GPT-0076</v>
       </c>
       <c r="B404" t="str">
-        <v>HP TONER CF383A MAGENTA ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B411/431 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
-        <v>GPT-0143</v>
+        <v>GPT-0077</v>
       </c>
       <c r="B405" t="str">
-        <v>RICOH TONER PH - 1270D BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B431 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="str">
-        <v>GPT-0144</v>
+        <v>GPT-0078</v>
       </c>
       <c r="B406" t="str">
-        <v>HP TONER CC364A BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΛΕΣ</v>
+        <v>XEROX PHASER TONER 6000/6010/6015 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="str">
-        <v>GPT-0145</v>
+        <v>GPT-0079</v>
       </c>
       <c r="B407" t="str">
-        <v>HP TONER CF360A BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 6000/6010/6015 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="str">
-        <v>GPT-0146</v>
+        <v>GPT-0080</v>
       </c>
       <c r="B408" t="str">
-        <v>HP TONER CF360X BLACK ΣΥΜΒΑΤΟ 12500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 6000/6010/6015 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="str">
-        <v>GPT-0147</v>
+        <v>GPT-0081</v>
       </c>
       <c r="B409" t="str">
-        <v>HP TONER CF410A BLACK ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΛΕΣ</v>
+        <v>XEROX PHASER TONER 6000/6010/6015 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="str">
-        <v>GPT-0148</v>
+        <v>GPT-0082</v>
       </c>
       <c r="B410" t="str">
-        <v>HP TONER CF410X BLACK ΣΥΜΒΑΤΟ 6500 ΣΕΛΙΛΕΣ</v>
+        <v>XEROX PHASER TONER MFP 6121 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="str">
-        <v>GPT-0149</v>
+        <v>GPT-0083</v>
       </c>
       <c r="B411" t="str">
-        <v>HP TONER CF226A BLACK ΣΥΜΒΑΤΟ 3100 ΣΕΛΙΛΕΣ</v>
+        <v>XEROX PHASER TONER MFP 6121 CYAN ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="str">
-        <v>GPT-0150</v>
+        <v>GPT-0084</v>
       </c>
       <c r="B412" t="str">
-        <v>HP TONER 28A - CF228A BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER MFP 6121 YELLOW ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="str">
-        <v>GPT-0151</v>
+        <v>GPT-0085</v>
       </c>
       <c r="B413" t="str">
-        <v>HP TONER CF281A BLACK ΣΥΜΒΑΤΟ 10500 ΣΕΛΙΛΕΣ</v>
+        <v>KONICA MINOLTA TONER 1600 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="str">
-        <v>GPT-0153</v>
+        <v>GPT-0086</v>
       </c>
       <c r="B414" t="str">
-        <v>XEROX TONER 3250 - 106R01374 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER 1600 CYAN ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="str">
-        <v>GPT-0155</v>
+        <v>GPT-0087</v>
       </c>
       <c r="B415" t="str">
-        <v>HP TONER CF361A CYAN ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER 1600 MAGENTA ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="str">
-        <v>GPT-0156</v>
+        <v>GPT-0088</v>
       </c>
       <c r="B416" t="str">
-        <v>HP TONER CF362A YELLOW ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER 1600 YELLOW ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="str">
-        <v>GPT-0157</v>
+        <v>GPT-0089</v>
       </c>
       <c r="B417" t="str">
-        <v>HP TONER CF363A MAGENTA ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 6125N BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="str">
-        <v>GPT-0158</v>
+        <v>GPT-0090</v>
       </c>
       <c r="B418" t="str">
-        <v>HP TONER CF361X CYAN ΣΥΜΒΑΤΟ 9500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 6125N CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="str">
-        <v>GPT-0159</v>
+        <v>GPT-0092</v>
       </c>
       <c r="B419" t="str">
-        <v>HP TONER CF362X YELLOW ΣΥΜΒΑΤΟ 9500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 6125N YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="str">
-        <v>GPT-0160</v>
+        <v>GPT-0093</v>
       </c>
       <c r="B420" t="str">
-        <v>HP TONER CF363X MAGENTA ΣΥΜΒΑΤΟ 9500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER C7115X BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="str">
-        <v>GPT-0161</v>
+        <v>GPT-0094</v>
       </c>
       <c r="B421" t="str">
-        <v>HP TONER CF411A CYAN ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q2624X BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="str">
-        <v>GPT-0162</v>
+        <v>GPT-0095</v>
       </c>
       <c r="B422" t="str">
-        <v>HP TONER CF412A YELLOW ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q7551X BLACK ΣΥΜΒΑΤΟ 13000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="str">
-        <v>GPT-0163</v>
+        <v>GPT-0096</v>
       </c>
       <c r="B423" t="str">
-        <v>HP TONER CF413A MAGENTA ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER C4092A BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="str">
-        <v>GPT-0164</v>
+        <v>GPT-0097</v>
       </c>
       <c r="B424" t="str">
-        <v>HP TONER CF411X CYAN ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER C7115A BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="str">
-        <v>GPT-0165</v>
+        <v>GPT-0099</v>
       </c>
       <c r="B425" t="str">
-        <v>HP TONER CF412X YELLOW ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML2850D/2851DN BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="str">
-        <v>GPT-0166</v>
+        <v>GPT-0100</v>
       </c>
       <c r="B426" t="str">
-        <v>HP TONER CF413X MAGENTA ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE400X/507X BLACK ΣΥΜΒΑΤΟ 11000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="str">
-        <v>GPT-0167</v>
+        <v>GPT-0101</v>
       </c>
       <c r="B427" t="str">
-        <v>HP TONER CF226X BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE401A/507A CYAN ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="str">
-        <v>GPT-0168</v>
+        <v>GPT-0102</v>
       </c>
       <c r="B428" t="str">
-        <v>HP TONER CF287A BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D205X/205E BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="str">
-        <v>GPT-0169</v>
+        <v>GPT-0103</v>
       </c>
       <c r="B429" t="str">
-        <v>XEROX TONER 3315/3325 - 106R02311 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6000 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="str">
-        <v>GPT-0170</v>
+        <v>GPT-0104</v>
       </c>
       <c r="B430" t="str">
-        <v>SAMSUNG TONER MLT D203L BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6001 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="str">
-        <v>GPT-0171</v>
+        <v>GPT-0105</v>
       </c>
       <c r="B431" t="str">
-        <v>HP TONER CC530A/CRG718 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6002 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="str">
-        <v>GPT-0172</v>
+        <v>GPT-0106</v>
       </c>
       <c r="B432" t="str">
-        <v>HP TONER CC531A/CRG718 CYAN ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6003 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="str">
-        <v>GPT-0173</v>
+        <v>GPT-0107</v>
       </c>
       <c r="B433" t="str">
-        <v>HP TONER CC532A/CRG718 YELLOW ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6471 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="str">
-        <v>GPT-0174</v>
+        <v>GPT-0108</v>
       </c>
       <c r="B434" t="str">
-        <v>HP TONER CC533A/CRG718 MAGENTA ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6472 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="str">
-        <v>GPT-0178</v>
+        <v>GPT-0109</v>
       </c>
       <c r="B435" t="str">
-        <v>SAMSUNG TONER MLT D209 D5 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6473 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="str">
-        <v>GPT-0180</v>
+        <v>GPT-0110</v>
       </c>
       <c r="B436" t="str">
-        <v>XEROX TONER 3320 - 106R02307  BLACK   ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CB400A BLACK ΣΥΜΒΑΤΟ 7500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="str">
-        <v>GPT-0181</v>
+        <v>GPT-0111</v>
       </c>
       <c r="B437" t="str">
-        <v>HP TONER 201X - CF400X BLACK ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CB401A CYAN ΣΥΜΒΑΤΟ 7500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="str">
-        <v>GPT-0182</v>
+        <v>GPT-0112</v>
       </c>
       <c r="B438" t="str">
-        <v>HP TONER 201X - CF401X CYAN ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CB402A YELLOW ΣΥΜΒΑΤΟ 7500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="str">
-        <v>GPT-0183</v>
+        <v>GPT-0113</v>
       </c>
       <c r="B439" t="str">
-        <v>HP TONER 201X - CF402X YELLOW ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CB403A MAGENTA ΣΥΜΒΑΤΟ 7500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="str">
-        <v>GPT-0184</v>
+        <v>GPT-0114</v>
       </c>
       <c r="B440" t="str">
-        <v>HP TONER 201X - CF403X MAGENTA ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE402A/507A YELLOW ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="str">
-        <v>GPT-0185</v>
+        <v>GPT-0115</v>
       </c>
       <c r="B441" t="str">
-        <v>HP TONER CF283X BLACK ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE403A/507A MAGENTA ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="str">
-        <v>GPT-0186</v>
+        <v>GPT-0116</v>
       </c>
       <c r="B442" t="str">
-        <v>SAMSUNG TONER MLT-D117 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B6200 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="str">
-        <v>GPT-0187</v>
+        <v>GPT-0117</v>
       </c>
       <c r="B443" t="str">
-        <v>XEROX TONER 3210 / 3220 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D103L BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="str">
-        <v>GPT-0188</v>
+        <v>GPT-0118</v>
       </c>
       <c r="B444" t="str">
-        <v>LEXMARK TONER CS 310 YELLOW ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6180 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="str">
-        <v>GPT-0189</v>
+        <v>GPT-0119</v>
       </c>
       <c r="B445" t="str">
-        <v>LEXMARK TONER MX310/ MX410/ MX510 - 60F2H00 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6180 CYAN ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="str">
-        <v>GPT-0195</v>
+        <v>GPT-0120</v>
       </c>
       <c r="B446" t="str">
-        <v>LEXMARK TONER MS310 - 50F2H00 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6180 MAGENTA ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="str">
-        <v>GPT-0196</v>
+        <v>GPT-0121</v>
       </c>
       <c r="B447" t="str">
-        <v>RICOH TONER Y MFP C2030/C2050/C2530/C2550 YELLOW ΣΥΜΒΑΤΟ 5500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6180 YELLOW ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="str">
-        <v>GPT-0197</v>
+        <v>GPT-0122</v>
       </c>
       <c r="B448" t="str">
-        <v>RICOH TONER M MFP C2030/C2050/C2530/C2550 MAGENTA ΣΥΜΒΑΤΟ 5500 ΣΕΛΙΔΕΣ -</v>
+        <v>XEROX TONER 6280 BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="str">
-        <v>GPT-0198</v>
+        <v>GPT-0123</v>
       </c>
       <c r="B449" t="str">
-        <v>RICOH TONER SP1000A BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6280 CYAN ΣΥΜΒΑΤΟ 5900 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="str">
-        <v>GPT-0200</v>
+        <v>GPT-0124</v>
       </c>
       <c r="B450" t="str">
-        <v>SAMSUNG TONER ML1610/ML2010/SCX4521 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6280 MAGENTA ΣΥΜΒΑΤΟ 5900 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="str">
-        <v>GPT-0201</v>
+        <v>GPT-0125</v>
       </c>
       <c r="B451" t="str">
-        <v>SAMSUNG TONER CLT 404S BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6280 YELLOW  ΣΥΜΒΑΤΟ 5900 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="str">
-        <v>GPT-0202</v>
+        <v>GPT-0126</v>
       </c>
       <c r="B452" t="str">
-        <v>RICOH TONER PH-3210D BLACK ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 3010 / 3040 BLACK ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="str">
-        <v>GPT-0206</v>
+        <v>GPT-0127</v>
       </c>
       <c r="B453" t="str">
-        <v>HP TONER CE320 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK410 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="str">
-        <v>GPT-0207</v>
+        <v>GPT-0128</v>
       </c>
       <c r="B454" t="str">
-        <v>HP TONER CE321 CYAN ΣΥΜΒΑΤΟ 1300 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE505X BLACK ΣΥΜΒΑΤΟ 6500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="str">
-        <v>GPT-0208</v>
+        <v>GPT-0129</v>
       </c>
       <c r="B455" t="str">
-        <v>HP TONER CE323 MAGENTA ΣΥΜΒΑΤΟ 1300 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE285A/CRG725/CB435A/436/CAN712/CAN713 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="str">
-        <v>GPT-0209</v>
+        <v>GPT-0130</v>
       </c>
       <c r="B456" t="str">
-        <v>HP TONER CE322A YELLOW ΣΥΜΒΑΤΟ 1300 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C301/321 BLACK ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="str">
-        <v>GPT-0216</v>
+        <v>GPT-0131</v>
       </c>
       <c r="B457" t="str">
-        <v>RICOH TONER SP100E BLACK ΣΥΜΒΑΤΟ 1200 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE255A BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="str">
-        <v>GPT-0217</v>
+        <v>GPT-0132</v>
       </c>
       <c r="B458" t="str">
-        <v>HP TONER MFP CB380A BLACK ΣΥΜΒΑΤΟ 16500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE255X BLACK ΣΥΜΒΑΤΟ 12500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="str">
-        <v>GPT-0218</v>
+        <v>GPT-0133</v>
       </c>
       <c r="B459" t="str">
-        <v>HP TONER MFP CB381A CYAN ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q5949A/7553A BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="str">
-        <v>GPT-0219</v>
+        <v>GPT-0134</v>
       </c>
       <c r="B460" t="str">
-        <v>HP TONER MFP CB382A YELLOW ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF380X BLACK ΣΥΜΒΑΤΟ 4400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="str">
-        <v>GPT-0220</v>
+        <v>GPT-0135</v>
       </c>
       <c r="B461" t="str">
-        <v>HP TONER MFP CB383A MAGENTA ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q2612X/FX9/FX10/104 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="str">
-        <v>GPT-0221</v>
+        <v>GPT-0136</v>
       </c>
       <c r="B462" t="str">
-        <v>CANON TONER FX3 BLACK ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C900/50097 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="str">
-        <v>GPT-0222</v>
+        <v>GPT-0137</v>
       </c>
       <c r="B463" t="str">
-        <v>SAMSUNG TONER SCX4300/MLT-D109 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C900/50098 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="str">
-        <v>GPT-0223</v>
+        <v>GPT-0138</v>
       </c>
       <c r="B464" t="str">
-        <v>CANON TONER FX8 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C900/50099 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="str">
-        <v>GPT-0224</v>
+        <v>GPT-0139</v>
       </c>
       <c r="B465" t="str">
-        <v>HP TONER CF210X BLACK ΣΥΜΒΑΤΟ 2400 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C900/50100 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="str">
-        <v>GPT-0225</v>
+        <v>GPT-0140</v>
       </c>
       <c r="B466" t="str">
-        <v>HP TONER CF211A CYAN ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF381A CYAN ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="str">
-        <v>GPT-0226</v>
+        <v>GPT-0141</v>
       </c>
       <c r="B467" t="str">
-        <v>HP TONER CF212A YELLOW  ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF382A YELLOW ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="str">
-        <v>GPT-0227</v>
+        <v>GPT-0142</v>
       </c>
       <c r="B468" t="str">
-        <v>HP TONER CF213A MAGENTA ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF383A MAGENTA ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="str">
-        <v>GPT-0228</v>
+        <v>GPT-0143</v>
       </c>
       <c r="B469" t="str">
-        <v>HP TONER CE741A CYAN ΣΥΜΒΑΤΟ 7300 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER PH - 1270D BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="str">
-        <v>GPT-0229</v>
+        <v>GPT-0144</v>
       </c>
       <c r="B470" t="str">
-        <v>KYOCERA TONER TK130 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CC364A BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΛΕΣ</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="str">
-        <v>GPT-0230</v>
+        <v>GPT-0145</v>
       </c>
       <c r="B471" t="str">
-        <v>KYOCERA TONER TK160 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF360A BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="str">
-        <v>GPT-0231</v>
+        <v>GPT-0146</v>
       </c>
       <c r="B472" t="str">
-        <v>HP TONER Q2610A BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF360X BLACK ΣΥΜΒΑΤΟ 12500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="str">
-        <v>GPT-0233</v>
+        <v>GPT-0147</v>
       </c>
       <c r="B473" t="str">
-        <v>RICOH TONER SP300 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF410A BLACK ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΛΕΣ</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="str">
-        <v>GPT-0234</v>
+        <v>GPT-0148</v>
       </c>
       <c r="B474" t="str">
-        <v>EPSON TONER N2550 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF410X BLACK ΣΥΜΒΑΤΟ 6500 ΣΕΛΙΛΕΣ</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="str">
-        <v>GPT-0235</v>
+        <v>GPT-0149</v>
       </c>
       <c r="B475" t="str">
-        <v>PANASONIC TONER FAT411 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF226A BLACK ΣΥΜΒΑΤΟ 3100 ΣΕΛΙΛΕΣ</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="str">
-        <v>GPT-0236</v>
+        <v>GPT-0150</v>
       </c>
       <c r="B476" t="str">
-        <v>PANASONIC TONER FAT83 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER 28A - CF228A BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="str">
-        <v>GPT-0237</v>
+        <v>GPT-0151</v>
       </c>
       <c r="B477" t="str">
-        <v>PANASONIC TONER FAT88 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF281A BLACK ΣΥΜΒΑΤΟ 10500 ΣΕΛΙΛΕΣ</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="str">
-        <v>GPT-0238</v>
+        <v>GPT-0153</v>
       </c>
       <c r="B478" t="str">
-        <v>PANASONIC TONER KX FAT92 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3250 - 106R01374 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="str">
-        <v>GPT-0239</v>
+        <v>GPT-0155</v>
       </c>
       <c r="B479" t="str">
-        <v>SAMSUNG TONER CLP 504S/410/415/4195 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF361A CYAN ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="str">
-        <v>GPT-0240</v>
+        <v>GPT-0156</v>
       </c>
       <c r="B480" t="str">
-        <v>SAMSUNG TONER CLP 504S/410/415/4195 CYAN ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF362A YELLOW ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="str">
-        <v>GPT-0241</v>
+        <v>GPT-0157</v>
       </c>
       <c r="B481" t="str">
-        <v>SAMSUNG TONER CLP 504S/410/415/4195 MAGENTA  ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF363A MAGENTA ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="str">
-        <v>GPT-0242</v>
+        <v>GPT-0158</v>
       </c>
       <c r="B482" t="str">
-        <v>SAMSUNG TONER CLP 504S/410/415/4195 YELLOW  ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF361X CYAN ΣΥΜΒΑΤΟ 9500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="str">
-        <v>GPT-0243</v>
+        <v>GPT-0159</v>
       </c>
       <c r="B483" t="str">
-        <v>BROTHER TONER TN6600/TN460/560/570/TN3060 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF362X YELLOW ΣΥΜΒΑΤΟ 9500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="str">
-        <v>GPT-0244</v>
+        <v>GPT-0160</v>
       </c>
       <c r="B484" t="str">
-        <v>HP TONER CE250X BLACK ΣΥΜΒΑΤΟ 10500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF363X MAGENTA ΣΥΜΒΑΤΟ 9500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="str">
-        <v>GPT-0245</v>
+        <v>GPT-0161</v>
       </c>
       <c r="B485" t="str">
-        <v>HP TONER CE251A CYAN ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF411A CYAN ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="str">
-        <v>GPT-0246</v>
+        <v>GPT-0162</v>
       </c>
       <c r="B486" t="str">
-        <v>HP TONER CE252A YELLOW ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF412A YELLOW ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="str">
-        <v>GPT-0247</v>
+        <v>GPT-0163</v>
       </c>
       <c r="B487" t="str">
-        <v>HP TONER CE253A MAGENTA ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF413A MAGENTA ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="str">
-        <v>GPT-0250</v>
+        <v>GPT-0164</v>
       </c>
       <c r="B488" t="str">
-        <v>HP TONER C4129X BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF411X CYAN ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="str">
-        <v>GPT-0251</v>
+        <v>GPT-0165</v>
       </c>
       <c r="B489" t="str">
-        <v>KYOCERA TONER TK-170 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF412X YELLOW ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="str">
-        <v>GPT-0252</v>
+        <v>GPT-0166</v>
       </c>
       <c r="B490" t="str">
-        <v>KYOCERA TONER TK18 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF413X MAGENTA ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="str">
-        <v>GPT-0253</v>
+        <v>GPT-0167</v>
       </c>
       <c r="B491" t="str">
-        <v>KYOCERA TONER TK17 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF226X BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="str">
-        <v>GPT-0254</v>
+        <v>GPT-0168</v>
       </c>
       <c r="B492" t="str">
-        <v>OKI TONER B4100/4200/4250/4300/4350 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF287A BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="str">
-        <v>GPT-0255</v>
+        <v>GPT-0169</v>
       </c>
       <c r="B493" t="str">
-        <v>OKI TONER C3300/3400/3450 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3315/3325 - 106R02311 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="str">
-        <v>GPT-0256</v>
+        <v>GPT-0170</v>
       </c>
       <c r="B494" t="str">
-        <v>OKI TONER C3300/3400/3450 CYAN ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT D203L BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="str">
-        <v>GPT-0257</v>
+        <v>GPT-0171</v>
       </c>
       <c r="B495" t="str">
-        <v>OKI TONER C3300/3400/3450 MAGENTA ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CC530A/CRG718 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="str">
-        <v>GPT-0258</v>
+        <v>GPT-0172</v>
       </c>
       <c r="B496" t="str">
-        <v>OKI TONER C3300/3400/3450 YELLOW ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CC531A/CRG718 CYAN ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="str">
-        <v>GPT-0259</v>
+        <v>GPT-0173</v>
       </c>
       <c r="B497" t="str">
-        <v>RICOH TONER C MFP C2030/C2050/C2530/C2550 CYAN ΣΥΜΒΑΤΟ 5500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CC532A/CRG718 YELLOW ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="str">
-        <v>GPT-0260</v>
+        <v>GPT-0174</v>
       </c>
       <c r="B498" t="str">
-        <v>KYOCERA TONER TK120 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CC533A/CRG718 MAGENTA ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="str">
-        <v>GPT-0261</v>
+        <v>GPT-0178</v>
       </c>
       <c r="B499" t="str">
-        <v>HP TONER Q5942X BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT D209 D5 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="str">
-        <v>GPT-0262</v>
+        <v>GPT-0180</v>
       </c>
       <c r="B500" t="str">
-        <v>SAMSUNG TONER MLT-D203E BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3320 - 106R02307  BLACK   ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="str">
-        <v>GPT-0263</v>
+        <v>GPT-0181</v>
       </c>
       <c r="B501" t="str">
-        <v>EPSON TONER C1700 - 50614 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER 201X - CF400X BLACK ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="str">
-        <v>GPT-0264</v>
+        <v>GPT-0182</v>
       </c>
       <c r="B502" t="str">
-        <v>HP TONER CE390A BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER 201X - CF401X CYAN ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="str">
-        <v>GPT-0265</v>
+        <v>GPT-0183</v>
       </c>
       <c r="B503" t="str">
-        <v>SAMSUNG TONER ML3470 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER 201X - CF402X YELLOW ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="str">
-        <v>GPT-0267</v>
+        <v>GPT-0184</v>
       </c>
       <c r="B504" t="str">
-        <v>EPSON TONER C2800 - ES051158 YELLOW ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER 201X - CF403X MAGENTA ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="str">
-        <v>GPT-0268</v>
+        <v>GPT-0185</v>
       </c>
       <c r="B505" t="str">
-        <v>EPSON TONER C2800 - ES051159 MAGENTA ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF283X BLACK ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="str">
-        <v>GPT-0269</v>
+        <v>GPT-0186</v>
       </c>
       <c r="B506" t="str">
-        <v>EPSON TONER C2800 - ES051160 CYAN ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D117 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="str">
-        <v>GPT-0270</v>
+        <v>GPT-0187</v>
       </c>
       <c r="B507" t="str">
-        <v>EPSON TONER C2800 - ES051161 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3210 / 3220 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="str">
-        <v>GPT-0271</v>
+        <v>GPT-0188</v>
       </c>
       <c r="B508" t="str">
-        <v>HP TONER C8543X BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER CS 310 YELLOW ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="str">
-        <v>GPT-0272</v>
+        <v>GPT-0189</v>
       </c>
       <c r="B509" t="str">
-        <v>BROTHER TONER TN3170/3130/TN580 BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER MX310/ MX410/ MX510 - 60F2H00 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="str">
-        <v>GPT-0273</v>
+        <v>GPT-0195</v>
       </c>
       <c r="B510" t="str">
-        <v>XEROX TONER 3215 - 106R02777 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER MS310 - 50F2H00 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="str">
-        <v>GPT-0274</v>
+        <v>GPT-0196</v>
       </c>
       <c r="B511" t="str">
-        <v>HP TONER Q7551A BLACK ΣΥΜΒΑΤΟ 6500 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER Y MFP C2030/C2050/C2530/C2550 YELLOW ΣΥΜΒΑΤΟ 5500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="str">
-        <v>GPT-0275</v>
+        <v>GPT-0197</v>
       </c>
       <c r="B512" t="str">
-        <v>OKI TONER C510/C530/MC561 CYAN ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER M MFP C2030/C2050/C2530/C2550 MAGENTA ΣΥΜΒΑΤΟ 5500 ΣΕΛΙΔΕΣ -</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="str">
-        <v>GPT-0276</v>
+        <v>GPT-0198</v>
       </c>
       <c r="B513" t="str">
-        <v>EPSON TONER C1700 - 50613 CYAN ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER SP1000A BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="str">
-        <v>GPT-0277</v>
+        <v>GPT-0200</v>
       </c>
       <c r="B514" t="str">
-        <v>HP TONER CE390X BLACK ΣΥΜΒΑΤΟ 24000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML1610/ML2010/SCX4521 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="str">
-        <v>GPT-0278</v>
+        <v>GPT-0201</v>
       </c>
       <c r="B515" t="str">
-        <v>HP TONER Q2613A BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLT 404S BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="str">
-        <v>GPT-0279</v>
+        <v>GPT-0202</v>
       </c>
       <c r="B516" t="str">
-        <v>CANON TONER EP26A/EP27/25X BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER PH-3210D BLACK ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="str">
-        <v>GPT-0280</v>
+        <v>GPT-0206</v>
       </c>
       <c r="B517" t="str">
-        <v>BROTHER TONER TN 3380 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE320 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="str">
-        <v>GPT-0281</v>
+        <v>GPT-0207</v>
       </c>
       <c r="B518" t="str">
-        <v>BROTHER TONER TN 2220/ΤΝ 450/ΤΝ 2200/ΤΝ 2010 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE321 CYAN ΣΥΜΒΑΤΟ 1300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="str">
-        <v>GPT-0282</v>
+        <v>GPT-0208</v>
       </c>
       <c r="B519" t="str">
-        <v>BROTHER TONER TN2120/TN360 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE323 MAGENTA ΣΥΜΒΑΤΟ 1300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="str">
-        <v>GPT-0283</v>
+        <v>GPT-0209</v>
       </c>
       <c r="B520" t="str">
-        <v>BROTHER TONER TN2000 / TN350 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE322A YELLOW ΣΥΜΒΑΤΟ 1300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="str">
-        <v>GPT-0284</v>
+        <v>GPT-0216</v>
       </c>
       <c r="B521" t="str">
-        <v>BROTHER TONER TN 650/3290/TN 3280/TN 3170 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER SP100E BLACK ΣΥΜΒΑΤΟ 1200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="str">
-        <v>GPT-0285</v>
+        <v>GPT-0217</v>
       </c>
       <c r="B522" t="str">
-        <v>BROTHER TONER TN620 /TN3230 /TN3240 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER MFP CB380A BLACK ΣΥΜΒΑΤΟ 16500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="str">
-        <v>GPT-0286</v>
+        <v>GPT-0218</v>
       </c>
       <c r="B523" t="str">
-        <v>BROTHER TONER TN 8000/TN 300/200/250 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER MFP CB381A CYAN ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="str">
-        <v>GPT-0287</v>
+        <v>GPT-0219</v>
       </c>
       <c r="B524" t="str">
-        <v>BROTHER TONER TN1050 (TN1030)  BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER MFP CB382A YELLOW ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="str">
-        <v>GPT-0288</v>
+        <v>GPT-0220</v>
       </c>
       <c r="B525" t="str">
-        <v>RICOH TONER MP2501 BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER MFP CB383A MAGENTA ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="str">
-        <v>GPT-0289</v>
+        <v>GPT-0221</v>
       </c>
       <c r="B526" t="str">
-        <v>SAMSUNG TONER ML 3050 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>CANON TONER FX3 BLACK ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="str">
-        <v>GPT-0290</v>
+        <v>GPT-0222</v>
       </c>
       <c r="B527" t="str">
-        <v>SAMSUNG TONER MLT-D2082L BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER SCX4300/MLT-D109 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="str">
-        <v>GPT-0291</v>
+        <v>GPT-0223</v>
       </c>
       <c r="B528" t="str">
-        <v>SAMSUNG TONER SCX4725A BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>CANON TONER FX8 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="str">
-        <v>GPT-0292</v>
+        <v>GPT-0224</v>
       </c>
       <c r="B529" t="str">
-        <v>SAMSUNG TONER CLP300 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF210X BLACK ΣΥΜΒΑΤΟ 2400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="str">
-        <v>GPT-0293</v>
+        <v>GPT-0225</v>
       </c>
       <c r="B530" t="str">
-        <v>SAMSUNG TONER CLP300 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF211A CYAN ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="str">
-        <v>GPT-0294</v>
+        <v>GPT-0226</v>
       </c>
       <c r="B531" t="str">
-        <v>SAMSUNG TONER CLP300 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF212A YELLOW  ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="str">
-        <v>GPT-0295</v>
+        <v>GPT-0227</v>
       </c>
       <c r="B532" t="str">
-        <v>SAMSUNG TONER CLP300 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF213A MAGENTA ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="str">
-        <v>GPT-0296</v>
+        <v>GPT-0228</v>
       </c>
       <c r="B533" t="str">
-        <v>SAMSUNG TONER ML1630/SCX4500 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE741A CYAN ΣΥΜΒΑΤΟ 7300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="str">
-        <v>GPT-0297</v>
+        <v>GPT-0229</v>
       </c>
       <c r="B534" t="str">
-        <v>SAMSUNG TONER ML2250 D5 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK130 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="str">
-        <v>GPT-0298</v>
+        <v>GPT-0230</v>
       </c>
       <c r="B535" t="str">
-        <v>SAMSUNG TONER MLT-D307L BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK160 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="str">
-        <v>GPT-0299</v>
+        <v>GPT-0231</v>
       </c>
       <c r="B536" t="str">
-        <v>SAMSUNG TONER MLT-D305L BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ -</v>
+        <v>HP TONER Q2610A BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="str">
-        <v>GPT-0300</v>
+        <v>GPT-0233</v>
       </c>
       <c r="B537" t="str">
-        <v>DELL TONER D1320 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER SP300 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="str">
-        <v>GPT-0301</v>
+        <v>GPT-0234</v>
       </c>
       <c r="B538" t="str">
-        <v>DELL TONER D1320 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER N2550 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="str">
-        <v>GPT-0302</v>
+        <v>GPT-0235</v>
       </c>
       <c r="B539" t="str">
-        <v>DELL TONER 1260 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC TONER FAT411 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="str">
-        <v>GPT-0303</v>
+        <v>GPT-0236</v>
       </c>
       <c r="B540" t="str">
-        <v>DELL TONER 1250/1350 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC TONER FAT83 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="str">
-        <v>GPT-0304</v>
+        <v>GPT-0237</v>
       </c>
       <c r="B541" t="str">
-        <v>DELL TONER 1250/1350 CYAN ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC TONER FAT88 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="str">
-        <v>GPT-0305</v>
+        <v>GPT-0238</v>
       </c>
       <c r="B542" t="str">
-        <v>DELL TONER 1250/1350 MAGENTA ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC TONER KX FAT92 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="str">
-        <v>GPT-0306</v>
+        <v>GPT-0239</v>
       </c>
       <c r="B543" t="str">
-        <v>DELL TONER 1250/1350 YELLOW ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP 504S/410/415/4195 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="str">
-        <v>GPT-0307</v>
+        <v>GPT-0240</v>
       </c>
       <c r="B544" t="str">
-        <v>EPSON TONER M2300 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP 504S/410/415/4195 CYAN ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="str">
-        <v>GPT-0308</v>
+        <v>GPT-0241</v>
       </c>
       <c r="B545" t="str">
-        <v>EPSON TONER M2400 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP 504S/410/415/4195 MAGENTA  ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="str">
-        <v>GPT-0309</v>
+        <v>GPT-0242</v>
       </c>
       <c r="B546" t="str">
-        <v>EPSON TONER M200 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP 504S/410/415/4195 YELLOW  ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="str">
-        <v>GPT-0310</v>
+        <v>GPT-0243</v>
       </c>
       <c r="B547" t="str">
-        <v>SHARP TONER SAR016LT BLACK ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN6600/TN460/560/570/TN3060 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="str">
-        <v>GPT-0311</v>
+        <v>GPT-0244</v>
       </c>
       <c r="B548" t="str">
-        <v>SHARP TONER SAR270LT BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE250X BLACK ΣΥΜΒΑΤΟ 10500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="str">
-        <v>GPT-0312</v>
+        <v>GPT-0245</v>
       </c>
       <c r="B549" t="str">
-        <v>RICOH TONER PH-1250D BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE251A CYAN ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="str">
-        <v>GPT-0313</v>
+        <v>GPT-0246</v>
       </c>
       <c r="B550" t="str">
-        <v>RICOH TONER PH-3200D BLACK ΣΥΜΒΑΤΟ 27000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE252A YELLOW ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="str">
-        <v>GPT-0314</v>
+        <v>GPT-0247</v>
       </c>
       <c r="B551" t="str">
-        <v>RICOH TONER PH-3205D BLACK ΣΥΜΒΑΤΟ 23000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE253A MAGENTA ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="str">
-        <v>GPT-0315</v>
+        <v>GPT-0250</v>
       </c>
       <c r="B552" t="str">
-        <v>RICOH TONER MFP SP3400/3410/3500 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER C4129X BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="str">
-        <v>GPT-0316</v>
+        <v>GPT-0251</v>
       </c>
       <c r="B553" t="str">
-        <v>PANASONIC TONER KX FA76A BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK-170 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="str">
-        <v>GPT-0317</v>
+        <v>GPT-0252</v>
       </c>
       <c r="B554" t="str">
-        <v>OKI TONER B2500/2520FP/2540 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK18 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="str">
-        <v>GPT-0318</v>
+        <v>GPT-0253</v>
       </c>
       <c r="B555" t="str">
-        <v>KYOCERA TONER TK340 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK17 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="str">
-        <v>GPT-0319</v>
+        <v>GPT-0254</v>
       </c>
       <c r="B556" t="str">
-        <v>KYOCERA TONER TK350 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B4100/4200/4250/4300/4350 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="str">
-        <v>GPT-0320</v>
+        <v>GPT-0255</v>
       </c>
       <c r="B557" t="str">
-        <v>KYOCERA TONER TK - 360 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C3300/3400/3450 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="str">
-        <v>GPT-0321</v>
+        <v>GPT-0256</v>
       </c>
       <c r="B558" t="str">
-        <v>KYOCERA TONER MFP TK1140 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C3300/3400/3450 CYAN ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="str">
-        <v>GPT-0322</v>
+        <v>GPT-0257</v>
       </c>
       <c r="B559" t="str">
-        <v>KYOCERA TONER MFP TK1030/TK1130 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C3300/3400/3450 MAGENTA ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="str">
-        <v>GPT-0323</v>
+        <v>GPT-0258</v>
       </c>
       <c r="B560" t="str">
-        <v>KONICA MINOLTA TONER TN 116 BLACK ΣΥΜΒΑΤΟ 11000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C3300/3400/3450 YELLOW ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="str">
-        <v>GPT-0324</v>
+        <v>GPT-0259</v>
       </c>
       <c r="B561" t="str">
-        <v>KONICA MINOLTA TONER TN 118 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER C MFP C2030/C2050/C2530/C2550 CYAN ΣΥΜΒΑΤΟ 5500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="str">
-        <v>GPT-0325</v>
+        <v>GPT-0260</v>
       </c>
       <c r="B562" t="str">
-        <v>KONICA MINOLTA TONER TN 211 BLACK ΣΥΜΒΑΤΟ 17500 ΣΕΛΙΔΕΣ -</v>
+        <v>KYOCERA TONER TK120 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="str">
-        <v>GPT-0326</v>
+        <v>GPT-0261</v>
       </c>
       <c r="B563" t="str">
-        <v>KONICA MINOLTA TONER TN 217 BLACK ΣΥΜΒΑΤΟ 17500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q5942X BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="str">
-        <v>GPT-0327</v>
+        <v>GPT-0262</v>
       </c>
       <c r="B564" t="str">
-        <v>KONICA MINOLTA TONER TN320 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D203E BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="str">
-        <v>GPT-0330</v>
+        <v>GPT-0263</v>
       </c>
       <c r="B565" t="str">
-        <v>HP TONER Q1338A BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C1700 - 50614 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="str">
-        <v>GPT-0331</v>
+        <v>GPT-0264</v>
       </c>
       <c r="B566" t="str">
-        <v>EPSON TONER M2300S BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE390A BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="str">
-        <v>GPT-0332</v>
+        <v>GPT-0265</v>
       </c>
       <c r="B567" t="str">
-        <v>HP TONER CE264X BLACK ΣΥΜΒΑΤΟ 17000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML3470 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="str">
-        <v>GPT-0333</v>
+        <v>GPT-0267</v>
       </c>
       <c r="B568" t="str">
-        <v>HP TONER 305X CE410X BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C2800 - ES051158 YELLOW ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="str">
-        <v>GPT-0334</v>
+        <v>GPT-0268</v>
       </c>
       <c r="B569" t="str">
-        <v>HP TONER 305X CE411A CYAN ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C2800 - ES051159 MAGENTA ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="str">
-        <v>GPT-0335</v>
+        <v>GPT-0269</v>
       </c>
       <c r="B570" t="str">
-        <v>HP TONER 305A CE412A YELLOW ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C2800 - ES051160 CYAN ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="str">
-        <v>GPT-0336</v>
+        <v>GPT-0270</v>
       </c>
       <c r="B571" t="str">
-        <v>HP TONER 305A CE413A MAGENTA ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C2800 - ES051161 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="str">
-        <v>GPT-0337</v>
+        <v>GPT-0271</v>
       </c>
       <c r="B572" t="str">
-        <v>SAMSUNG TONER SCX4200 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER C8543X BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="str">
-        <v>GPT-0338</v>
+        <v>GPT-0272</v>
       </c>
       <c r="B573" t="str">
-        <v>HP TONER Q6511A BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN3170/3130/TN580 BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="str">
-        <v>GPT-0339</v>
+        <v>GPT-0273</v>
       </c>
       <c r="B574" t="str">
-        <v>XEROX TONER C6130 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3215 - 106R02777 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="str">
-        <v>GPT-0340</v>
+        <v>GPT-0274</v>
       </c>
       <c r="B575" t="str">
-        <v>XEROX TONER C6130 CYAN ΣΥΜΒΑΤΟ 1900 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q7551A BLACK ΣΥΜΒΑΤΟ 6500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="str">
-        <v>GPT-0341</v>
+        <v>GPT-0275</v>
       </c>
       <c r="B576" t="str">
-        <v>XEROX TONER C6130 MAGENTA ΣΥΜΒΑΤΟ 1900 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C510/C530/MC561 CYAN ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="str">
-        <v>GPT-0342</v>
+        <v>GPT-0276</v>
       </c>
       <c r="B577" t="str">
-        <v>XEROX TONER C6130 YELLOW ΣΥΜΒΑΤΟ 1900 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C1700 - 50613 CYAN ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="str">
-        <v>GPT-0343</v>
+        <v>GPT-0277</v>
       </c>
       <c r="B578" t="str">
-        <v>SAMSUNG TONER MLT-D2082S BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE390X BLACK ΣΥΜΒΑΤΟ 24000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="str">
-        <v>GPT-0344</v>
+        <v>GPT-0278</v>
       </c>
       <c r="B579" t="str">
-        <v>RICOH TONER PH-2210D BLACK ΣΥΜΒΑΤΟ 11000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q2613A BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="str">
-        <v>GPT-0345</v>
+        <v>GPT-0279</v>
       </c>
       <c r="B580" t="str">
-        <v>RICOH TONER BK MFP C2030/C2050/C2530/C2550 BLACK ΣΥΜΒΑΤΟ</v>
+        <v>CANON TONER EP26A/EP27/25X BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="str">
-        <v>GPT-0346</v>
+        <v>GPT-0280</v>
       </c>
       <c r="B581" t="str">
-        <v>RICOH TONER MFP C2000/2500/3000 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 3380 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="str">
-        <v>GPT-0347</v>
+        <v>GPT-0281</v>
       </c>
       <c r="B582" t="str">
-        <v>RICOH TONER MFP C2000/2500/3000 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 2220/ΤΝ 450/ΤΝ 2200/ΤΝ 2010 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="str">
-        <v>GPT-0348</v>
+        <v>GPT-0282</v>
       </c>
       <c r="B583" t="str">
-        <v>RICOH TONER MFP C2000/2500/3000 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN2120/TN360 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="str">
-        <v>GPT-0349</v>
+        <v>GPT-0283</v>
       </c>
       <c r="B584" t="str">
-        <v>RICOH TONER MFP C2000/2500/3000 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN2000 / TN350 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="str">
-        <v>GPT-0350</v>
+        <v>GPT-0284</v>
       </c>
       <c r="B585" t="str">
-        <v>RICOH TONER MFP CL4000 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 650/3290/TN 3280/TN 3170 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="str">
-        <v>GPT-0351</v>
+        <v>GPT-0285</v>
       </c>
       <c r="B586" t="str">
-        <v>RICOH TONER MFP CL4000 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN620 /TN3230 /TN3240 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="str">
-        <v>GPT-0352</v>
+        <v>GPT-0286</v>
       </c>
       <c r="B587" t="str">
-        <v>RICOH TONER MFP CL4000 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 8000/TN 300/200/250 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="str">
-        <v>GPT-0353</v>
+        <v>GPT-0287</v>
       </c>
       <c r="B588" t="str">
-        <v>RICOH TONER MFP CL4000 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN1050 (TN1030)  BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="str">
-        <v>GPT-0354</v>
+        <v>GPT-0288</v>
       </c>
       <c r="B589" t="str">
-        <v>RICOH TONER MFP SP3500/3510 BLACK ΣΥΜΒΑΤΟ 6400 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MP2501 BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="str">
-        <v>GPT-0355</v>
+        <v>GPT-0289</v>
       </c>
       <c r="B590" t="str">
-        <v>BROTHER TONER TN 331/321 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML 3050 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="str">
-        <v>GPT-0356</v>
+        <v>GPT-0290</v>
       </c>
       <c r="B591" t="str">
-        <v>BROTHER TONER TN 331/321 CYAN ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D2082L BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="str">
-        <v>GPT-0357</v>
+        <v>GPT-0291</v>
       </c>
       <c r="B592" t="str">
-        <v>BROTHER TONER TN 331/321 MAGENTA ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER SCX4725A BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="str">
-        <v>GPT-0358</v>
+        <v>GPT-0292</v>
       </c>
       <c r="B593" t="str">
-        <v>BROTHER TONER TN 331/321 YELLOW ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP300 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="str">
-        <v>GPT-0359</v>
+        <v>GPT-0293</v>
       </c>
       <c r="B594" t="str">
-        <v>BROTHER TONER TN 336/326 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP300 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="str">
-        <v>GPT-0360</v>
+        <v>GPT-0294</v>
       </c>
       <c r="B595" t="str">
-        <v>BROTHER TONER TN 336/326 CYAN ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP300 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="str">
-        <v>GPT-0361</v>
+        <v>GPT-0295</v>
       </c>
       <c r="B596" t="str">
-        <v>BROTHER TONER TN 336/326 MAGENTA ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP300 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="str">
-        <v>GPT-0362</v>
+        <v>GPT-0296</v>
       </c>
       <c r="B597" t="str">
-        <v>BROTHER TONER TN 336/326 YELLOW ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML1630/SCX4500 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="str">
-        <v>GPT-0363</v>
+        <v>GPT-0297</v>
       </c>
       <c r="B598" t="str">
-        <v>BROTHER TONER TN2310/TN2320 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML2250 D5 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="str">
-        <v>GPT-0364</v>
+        <v>GPT-0298</v>
       </c>
       <c r="B599" t="str">
-        <v>DELL TONER C1660W BLACK ΣΥΜΒΑΤΟ 1250 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D307L BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="str">
-        <v>GPT-0365</v>
+        <v>GPT-0299</v>
       </c>
       <c r="B600" t="str">
-        <v>DELL TONER C1660W CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D305L BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ -</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="str">
-        <v>GPT-0366</v>
+        <v>GPT-0300</v>
       </c>
       <c r="B601" t="str">
-        <v>DELL TONER C1660W MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER D1320 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="str">
-        <v>GPT-0367</v>
+        <v>GPT-0301</v>
       </c>
       <c r="B602" t="str">
-        <v>DELL TONER C1660W YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER D1320 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="str">
-        <v>GPT-0368</v>
+        <v>GPT-0302</v>
       </c>
       <c r="B603" t="str">
-        <v>KYOCERA TONER TK 580 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER 1260 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="str">
-        <v>GPT-0369</v>
+        <v>GPT-0303</v>
       </c>
       <c r="B604" t="str">
-        <v>KYOCERA TONER TK 580 CYAN ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER 1250/1350 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="str">
-        <v>GPT-0370</v>
+        <v>GPT-0304</v>
       </c>
       <c r="B605" t="str">
-        <v>KYOCERA TONER TK 580 MAGENTA ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER 1250/1350 CYAN ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="str">
-        <v>GPT-0371</v>
+        <v>GPT-0305</v>
       </c>
       <c r="B606" t="str">
-        <v>KYOCERA TONER TK 580 YELLOW ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER 1250/1350 MAGENTA ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="str">
-        <v>GPT-0372</v>
+        <v>GPT-0306</v>
       </c>
       <c r="B607" t="str">
-        <v>KYOCERA TONER TK560 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER 1250/1350 YELLOW ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="str">
-        <v>GPT-0373</v>
+        <v>GPT-0307</v>
       </c>
       <c r="B608" t="str">
-        <v>KYOCERA TONER TK560 CYAN ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER M2300 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="str">
-        <v>GPT-0374</v>
+        <v>GPT-0308</v>
       </c>
       <c r="B609" t="str">
-        <v>KYOCERA TONER TK560 MAGENTA ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER M2400 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="str">
-        <v>GPT-0375</v>
+        <v>GPT-0309</v>
       </c>
       <c r="B610" t="str">
-        <v>KYOCERA TONER TK560 YELLOW ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER M200 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="str">
-        <v>GPT-0376</v>
+        <v>GPT-0310</v>
       </c>
       <c r="B611" t="str">
-        <v>KYOCERA TONER TK 520 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>SHARP TONER SAR016LT BLACK ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="str">
-        <v>GPT-0377</v>
+        <v>GPT-0311</v>
       </c>
       <c r="B612" t="str">
-        <v>KYOCERA TONER TK 520 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>SHARP TONER SAR270LT BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="str">
-        <v>GPT-0378</v>
+        <v>GPT-0312</v>
       </c>
       <c r="B613" t="str">
-        <v>KYOCERA TONER TK 520 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER PH-1250D BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="str">
-        <v>GPT-0379</v>
+        <v>GPT-0313</v>
       </c>
       <c r="B614" t="str">
-        <v>KYOCERA TONER TK 520 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER PH-3200D BLACK ΣΥΜΒΑΤΟ 27000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="str">
-        <v>GPT-0380</v>
+        <v>GPT-0314</v>
       </c>
       <c r="B615" t="str">
-        <v>RICOH TONER MFP C811 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER PH-3205D BLACK ΣΥΜΒΑΤΟ 23000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="str">
-        <v>GPT-0381</v>
+        <v>GPT-0315</v>
       </c>
       <c r="B616" t="str">
-        <v>RICOH TONER MFP C811 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP SP3400/3410/3500 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="str">
-        <v>GPT-0383</v>
+        <v>GPT-0316</v>
       </c>
       <c r="B617" t="str">
-        <v>RICOH TONER MFP C811 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC TONER KX FA76A BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="str">
-        <v>GPT-0384</v>
+        <v>GPT-0317</v>
       </c>
       <c r="B618" t="str">
-        <v>RICOH TONER MFP C811 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B2500/2520FP/2540 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="str">
-        <v>GPT-0387</v>
+        <v>GPT-0318</v>
       </c>
       <c r="B619" t="str">
-        <v>LEXMARK TONER C540H2YG YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK340 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="str">
-        <v>GPT-0388</v>
+        <v>GPT-0319</v>
       </c>
       <c r="B620" t="str">
-        <v>XEROX PHASER TONER MFP 6121 MAGENTA ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK350 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="str">
-        <v>GPT-0389</v>
+        <v>GPT-0320</v>
       </c>
       <c r="B621" t="str">
-        <v>XEROX PHASER TONER 6125N MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK - 360 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="str">
-        <v>GPT-0390</v>
+        <v>GPT-0321</v>
       </c>
       <c r="B622" t="str">
-        <v>SAMSUNG TONER CLP - 610/660 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER MFP TK1140 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="str">
-        <v>GPT-0391</v>
+        <v>GPT-0322</v>
       </c>
       <c r="B623" t="str">
-        <v>SAMSUNG TONER CLP - 610/660 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER MFP TK1030/TK1130 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="str">
-        <v>GPT-0392</v>
+        <v>GPT-0323</v>
       </c>
       <c r="B624" t="str">
-        <v>SAMSUNG TONER CLP - 610/660 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER TN 116 BLACK ΣΥΜΒΑΤΟ 11000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="str">
-        <v>GPT-0393</v>
+        <v>GPT-0324</v>
       </c>
       <c r="B625" t="str">
-        <v>SAMSUNG TONER CLP - 610/660 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER TN 118 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="str">
-        <v>GPT-0394</v>
+        <v>GPT-0325</v>
       </c>
       <c r="B626" t="str">
-        <v>XEROX TONER 6500 CYAN ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER TN 211 BLACK ΣΥΜΒΑΤΟ 17500 ΣΕΛΙΔΕΣ -</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="str">
-        <v>GPT-0395</v>
+        <v>GPT-0326</v>
       </c>
       <c r="B627" t="str">
-        <v>XEROX TONER 3325 - 106R02313 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER TN 217 BLACK ΣΥΜΒΑΤΟ 17500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="str">
-        <v>GPT-0396</v>
+        <v>GPT-0327</v>
       </c>
       <c r="B628" t="str">
-        <v>XEROX TONER 6500 MAGENTA ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER TN320 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="str">
-        <v>GPT-0397</v>
+        <v>GPT-0330</v>
       </c>
       <c r="B629" t="str">
-        <v>XEROX TONER 6500 YELLOW ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q1338A BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="str">
-        <v>GPT-0398</v>
+        <v>GPT-0331</v>
       </c>
       <c r="B630" t="str">
-        <v>XEROX TONER 6500 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER M2300S BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="str">
-        <v>GPT-0399</v>
+        <v>GPT-0332</v>
       </c>
       <c r="B631" t="str">
-        <v>XEROX TONER 3210/3220 BLACK ΣΥΜΒΑΤΟ 4100 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE264X BLACK ΣΥΜΒΑΤΟ 17000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="str">
-        <v>GPT-0400</v>
+        <v>GPT-0333</v>
       </c>
       <c r="B632" t="str">
-        <v>XEROX PHASER TONER 3320 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER 305X CE410X BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="str">
-        <v>GPT-0401</v>
+        <v>GPT-0334</v>
       </c>
       <c r="B633" t="str">
-        <v>BROTHER TONER TN241 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER 305X CE411A CYAN ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="str">
-        <v>GPT-0402</v>
+        <v>GPT-0335</v>
       </c>
       <c r="B634" t="str">
-        <v>BROTHER TONER TN245 CYAN ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER 305A CE412A YELLOW ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="str">
-        <v>GPT-0403</v>
+        <v>GPT-0336</v>
       </c>
       <c r="B635" t="str">
-        <v>BROTHER TONER TN245 MAGENTA ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER 305A CE413A MAGENTA ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="str">
-        <v>GPT-0404</v>
+        <v>GPT-0337</v>
       </c>
       <c r="B636" t="str">
-        <v>BROTHER TONER TN245 YELLOW ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER SCX4200 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="str">
-        <v>GPT-0405</v>
+        <v>GPT-0338</v>
       </c>
       <c r="B637" t="str">
-        <v>HP TONER Q6511X BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6511A BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="str">
-        <v>GPT-0406</v>
+        <v>GPT-0339</v>
       </c>
       <c r="B638" t="str">
-        <v>LEXMARK TONER MS510 - 50F2X00 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER C6130 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="str">
-        <v>GPT-0407</v>
+        <v>GPT-0340</v>
       </c>
       <c r="B639" t="str">
-        <v>XEROX PHASER TONER XWC 5225/5230/5222 BLACK ΣΥΜΒΑΤΟ 30000ΣΕΛ</v>
+        <v>XEROX TONER C6130 CYAN ΣΥΜΒΑΤΟ 1900 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="str">
-        <v>GPT-0408</v>
+        <v>GPT-0341</v>
       </c>
       <c r="B640" t="str">
-        <v>KYOCERA TONER TK1115 BLACK ΣΥΜΒΑΤΟ 1600ΣΕΛ</v>
+        <v>XEROX TONER C6130 MAGENTA ΣΥΜΒΑΤΟ 1900 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="str">
-        <v>GPT-0409</v>
+        <v>GPT-0342</v>
       </c>
       <c r="B641" t="str">
-        <v>XEROX PHASER TONER 3020 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER C6130 YELLOW ΣΥΜΒΑΤΟ 1900 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="str">
-        <v>GPT-0410</v>
+        <v>GPT-0343</v>
       </c>
       <c r="B642" t="str">
-        <v>XEROX PHASER TONER MFP 7500 BLACK ΣΥΜΒΑΤΟ 17800 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D2082S BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="str">
-        <v>GPT-0411</v>
+        <v>GPT-0344</v>
       </c>
       <c r="B643" t="str">
-        <v>XEROX PHASER TONER MFP 7500 CYAN ΣΥΜΒΑΤΟ 17800 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER PH-2210D BLACK ΣΥΜΒΑΤΟ 11000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="str">
-        <v>GPT-0412</v>
+        <v>GPT-0345</v>
       </c>
       <c r="B644" t="str">
-        <v>XEROX PHASER TONER MFP 7500 MAGENTA ΣΥΜΒΑΤΟ 17800 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER BK MFP C2030/C2050/C2530/C2550 BLACK ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="str">
-        <v>GPT-0413</v>
+        <v>GPT-0346</v>
       </c>
       <c r="B645" t="str">
-        <v>XEROX PHASER TONER MFP 7500 YELLOW ΣΥΜΒΑΤΟ 17800 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP C2000/2500/3000 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="str">
-        <v>GPT-0414</v>
+        <v>GPT-0347</v>
       </c>
       <c r="B646" t="str">
-        <v>XEROX PHASER TONER 5550 BLACK ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP C2000/2500/3000 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="str">
-        <v>GPT-0415</v>
+        <v>GPT-0348</v>
       </c>
       <c r="B647" t="str">
-        <v>XEROX PHASER TONER 5500 BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP C2000/2500/3000 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="str">
-        <v>GPT-0416</v>
+        <v>GPT-0349</v>
       </c>
       <c r="B648" t="str">
-        <v>XEROX TONER MFP XC7525/7535/7545/7556 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP C2000/2500/3000 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="str">
-        <v>GPT-0417</v>
+        <v>GPT-0350</v>
       </c>
       <c r="B649" t="str">
-        <v>XEROX TONER MFP XC7525/7535/7545/7556 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP CL4000 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="str">
-        <v>GPT-0418</v>
+        <v>GPT-0351</v>
       </c>
       <c r="B650" t="str">
-        <v>XEROX TONER MFP XC7525/7535/7545/7556 YELLOW  ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP CL4000 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="str">
-        <v>GPT-0419</v>
+        <v>GPT-0352</v>
       </c>
       <c r="B651" t="str">
-        <v>XEROX TONER MFP XC7525/7535/7545/7556 BLACK ΣΥΜΒΑΤΟ 26000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP CL4000 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="str">
-        <v>GPT-0420</v>
+        <v>GPT-0353</v>
       </c>
       <c r="B652" t="str">
-        <v>XEROX TONER MFP XC7425/7428/7435 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP CL4000 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="str">
-        <v>GPT-0421</v>
+        <v>GPT-0354</v>
       </c>
       <c r="B653" t="str">
-        <v>XEROX TONER MFP XC7425/7428/7435 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP SP3500/3510 BLACK ΣΥΜΒΑΤΟ 6400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="str">
-        <v>GPT-0422</v>
+        <v>GPT-0355</v>
       </c>
       <c r="B654" t="str">
-        <v>XEROX TONER MFP XC7425/7428/7435 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 331/321 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="str">
-        <v>GPT-0423</v>
+        <v>GPT-0356</v>
       </c>
       <c r="B655" t="str">
-        <v>XEROX TONER MFP XC7425/7428/7435 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 331/321 CYAN ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="str">
-        <v>GPT-0424</v>
+        <v>GPT-0357</v>
       </c>
       <c r="B656" t="str">
-        <v>XEROX TONER MFP XC7328/7335/7345/7346 CYAN ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 331/321 MAGENTA ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="str">
-        <v>GPT-0425</v>
+        <v>GPT-0358</v>
       </c>
       <c r="B657" t="str">
-        <v>XEROX TONER MFP XC7328/7335/7345/7346 MAGENTA ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 331/321 YELLOW ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="str">
-        <v>GPT-0426</v>
+        <v>GPT-0359</v>
       </c>
       <c r="B658" t="str">
-        <v>XEROX TONER MFP XC7328/7335/7345/7346 YELLOW ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 336/326 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="str">
-        <v>GPT-0427</v>
+        <v>GPT-0360</v>
       </c>
       <c r="B659" t="str">
-        <v>XEROX TONER MFP XC7328/7335/7345/7346 BLACK ΣΥΜΒΑΤΟ 26000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 336/326 CYAN ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="str">
-        <v>GPT-0428</v>
+        <v>GPT-0361</v>
       </c>
       <c r="B660" t="str">
-        <v>XEROX PHASER TONER 7760 CYAN ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 336/326 MAGENTA ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="str">
-        <v>GPT-0429</v>
+        <v>GPT-0362</v>
       </c>
       <c r="B661" t="str">
-        <v>XEROX PHASER TONER 7760 YELLOW ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 336/326 YELLOW ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="str">
-        <v>GPT-0430</v>
+        <v>GPT-0363</v>
       </c>
       <c r="B662" t="str">
-        <v>XEROX PHASER TONER 7760 MAGENTA ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN2310/TN2320 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="str">
-        <v>GPT-0431</v>
+        <v>GPT-0364</v>
       </c>
       <c r="B663" t="str">
-        <v>XEROX PHASER TONER 7760 BLACK ΣΥΜΒΑΤΟ 32000 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER C1660W BLACK ΣΥΜΒΑΤΟ 1250 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="str">
-        <v>GPT-0432</v>
+        <v>GPT-0365</v>
       </c>
       <c r="B664" t="str">
-        <v>XEROX PHASER TONER 7750 CYAN ΣΥΜΒΑΤΟ 22000 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER C1660W CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="str">
-        <v>GPT-0433</v>
+        <v>GPT-0366</v>
       </c>
       <c r="B665" t="str">
-        <v>XEROX PHASER TONER 7750 MAGENTA ΣΥΜΒΑΤΟ 22000 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER C1660W MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="str">
-        <v>GPT-0434</v>
+        <v>GPT-0367</v>
       </c>
       <c r="B666" t="str">
-        <v>XEROX PHASER TONER 7750 TONER YELLOW ΣΥΜΒΑΤΟ 22000 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER C1660W YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="str">
-        <v>GPT-0435</v>
+        <v>GPT-0368</v>
       </c>
       <c r="B667" t="str">
-        <v>XEROX PHASER TONER 7750 BLACK ΣΥΜΒΑΤΟ 32000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK 580 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="str">
-        <v>GPT-0436</v>
+        <v>GPT-0369</v>
       </c>
       <c r="B668" t="str">
-        <v>SHARP TONER SAR202LT BLACK ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK 580 CYAN ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="str">
-        <v>GPT-0437</v>
+        <v>GPT-0370</v>
       </c>
       <c r="B669" t="str">
-        <v>SAMSUNG TONER CLT 404S CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK 580 MAGENTA ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="str">
-        <v>GPT-0438</v>
+        <v>GPT-0371</v>
       </c>
       <c r="B670" t="str">
-        <v>SAMSUNG TONER CLT 404S MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK 580 YELLOW ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="str">
-        <v>GPT-0439</v>
+        <v>GPT-0372</v>
       </c>
       <c r="B671" t="str">
-        <v>SAMSUNG TONER CLT 404S YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK560 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="str">
-        <v>GPT-0440</v>
+        <v>GPT-0373</v>
       </c>
       <c r="B672" t="str">
-        <v>SAMSUNG TONER MFP SCX6120/6220/6320/6322/6520 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK560 CYAN ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="str">
-        <v>GPT-0441</v>
+        <v>GPT-0374</v>
       </c>
       <c r="B673" t="str">
-        <v>SAMSUNG TONER CLP350 CYAN ΣΥΜΒΑΤΟ 2000 ΣΥΜΒΑΤΟ</v>
+        <v>KYOCERA TONER TK560 MAGENTA ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="str">
-        <v>GPT-0442</v>
+        <v>GPT-0375</v>
       </c>
       <c r="B674" t="str">
-        <v>SAMSUNG TONER CLP350 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΥΜΒΑΤΟ</v>
+        <v>KYOCERA TONER TK560 YELLOW ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="str">
-        <v>GPT-0443</v>
+        <v>GPT-0376</v>
       </c>
       <c r="B675" t="str">
-        <v>SAMSUNG TONER CLP350 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΥΜΒΑΤΟ</v>
+        <v>KYOCERA TONER TK 520 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="str">
-        <v>GPT-0444</v>
+        <v>GPT-0377</v>
       </c>
       <c r="B676" t="str">
-        <v>SAMSUNG TONER CLP350 BLACK ΣΥΜΒΑΤΟ 2000 ΣΥΜΒΑΤΟ</v>
+        <v>KYOCERA TONER TK 520 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="str">
-        <v>GPT-0445</v>
+        <v>GPT-0378</v>
       </c>
       <c r="B677" t="str">
-        <v>SAMSUNG TONER ML1210 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK 520 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="str">
-        <v>GPT-0446</v>
+        <v>GPT-0379</v>
       </c>
       <c r="B678" t="str">
-        <v>SAMSUNG TONER CLP315/LP310 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK 520 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="str">
-        <v>GPT-0447</v>
+        <v>GPT-0380</v>
       </c>
       <c r="B679" t="str">
-        <v>SAMSUNG TONER CLP315/LP310 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP C811 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="str">
-        <v>GPT-0448</v>
+        <v>GPT-0381</v>
       </c>
       <c r="B680" t="str">
-        <v>SAMSUNG TONER CLP315/LP310 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP C811 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="str">
-        <v>GPT-0449</v>
+        <v>GPT-0383</v>
       </c>
       <c r="B681" t="str">
-        <v>SAMSUNG TONER CLP315/LP310 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP C811 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="str">
-        <v>GPT-0450</v>
+        <v>GPT-0384</v>
       </c>
       <c r="B682" t="str">
-        <v>RICOH TONER SP201 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP C811 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="str">
-        <v>GPT-0451</v>
+        <v>GPT-0387</v>
       </c>
       <c r="B683" t="str">
-        <v>RICOH TONER SP3200 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER C540H2YG YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="str">
-        <v>GPT-0452</v>
+        <v>GPT-0388</v>
       </c>
       <c r="B684" t="str">
-        <v>RICOH TONER SP311 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER MFP 6121 MAGENTA ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="str">
-        <v>GPT-0453</v>
+        <v>GPT-0389</v>
       </c>
       <c r="B685" t="str">
-        <v>RICOH TONER MP5000 BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 6125N MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="str">
-        <v>GPT-0454</v>
+        <v>GPT-0390</v>
       </c>
       <c r="B686" t="str">
-        <v>PANASONIC TONER MFP DQ-TU15E BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP - 610/660 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="str">
-        <v>GPT-0455</v>
+        <v>GPT-0391</v>
       </c>
       <c r="B687" t="str">
-        <v>RICOH TONER PH-2205D BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP - 610/660 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="str">
-        <v>GPT-0456</v>
+        <v>GPT-0392</v>
       </c>
       <c r="B688" t="str">
-        <v>OKI TONER B710/720/730 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP - 610/660 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="str">
-        <v>GPT-0457</v>
+        <v>GPT-0393</v>
       </c>
       <c r="B689" t="str">
-        <v>OKI TONER B4400/4500/4550/4600 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP - 610/660 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="str">
-        <v>GPT-0458</v>
+        <v>GPT-0394</v>
       </c>
       <c r="B690" t="str">
-        <v>OKI TONER B4350/4300 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6500 CYAN ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="str">
-        <v>GPT-0459</v>
+        <v>GPT-0395</v>
       </c>
       <c r="B691" t="str">
-        <v>OKI TONER C5100/3000/3200/5150/5200/5250/5300/5400 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3325 - 106R02313 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="str">
-        <v>GPT-0460</v>
+        <v>GPT-0396</v>
       </c>
       <c r="B692" t="str">
-        <v>OKI TONER C5100/3000/3200/5150/5200/5250/5300/5400 CYAN ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6500 MAGENTA ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="str">
-        <v>GPT-0461</v>
+        <v>GPT-0397</v>
       </c>
       <c r="B693" t="str">
-        <v>OKI TONER C5100/3000/3200/5150/5200/5250/5300/5400 MAGENTA ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6500 YELLOW ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="str">
-        <v>GPT-0462</v>
+        <v>GPT-0398</v>
       </c>
       <c r="B694" t="str">
-        <v>OKI TONER C5100/3000/3200/5150/5200/5250/5300/5400 YELLOW ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6500 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="str">
-        <v>GPT-0463</v>
+        <v>GPT-0399</v>
       </c>
       <c r="B695" t="str">
-        <v>OKI TONER C5600/5700 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3210/3220 BLACK ΣΥΜΒΑΤΟ 4100 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="str">
-        <v>GPT-0464</v>
+        <v>GPT-0400</v>
       </c>
       <c r="B696" t="str">
-        <v>OKI TONER C5600/5700 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 3320 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="str">
-        <v>GPT-0465</v>
+        <v>GPT-0401</v>
       </c>
       <c r="B697" t="str">
-        <v>OKI TONER C5600/5700 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN241 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="str">
-        <v>GPT-0466</v>
+        <v>GPT-0402</v>
       </c>
       <c r="B698" t="str">
-        <v>OKI TONER C610 CYAN ΣΥΜΒΑΤΟ</v>
+        <v>BROTHER TONER TN245 CYAN ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="str">
-        <v>GPT-0467</v>
+        <v>GPT-0403</v>
       </c>
       <c r="B699" t="str">
-        <v>OKI TONER C610 MAGENTA ΣΥΜΒΑΤΟ</v>
+        <v>BROTHER TONER TN245 MAGENTA ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="str">
-        <v>GPT-0468</v>
+        <v>GPT-0404</v>
       </c>
       <c r="B700" t="str">
-        <v>OKI TONER C610 YELLOW ΣΥΜΒΑΤΟ</v>
+        <v>BROTHER TONER TN245 YELLOW ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="str">
-        <v>GPT-0469</v>
+        <v>GPT-0405</v>
       </c>
       <c r="B701" t="str">
-        <v>OKI TONER C610 BLACK ΣΥΜΒΑΤΟ</v>
+        <v>HP TONER Q6511X BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="str">
-        <v>GPT-0470</v>
+        <v>GPT-0406</v>
       </c>
       <c r="B702" t="str">
-        <v>OKI TONER C510/C530/MC561 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER MS510 - 50F2X00 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="str">
-        <v>GPT-0471</v>
+        <v>GPT-0407</v>
       </c>
       <c r="B703" t="str">
-        <v>OKI TONER C510/C530/MC561 MAGENTA ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER XWC 5225/5230/5222 BLACK ΣΥΜΒΑΤΟ 30000ΣΕΛ</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="str">
-        <v>GPT-0472</v>
+        <v>GPT-0409</v>
       </c>
       <c r="B704" t="str">
-        <v>OKI TONER C510/C530/MC561 YELLOW ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 3020 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="str">
-        <v>GPT-0473</v>
+        <v>GPT-0410</v>
       </c>
       <c r="B705" t="str">
-        <v>OKI TONER C110/130N BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER MFP 7500 BLACK ΣΥΜΒΑΤΟ 17800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="str">
-        <v>GPT-0474</v>
+        <v>GPT-0411</v>
       </c>
       <c r="B706" t="str">
-        <v>OKI TONER C110/130N CYAN ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER MFP 7500 CYAN ΣΥΜΒΑΤΟ 17800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="str">
-        <v>GPT-0475</v>
+        <v>GPT-0412</v>
       </c>
       <c r="B707" t="str">
-        <v>OKI TONER C110/130N MAGENTA ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER MFP 7500 MAGENTA ΣΥΜΒΑΤΟ 17800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="str">
-        <v>GPT-0476</v>
+        <v>GPT-0413</v>
       </c>
       <c r="B708" t="str">
-        <v>OKI TONER C110/130N YELLOW ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER MFP 7500 YELLOW ΣΥΜΒΑΤΟ 17800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="str">
-        <v>GPT-0477</v>
+        <v>GPT-0414</v>
       </c>
       <c r="B709" t="str">
-        <v>OKI TONER C910 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 5550 BLACK ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="str">
-        <v>GPT-0478</v>
+        <v>GPT-0415</v>
       </c>
       <c r="B710" t="str">
-        <v>OKI TONER C910 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 5500 BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="str">
-        <v>GPT-0479</v>
+        <v>GPT-0416</v>
       </c>
       <c r="B711" t="str">
-        <v>OKI TONER C910 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7525/7535/7545/7556 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="str">
-        <v>GPT-0480</v>
+        <v>GPT-0417</v>
       </c>
       <c r="B712" t="str">
-        <v>OKI TONER C910 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7525/7535/7545/7556 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="str">
-        <v>GPT-0481</v>
+        <v>GPT-0418</v>
       </c>
       <c r="B713" t="str">
-        <v>LEXMARK TONER MS510 - 50F2U00 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7525/7535/7545/7556 YELLOW  ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="str">
-        <v>GPT-0482</v>
+        <v>GPT-0419</v>
       </c>
       <c r="B714" t="str">
-        <v>LEXMARK TONER LEX W850H BLACK ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7525/7535/7545/7556 BLACK ΣΥΜΒΑΤΟ 26000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="str">
-        <v>GPT-0483</v>
+        <v>GPT-0420</v>
       </c>
       <c r="B715" t="str">
-        <v>LEXMARK TONER T640X/642/644 BLACK ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7425/7428/7435 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="str">
-        <v>GPT-0484</v>
+        <v>GPT-0421</v>
       </c>
       <c r="B716" t="str">
-        <v>LEXMARK TONER T630X/632/634 BLACK ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7425/7428/7435 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="str">
-        <v>GPT-0485</v>
+        <v>GPT-0422</v>
       </c>
       <c r="B717" t="str">
-        <v>LEXMARK TONER LEX E450 BLACK ΣΥΜΒΑΤΟ 11000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7425/7428/7435 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="str">
-        <v>GPT-0486</v>
+        <v>GPT-0423</v>
       </c>
       <c r="B718" t="str">
-        <v>OKI TONER C5600/5700 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7425/7428/7435 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="str">
-        <v>GPT-0487</v>
+        <v>GPT-0424</v>
       </c>
       <c r="B719" t="str">
-        <v>HP TONER CF279A BLACK ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7328/7335/7345/7346 CYAN ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="str">
-        <v>GPT-0488</v>
+        <v>GPT-0425</v>
       </c>
       <c r="B720" t="str">
-        <v>KYOCERA TONER TK-110 ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7328/7335/7345/7346 MAGENTA ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="str">
-        <v>GPT-0489</v>
+        <v>GPT-0426</v>
       </c>
       <c r="B721" t="str">
-        <v>BROTHER TONER TN135/115 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7328/7335/7345/7346 YELLOW ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="str">
-        <v>GPT-0490</v>
+        <v>GPT-0427</v>
       </c>
       <c r="B722" t="str">
-        <v>BROTHER TONER TN135/115 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7328/7335/7345/7346 BLACK ΣΥΜΒΑΤΟ 26000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="str">
-        <v>GPT-0491</v>
+        <v>GPT-0428</v>
       </c>
       <c r="B723" t="str">
-        <v>BROTHER TONER TN135/115 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 7760 CYAN ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="str">
-        <v>GPT-0492</v>
+        <v>GPT-0429</v>
       </c>
       <c r="B724" t="str">
-        <v>BROTHER TONER TN135/115 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 7760 YELLOW ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="str">
-        <v>GPT-0493</v>
+        <v>GPT-0430</v>
       </c>
       <c r="B725" t="str">
-        <v>BROTHER TONER TN6600/TN460 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 7760 MAGENTA ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="str">
-        <v>GPT-0494</v>
+        <v>GPT-0431</v>
       </c>
       <c r="B726" t="str">
-        <v>EPSON TONER M300 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 7760 BLACK ΣΥΜΒΑΤΟ 32000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="str">
-        <v>GPT-0495</v>
+        <v>GPT-0432</v>
       </c>
       <c r="B727" t="str">
-        <v>OKI TONER C5850/5950 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 7750 CYAN ΣΥΜΒΑΤΟ 22000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="str">
-        <v>GPT-0496</v>
+        <v>GPT-0433</v>
       </c>
       <c r="B728" t="str">
-        <v>OKI TONER C5850/5950 CYAN ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 7750 MAGENTA ΣΥΜΒΑΤΟ 22000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="str">
-        <v>GPT-0497</v>
+        <v>GPT-0434</v>
       </c>
       <c r="B729" t="str">
-        <v>OKI TONER C5850/5950 MAGENTA ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 7750 TONER YELLOW ΣΥΜΒΑΤΟ 22000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="str">
-        <v>GPT-0498</v>
+        <v>GPT-0435</v>
       </c>
       <c r="B730" t="str">
-        <v>OKI TONER C5850/5950 YELLOW ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 7750 BLACK ΣΥΜΒΑΤΟ 32000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="str">
-        <v>GPT-0499</v>
+        <v>GPT-0436</v>
       </c>
       <c r="B731" t="str">
-        <v>KYOCERA TONER TK1505 BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>SHARP TONER SAR202LT BLACK ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="str">
-        <v>GPT-0500</v>
+        <v>GPT-0437</v>
       </c>
       <c r="B732" t="str">
-        <v>RICOH TONER SP150 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLT 404S CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="str">
-        <v>GPT-0501</v>
+        <v>GPT-0438</v>
       </c>
       <c r="B733" t="str">
-        <v>XEROX TONER 3150 109R00747 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLT 404S MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="str">
-        <v>GPT-0502</v>
+        <v>GPT-0439</v>
       </c>
       <c r="B734" t="str">
-        <v>XEROX TONER MFP 3200 113R00730 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLT 404S YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="str">
-        <v>GPT-0503</v>
+        <v>GPT-0440</v>
       </c>
       <c r="B735" t="str">
-        <v>XEROX TONER 3300 106R01412 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MFP SCX6120/6220/6320/6322/6520 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="str">
-        <v>GPT-0504</v>
+        <v>GPT-0441</v>
       </c>
       <c r="B736" t="str">
-        <v>LEXMARK TONER X203 - X203A11G BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP350 CYAN ΣΥΜΒΑΤΟ 2000 ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="str">
-        <v>GPT-0505</v>
+        <v>GPT-0442</v>
       </c>
       <c r="B737" t="str">
-        <v>LEXMARK TONER CX310  / CX410 / CX510 80C2SK0 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP350 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="str">
-        <v>GPT-0506</v>
+        <v>GPT-0443</v>
       </c>
       <c r="B738" t="str">
-        <v>LEXMARK TONER CX310 / CX410 / CX510 80C2SC0 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP350 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="str">
-        <v>GPT-0507</v>
+        <v>GPT-0444</v>
       </c>
       <c r="B739" t="str">
-        <v>LEXMARK TONER CX310 / CX410 / CX510 80C2SM0 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP350 BLACK ΣΥΜΒΑΤΟ 2000 ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="str">
-        <v>GPT-0508</v>
+        <v>GPT-0445</v>
       </c>
       <c r="B740" t="str">
-        <v>LEXMARK TONER CX310 / CX410 / CX510 80C2SY0 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML1210 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="str">
-        <v>GPT-0509</v>
+        <v>GPT-0446</v>
       </c>
       <c r="B741" t="str">
-        <v>LEXMARK TONER CS 310/410/510 70C2HK0 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP315/LP310 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="str">
-        <v>GPT-0510</v>
+        <v>GPT-0447</v>
       </c>
       <c r="B742" t="str">
-        <v>LEXMARK TONER CS 310/410/510 70C2HC0 CYAN ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP315/LP310 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="str">
-        <v>GPT-0511</v>
+        <v>GPT-0448</v>
       </c>
       <c r="B743" t="str">
-        <v>LEXMARK TONER CS 310/410/510 70C2HM0 MAGENTA ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP315/LP310 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="str">
-        <v>GPT-0512</v>
+        <v>GPT-0449</v>
       </c>
       <c r="B744" t="str">
-        <v>LEXMARK TONER CS 310/410/510 70C2HY0 YELLOW ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP315/LP310 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="str">
-        <v>GPT-0513</v>
+        <v>GPT-0450</v>
       </c>
       <c r="B745" t="str">
-        <v>LEXMARK TONER  X466 - X463A11G X463A21G BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER SP201 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="str">
-        <v>GPT-0514</v>
+        <v>GPT-0451</v>
       </c>
       <c r="B746" t="str">
-        <v>EPSON TONER M1200 S050523 C13S050523 BLACK ΣΥΜΒΑΤΟ 3200 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER SP3200 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="str">
-        <v>GPT-0515</v>
+        <v>GPT-0452</v>
       </c>
       <c r="B747" t="str">
-        <v>LEXMARK TONER X340/ X342 X340A11G BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER SP311 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="str">
-        <v>GPT-0516</v>
+        <v>GPT-0453</v>
       </c>
       <c r="B748" t="str">
-        <v>KONICA MINOLTA TONER 2300 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MP5000 BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="str">
-        <v>GPT-0517</v>
+        <v>GPT-0454</v>
       </c>
       <c r="B749" t="str">
-        <v>KONICA MINOLTA TONER 2300 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC TONER MFP DQ-TU15E BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="str">
-        <v>GPT-0518</v>
+        <v>GPT-0455</v>
       </c>
       <c r="B750" t="str">
-        <v>KONICA MINOLTA TONER 2300 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER PH-2205D BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="str">
-        <v>GPT-0519</v>
+        <v>GPT-0456</v>
       </c>
       <c r="B751" t="str">
-        <v>KONICA MINOLTA TONER 2300 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B710/720/730 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="str">
-        <v>GPT-0520</v>
+        <v>GPT-0457</v>
       </c>
       <c r="B752" t="str">
-        <v>HP TONER Q7516A BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B4400/4500/4550/4600 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="str">
-        <v>GPT-0521</v>
+        <v>GPT-0458</v>
       </c>
       <c r="B753" t="str">
-        <v>HP TONER Q2613X BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B4350/4300 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="str">
-        <v>GPT-0522</v>
+        <v>GPT-0459</v>
       </c>
       <c r="B754" t="str">
-        <v>DELL TONER D1320 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5100/3000/3200/5150/5200/5250/5300/5400 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="str">
-        <v>GPT-0523</v>
+        <v>GPT-0460</v>
       </c>
       <c r="B755" t="str">
-        <v>DELL TONER D1320 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5100/3000/3200/5150/5200/5250/5300/5400 CYAN ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="str">
-        <v>GPT-0524</v>
+        <v>GPT-0461</v>
       </c>
       <c r="B756" t="str">
-        <v>KONICA MINOLTA TONER 4650EN/4650DN BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5100/3000/3200/5150/5200/5250/5300/5400 MAGENTA ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="str">
-        <v>GPT-0525</v>
+        <v>GPT-0462</v>
       </c>
       <c r="B757" t="str">
-        <v>KONICA MINOLTA TONER 4650EN/4650DN CYAN ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5100/3000/3200/5150/5200/5250/5300/5400 YELLOW ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="str">
-        <v>GPT-0526</v>
+        <v>GPT-0463</v>
       </c>
       <c r="B758" t="str">
-        <v>KONICA MINOLTA TONER 4650EN/4650DN MAGENTA ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5600/5700 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="str">
-        <v>GPT-0527</v>
+        <v>GPT-0464</v>
       </c>
       <c r="B759" t="str">
-        <v>KONICA MINOLTA TONER 4650EN/4650DN YELLOW ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5600/5700 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="str">
-        <v>GPT-0528</v>
+        <v>GPT-0465</v>
       </c>
       <c r="B760" t="str">
-        <v>CANON TONER E30 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5600/5700 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="str">
-        <v>GPT-0529</v>
+        <v>GPT-0470</v>
       </c>
       <c r="B761" t="str">
-        <v>HP TONER C4127X BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C510/C530/MC561 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="str">
-        <v>GPT-0530</v>
+        <v>GPT-0471</v>
       </c>
       <c r="B762" t="str">
-        <v>OKI TONER BK C3100/3000/3200/5100/5150/5200/5300/5400/5510 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C510/C530/MC561 MAGENTA ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="str">
-        <v>GPT-0531</v>
+        <v>GPT-0472</v>
       </c>
       <c r="B763" t="str">
-        <v>OKI TONER C C3100/3000/3200/5100/5150/5200/5300/5400/5510 CYAN ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C510/C530/MC561 YELLOW ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="str">
-        <v>GPT-0532</v>
+        <v>GPT-0473</v>
       </c>
       <c r="B764" t="str">
-        <v>OKI TONER M C3100/3000/3200/5100/5150/5200/5300/5400/5510 MAGENTA ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C110/130N BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="str">
-        <v>GPT-0533</v>
+        <v>GPT-0474</v>
       </c>
       <c r="B765" t="str">
-        <v>OKI TONER Y C3100/3000/3200/5100/5150/5200/5300/5400/5510 YELLOW ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C110/130N CYAN ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="str">
-        <v>GPT-0534</v>
+        <v>GPT-0475</v>
       </c>
       <c r="B766" t="str">
-        <v>HP TONER C4096A BLACK ΣΥΜΒΑΤΟ</v>
+        <v>OKI TONER C110/130N MAGENTA ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="str">
-        <v>GPT-0535</v>
+        <v>GPT-0476</v>
       </c>
       <c r="B767" t="str">
-        <v>OKI TONER B432 BLACK ΣΥΜΒΑΤΟ 12000  ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C110/130N YELLOW ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="str">
-        <v>GPT-0536</v>
+        <v>GPT-0477</v>
       </c>
       <c r="B768" t="str">
-        <v>SAMSUNG TONER MLT - D111XL BLACK ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C910 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="str">
-        <v>GPT-0537</v>
+        <v>GPT-0478</v>
       </c>
       <c r="B769" t="str">
-        <v>LEXMARK TONER E360 BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C910 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="str">
-        <v>GPT-0538</v>
+        <v>GPT-0479</v>
       </c>
       <c r="B770" t="str">
-        <v>KYOCERA TONER TK140 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C910 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="str">
-        <v>GPT-0539</v>
+        <v>GPT-0480</v>
       </c>
       <c r="B771" t="str">
-        <v>LEXMARK TONER X264 / X364X BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C910 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="str">
-        <v>GPT-0540</v>
+        <v>GPT-0481</v>
       </c>
       <c r="B772" t="str">
-        <v>XEROX PHASER 4400 - 113R00628 BLACK ΣΥΜΒΑΤΟ</v>
+        <v>LEXMARK TONER MS510 - 50F2U00 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="str">
-        <v>DTS-0010</v>
+        <v>GPT-0482</v>
       </c>
       <c r="B773" t="str">
-        <v>OKI RIBBON 09002303 BLACK ΣΥΜΒΑΤΗ</v>
+        <v>LEXMARK TONER LEX W850H BLACK ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="str">
-        <v>DTS-0016</v>
+        <v>GPT-0483</v>
       </c>
       <c r="B774" t="str">
-        <v>EPSON RIBBON LQ800 - 8750/7753 BLACK ΣΥΜΒΑΤΗ</v>
+        <v>LEXMARK TONER T640X/642/644 BLACK ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="str">
-        <v>DTS-0017</v>
+        <v>GPT-0484</v>
       </c>
       <c r="B775" t="str">
-        <v>PANASONIC TONER KX-FAT88X/92X/411X ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER T630X/632/634 BLACK ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="str">
-        <v>DTS-0018</v>
+        <v>GPT-0485</v>
       </c>
       <c r="B776" t="str">
-        <v>LEXMARK TONER MS310 - 50F2H00 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER LEX E450 BLACK ΣΥΜΒΑΤΟ 11000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="str">
-        <v>DTS-0019</v>
+        <v>GPT-0486</v>
       </c>
       <c r="B777" t="str">
-        <v>ΣΥΜΒΑΤΗ ΜΕΛΑΝΟΤΑΙΝΙΑ EPSON ERC-32B BLACK</v>
+        <v>OKI TONER C5600/5700 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="str">
-        <v>DTS-0022</v>
+        <v>GPT-0487</v>
       </c>
       <c r="B778" t="str">
-        <v>EPSON INK 79XL - T7891XXL BLACK ΣΥΜΒΑΤΟ</v>
+        <v>HP TONER CF279A BLACK ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="str">
-        <v>DTS-0023</v>
+        <v>GPT-0488</v>
       </c>
       <c r="B779" t="str">
-        <v>EPSON INK 79XL - T7892XXL CYAN ΣΥΜΒΑΤΟ</v>
+        <v>KYOCERA TONER TK-110 ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="str">
-        <v>DTS-0024</v>
+        <v>GPT-0489</v>
       </c>
       <c r="B780" t="str">
-        <v>EPSON INK 79XL - T7893XXL MAGENTA ΣΥΜΒΑΤΟ</v>
+        <v>BROTHER TONER TN135/115 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="str">
-        <v>DTS-0025</v>
+        <v>GPT-0490</v>
       </c>
       <c r="B781" t="str">
-        <v>EPSON INK 79XL - T7894XXL YELLOW ΣΥΜΒΑΤΟ</v>
+        <v>BROTHER TONER TN135/115 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="str">
-        <v>DTS-0026</v>
+        <v>GPT-0491</v>
       </c>
       <c r="B782" t="str">
-        <v>XEROX TONER 3315/3325 - 106R02311 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN135/115 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="str">
-        <v>HEL-0255</v>
+        <v>GPT-0492</v>
       </c>
       <c r="B783" t="str">
-        <v>CITIZEN RIBBON 3000025 GSX145 BLACK ΣΥΜΒΑΤΗ 17 m</v>
+        <v>BROTHER TONER TN135/115 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="str">
-        <v>TON-0551</v>
+        <v>GPI-0002</v>
       </c>
       <c r="B784" t="str">
-        <v>LEXMARK T650 - T650H11E REBUILT BLACK 25000 ΣΕΛΙΔΕΣ</v>
-      </c>
-    </row>
-    <row r="785">
-      <c r="A785" t="str">
-        <v>AAA</v>
-      </c>
-      <c r="B785" t="str">
-        <v>Apostolos Product</v>
+        <v>EPSON INK T0712/T0892 CYAN ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
   </sheetData>

--- a/server/files/orderExport.xlsx
+++ b/server/files/orderExport.xlsx
@@ -378,7 +378,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Receivers"/>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,378 +414,892 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>138</v>
+        <v>2080</v>
       </c>
       <c r="B2" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΑΝΑΤΟΛΙΚΗΣ ΑΧΑΪΑΣ</v>
+        <v>ΒΑΣΙΛΕΙΟΥ  ΦΩΤΙΟΣ</v>
+      </c>
+      <c r="E2" t="str">
+        <v>ΧΡΙΣΤΟΒΑΣΙΛΗ 1</v>
+      </c>
+      <c r="F2" t="str">
+        <v>46100</v>
+      </c>
+      <c r="G2" t="str">
+        <v>ΗΓΟΥΜΕΝΙΤΣΑ</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>141</v>
+        <v>2082</v>
       </c>
       <c r="B3" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΒΟΛΟΥ</v>
+        <v>ΝΟΣΟΚΟΜΕΙΟ ΣΑΜΟΥ</v>
+      </c>
+      <c r="E3" t="str">
+        <v>ΣΥΝ/ΡΧΟΥ ΚΕΦΑΛΟΠΟΥΛΟΥ 17</v>
+      </c>
+      <c r="F3" t="str">
+        <v>83100</v>
+      </c>
+      <c r="G3" t="str">
+        <v>ΣΑΜΟΣ</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>208</v>
+        <v>2097</v>
       </c>
       <c r="B4" t="str">
-        <v>ΛΑΒΡΑΝΟΣ  ΧΡΙΣΤΟΔΟΥΛΟΣ ΣΠΥΡΙΔΩΝ</v>
+        <v>SPOT4TONER Ι Κ Ε</v>
+      </c>
+      <c r="E4" t="str">
+        <v>ΑΓΓΕΛΑΚΗ 3</v>
+      </c>
+      <c r="F4" t="str">
+        <v>54621</v>
+      </c>
+      <c r="G4" t="str">
+        <v>ΘΕΣΣΑΛΟΝΙΚΗ</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>210</v>
+        <v>2102</v>
       </c>
       <c r="B5" t="str">
-        <v>ΥΠΟΥΡΓΕΙΟ ΔΙΚΑΙΟΣΥΝΗΣ</v>
+        <v>ΤΑΤΣΗΣ  ΓΕΩΡΓΙΟΣ</v>
+      </c>
+      <c r="E5" t="str">
+        <v>ΦΛΕΜΙΝΓΚ ΚΑΙ ΠΕΡΙΦ ΟΔΟΣ 0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>47100</v>
+      </c>
+      <c r="G5" t="str">
+        <v>ΑΡΤΑ</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>212</v>
+        <v>2109</v>
       </c>
       <c r="B6" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΑΡΔΙΤΣΑΣ</v>
+        <v>ΕΠΙΜΕΛΗΤΗΡΙΟ ΙΩΑΝΝΙΝΩΝ</v>
+      </c>
+      <c r="E6" t="str">
+        <v>ΠΟΥΤΕΤΣΗ 14</v>
+      </c>
+      <c r="F6" t="str">
+        <v>45333</v>
+      </c>
+      <c r="G6" t="str">
+        <v>ΙΩΑΝΝΙΝΑ</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>295</v>
+        <v>18</v>
       </c>
       <c r="B7" t="str">
-        <v>ΔΙΟΙΚ 6ΗΣ ΥΓΕΙΟΝ ΠΕΡΙΦ ΠΕΛΛΟΠ. ΙΩΝΙΩΝ ΔΥ</v>
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΕΡΚΥΡΑΣ</v>
+      </c>
+      <c r="E7" t="str">
+        <v>ΚΟΝΤΟΚΑΛΙ</v>
+      </c>
+      <c r="F7" t="str">
+        <v>49100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>298</v>
+        <v>138</v>
       </c>
       <c r="B8" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΕΝΤΡΟ ΥΓΕΙΑΣ ΛΗΜΝΟΥ</v>
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΑΝΑΤΟΛΙΚΗΣ ΑΧΑΪΑΣ</v>
+      </c>
+      <c r="E8" t="str">
+        <v>ΑΝΩ ΒΟΥΛΩΜΕΝΟ</v>
+      </c>
+      <c r="F8" t="str">
+        <v>25100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>414</v>
+        <v>141</v>
       </c>
       <c r="B9" t="str">
-        <v>ΒΡΥΣΗΣ ΙΩΑΝΝΗΣ ΚΑΙ ΣΙΑ ΟΕ</v>
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΒΟΛΟΥ</v>
+      </c>
+      <c r="E9" t="str">
+        <v>ΠΟΛΥΜΕΡΗ 134</v>
+      </c>
+      <c r="F9" t="str">
+        <v>38222</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>415</v>
+        <v>208</v>
       </c>
       <c r="B10" t="str">
-        <v>Γ ΖΑΒΑΝΤΙΑΣ-Χ ΚΑΡΑΦΥΛΛΙΔΗΣ ΟΕ</v>
+        <v>ΛΑΒΡΑΝΟΣ  ΧΡΙΣΤΟΔΟΥΛΟΣ ΣΠΥΡΙΔΩΝ</v>
+      </c>
+      <c r="E10" t="str">
+        <v>ΑΝΩ ΜΕΣΟΓΓΗ 00</v>
+      </c>
+      <c r="F10" t="str">
+        <v>49080</v>
+      </c>
+      <c r="G10" t="str">
+        <v>ΛΕΥΚΙΜΜΗ</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>448</v>
+        <v>210</v>
       </c>
       <c r="B11" t="str">
-        <v>ΠΑΡΔΑΣ ΓΕΩΡΓΙΟΣ</v>
+        <v>ΥΠΟΥΡΓΕΙΟ ΔΙΚΑΙΟΣΥΝΗΣ</v>
+      </c>
+      <c r="E11" t="str">
+        <v>ΜΕΣΟΓΕΙΩΝ 96</v>
+      </c>
+      <c r="F11" t="str">
+        <v>11527</v>
+      </c>
+      <c r="G11" t="str">
+        <v>ΑΘΗΝΑ</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>454</v>
+        <v>212</v>
       </c>
       <c r="B12" t="str">
-        <v>PRIME POWER ΜΟΝΟΠΡΟΣΩΠΗ ΙΚΕ</v>
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΑΡΔΙΤΣΑΣ</v>
+      </c>
+      <c r="E12" t="str">
+        <v>ΤΕΡΜΑ ΤΑΥΡΩΠΟΥ 0</v>
+      </c>
+      <c r="F12" t="str">
+        <v>43100</v>
+      </c>
+      <c r="G12" t="str">
+        <v>ΚΑΡΔΙΤΣΑ</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>498</v>
+        <v>295</v>
       </c>
       <c r="B13" t="str">
-        <v>ΜΩΡΑΙΤΗ  ΜΑΡΙΑ ΑΘΑΝΑΣΙΟΣ</v>
+        <v>ΔΙΟΙΚ 6ΗΣ ΥΓΕΙΟΝ ΠΕΡΙΦ ΠΕΛΛΟΠ. ΙΩΝΙΩΝ ΔΥ</v>
+      </c>
+      <c r="E13" t="str">
+        <v>ΥΠΑΤΗΣ 1</v>
+      </c>
+      <c r="F13" t="str">
+        <v>26441</v>
+      </c>
+      <c r="G13" t="str">
+        <v>ΠΑΤΡΑ</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>594</v>
+        <v>298</v>
       </c>
       <c r="B14" t="str">
-        <v>ΓΑΒΡΙΗΛΙΔΗΣ  ΑΝΕΣΤΗΣ ΚΩΝΣΤΑΝΤΙΝΟΣ</v>
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΕΝΤΡΟ ΥΓΕΙΑΣ ΛΗΜΝΟΥ</v>
+      </c>
+      <c r="E14" t="str">
+        <v>ΜΥΡΙΝΑ 0</v>
+      </c>
+      <c r="F14" t="str">
+        <v>81400</v>
+      </c>
+      <c r="G14" t="str">
+        <v>ΜΥΡΙΝΑ</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>597</v>
+        <v>414</v>
       </c>
       <c r="B15" t="str">
-        <v>ΚΑΝΤΑΡΕΛΗΣ ΗΛΙΑΣ</v>
+        <v>ΒΡΥΣΗΣ ΙΩΑΝΝΗΣ ΚΑΙ ΣΙΑ ΟΕ</v>
+      </c>
+      <c r="E15" t="str">
+        <v>ΚΥΠΡΟΥ 47</v>
+      </c>
+      <c r="F15" t="str">
+        <v>46100</v>
+      </c>
+      <c r="G15" t="str">
+        <v>ΗΓΟΥΜΕΝΙΤΣΑ</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>658</v>
+        <v>415</v>
       </c>
       <c r="B16" t="str">
-        <v>ΖΑΡΙΦΗΣ  ΜΙΧΑΗΛ ΓΕΩΡΓΙΟΣ</v>
+        <v>Γ ΖΑΒΑΝΤΙΑΣ-Χ ΚΑΡΑΦΥΛΛΙΔΗΣ ΟΕ</v>
+      </c>
+      <c r="E16" t="str">
+        <v>ΘΕΣΣΑΛΟΝΙΚΗΣ 31</v>
+      </c>
+      <c r="F16" t="str">
+        <v>60100</v>
+      </c>
+      <c r="G16" t="str">
+        <v>ΚΑΤΕΡΙΝΗ</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>749</v>
+        <v>448</v>
       </c>
       <c r="B17" t="str">
-        <v>Γ.Ν ΙΠΠΟΚΡΑΤΕΙΟ ΘΕΣ/ΝΙΚΗΣ</v>
+        <v>ΠΑΡΔΑΣ ΓΕΩΡΓΙΟΣ</v>
+      </c>
+      <c r="E17" t="str">
+        <v>20 ΟΚΤΩΒΡΙΟΥ 4</v>
+      </c>
+      <c r="F17" t="str">
+        <v>58100</v>
+      </c>
+      <c r="G17" t="str">
+        <v>ΓΙΑΝΝΙΤΣΑ</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>759</v>
+        <v>454</v>
       </c>
       <c r="B18" t="str">
-        <v>ΚΑΚΟΛΥΡΗΣ ΓΡΗΓΟΡΗΣ</v>
+        <v>PRIME POWER ΜΟΝΟΠΡΟΣΩΠΗ ΙΚΕ</v>
+      </c>
+      <c r="E18" t="str">
+        <v>ΙΛΙΟΥ ΚΑΙ Μ ΜΑΥΡΟΓΕΝΟΥΣ 1</v>
+      </c>
+      <c r="F18" t="str">
+        <v>16674</v>
+      </c>
+      <c r="G18" t="str">
+        <v>ΓΛΥΦΑΔΑ</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>780</v>
+        <v>498</v>
       </c>
       <c r="B19" t="str">
-        <v>ΧΡΥΣΑΓΗΣ  ΝΙΚΟΛΑΟΣ</v>
+        <v>ΜΩΡΑΙΤΗ  ΜΑΡΙΑ ΑΘΑΝΑΣΙΟΣ</v>
+      </c>
+      <c r="E19" t="str">
+        <v>ΑΓΙΑΣ ΣΟΦΙΑΣ 15</v>
+      </c>
+      <c r="F19" t="str">
+        <v>26441</v>
+      </c>
+      <c r="G19" t="str">
+        <v>ΠΑΤΡΑ</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>975</v>
+        <v>594</v>
       </c>
       <c r="B20" t="str">
-        <v>ΕΥΑΓΓΕΛΟΣ ΔΑΝΙΗΛ ΚΑΙ ΣΙΑ ΟΕ</v>
+        <v>ΓΑΒΡΙΗΛΙΔΗΣ  ΑΝΕΣΤΗΣ ΚΩΝΣΤΑΝΤΙΝΟΣ</v>
+      </c>
+      <c r="E20" t="str">
+        <v>ΑΜΕΡ ΕΡΥΘΡΟΥ ΣΤΑΥΡΟΥ 104</v>
+      </c>
+      <c r="F20" t="str">
+        <v>65201</v>
+      </c>
+      <c r="G20" t="str">
+        <v>ΚΑΒΑΛΑ</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>1137</v>
+        <v>597</v>
       </c>
       <c r="B21" t="str">
-        <v>ΓΕΩΡΓΙΟΣ ΜΠΑΛΗΣ-ΖΗΝΟΒΙΑ ΜΠΑΛΗ ΟΕ</v>
+        <v>ΚΑΝΤΑΡΕΛΗΣ ΗΛΙΑΣ</v>
+      </c>
+      <c r="E21" t="str">
+        <v>ΑΧΑΡΑΒΗ</v>
+      </c>
+      <c r="F21" t="str">
+        <v>49081</v>
+      </c>
+      <c r="G21" t="str">
+        <v>ΚΑΡΟΥΣΑΔΕΣ</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>1160</v>
+        <v>658</v>
       </c>
       <c r="B22" t="str">
-        <v>ΚΙΝΤΩΝΗ  ΠΑΝΑΓΙΩΤΑ</v>
+        <v>ΖΑΡΙΦΗΣ  ΜΙΧΑΗΛ ΓΕΩΡΓΙΟΣ</v>
+      </c>
+      <c r="E22" t="str">
+        <v>ΛΕΩΦΟΡΟΣ ΔΗΜΟΚΡΑΤΙΑΣ 57-59</v>
+      </c>
+      <c r="F22" t="str">
+        <v>18755</v>
+      </c>
+      <c r="G22" t="str">
+        <v>ΚΕΡΑΤΣΙΝΙ</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>1242</v>
+        <v>749</v>
       </c>
       <c r="B23" t="str">
-        <v>ΕΛΕΥΘΕΡΙΑΔΗΣ  ΧΑΡΑΛΑΜΠΟΣ</v>
+        <v>Γ.Ν ΙΠΠΟΚΡΑΤΕΙΟ ΘΕΣ/ΝΙΚΗΣ</v>
+      </c>
+      <c r="E23" t="str">
+        <v>ΚΩΝΣΤΑΝΤΙΝΟΥΠΟΛΕΩΣ 49</v>
+      </c>
+      <c r="F23" t="str">
+        <v>54641</v>
+      </c>
+      <c r="G23" t="str">
+        <v>ΘΕΣΣΑΛΟΝΙΚΗ</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>1352</v>
+        <v>759</v>
       </c>
       <c r="B24" t="str">
-        <v>ΜΑΝΙΟΣ  ΓΕΩΡΓΙΟΣ</v>
+        <v>ΚΑΚΟΛΥΡΗΣ ΓΡΗΓΟΡΗΣ</v>
+      </c>
+      <c r="E24" t="str">
+        <v>ΦΙΛΙΚΗΣ ΕΤΑΙΡΕΙΑΣ 2</v>
+      </c>
+      <c r="F24" t="str">
+        <v>27200</v>
+      </c>
+      <c r="G24" t="str">
+        <v>ΑΜΑΛΙΑΔΑ</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>1507</v>
+        <v>780</v>
       </c>
       <c r="B25" t="str">
-        <v>ΤΣΕΡΕΜΕΓΚΛΗΣ  ΠΑΝΑΓΙΩΤΗΣ ΑΝΔΡΕΑΣ</v>
+        <v>ΧΡΥΣΑΓΗΣ  ΝΙΚΟΛΑΟΣ</v>
+      </c>
+      <c r="E25" t="str">
+        <v>ΠΕΡΣΕΦΩΝΗΣ 10</v>
+      </c>
+      <c r="F25" t="str">
+        <v>66100</v>
+      </c>
+      <c r="G25" t="str">
+        <v>ΔΡΑΜΑ</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>1508</v>
+        <v>975</v>
       </c>
       <c r="B26" t="str">
-        <v>ΠΑΠΑΙΩΑΝΝΟΥ  ΑΠΟΣΤΟΛΟΣ</v>
+        <v>ΕΥΑΓΓΕΛΟΣ ΔΑΝΙΗΛ ΚΑΙ ΣΙΑ ΟΕ</v>
+      </c>
+      <c r="E26" t="str">
+        <v>ΛΕΩΦΟΡΟΣ ΔΗΜΟΚΡΑΤΙΑΣ 20</v>
+      </c>
+      <c r="F26" t="str">
+        <v>81400</v>
+      </c>
+      <c r="G26" t="str">
+        <v>ΜΥΡΙΝΑ - ΛΗΜΝΟΣ</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>1578</v>
+        <v>1137</v>
       </c>
       <c r="B27" t="str">
-        <v>ΤΣΑΡΙΔΗΣ  ΓΕΩΡΓΙΟΣ ΕΥΣΤΑΘΙΟΣ</v>
+        <v>ΓΕΩΡΓΙΟΣ ΜΠΑΛΗΣ-ΖΗΝΟΒΙΑ ΜΠΑΛΗ ΟΕ</v>
+      </c>
+      <c r="E27" t="str">
+        <v>ΔΑΜΑΡΕΩΣ 177</v>
+      </c>
+      <c r="F27" t="str">
+        <v>11632</v>
+      </c>
+      <c r="G27" t="str">
+        <v>ΑΘΗΝΑ</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>1737</v>
+        <v>1160</v>
       </c>
       <c r="B28" t="str">
-        <v>ΓΟΥΛΑΣ  ΓΕΩΡΓΙΟΣ</v>
+        <v>ΚΙΝΤΩΝΗ  ΠΑΝΑΓΙΩΤΑ</v>
+      </c>
+      <c r="E28" t="str">
+        <v>ΚΑΝΕΛΛΟΠΟΥΛΟΥ ΚΑΙ ΣΟΛΙΩΤΗ ΝΙΚΟΛΑΟΥ ΓΩΝΙΑ</v>
+      </c>
+      <c r="F28" t="str">
+        <v>25100</v>
+      </c>
+      <c r="G28" t="str">
+        <v>ΑΙΓΙΟ</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>1905</v>
+        <v>1242</v>
       </c>
       <c r="B29" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΑΧΕΠΑ</v>
+        <v>ΕΛΕΥΘΕΡΙΑΔΗΣ  ΧΑΡΑΛΑΜΠΟΣ</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Λ. ΔΗΜΟΚΡΑΤΙΑΣ &amp; ΗΡΩΩΝ ΠΟΛΥΤΕΧΝΕΙΟΥ 27</v>
+      </c>
+      <c r="F29" t="str">
+        <v>19300</v>
+      </c>
+      <c r="G29" t="str">
+        <v>ΑΣΠΡΟΠΥΡΓΟΣ</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>1972</v>
+        <v>1352</v>
       </c>
       <c r="B30" t="str">
-        <v>ΣΑΜΑΡΑ  ΚΑΛΛΙΟΠΗ</v>
+        <v>ΜΑΝΙΟΣ  ΓΕΩΡΓΙΟΣ</v>
+      </c>
+      <c r="E30" t="str">
+        <v>ΝΙΚΟΥ ΚΑΖΑΝΤΖΑΚΗ 2</v>
+      </c>
+      <c r="F30" t="str">
+        <v>85100</v>
+      </c>
+      <c r="G30" t="str">
+        <v>ΡΟΔΟΣ</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2032</v>
+        <v>1507</v>
       </c>
       <c r="B31" t="str">
-        <v>CC-LIT Α.Ε.</v>
+        <v>ΤΣΕΡΕΜΕΓΚΛΗΣ  ΠΑΝΑΓΙΩΤΗΣ ΑΝΔΡΕΑΣ</v>
+      </c>
+      <c r="E31" t="str">
+        <v>ΥΨΗΛΑΝΤΟΥ 133</v>
+      </c>
+      <c r="F31" t="str">
+        <v>26221</v>
+      </c>
+      <c r="G31" t="str">
+        <v>ΠΑΤΡΑ</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2044</v>
+        <v>1508</v>
       </c>
       <c r="B32" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΗΛΕΙΑΣ</v>
+        <v>ΠΑΠΑΙΩΑΝΝΟΥ  ΑΠΟΣΤΟΛΟΣ</v>
+      </c>
+      <c r="E32" t="str">
+        <v>Ν ΜΠΟΤΣΑΡΗ 34</v>
+      </c>
+      <c r="F32" t="str">
+        <v>30300</v>
+      </c>
+      <c r="G32" t="str">
+        <v>ΝΑΥΠΑΚΤΟΣ</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2045</v>
+        <v>1578</v>
       </c>
       <c r="B33" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΟΡΙΝΘΟΥ</v>
+        <v>ΤΣΑΡΙΔΗΣ  ΓΕΩΡΓΙΟΣ ΕΥΣΤΑΘΙΟΣ</v>
+      </c>
+      <c r="E33" t="str">
+        <v>Ν ΠΑΝΑΓΙΩΤΟΥ 29</v>
+      </c>
+      <c r="F33" t="str">
+        <v>61100</v>
+      </c>
+      <c r="G33" t="str">
+        <v>ΚΙΛΚΙΣ</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2048</v>
+        <v>1737</v>
       </c>
       <c r="B34" t="str">
-        <v>1η ΥΠΕ - ΓΕΝ. ΟΓΚΟΛΟΓΙΚΟ ΝΟΣΟΚΟΜΕΙΟ</v>
+        <v>ΓΟΥΛΑΣ  ΓΕΩΡΓΙΟΣ</v>
+      </c>
+      <c r="E34" t="str">
+        <v>ΒΑΛΑΩΡΙΤΟΥ ΚΑΙ ΚΑΡΑΙΣΚΑΚΗ 12</v>
+      </c>
+      <c r="F34" t="str">
+        <v>45444</v>
+      </c>
+      <c r="G34" t="str">
+        <v>ΙΩΑΝΝΙΝΑ</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2049</v>
+        <v>1905</v>
       </c>
       <c r="B35" t="str">
-        <v>Γ.ΝΟΣΟΚ. ΑΤΤΙΚΗΣ ΣΙΣΜΑΝΟΓΛΕΙΟ</v>
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΑΧΕΠΑ</v>
+      </c>
+      <c r="E35" t="str">
+        <v>ΣΤΙΛΠ ΚΥΡΙΑΚΙΔΗ 1</v>
+      </c>
+      <c r="F35" t="str">
+        <v>54636</v>
+      </c>
+      <c r="G35" t="str">
+        <v>ΘΕΣΣΑΛΟΝΙΚΗ</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2052</v>
+        <v>1972</v>
       </c>
       <c r="B36" t="str">
-        <v>ΕΦΚΑ - ΕΝΙΑΙΟΣ ΦΟΡΕΑΣ ΚΟΙΝΩΝΙΚΗΣ ΑΣΦΑΛΙΣ</v>
+        <v>ΣΑΜΑΡΑ  ΚΑΛΛΙΟΠΗ</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Π ΠΑΤΡΩΝ ΓΕΡΜΑΝΟΥ 3</v>
+      </c>
+      <c r="F36" t="str">
+        <v>12241</v>
+      </c>
+      <c r="G36" t="str">
+        <v>ΑΙΓΑΛΕΩ</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2054</v>
+        <v>2032</v>
       </c>
       <c r="B37" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΠΕΛΛΑΣ</v>
+        <v>CC-LIT Α.Ε.</v>
+      </c>
+      <c r="E37" t="str">
+        <v>ΚΙΣΣΑΒΟΥ 2</v>
+      </c>
+      <c r="F37" t="str">
+        <v>18346</v>
+      </c>
+      <c r="G37" t="str">
+        <v>ΜΟΣΧΑΤΟ</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2065</v>
+        <v>2044</v>
       </c>
       <c r="B38" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΛΑΚΩΝΙΑΣ</v>
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΗΛΕΙΑΣ</v>
+      </c>
+      <c r="E38" t="str">
+        <v>ΣΥΝΤΡΙΑΔΑ ΠΥΡΓΟΥ 0</v>
+      </c>
+      <c r="F38" t="str">
+        <v>27100</v>
+      </c>
+      <c r="G38" t="str">
+        <v>ΠΥΡΓΟΣ</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2067</v>
+        <v>2045</v>
       </c>
       <c r="B39" t="str">
-        <v>ΕΘΝΙΚΟΣ ΟΡΓΑΝΙΣΜΟΣ ΜΕΤΑΜΟΣΧΕΥΣΕΩΝ</v>
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΟΡΙΝΘΟΥ</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Λ ΑΘΗΝΩΝ 53</v>
+      </c>
+      <c r="F39" t="str">
+        <v>20100</v>
+      </c>
+      <c r="G39" t="str">
+        <v>ΚΟΡΙΝΘΟΣ</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2076</v>
+        <v>2048</v>
       </c>
       <c r="B40" t="str">
-        <v>Γ. ΠΑΠΑΝΙΚΟΛΑΟΥ ΝΟΣΟΚΟΜΕΙΟ ΘΕΣ/ΝΙΚΗΣ</v>
+        <v>1η ΥΠΕ - ΓΕΝ. ΟΓΚΟΛΟΓΙΚΟ ΝΟΣΟΚΟΜΕΙΟ</v>
+      </c>
+      <c r="E40" t="str">
+        <v>ΘΕΣΗ ΚΑΛΥΦΤΑΚΗ 0</v>
+      </c>
+      <c r="F40" t="str">
+        <v>14564</v>
+      </c>
+      <c r="G40" t="str">
+        <v>ΚΗΦΙΣΙΑ</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2078</v>
+        <v>2049</v>
       </c>
       <c r="B41" t="str">
-        <v>ΠΑΠΑΒΑΣΙΛΕΙΟΥ  ΓΕΩΡΓΙΟΣ</v>
+        <v>Γ.ΝΟΣΟΚ. ΑΤΤΙΚΗΣ ΣΙΣΜΑΝΟΓΛΕΙΟ</v>
+      </c>
+      <c r="E41" t="str">
+        <v>ΤΕΡΜΑ ΣΙΣΜΑΝΟΓΛΕΙΟΥ 0</v>
+      </c>
+      <c r="F41" t="str">
+        <v>15126</v>
+      </c>
+      <c r="G41" t="str">
+        <v>ΜΑΡΟΥΣΙ</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2080</v>
+        <v>2052</v>
       </c>
       <c r="B42" t="str">
-        <v>ΒΑΣΙΛΕΙΟΥ  ΦΩΤΙΟΣ</v>
+        <v>ΕΦΚΑ - ΕΝΙΑΙΟΣ ΦΟΡΕΑΣ ΚΟΙΝΩΝΙΚΗΣ ΑΣΦΑΛΙΣ</v>
+      </c>
+      <c r="E42" t="str">
+        <v>ΑΜΕΡΙΚΗΣ 12</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10671</v>
+      </c>
+      <c r="G42" t="str">
+        <v>ΑΘΗΝΑ</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2082</v>
+        <v>2054</v>
       </c>
       <c r="B43" t="str">
-        <v>ΝΟΣΟΚΟΜΕΙΟ ΣΑΜΟΥ</v>
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΠΕΛΛΑΣ</v>
+      </c>
+      <c r="E43" t="str">
+        <v>ΤΕΡΜΑ ΕΓΝΑΤΙΑΣ</v>
+      </c>
+      <c r="F43" t="str">
+        <v>58200</v>
+      </c>
+      <c r="G43" t="str">
+        <v>ΕΔΕΣΣΑ</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2097</v>
+        <v>2065</v>
       </c>
       <c r="B44" t="str">
-        <v>SPOT4TONER Ι Κ Ε</v>
+        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΛΑΚΩΝΙΑΣ</v>
+      </c>
+      <c r="E44" t="str">
+        <v>ΝΟΣΟΚΟΜΕΙΟ ΣΠΑΡΤΗΣ 0</v>
+      </c>
+      <c r="F44" t="str">
+        <v>23100</v>
+      </c>
+      <c r="G44" t="str">
+        <v>ΣΠΑΡΤΗ</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2099</v>
+        <v>2067</v>
       </c>
       <c r="B45" t="str">
-        <v>ΗΛΙΟΠΟΥΛΟΣ  ΓΕΩΡΓΙΟΣ ΕΥΣΤΑΘΙΟΣ</v>
+        <v>ΕΘΝΙΚΟΣ ΟΡΓΑΝΙΣΜΟΣ ΜΕΤΑΜΟΣΧΕΥΣΕΩΝ</v>
+      </c>
+      <c r="E45" t="str">
+        <v>ΤΣΟΧΑ 5</v>
+      </c>
+      <c r="F45" t="str">
+        <v>11521</v>
+      </c>
+      <c r="G45" t="str">
+        <v>ΑΘΗΝΑ</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2102</v>
+        <v>2076</v>
       </c>
       <c r="B46" t="str">
-        <v>ΤΑΤΣΗΣ  ΓΕΩΡΓΙΟΣ</v>
+        <v>Γ. ΠΑΠΑΝΙΚΟΛΑΟΥ ΝΟΣΟΚΟΜΕΙΟ ΘΕΣ/ΝΙΚΗΣ</v>
+      </c>
+      <c r="E46" t="str">
+        <v>ΕΞΟΧΗ 0</v>
+      </c>
+      <c r="F46" t="str">
+        <v>57010</v>
+      </c>
+      <c r="G46" t="str">
+        <v>ΕΞΟΧΗ</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2109</v>
+        <v>2078</v>
       </c>
       <c r="B47" t="str">
-        <v>ΕΠΙΜΕΛΗΤΗΡΙΟ ΙΩΑΝΝΙΝΩΝ</v>
+        <v>ΠΑΠΑΒΑΣΙΛΕΙΟΥ  ΓΕΩΡΓΙΟΣ</v>
+      </c>
+      <c r="E47" t="str">
+        <v>ΧΙΛΗΣ 71</v>
+      </c>
+      <c r="F47" t="str">
+        <v>18755</v>
+      </c>
+      <c r="G47" t="str">
+        <v>ΚΕΡΑΤΣΙΝΙ</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>18</v>
+        <v>2099</v>
       </c>
       <c r="B48" t="str">
-        <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΕΡΚΥΡΑΣ</v>
+        <v>ΗΛΙΟΠΟΥΛΟΣ  ΓΕΩΡΓΙΟΣ ΕΥΣΤΑΘΙΟΣ</v>
+      </c>
+      <c r="E48" t="str">
+        <v>ΠΟΛΥΤΕΧΝΕΙΟΥ 6</v>
+      </c>
+      <c r="F48" t="str">
+        <v>50200</v>
+      </c>
+      <c r="G48" t="str">
+        <v>ΠΤΟΛΕΜΑΙΔΑ</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Kaiser Bridge</v>
+      </c>
+      <c r="B49" t="str">
+        <v>APOSTOLIS ANASTASIOU</v>
+      </c>
+      <c r="C49" t="str">
+        <v>michael.tolis@gmail.com</v>
+      </c>
+      <c r="E49" t="str">
+        <v>Kaiser Bridge</v>
+      </c>
+      <c r="F49" t="str">
+        <v>49100</v>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Kaiser Bridge</v>
+      </c>
+      <c r="B50" t="str">
+        <v>APOSTOLIS ANASTASIOU</v>
+      </c>
+      <c r="C50" t="str">
+        <v>michael.tolis@gmail.com</v>
+      </c>
+      <c r="E50" t="str">
+        <v>Kaiser Bridge</v>
+      </c>
+      <c r="F50" t="str">
+        <v>49100</v>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Kaiser Bridge</v>
+      </c>
+      <c r="B51" t="str">
+        <v>APOSTOLIS ANASTASIOU</v>
+      </c>
+      <c r="C51" t="str">
+        <v>michael.tolis@gmail.com</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Kaiser Bridge</v>
+      </c>
+      <c r="F51" t="str">
+        <v>49100</v>
+      </c>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Kaiser Bridge</v>
+      </c>
+      <c r="B52" t="str">
+        <v>+-Gerard</v>
+      </c>
+      <c r="C52" t="str">
+        <v>michael.tolis@gmail.com</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Kaiser Bridge</v>
+      </c>
+      <c r="F52" t="str">
+        <v>49100</v>
+      </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Kaiser Bridge</v>
+      </c>
+      <c r="B53" t="str">
+        <v>-=Tsaptsap</v>
+      </c>
+      <c r="C53" t="str">
+        <v>michael.tolis@gmail.com</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Kaiser Bridge</v>
+      </c>
+      <c r="F53" t="str">
+        <v>49100</v>
+      </c>
+      <c r="G53" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -848,6266 +1362,6266 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>GPT-0515</v>
+        <v>GPT-0532</v>
       </c>
       <c r="B2" t="str">
-        <v>LEXMARK TONER X340/ X342 X340A11G BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER M C3100/3000/3200/5100/5150/5200/5300/5400/5510 MAGENTA ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>GPT-0516</v>
+        <v>GPT-0533</v>
       </c>
       <c r="B3" t="str">
-        <v>KONICA MINOLTA TONER 2300 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER Y C3100/3000/3200/5100/5150/5200/5300/5400/5510 YELLOW ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>GPT-0517</v>
+        <v>GPT-0535</v>
       </c>
       <c r="B4" t="str">
-        <v>KONICA MINOLTA TONER 2300 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B432 BLACK ΣΥΜΒΑΤΟ 12000  ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>GPT-0518</v>
+        <v>GPT-0536</v>
       </c>
       <c r="B5" t="str">
-        <v>KONICA MINOLTA TONER 2300 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT - D111XL BLACK ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>GPT-0519</v>
+        <v>GPT-0537</v>
       </c>
       <c r="B6" t="str">
-        <v>KONICA MINOLTA TONER 2300 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER E360 BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>GPT-0520</v>
+        <v>GPT-0538</v>
       </c>
       <c r="B7" t="str">
-        <v>HP TONER Q7516A BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK140 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>GPT-0521</v>
+        <v>GPT-0539</v>
       </c>
       <c r="B8" t="str">
-        <v>HP TONER Q2613X BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER X264 / X364X BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>GPT-0522</v>
+        <v>DTS-0017</v>
       </c>
       <c r="B9" t="str">
-        <v>DELL TONER D1320 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC TONER KX-FAT88X/92X/411X ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>GPT-0523</v>
+        <v>DTS-0018</v>
       </c>
       <c r="B10" t="str">
-        <v>DELL TONER D1320 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER MS310 - 50F2H00 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>GPT-0524</v>
+        <v>DTS-0019</v>
       </c>
       <c r="B11" t="str">
-        <v>KONICA MINOLTA TONER 4650EN/4650DN BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>ΣΥΜΒΑΤΗ ΜΕΛΑΝΟΤΑΙΝΙΑ EPSON ERC-32B BLACK</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>GPT-0525</v>
+        <v>DTS-0026</v>
       </c>
       <c r="B12" t="str">
-        <v>KONICA MINOLTA TONER 4650EN/4650DN CYAN ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3315/3325 - 106R02311 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>GPT-0526</v>
+        <v>HEL-0255</v>
       </c>
       <c r="B13" t="str">
-        <v>KONICA MINOLTA TONER 4650EN/4650DN MAGENTA ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>CITIZEN RIBBON 3000025 GSX145 BLACK ΣΥΜΒΑΤΗ 17 m</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>GPT-0527</v>
+        <v>TON-0551</v>
       </c>
       <c r="B14" t="str">
-        <v>KONICA MINOLTA TONER 4650EN/4650DN YELLOW ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK T650 - T650H11E REBUILT BLACK 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>GPT-0528</v>
+        <v>GPI-0032</v>
       </c>
       <c r="B15" t="str">
-        <v>CANON TONER E30 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 933XL - CN055AA MAGENTA ΣΥΜΒΑΤΟ 16ml</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>GPT-0529</v>
+        <v>GPI-0033</v>
       </c>
       <c r="B16" t="str">
-        <v>HP TONER C4127X BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 933XL - CN056AA YELLOW ΣΥΜΒΑΤΟ 16ml</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>GPT-0530</v>
+        <v>GPI-0034</v>
       </c>
       <c r="B17" t="str">
-        <v>OKI TONER BK C3100/3000/3200/5100/5150/5200/5300/5400/5510 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 21XL - C9351A  BLACK ΣΥΜΒΑΤΟ 22ml</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>GPT-0531</v>
+        <v>GPI-0035</v>
       </c>
       <c r="B18" t="str">
-        <v>OKI TONER C C3100/3000/3200/5100/5150/5200/5300/5400/5510 CYAN ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 22XL - C9352C COLOR ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>GPT-0532</v>
+        <v>GPI-0036</v>
       </c>
       <c r="B19" t="str">
-        <v>OKI TONER M C3100/3000/3200/5100/5150/5200/5300/5400/5510 MAGENTA ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 901XL - CC654A BLACK ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>GPT-0533</v>
+        <v>GPI-0038</v>
       </c>
       <c r="B20" t="str">
-        <v>OKI TONER Y C3100/3000/3200/5100/5150/5200/5300/5400/5510 YELLOW ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 301XL - CH564EE COLOR ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>GPT-0535</v>
+        <v>GPI-0040</v>
       </c>
       <c r="B21" t="str">
-        <v>OKI TONER B432 BLACK ΣΥΜΒΑΤΟ 12000  ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 300XL - CC641EE BLACK ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>GPT-0536</v>
+        <v>GPI-0041</v>
       </c>
       <c r="B22" t="str">
-        <v>SAMSUNG TONER MLT - D111XL BLACK ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 300XL - CC644EE COLOR ΣΥΜΒΑΤΟ 21 ml</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>GPT-0537</v>
+        <v>GPI-0042</v>
       </c>
       <c r="B23" t="str">
-        <v>LEXMARK TONER E360 BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T01291 BLACK ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>GPT-0538</v>
+        <v>GPI-0043</v>
       </c>
       <c r="B24" t="str">
-        <v>KYOCERA TONER TK140 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T01292 CYAN ΣΥΜΒΑΤΟ 12ml</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>GPT-0539</v>
+        <v>GPI-0044</v>
       </c>
       <c r="B25" t="str">
-        <v>LEXMARK TONER X264 / X364X BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T01293 MAGENTA ΣΥΜΒΑΤΟ 12ml</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>DTS-0017</v>
+        <v>GPI-0045</v>
       </c>
       <c r="B26" t="str">
-        <v>PANASONIC TONER KX-FAT88X/92X/411X ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T01294 YELLOW ΣΥΜΒΑΤΟ 12ml</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>DTS-0018</v>
+        <v>GPI-0046</v>
       </c>
       <c r="B27" t="str">
-        <v>LEXMARK TONER MS310 - 50F2H00 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 301XL - CH563EE BLACK ΣΥΜΒΑΤΟ 16ml</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>DTS-0019</v>
+        <v>GPI-0047</v>
       </c>
       <c r="B28" t="str">
-        <v>ΣΥΜΒΑΤΗ ΜΕΛΑΝΟΤΑΙΝΙΑ EPSON ERC-32B BLACK</v>
+        <v>HP INK No  350XL - CB336EE BLACK ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>DTS-0025</v>
+        <v>GPI-0049</v>
       </c>
       <c r="B29" t="str">
-        <v>EPSON INK 79XL - T7894XXL YELLOW ΣΥΜΒΑΤΟ</v>
+        <v>HP INK No 57 - C6657A COLOR ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>DTS-0026</v>
+        <v>GPI-0050</v>
       </c>
       <c r="B30" t="str">
-        <v>XEROX TONER 3315/3325 - 106R02311 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 27 - C8727A ΒLACΚ ΣΥΜΒΑΤΟ 17ml</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>HEL-0255</v>
+        <v>GPI-0051</v>
       </c>
       <c r="B31" t="str">
-        <v>CITIZEN RIBBON 3000025 GSX145 BLACK ΣΥΜΒΑΤΗ 17 m</v>
+        <v>CANON INK PG-40 BLACK ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>TON-0551</v>
+        <v>GPI-0052</v>
       </c>
       <c r="B32" t="str">
-        <v>LEXMARK T650 - T650H11E REBUILT BLACK 25000 ΣΕΛΙΔΕΣ</v>
+        <v>CANON INK PG-550XL BLACK ΣΥΜΒΑΤΟ 25ml</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>GPI-0019</v>
+        <v>GPI-0053</v>
       </c>
       <c r="B33" t="str">
-        <v>EPSON INK No 26XL - T2621XL BLACK ΣΥΜΒΑΤΟ 22ml</v>
+        <v>CANON INK CLI-551XL CYAN ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>GPI-0021</v>
+        <v>GPI-0054</v>
       </c>
       <c r="B34" t="str">
-        <v>EPSON INK No 26XL - T2632XL CYAN ΣΥΜΒΑΤΟ 10ml</v>
+        <v>CANON INK CLI-551XL YELLOW ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>GPI-0024</v>
+        <v>GPI-0055</v>
       </c>
       <c r="B35" t="str">
-        <v>HP INK No 363XL - C8721 BLACK ΣΥΜΒΑΤΟ 35ml</v>
+        <v>CANON INK CLI-551XL MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>GPI-0027</v>
+        <v>GPI-0056</v>
       </c>
       <c r="B36" t="str">
-        <v>HP INK No 363XL - C8771E CYAN ΣΥΜΒΑΤΟ 13ml</v>
+        <v>HP INK No 940XL - 4906 BLACK ΣΥΜΒΑΤΟ 69ml</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>GPI-0028</v>
+        <v>GPI-0057</v>
       </c>
       <c r="B37" t="str">
-        <v>HP INK No 363XL - C8772E MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
+        <v>HP INK No 940XL - 4907  CYAN ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>GPI-0029</v>
+        <v>GPI-0058</v>
       </c>
       <c r="B38" t="str">
-        <v>HP INK No 363XL - C8773E YELLOW ΣΥΜΒΑΤΟ 13ml</v>
+        <v>HP INK No 940XL - 4909 YELLOW ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>GPI-0030</v>
+        <v>GPI-0059</v>
       </c>
       <c r="B39" t="str">
-        <v>HP INK No 932XL - CN053AA BLACK ΣΥΜΒΑΤΟ 32ml</v>
+        <v>HP INK No 940XL - 4908 MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>GPI-0031</v>
+        <v>GPI-0060</v>
       </c>
       <c r="B40" t="str">
-        <v>HP INK No 933XL - CN054AA CYAN ΣΥΜΒΑΤΟ 16ml</v>
+        <v>HP INK No 950XL - CN045A BLACK ΣΥΜΒΑΤΟ 75ml</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>GPI-0032</v>
+        <v>GPI-0061</v>
       </c>
       <c r="B41" t="str">
-        <v>HP INK No 933XL - CN055AA MAGENTA ΣΥΜΒΑΤΟ 16ml</v>
+        <v>HP INK No 951XL - CN046A CYAN ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>GPI-0033</v>
+        <v>GPI-0062</v>
       </c>
       <c r="B42" t="str">
-        <v>HP INK No 933XL - CN056AA YELLOW ΣΥΜΒΑΤΟ 16ml</v>
+        <v>HP INK No 951XL - CN047A MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>GPI-0034</v>
+        <v>GPI-0063</v>
       </c>
       <c r="B43" t="str">
-        <v>HP INK No 21XL - C9351A  BLACK ΣΥΜΒΑΤΟ 22ml</v>
+        <v>HP INK No 951XL - CN048A YELLOW ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>GPI-0035</v>
+        <v>GPI-0064</v>
       </c>
       <c r="B44" t="str">
-        <v>HP INK No 22XL - C9352C COLOR ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 655XL - BLACK ΣΥΜΒΑΤΟ 30ml</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>GPI-0036</v>
+        <v>GPI-0065</v>
       </c>
       <c r="B45" t="str">
-        <v>HP INK No 901XL - CC654A BLACK ΣΥΜΒΑΤΟ 20ml</v>
+        <v>HP INK No 655XL CYAN ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>GPI-0038</v>
+        <v>GPI-0066</v>
       </c>
       <c r="B46" t="str">
-        <v>HP INK No 301XL - CH564EE COLOR ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 655XL MAGENTA ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>GPI-0040</v>
+        <v>GPI-0067</v>
       </c>
       <c r="B47" t="str">
-        <v>HP INK No 300XL - CC641EE BLACK ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 655XL YELLOW ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>GPI-0041</v>
+        <v>GPI-0069</v>
       </c>
       <c r="B48" t="str">
-        <v>HP INK No 300XL - CC644EE COLOR ΣΥΜΒΑΤΟ 21 ml</v>
+        <v>CANON INK CL-541XL COLOR ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>GPI-0042</v>
+        <v>GPI-0070</v>
       </c>
       <c r="B49" t="str">
-        <v>EPSON INK T01291 BLACK ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP INK No 934XL - C2P19AA BLACK ΣΥΜΒΑΤΟ 55ml</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>GPI-0043</v>
+        <v>GPI-0071</v>
       </c>
       <c r="B50" t="str">
-        <v>EPSON INK T01292 CYAN ΣΥΜΒΑΤΟ 12ml</v>
+        <v>HP INK No 935XL - C2P20AA CYAN ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>GPI-0044</v>
+        <v>GPI-0073</v>
       </c>
       <c r="B51" t="str">
-        <v>EPSON INK T01293 MAGENTA ΣΥΜΒΑΤΟ 12ml</v>
+        <v>HP INK No 935XL - C2P22AA YELLOW ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>GPI-0045</v>
+        <v>GPI-0074</v>
       </c>
       <c r="B52" t="str">
-        <v>EPSON INK T01294 YELLOW ΣΥΜΒΑΤΟ 12ml</v>
+        <v>CANON INK PGI-525 BLACK ΣΥΜΒΑΤΟ 21ml</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>GPI-0046</v>
+        <v>GPI-0075</v>
       </c>
       <c r="B53" t="str">
-        <v>HP INK No 301XL - CH563EE BLACK ΣΥΜΒΑΤΟ 16ml</v>
+        <v>CANON INK CLI-526 CYAN ΣΥΜΒΑΤΟ 11ml</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>GPI-0047</v>
+        <v>GPI-0076</v>
       </c>
       <c r="B54" t="str">
-        <v>HP INK No  350XL - CB336EE BLACK ΣΥΜΒΑΤΟ 28ml</v>
+        <v>CANON INK CLI-526 MAGENTA ΣΥΜΒΑΤΟ 11ml</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>GPI-0049</v>
+        <v>GPI-0077</v>
       </c>
       <c r="B55" t="str">
-        <v>HP INK No 57 - C6657A COLOR ΣΥΜΒΑΤΟ 18ml</v>
+        <v>CANON INK CLI-526 YELLOW ΣΥΜΒΑΤΟ 11ml</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>GPI-0050</v>
+        <v>GPI-0079</v>
       </c>
       <c r="B56" t="str">
-        <v>HP INK No 27 - C8727A ΒLACΚ ΣΥΜΒΑΤΟ 17ml</v>
+        <v>HP INK No 351XL - CB338EE COLOR ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>GPI-0051</v>
+        <v>GPI-0082</v>
       </c>
       <c r="B57" t="str">
-        <v>CANON INK PG-40 BLACK ΣΥΜΒΑΤΟ 18ml</v>
+        <v>CANON INK PGI-520 BLACK ΣΥΜΒΑΤΟ 21ml</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>GPI-0052</v>
+        <v>GPI-0083</v>
       </c>
       <c r="B58" t="str">
-        <v>CANON INK PG-550XL BLACK ΣΥΜΒΑΤΟ 25ml</v>
+        <v>CANON INK CLI-521 BLACK ΣΥΜΒΑΤΟ 11ml</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>GPI-0053</v>
+        <v>GPI-0084</v>
       </c>
       <c r="B59" t="str">
-        <v>CANON INK CLI-551XL CYAN ΣΥΜΒΑΤΟ 13ml</v>
+        <v>CANON INK CLI-521 CYAN ΣΥΜΒΑΤΟ 11ml</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>GPI-0054</v>
+        <v>GPI-0085</v>
       </c>
       <c r="B60" t="str">
-        <v>CANON INK CLI-551XL YELLOW ΣΥΜΒΑΤΟ 13ml</v>
+        <v>CANON INK CLI-521 MAGENTA ΣΥΜΒΑΤΟ 11ml</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>GPI-0055</v>
+        <v>GPI-0086</v>
       </c>
       <c r="B61" t="str">
-        <v>CANON INK CLI-551XL MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
+        <v>CANON INK CLI-521 YELLOW ΣΥΜΒΑΤΟ 11ml</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>GPI-0056</v>
+        <v>GPI-0088</v>
       </c>
       <c r="B62" t="str">
-        <v>HP INK No 940XL - 4906 BLACK ΣΥΜΒΑΤΟ 69ml</v>
+        <v>HP INK No 21XL - C9351C BLACK ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>GPI-0057</v>
+        <v>GPI-0091</v>
       </c>
       <c r="B63" t="str">
-        <v>HP INK No 940XL - 4907  CYAN ΣΥΜΒΑΤΟ 28ml</v>
+        <v>HP INK No 78 - 6578D COLOR ΣΥΜΒΑΤΟ 48ml</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>GPI-0058</v>
+        <v>GPI-0093</v>
       </c>
       <c r="B64" t="str">
-        <v>HP INK No 940XL - 4909 YELLOW ΣΥΜΒΑΤΟ 28ml</v>
+        <v>CANON INK CL-41 COLOR ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>GPI-0059</v>
+        <v>GPI-0094</v>
       </c>
       <c r="B65" t="str">
-        <v>HP INK No 940XL - 4908 MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
+        <v>HP INK No 364XL - CN684EE BLACK ΣΥΜΒΑΤΟ 26 ml</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>GPI-0060</v>
+        <v>GPI-0095</v>
       </c>
       <c r="B66" t="str">
-        <v>HP INK No 950XL - CN045A BLACK ΣΥΜΒΑΤΟ 75ml</v>
+        <v>HP INK No 364XL - CB323E CYAN ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>GPI-0061</v>
+        <v>GPI-0096</v>
       </c>
       <c r="B67" t="str">
-        <v>HP INK No 951XL - CN046A CYAN ΣΥΜΒΑΤΟ 28ml</v>
+        <v>HP INK No 364XL - CB324E MAGENTA ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>GPI-0062</v>
+        <v>GPI-0097</v>
       </c>
       <c r="B68" t="str">
-        <v>HP INK No 951XL - CN047A MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
+        <v>HP INK No 364XL - CB325E YELLOW ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>GPI-0063</v>
+        <v>GPI-0099</v>
       </c>
       <c r="B69" t="str">
-        <v>HP INK No 951XL - CN048A YELLOW ΣΥΜΒΑΤΟ 28ml</v>
+        <v>HP INK No 343 - C8766E COLOR ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>GPI-0064</v>
+        <v>GPI-0100</v>
       </c>
       <c r="B70" t="str">
-        <v>HP INK No 655XL - BLACK ΣΥΜΒΑΤΟ 30ml</v>
+        <v>HP INK No 339 - C8767 BLACK ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>GPI-0065</v>
+        <v>GPI-0105</v>
       </c>
       <c r="B71" t="str">
-        <v>HP INK No 655XL CYAN ΣΥΜΒΑΤΟ 18ml</v>
+        <v>EPSON INK T0711/T0891 BLACK ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>GPI-0066</v>
+        <v>GPI-0108</v>
       </c>
       <c r="B72" t="str">
-        <v>HP INK No 655XL MAGENTA ΣΥΜΒΑΤΟ 18ml</v>
+        <v>LEXMARK INK No 100XL BLACK ΣΥΜΒΑΤΟ 22ml</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>GPI-0067</v>
+        <v>GPI-0109</v>
       </c>
       <c r="B73" t="str">
-        <v>HP INK No 655XL YELLOW ΣΥΜΒΑΤΟ 18ml</v>
+        <v>LEXMARK INK No 100XL CYAN ΣΥΜΒΑΤΟ 12ml</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>GPI-0069</v>
+        <v>GPI-0110</v>
       </c>
       <c r="B74" t="str">
-        <v>CANON INK CL-541XL COLOR ΣΥΜΒΑΤΟ 15ml</v>
+        <v>LEXMARK INK No 100XL MAGENTA ΣΥΜΒΑΤΟ 12ml</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>GPI-0070</v>
+        <v>GPI-0111</v>
       </c>
       <c r="B75" t="str">
-        <v>HP INK No 934XL - C2P19AA BLACK ΣΥΜΒΑΤΟ 55ml</v>
+        <v>LEXMARK INK No 100XL YELLOW ΣΥΜΒΑΤΟ 12ml</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>GPI-0071</v>
+        <v>GPI-0112</v>
       </c>
       <c r="B76" t="str">
-        <v>HP INK No 935XL - C2P20AA CYAN ΣΥΜΒΑΤΟ 18ml</v>
+        <v>CANON INK PG-512 BLACK ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>GPI-0073</v>
+        <v>GPI-0116</v>
       </c>
       <c r="B77" t="str">
-        <v>HP INK No 935XL - C2P22AA YELLOW ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 336XL - C9362E BLACK ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>GPI-0074</v>
+        <v>GPI-0117</v>
       </c>
       <c r="B78" t="str">
-        <v>CANON INK PGI-525 BLACK ΣΥΜΒΑΤΟ 21ml</v>
+        <v>HP INK No 337 - C9364E BLACK ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>GPI-0075</v>
+        <v>GPI-0118</v>
       </c>
       <c r="B79" t="str">
-        <v>CANON INK CLI-526 CYAN ΣΥΜΒΑΤΟ 11ml</v>
+        <v>HP INK No 344 - C9363E COLOR ΣΥΜΒΑΤΟ 18 ml</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>GPI-0076</v>
+        <v>GPI-0119</v>
       </c>
       <c r="B80" t="str">
-        <v>CANON INK CLI-526 MAGENTA ΣΥΜΒΑΤΟ 11ml</v>
+        <v>EPSON INK T0551 BLACK ΣΥΜΒΑΤΟ 13.5ml</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>GPI-0077</v>
+        <v>GPI-0120</v>
       </c>
       <c r="B81" t="str">
-        <v>CANON INK CLI-526 YELLOW ΣΥΜΒΑΤΟ 11ml</v>
+        <v>EPSON INK T0552 CYAN ΣΥΜΒΑΤΟ 13.5ml</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>GPI-0079</v>
+        <v>GPI-0121</v>
       </c>
       <c r="B82" t="str">
-        <v>HP INK No 351XL - CB338EE COLOR ΣΥΜΒΑΤΟ 18ml</v>
+        <v>EPSON INK T0553 MAGENTA ΣΥΜΒΑΤΟ 13.5ml</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>GPI-0082</v>
+        <v>GPI-0122</v>
       </c>
       <c r="B83" t="str">
-        <v>CANON INK PGI-520 BLACK ΣΥΜΒΑΤΟ 21ml</v>
+        <v>EPSON INK T0554 YELLOW ΣΥΜΒΑΤΟ 13.5ml</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>GPI-0083</v>
+        <v>GPI-0123</v>
       </c>
       <c r="B84" t="str">
-        <v>CANON INK CLI-521 BLACK ΣΥΜΒΑΤΟ 11ml</v>
+        <v>EPSON INK T2431XL BLACK ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>GPI-0084</v>
+        <v>GPI-0124</v>
       </c>
       <c r="B85" t="str">
-        <v>CANON INK CLI-521 CYAN ΣΥΜΒΑΤΟ 11ml</v>
+        <v>EPSON INK T2432XL CYAN ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>GPI-0085</v>
+        <v>GPI-0125</v>
       </c>
       <c r="B86" t="str">
-        <v>CANON INK CLI-521 MAGENTA ΣΥΜΒΑΤΟ 11ml</v>
+        <v>EPSON INK T2433XL MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>GPI-0086</v>
+        <v>GPI-0126</v>
       </c>
       <c r="B87" t="str">
-        <v>CANON INK CLI-521 YELLOW ΣΥΜΒΑΤΟ 11ml</v>
+        <v>EPSON INK T2434XL YELLOW ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>GPI-0088</v>
+        <v>GPI-0127</v>
       </c>
       <c r="B88" t="str">
-        <v>HP INK No 21XL - C9351C BLACK ΣΥΜΒΑΤΟ 18ml</v>
+        <v>CANON INK CLI-551XL BLACK ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>GPI-0091</v>
+        <v>GPI-0128</v>
       </c>
       <c r="B89" t="str">
-        <v>HP INK No 78 - 6578D COLOR ΣΥΜΒΑΤΟ 48ml</v>
+        <v>HP INK No 23 - C1823D COLOR ΣΥΜΒΑΤΟ 38ml</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>GPI-0093</v>
+        <v>GPI-0129</v>
       </c>
       <c r="B90" t="str">
-        <v>CANON INK CL-41 COLOR ΣΥΜΒΑΤΟ 15ml</v>
+        <v>LEXMARK INK No 16 - 10N0016 BLACK ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>GPI-0094</v>
+        <v>GPI-0130</v>
       </c>
       <c r="B91" t="str">
-        <v>HP INK No 364XL - CN684EE BLACK ΣΥΜΒΑΤΟ 26 ml</v>
+        <v>LEXMARK INK No 26 - 10N0026 COLOR ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>GPI-0095</v>
+        <v>GPI-0131</v>
       </c>
       <c r="B92" t="str">
-        <v>HP INK No 364XL - CB323E CYAN ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP INK No 342XL - C9361 COLOR ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>GPI-0096</v>
+        <v>GPI-0132</v>
       </c>
       <c r="B93" t="str">
-        <v>HP INK No 364XL - CB324E MAGENTA ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP INK No 88XL - C9396A BLACK ΣΥΜΒΑΤΟ 69ml</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>GPI-0097</v>
+        <v>GPI-0133</v>
       </c>
       <c r="B94" t="str">
-        <v>HP INK No 364XL - CB325E YELLOW ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP INK No 88XL - C9391A CYAN ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>GPI-0099</v>
+        <v>GPI-0134</v>
       </c>
       <c r="B95" t="str">
-        <v>HP INK No 343 - C8766E COLOR ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 88XL -  C9392A MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>GPI-0100</v>
+        <v>GPI-0135</v>
       </c>
       <c r="B96" t="str">
-        <v>HP INK No 339 - C8767 BLACK ΣΥΜΒΑΤΟ 28ml</v>
+        <v>HP INK No 88XL - C9393A YELLOW ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>GPI-0105</v>
+        <v>GPI-0136</v>
       </c>
       <c r="B97" t="str">
-        <v>EPSON INK T0711/T0891 BLACK ΣΥΜΒΑΤΟ 14ml</v>
+        <v>BROTHER INK LC1240 BLACK ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>GPI-0108</v>
+        <v>GPI-0137</v>
       </c>
       <c r="B98" t="str">
-        <v>LEXMARK INK No 100XL BLACK ΣΥΜΒΑΤΟ 22ml</v>
+        <v>BROTHER INK LC1240 CYAN ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>GPI-0109</v>
+        <v>GPI-0138</v>
       </c>
       <c r="B99" t="str">
-        <v>LEXMARK INK No 100XL CYAN ΣΥΜΒΑΤΟ 12ml</v>
+        <v>BROTHER INK LC1240 MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>GPI-0110</v>
+        <v>GPI-0139</v>
       </c>
       <c r="B100" t="str">
-        <v>LEXMARK INK No 100XL MAGENTA ΣΥΜΒΑΤΟ 12ml</v>
+        <v>BROTHER INK LC1240 YELLOW ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>GPI-0111</v>
+        <v>GPI-0140</v>
       </c>
       <c r="B101" t="str">
-        <v>LEXMARK INK No 100XL YELLOW ΣΥΜΒΑΤΟ 12ml</v>
+        <v>HP INK No 302XL - F6U68AE BLACK ΣΥΜΒΑΤΟ 21ml</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>GPI-0112</v>
+        <v>GPI-0141</v>
       </c>
       <c r="B102" t="str">
-        <v>CANON INK PG-512 BLACK ΣΥΜΒΑΤΟ 14ml</v>
+        <v>HP INK No 302XL - F6U67AE COLOR ΣΥΜΒΑΤΟ 22ml</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>GPI-0116</v>
+        <v>GPI-0142</v>
       </c>
       <c r="B103" t="str">
-        <v>HP INK No 336XL - C9362E BLACK ΣΥΜΒΑΤΟ 20ml</v>
+        <v>HP INK No 348 - C9369E COLOR ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>GPI-0117</v>
+        <v>GPI-0143</v>
       </c>
       <c r="B104" t="str">
-        <v>HP INK No 337 - C9364E BLACK ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 920XL - CD972AN CYAN ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>GPI-0118</v>
+        <v>GPI-0144</v>
       </c>
       <c r="B105" t="str">
-        <v>HP INK No 344 - C9363E COLOR ΣΥΜΒΑΤΟ 18 ml</v>
+        <v>HP INK No 920XL - CD973AN MAGENTA ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>GPI-0119</v>
+        <v>GPI-0145</v>
       </c>
       <c r="B106" t="str">
-        <v>EPSON INK T0551 BLACK ΣΥΜΒΑΤΟ 13.5ml</v>
+        <v>HP INK No 920XL - CD974AN YELLOW ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>GPI-0120</v>
+        <v>GPI-0146</v>
       </c>
       <c r="B107" t="str">
-        <v>EPSON INK T0552 CYAN ΣΥΜΒΑΤΟ 13.5ml</v>
+        <v>HP INK No 920XXL - CD975AN BLACK ΣΥΜΒΑΤΟ 55ml</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>GPI-0121</v>
+        <v>GPI-0147</v>
       </c>
       <c r="B108" t="str">
-        <v>EPSON INK T0553 MAGENTA ΣΥΜΒΑΤΟ 13.5ml</v>
+        <v>CANON INK BCI-3e - 03/06 CYAN ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>GPI-0122</v>
+        <v>GPI-0148</v>
       </c>
       <c r="B109" t="str">
-        <v>EPSON INK T0554 YELLOW ΣΥΜΒΑΤΟ 13.5ml</v>
+        <v>CANON INK BCI-3e - 03/06 MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>GPI-0123</v>
+        <v>GPI-0149</v>
       </c>
       <c r="B110" t="str">
-        <v>EPSON INK T2431XL BLACK ΣΥΜΒΑΤΟ 15ml</v>
+        <v>CANON INK BCI-3e - 03/06 YELLOW ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>GPI-0124</v>
+        <v>GPI-0150</v>
       </c>
       <c r="B111" t="str">
-        <v>EPSON INK T2432XL CYAN ΣΥΜΒΑΤΟ 10ml</v>
+        <v>CANON INK BCI-3e - 03/05 BLACK ΣΥΜΒΑΤΟ 25ml</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>GPI-0125</v>
+        <v>GPI-0153</v>
       </c>
       <c r="B112" t="str">
-        <v>EPSON INK T2433XL MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
+        <v>CANON INK CLI-526 GREY ΣΥΜΒΑΤΟ 11ml</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>GPI-0126</v>
+        <v>GPI-0154</v>
       </c>
       <c r="B113" t="str">
-        <v>EPSON INK T2434XL YELLOW ΣΥΜΒΑΤΟ 10ml</v>
+        <v>CANON INK PGI-570XL BLACK ΣΥΜΒΑΤΟ 24ml</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>GPI-0127</v>
+        <v>GPI-0155</v>
       </c>
       <c r="B114" t="str">
-        <v>CANON INK CLI-551XL BLACK ΣΥΜΒΑΤΟ 13ml</v>
+        <v>CANON INK CLI-571XL CYAN ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>GPI-0128</v>
+        <v>GPI-0156</v>
       </c>
       <c r="B115" t="str">
-        <v>HP INK No 23 - C1823D COLOR ΣΥΜΒΑΤΟ 38ml</v>
+        <v>CANON INK CLI-571XL MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>GPI-0129</v>
+        <v>GPI-0157</v>
       </c>
       <c r="B116" t="str">
-        <v>LEXMARK INK No 16 - 10N0016 BLACK ΣΥΜΒΑΤΟ 15ml</v>
+        <v>CANON INK CLI-571XL YELLOW ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>GPI-0130</v>
+        <v>GPI-0158</v>
       </c>
       <c r="B117" t="str">
-        <v>LEXMARK INK No 26 - 10N0026 COLOR ΣΥΜΒΑΤΟ 14ml</v>
+        <v>CANON INK CLI-571XL GRAY ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>GPI-0131</v>
+        <v>GPI-0159</v>
       </c>
       <c r="B118" t="str">
-        <v>HP INK No 342XL - C9361 COLOR ΣΥΜΒΑΤΟ 15ml</v>
+        <v>BROTHER INK LC1000/LC970XL CYAN ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>GPI-0132</v>
+        <v>GPI-0161</v>
       </c>
       <c r="B119" t="str">
-        <v>HP INK No 88XL - C9396A BLACK ΣΥΜΒΑΤΟ 69ml</v>
+        <v>BROTHER INK LC1000/LC970XL YELLOW ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>GPI-0133</v>
+        <v>GPI-0166</v>
       </c>
       <c r="B120" t="str">
-        <v>HP INK No 88XL - C9391A CYAN ΣΥΜΒΑΤΟ 28ml</v>
+        <v>BROTHER INK LC1280XL BLACK ΣΥΜΒΑΤΟ 28.5ml</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>GPI-0134</v>
+        <v>GPI-0167</v>
       </c>
       <c r="B121" t="str">
-        <v>HP INK No 88XL -  C9392A MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
+        <v>BROTHER INK LC1280XL CYAN ΣΥΜΒΑΤΟ 18.5ml</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>GPI-0135</v>
+        <v>GPI-0168</v>
       </c>
       <c r="B122" t="str">
-        <v>HP INK No 88XL - C9393A YELLOW ΣΥΜΒΑΤΟ 28ml</v>
+        <v>BROTHER INK LC1280XL MAGENTA ΣΥΜΒΑΤΟ 18.5ml</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>GPI-0136</v>
+        <v>GPI-0169</v>
       </c>
       <c r="B123" t="str">
-        <v>BROTHER INK LC1240 BLACK ΣΥΜΒΑΤΟ 20ml</v>
+        <v>BROTHER INK LC1280XL YELLOW ΣΥΜΒΑΤΟ 18.5ml</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>GPI-0137</v>
+        <v>GPI-0170</v>
       </c>
       <c r="B124" t="str">
-        <v>BROTHER INK LC1240 CYAN ΣΥΜΒΑΤΟ 10ml</v>
+        <v>CANON INK CLI-8 BLACK ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>GPI-0138</v>
+        <v>GPI-0171</v>
       </c>
       <c r="B125" t="str">
-        <v>BROTHER INK LC1240 MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
+        <v>CANON INK CLI-8 CYAN ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>GPI-0139</v>
+        <v>GPI-0172</v>
       </c>
       <c r="B126" t="str">
-        <v>BROTHER INK LC1240 YELLOW ΣΥΜΒΑΤΟ 10ml</v>
+        <v>CANON INK CLI-8 MAGENTA ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>GPI-0140</v>
+        <v>GPI-0173</v>
       </c>
       <c r="B127" t="str">
-        <v>HP INK No 302XL - F6U68AE BLACK ΣΥΜΒΑΤΟ 21ml</v>
+        <v>CANON INK CLI-8 YELLOW ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>GPI-0141</v>
+        <v>GPI-0174</v>
       </c>
       <c r="B128" t="str">
-        <v>HP INK No 302XL - F6U67AE COLOR ΣΥΜΒΑΤΟ 22ml</v>
+        <v>CANON INK CLI-8 PHOTO CYAN ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>GPI-0142</v>
+        <v>GPI-0175</v>
       </c>
       <c r="B129" t="str">
-        <v>HP INK No 348 - C9369E COLOR ΣΥΜΒΑΤΟ 15ml</v>
+        <v>CANON INK CLI-8 PHOTO MAGENTA ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>GPI-0143</v>
+        <v>GPI-0176</v>
       </c>
       <c r="B130" t="str">
-        <v>HP INK No 920XL - CD972AN CYAN ΣΥΜΒΑΤΟ 15ml</v>
+        <v>CANON INK PGI-5 BLACK ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>GPI-0144</v>
+        <v>GPI-0177</v>
       </c>
       <c r="B131" t="str">
-        <v>HP INK No 920XL - CD973AN MAGENTA ΣΥΜΒΑΤΟ 15ml</v>
+        <v>CANON INK PG-50 BLACK ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>GPI-0145</v>
+        <v>GPI-0178</v>
       </c>
       <c r="B132" t="str">
-        <v>HP INK No 920XL - CD974AN YELLOW ΣΥΜΒΑΤΟ 15ml</v>
+        <v>SAMSUNG INK M215 BLACK ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>GPI-0146</v>
+        <v>GPI-0179</v>
       </c>
       <c r="B133" t="str">
-        <v>HP INK No 920XXL - CD975AN BLACK ΣΥΜΒΑΤΟ 55ml</v>
+        <v>EPSON INK T0422 CYAN ΣΥΜΒΑΤΟ 16ml</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>GPI-0147</v>
+        <v>GPI-0180</v>
       </c>
       <c r="B134" t="str">
-        <v>CANON INK BCI-3e - 03/06 CYAN ΣΥΜΒΑΤΟ 13ml</v>
+        <v>EPSON INK T0423 MAGENTA ΣΥΜΒΑΤΟ 16ml</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>GPI-0148</v>
+        <v>GPI-0181</v>
       </c>
       <c r="B135" t="str">
-        <v>CANON INK BCI-3e - 03/06 MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
+        <v>EPSON INK T0424 YELLOW ΣΥΜΒΑΤΟ 16ml</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>GPI-0149</v>
+        <v>GPI-0182</v>
       </c>
       <c r="B136" t="str">
-        <v>CANON INK BCI-3e - 03/06 YELLOW ΣΥΜΒΑΤΟ 13ml</v>
+        <v>EPSON INK T0441 BLACK ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>GPI-0150</v>
+        <v>GPI-0183</v>
       </c>
       <c r="B137" t="str">
-        <v>CANON INK BCI-3e - 03/05 BLACK ΣΥΜΒΑΤΟ 25ml</v>
+        <v>EPSON INK T0442 CYAN ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>GPI-0153</v>
+        <v>GPI-0184</v>
       </c>
       <c r="B138" t="str">
-        <v>CANON INK CLI-526 GREY ΣΥΜΒΑΤΟ 11ml</v>
+        <v>EPSON INK T0443 MAGENTA ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>GPI-0154</v>
+        <v>GPI-0185</v>
       </c>
       <c r="B139" t="str">
-        <v>CANON INK PGI-570XL BLACK ΣΥΜΒΑΤΟ 24ml</v>
+        <v>EPSON INK T0444 YELLOW ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>GPI-0155</v>
+        <v>GPI-0186</v>
       </c>
       <c r="B140" t="str">
-        <v>CANON INK CLI-571XL CYAN ΣΥΜΒΑΤΟ 13ml</v>
+        <v>EPSON INK T0481 BLACK ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>GPI-0156</v>
+        <v>GPI-0187</v>
       </c>
       <c r="B141" t="str">
-        <v>CANON INK CLI-571XL MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
+        <v>EPSON INK T0482 CYAN ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>GPI-0157</v>
+        <v>GPI-0188</v>
       </c>
       <c r="B142" t="str">
-        <v>CANON INK CLI-571XL YELLOW ΣΥΜΒΑΤΟ 13ml</v>
+        <v>EPSON INK T0483 MAGENTA ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>GPI-0158</v>
+        <v>GPI-0189</v>
       </c>
       <c r="B143" t="str">
-        <v>CANON INK CLI-571XL GRAY ΣΥΜΒΑΤΟ 13ml</v>
+        <v>EPSON INK T0484 YELLOW ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>GPI-0159</v>
+        <v>GPI-0190</v>
       </c>
       <c r="B144" t="str">
-        <v>BROTHER INK LC1000/LC970XL CYAN ΣΥΜΒΑΤΟ 20ml</v>
+        <v>EPSON INK T0485 LIGHT CYAN ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>GPI-0161</v>
+        <v>GPI-0191</v>
       </c>
       <c r="B145" t="str">
-        <v>BROTHER INK LC1000/LC970XL YELLOW ΣΥΜΒΑΤΟ 20ml</v>
+        <v>EPSON INK T0486 LIGHT MAGENTA ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>GPI-0166</v>
+        <v>GPI-0192</v>
       </c>
       <c r="B146" t="str">
-        <v>BROTHER INK LC1280XL BLACK ΣΥΜΒΑΤΟ 28.5ml</v>
+        <v>EPSON INK T0611 BLACK ΣΥΜΒΑΤΟ 13.5ml</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>GPI-0167</v>
+        <v>GPI-0193</v>
       </c>
       <c r="B147" t="str">
-        <v>BROTHER INK LC1280XL CYAN ΣΥΜΒΑΤΟ 18.5ml</v>
+        <v>EPSON INK T0612 CYAN ΣΥΜΒΑΤΟ 13.5ml</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>GPI-0168</v>
+        <v>GPI-0194</v>
       </c>
       <c r="B148" t="str">
-        <v>BROTHER INK LC1280XL MAGENTA ΣΥΜΒΑΤΟ 18.5ml</v>
+        <v>EPSON INK T0613 MAGENTA ΣΥΜΒΑΤΟ 13.5ml</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>GPI-0169</v>
+        <v>GPI-0195</v>
       </c>
       <c r="B149" t="str">
-        <v>BROTHER INK LC1280XL YELLOW ΣΥΜΒΑΤΟ 18.5ml</v>
+        <v>EPSON INK T0614 YELLOW ΣΥΜΒΑΤΟ 13.5ml</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>GPI-0170</v>
+        <v>GPI-0196</v>
       </c>
       <c r="B150" t="str">
-        <v>CANON INK CLI-8 BLACK ΣΥΜΒΑΤΟ 14ml</v>
+        <v>EPSON INK T7011 BLACK ΣΥΜΒΑΤΟ 72ml</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>GPI-0171</v>
+        <v>GPI-0197</v>
       </c>
       <c r="B151" t="str">
-        <v>CANON INK CLI-8 CYAN ΣΥΜΒΑΤΟ 14ml</v>
+        <v>EPSON INK T7012 CYAN ΣΥΜΒΑΤΟ 45ml</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>GPI-0172</v>
+        <v>GPI-0198</v>
       </c>
       <c r="B152" t="str">
-        <v>CANON INK CLI-8 MAGENTA ΣΥΜΒΑΤΟ 14ml</v>
+        <v>EPSON INK T7013 MAGENTA ΣΥΜΒΑΤΟ 45ml</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>GPI-0173</v>
+        <v>GPI-0199</v>
       </c>
       <c r="B153" t="str">
-        <v>CANON INK CLI-8 YELLOW ΣΥΜΒΑΤΟ 14ml</v>
+        <v>EPSON INK T7014 YELLOW ΣΥΜΒΑΤΟ 45ml</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>GPI-0174</v>
+        <v>GPI-0200</v>
       </c>
       <c r="B154" t="str">
-        <v>CANON INK CLI-8 PHOTO CYAN ΣΥΜΒΑΤΟ 14ml</v>
+        <v>EPSON INK T1631 BLACK ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>GPI-0175</v>
+        <v>GPI-0201</v>
       </c>
       <c r="B155" t="str">
-        <v>CANON INK CLI-8 PHOTO MAGENTA ΣΥΜΒΑΤΟ 14ml</v>
+        <v>EPSON INK T1632 CYAN ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>GPI-0176</v>
+        <v>GPI-0202</v>
       </c>
       <c r="B156" t="str">
-        <v>CANON INK PGI-5 BLACK ΣΥΜΒΑΤΟ 28ml</v>
+        <v>EPSON INK T1634 YELLOW ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>GPI-0177</v>
+        <v>GPI-0203</v>
       </c>
       <c r="B157" t="str">
-        <v>CANON INK PG-50 BLACK ΣΥΜΒΑΤΟ 18ml</v>
+        <v>EPSON INK T1633 MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>GPI-0178</v>
+        <v>GPI-0205</v>
       </c>
       <c r="B158" t="str">
-        <v>SAMSUNG INK M215 BLACK ΣΥΜΒΑΤΟ 20ml</v>
+        <v>LEXMARK INK No 37XL - 18C2180 CMY ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>GPI-0179</v>
+        <v>GPI-0206</v>
       </c>
       <c r="B159" t="str">
-        <v>EPSON INK T0422 CYAN ΣΥΜΒΑΤΟ 16ml</v>
+        <v>LEXMARK INK No 200XL BLACK ΣΥΜΒΑΤΟ 82ml</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>GPI-0180</v>
+        <v>GPI-0207</v>
       </c>
       <c r="B160" t="str">
-        <v>EPSON INK T0423 MAGENTA ΣΥΜΒΑΤΟ 16ml</v>
+        <v>LEXMARK INK No 200XL CYAN ΣΥΜΒΑΤΟ 32ml</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>GPI-0181</v>
+        <v>GPI-0208</v>
       </c>
       <c r="B161" t="str">
-        <v>EPSON INK T0424 YELLOW ΣΥΜΒΑΤΟ 16ml</v>
+        <v>LEXMARK INK No 200XL MAGENTA  ΣΥΜΒΑΤΟ 32ml</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>GPI-0182</v>
+        <v>GPI-0209</v>
       </c>
       <c r="B162" t="str">
-        <v>EPSON INK T0441 BLACK ΣΥΜΒΑΤΟ 20ml</v>
+        <v>LEXMARK INK No 200XL YELLOW ΣΥΜΒΑΤΟ 32ml</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>GPI-0183</v>
+        <v>GPI-0214</v>
       </c>
       <c r="B163" t="str">
-        <v>EPSON INK T0442 CYAN ΣΥΜΒΑΤΟ 18ml</v>
+        <v>HP INK No 970XL BLACK ΣΥΜΒΑΤΟ 250ml</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>GPI-0184</v>
+        <v>GPI-0215</v>
       </c>
       <c r="B164" t="str">
-        <v>EPSON INK T0443 MAGENTA ΣΥΜΒΑΤΟ 18ml</v>
+        <v>LEXMARK INK No 14 - 18C2090 BLACK ΣΥΜΒΑΤΟ 21ml</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>GPI-0185</v>
+        <v>GPI-0216</v>
       </c>
       <c r="B165" t="str">
-        <v>EPSON INK T0444 YELLOW ΣΥΜΒΑΤΟ 18ml</v>
+        <v>LEXMARK No 15 - 18C2110  CMY ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>GPI-0186</v>
+        <v>GPI-0217</v>
       </c>
       <c r="B166" t="str">
-        <v>EPSON INK T0481 BLACK ΣΥΜΒΑΤΟ 20ml</v>
+        <v>SAMSUNG INK M210 COLOR ΣΥΜΒΑΤΟ 40ml</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>GPI-0187</v>
+        <v>GPI-0218</v>
       </c>
       <c r="B167" t="str">
-        <v>EPSON INK T0482 CYAN ΣΥΜΒΑΤΟ 20ml</v>
+        <v>SAMSUNG INK M40/SF365/331P BLACK ΣΥΜΒΑΤΟ 17ml</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>GPI-0188</v>
+        <v>GPI-0219</v>
       </c>
       <c r="B168" t="str">
-        <v>EPSON INK T0483 MAGENTA ΣΥΜΒΑΤΟ 20ml</v>
+        <v>HP INK 901XL - CC656A COLOR ΣΥΜΒΑΤΟ 18 ml</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>GPI-0189</v>
+        <v>GPI-0220</v>
       </c>
       <c r="B169" t="str">
-        <v>EPSON INK T0484 YELLOW ΣΥΜΒΑΤΟ 20ml</v>
+        <v>HP INK No 56 - C6656A BLACK ΣΥΜΒΑΤΟ 22ml</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>GPI-0190</v>
+        <v>GPI-0221</v>
       </c>
       <c r="B170" t="str">
-        <v>EPSON INK T0485 LIGHT CYAN ΣΥΜΒΑΤΟ 20ml</v>
+        <v>HP INK No 971XL CYAN ΣΥΜΒΑΤΟ 120ml</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>GPI-0191</v>
+        <v>GPI-0222</v>
       </c>
       <c r="B171" t="str">
-        <v>EPSON INK T0486 LIGHT MAGENTA ΣΥΜΒΑΤΟ 20ml</v>
+        <v>HP INK No 971XL MAGENTA ΣΥΜΒΑΤΟ 120ml</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>GPI-0192</v>
+        <v>GPI-0223</v>
       </c>
       <c r="B172" t="str">
-        <v>EPSON INK T0611 BLACK ΣΥΜΒΑΤΟ 13.5ml</v>
+        <v>HP INK No 971XL YELLOW ΣΥΜΒΑΤΟ 120 ML</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>GPI-0193</v>
+        <v>GPI-0224</v>
       </c>
       <c r="B173" t="str">
-        <v>EPSON INK T0612 CYAN ΣΥΜΒΑΤΟ 13.5ml</v>
+        <v>CANON INK CLI-551XL GRAY ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>GPI-0194</v>
+        <v>GPI-0225</v>
       </c>
       <c r="B174" t="str">
-        <v>EPSON INK T0613 MAGENTA ΣΥΜΒΑΤΟ 13.5ml</v>
+        <v>HP INK No 28 - C8728A COLOR ΣΥΜΒΑΤΟ 17ml</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>GPI-0195</v>
+        <v>GPI-0226</v>
       </c>
       <c r="B175" t="str">
-        <v>EPSON INK T0614 YELLOW ΣΥΜΒΑΤΟ 13.5ml</v>
+        <v>CANON INK CLI-526 BLACK ΣΥΜΒΑΤΟ 11ml</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>GPI-0196</v>
+        <v>GPI-0227</v>
       </c>
       <c r="B176" t="str">
-        <v>EPSON INK T7011 BLACK ΣΥΜΒΑΤΟ 72ml</v>
+        <v>HP INK No 338 - C8765 BLACK ΣΥΜΒΑΤΟ 18 ML</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>GPI-0197</v>
+        <v>GPI-0228</v>
       </c>
       <c r="B177" t="str">
-        <v>EPSON INK T7012 CYAN ΣΥΜΒΑΤΟ 45ml</v>
+        <v>HP INK No 11XL - C4836A CYAN ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>GPI-0198</v>
+        <v>GPI-0229</v>
       </c>
       <c r="B178" t="str">
-        <v>EPSON INK T7013 MAGENTA ΣΥΜΒΑΤΟ 45ml</v>
+        <v>HP INK No 11XL - C4837A MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>GPI-0199</v>
+        <v>GPI-0230</v>
       </c>
       <c r="B179" t="str">
-        <v>EPSON INK T7014 YELLOW ΣΥΜΒΑΤΟ 45ml</v>
+        <v>HP INK No 11XL - C4838A YELLOW ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>GPI-0200</v>
+        <v>GPI-0231</v>
       </c>
       <c r="B180" t="str">
-        <v>EPSON INK T1631 BLACK ΣΥΜΒΑΤΟ 14ml</v>
+        <v>HP INK No 10XL - C4844A BLACK ΣΥΜΒΑΤΟ 69ml</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>GPI-0201</v>
+        <v>GPI-0232</v>
       </c>
       <c r="B181" t="str">
-        <v>EPSON INK T1632 CYAN ΣΥΜΒΑΤΟ 10ml</v>
+        <v>HP ΙΝΚ Νo 56 - C6656A BLACK ΣΥΜΒΑΤΟ 21ML</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>GPI-0202</v>
+        <v>GPI-0233</v>
       </c>
       <c r="B182" t="str">
-        <v>EPSON INK T1634 YELLOW ΣΥΜΒΑΤΟ 10ml</v>
+        <v>HP INK No 78 - 6578D COLOR ΣΥΜΒΑΤΟ 30 ML</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>GPI-0203</v>
+        <v>GPI-0234</v>
       </c>
       <c r="B183" t="str">
-        <v>EPSON INK T1633 MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
+        <v>CANON INK PG 545XL BLACK ΣΥΜΒΑΤΟ 12 ml</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>GPI-0205</v>
+        <v>GPI-0239</v>
       </c>
       <c r="B184" t="str">
-        <v>LEXMARK INK No 37XL - 18C2180 CMY ΣΥΜΒΑΤΟ 18ml</v>
+        <v>CANON INK CLI-521 GREY ΣΥΜΒΑΤΟ ml 10</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>GPI-0206</v>
+        <v>GPI-0240</v>
       </c>
       <c r="B185" t="str">
-        <v>LEXMARK INK No 200XL BLACK ΣΥΜΒΑΤΟ 82ml</v>
+        <v>HP INK No 57 - C6657A COLOR ΣΥΜΒΑΤΟ 17 ml</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>GPI-0207</v>
+        <v>GPI-0241</v>
       </c>
       <c r="B186" t="str">
-        <v>LEXMARK INK No 200XL CYAN ΣΥΜΒΑΤΟ 32ml</v>
+        <v>HP INK No 302XL - F6U68AE BLACK ΣΥΜΒΑΤΟ 20 ml</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>GPI-0208</v>
+        <v>GPI-0242</v>
       </c>
       <c r="B187" t="str">
-        <v>LEXMARK INK No 200XL MAGENTA  ΣΥΜΒΑΤΟ 32ml</v>
+        <v>HP INK No 302XL - F6U67AE COLOR ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>GPI-0209</v>
+        <v>GPI-0243</v>
       </c>
       <c r="B188" t="str">
-        <v>LEXMARK INK No 200XL YELLOW ΣΥΜΒΑΤΟ 32ml</v>
+        <v>BROTHER INK LC 223XL BLACK ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>GPI-0214</v>
+        <v>GPI-0244</v>
       </c>
       <c r="B189" t="str">
-        <v>HP INK No 970XL BLACK ΣΥΜΒΑΤΟ 250ml</v>
+        <v>BROTHER INK LC 223XL CYAN ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>GPI-0215</v>
+        <v>GPI-0245</v>
       </c>
       <c r="B190" t="str">
-        <v>LEXMARK INK No 14 - 18C2090 BLACK ΣΥΜΒΑΤΟ 21ml</v>
+        <v>BROTHER INK LC 223XL MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>GPI-0216</v>
+        <v>GPI-0246</v>
       </c>
       <c r="B191" t="str">
-        <v>LEXMARK No 15 - 18C2110  CMY ΣΥΜΒΑΤΟ 18ml</v>
+        <v>BROTHER INK LC 223XL YELLOW ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>GPI-0217</v>
+        <v>GPI-0247</v>
       </c>
       <c r="B192" t="str">
-        <v>SAMSUNG INK M210 COLOR ΣΥΜΒΑΤΟ 40ml</v>
+        <v>HP INK No 17 - 6625D COLOR ΣΥΜΒΑΤΟ 30ml</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>GPI-0218</v>
+        <v>GPI-0248</v>
       </c>
       <c r="B193" t="str">
-        <v>SAMSUNG INK M40/SF365/331P BLACK ΣΥΜΒΑΤΟ 17ml</v>
+        <v>HP INK No 711XL BLACK ΣΥΜΒΑΤΟ 75ml</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>GPI-0219</v>
+        <v>GPI-0249</v>
       </c>
       <c r="B194" t="str">
-        <v>HP INK 901XL - CC656A COLOR ΣΥΜΒΑΤΟ 18 ml</v>
+        <v>HP INK No 711XL CYAN ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>GPI-0220</v>
+        <v>GPI-0250</v>
       </c>
       <c r="B195" t="str">
-        <v>HP INK No 56 - C6656A BLACK ΣΥΜΒΑΤΟ 22ml</v>
+        <v>HP INK No 711XL MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>GPI-0221</v>
+        <v>GPI-0251</v>
       </c>
       <c r="B196" t="str">
-        <v>HP INK No 971XL CYAN ΣΥΜΒΑΤΟ 120ml</v>
+        <v>HP INK No 711XL YELLOW ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>GPI-0222</v>
+        <v>GPI-0252</v>
       </c>
       <c r="B197" t="str">
-        <v>HP INK No 971XL MAGENTA ΣΥΜΒΑΤΟ 120ml</v>
+        <v>CANON INK CLI-571XL BLACK ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>GPI-0223</v>
+        <v>GPI-0253</v>
       </c>
       <c r="B198" t="str">
-        <v>HP INK No 971XL YELLOW ΣΥΜΒΑΤΟ 120 ML</v>
+        <v>HP INK No 58 - C6658AE PHOTO COLOR ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>GPI-0224</v>
+        <v>GPI-0254</v>
       </c>
       <c r="B199" t="str">
-        <v>CANON INK CLI-551XL GRAY ΣΥΜΒΑΤΟ 13ml</v>
+        <v>CANON INK CL-546XL - 8288B001 COLOR ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>GPI-0225</v>
+        <v>GPI-0255</v>
       </c>
       <c r="B200" t="str">
-        <v>HP INK No 28 - C8728A COLOR ΣΥΜΒΑΤΟ 17ml</v>
+        <v>CANON INK PG 545XL BLACK ΣΥΜΒΑΤΟ 9.5 ml</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>GPI-0226</v>
+        <v>GPI-0256</v>
       </c>
       <c r="B201" t="str">
-        <v>CANON INK CLI-526 BLACK ΣΥΜΒΑΤΟ 11ml</v>
+        <v>HP INK No 27 - C8727A ΒLACΚ ΣΥΜΒΑΤΟ 18ml</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>GPI-0227</v>
+        <v>GPR-0002</v>
       </c>
       <c r="B202" t="str">
-        <v>HP INK No 338 - C8765 BLACK ΣΥΜΒΑΤΟ 18 ML</v>
+        <v>PANASONIC RIBBON FA52X BLACK ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>GPI-0228</v>
+        <v>GPR-0003</v>
       </c>
       <c r="B203" t="str">
-        <v>HP INK No 11XL - C4836A CYAN ΣΥΜΒΑΤΟ 28ml</v>
+        <v>PANASONIC RIBBON FA54X BLACK ΣΥΜΒΑΤΗ</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>GPI-0229</v>
+        <v>GPR-0004</v>
       </c>
       <c r="B204" t="str">
-        <v>HP INK No 11XL - C4837A MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
+        <v>OKI RIBBON ML393 BLACK ΣΥΜΒΑΤΗ</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>GPI-0230</v>
+        <v>GPT-0408</v>
       </c>
       <c r="B205" t="str">
-        <v>HP INK No 11XL - C4838A YELLOW ΣΥΜΒΑΤΟ 28ml</v>
+        <v>KYOCERA TONER TK1115 BLACK ΣΥΜΒΑΤΟ 1600ΣΕΛ</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>GPI-0231</v>
+        <v>GPT-0466</v>
       </c>
       <c r="B206" t="str">
-        <v>HP INK No 10XL - C4844A BLACK ΣΥΜΒΑΤΟ 69ml</v>
+        <v>OKI TONER C610 CYAN ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>GPI-0232</v>
+        <v>GPT-0467</v>
       </c>
       <c r="B207" t="str">
-        <v>HP ΙΝΚ Νo 56 - C6656A BLACK ΣΥΜΒΑΤΟ 21ML</v>
+        <v>OKI TONER C610 MAGENTA ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>GPI-0233</v>
+        <v>GPT-0468</v>
       </c>
       <c r="B208" t="str">
-        <v>HP INK No 78 - 6578D COLOR ΣΥΜΒΑΤΟ 30 ML</v>
+        <v>OKI TONER C610 YELLOW ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>GPI-0234</v>
+        <v>GPT-0469</v>
       </c>
       <c r="B209" t="str">
-        <v>CANON INK PG 545XL BLACK ΣΥΜΒΑΤΟ 12 ml</v>
+        <v>OKI TONER C610 BLACK ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>GPI-0239</v>
+        <v>GPT-0510</v>
       </c>
       <c r="B210" t="str">
-        <v>CANON INK CLI-521 GREY ΣΥΜΒΑΤΟ ml 10</v>
+        <v>LEXMARK TONER CS 310/410/510 70C2HC0 CYAN ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>GPI-0240</v>
+        <v>GPT-0511</v>
       </c>
       <c r="B211" t="str">
-        <v>HP INK No 57 - C6657A COLOR ΣΥΜΒΑΤΟ 17 ml</v>
+        <v>LEXMARK TONER CS 310/410/510 70C2HM0 MAGENTA ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>GPI-0241</v>
+        <v>GPT-0512</v>
       </c>
       <c r="B212" t="str">
-        <v>HP INK No 302XL - F6U68AE BLACK ΣΥΜΒΑΤΟ 20 ml</v>
+        <v>LEXMARK TONER CS 310/410/510 70C2HY0 YELLOW ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>GPI-0242</v>
+        <v>GPT-0513</v>
       </c>
       <c r="B213" t="str">
-        <v>HP INK No 302XL - F6U67AE COLOR ΣΥΜΒΑΤΟ 18ml</v>
+        <v>LEXMARK TONER  X466 - X463A11G X463A21G BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>GPI-0243</v>
+        <v>GPT-0514</v>
       </c>
       <c r="B214" t="str">
-        <v>BROTHER INK LC 223XL BLACK ΣΥΜΒΑΤΟ 20ml</v>
+        <v>EPSON TONER M1200 S050523 C13S050523 BLACK ΣΥΜΒΑΤΟ 3200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>GPI-0244</v>
+        <v>GPT-0515</v>
       </c>
       <c r="B215" t="str">
-        <v>BROTHER INK LC 223XL CYAN ΣΥΜΒΑΤΟ 10ml</v>
+        <v>LEXMARK TONER X340/ X342 X340A11G BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>GPI-0245</v>
+        <v>GPT-0516</v>
       </c>
       <c r="B216" t="str">
-        <v>BROTHER INK LC 223XL MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
+        <v>KONICA MINOLTA TONER 2300 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>GPI-0246</v>
+        <v>GPT-0517</v>
       </c>
       <c r="B217" t="str">
-        <v>BROTHER INK LC 223XL YELLOW ΣΥΜΒΑΤΟ 10ml</v>
+        <v>KONICA MINOLTA TONER 2300 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>GPI-0247</v>
+        <v>GPT-0518</v>
       </c>
       <c r="B218" t="str">
-        <v>HP INK No 17 - 6625D COLOR ΣΥΜΒΑΤΟ 30ml</v>
+        <v>KONICA MINOLTA TONER 2300 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>GPI-0248</v>
+        <v>GPT-0519</v>
       </c>
       <c r="B219" t="str">
-        <v>HP INK No 711XL BLACK ΣΥΜΒΑΤΟ 75ml</v>
+        <v>KONICA MINOLTA TONER 2300 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>GPI-0249</v>
+        <v>GPT-0520</v>
       </c>
       <c r="B220" t="str">
-        <v>HP INK No 711XL CYAN ΣΥΜΒΑΤΟ 28ml</v>
+        <v>HP TONER Q7516A BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>GPI-0250</v>
+        <v>GPT-0521</v>
       </c>
       <c r="B221" t="str">
-        <v>HP INK No 711XL MAGENTA ΣΥΜΒΑΤΟ 28ml</v>
+        <v>HP TONER Q2613X BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>GPI-0251</v>
+        <v>GPT-0522</v>
       </c>
       <c r="B222" t="str">
-        <v>HP INK No 711XL YELLOW ΣΥΜΒΑΤΟ 28ml</v>
+        <v>DELL TONER D1320 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>GPI-0252</v>
+        <v>GPT-0523</v>
       </c>
       <c r="B223" t="str">
-        <v>CANON INK CLI-571XL BLACK ΣΥΜΒΑΤΟ 13ml</v>
+        <v>DELL TONER D1320 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>GPI-0253</v>
+        <v>GPT-0524</v>
       </c>
       <c r="B224" t="str">
-        <v>HP INK No 58 - C6658AE PHOTO COLOR ΣΥΜΒΑΤΟ</v>
+        <v>KONICA MINOLTA TONER 4650EN/4650DN BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>GPI-0254</v>
+        <v>GPT-0525</v>
       </c>
       <c r="B225" t="str">
-        <v>CANON INK CL-546XL - 8288B001 COLOR ΣΥΜΒΑΤΟ</v>
+        <v>KONICA MINOLTA TONER 4650EN/4650DN CYAN ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>GPI-0255</v>
+        <v>GPT-0526</v>
       </c>
       <c r="B226" t="str">
-        <v>CANON INK PG 545XL BLACK ΣΥΜΒΑΤΟ 9.5 ml</v>
+        <v>KONICA MINOLTA TONER 4650EN/4650DN MAGENTA ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>GPI-0256</v>
+        <v>GPT-0527</v>
       </c>
       <c r="B227" t="str">
-        <v>HP INK No 27 - C8727A ΒLACΚ ΣΥΜΒΑΤΟ 18ml</v>
+        <v>KONICA MINOLTA TONER 4650EN/4650DN YELLOW ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>GPR-0002</v>
+        <v>GPT-0528</v>
       </c>
       <c r="B228" t="str">
-        <v>PANASONIC RIBBON FA52X BLACK ΣΥΜΒΑΤΟ</v>
+        <v>CANON TONER E30 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>GPR-0003</v>
+        <v>GPT-0529</v>
       </c>
       <c r="B229" t="str">
-        <v>PANASONIC RIBBON FA54X BLACK ΣΥΜΒΑΤΗ</v>
+        <v>HP TONER C4127X BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>GPR-0004</v>
+        <v>GPT-0530</v>
       </c>
       <c r="B230" t="str">
-        <v>OKI RIBBON ML393 BLACK ΣΥΜΒΑΤΗ</v>
+        <v>OKI TONER BK C3100/3000/3200/5100/5150/5200/5300/5400/5510 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>GPT-0408</v>
+        <v>GPT-0531</v>
       </c>
       <c r="B231" t="str">
-        <v>KYOCERA TONER TK1115 BLACK ΣΥΜΒΑΤΟ 1600ΣΕΛ</v>
+        <v>OKI TONER C C3100/3000/3200/5100/5150/5200/5300/5400/5510 CYAN ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>GPT-0466</v>
+        <v>GPT-0534</v>
       </c>
       <c r="B232" t="str">
-        <v>OKI TONER C610 CYAN ΣΥΜΒΑΤΟ</v>
+        <v>HP TONER C4096A BLACK ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>GPT-0467</v>
+        <v>GPT-0540</v>
       </c>
       <c r="B233" t="str">
-        <v>OKI TONER C610 MAGENTA ΣΥΜΒΑΤΟ</v>
+        <v>XEROX PHASER 4400 - 113R00628 BLACK ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>GPT-0468</v>
+        <v>DTS-0010</v>
       </c>
       <c r="B234" t="str">
-        <v>OKI TONER C610 YELLOW ΣΥΜΒΑΤΟ</v>
+        <v>OKI RIBBON 09002303 BLACK ΣΥΜΒΑΤΗ</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>GPT-0469</v>
+        <v>DTS-0016</v>
       </c>
       <c r="B235" t="str">
-        <v>OKI TONER C610 BLACK ΣΥΜΒΑΤΟ</v>
+        <v>EPSON RIBBON LQ800 - 8750/7753 BLACK ΣΥΜΒΑΤΗ</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>GPT-0493</v>
+        <v>DTS-0022</v>
       </c>
       <c r="B236" t="str">
-        <v>BROTHER TONER TN6600/TN460 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK 79XL - T7891XXL BLACK ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>GPT-0494</v>
+        <v>DTS-0023</v>
       </c>
       <c r="B237" t="str">
-        <v>EPSON TONER M300 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK 79XL - T7892XXL CYAN ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>GPT-0495</v>
+        <v>DTS-0024</v>
       </c>
       <c r="B238" t="str">
-        <v>OKI TONER C5850/5950 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK 79XL - T7893XXL MAGENTA ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>GPT-0496</v>
+        <v>DTS-0025</v>
       </c>
       <c r="B239" t="str">
-        <v>OKI TONER C5850/5950 CYAN ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK 79XL - T7894XXL YELLOW ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>GPT-0497</v>
+        <v>GPD-0019</v>
       </c>
       <c r="B240" t="str">
-        <v>OKI TONER C5850/5950 MAGENTA ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER DRUM DR2300/DR630 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>GPT-0498</v>
+        <v>GPD-0020</v>
       </c>
       <c r="B241" t="str">
-        <v>OKI TONER C5850/5950 YELLOW ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER DRUM DR3100/DR3200/DR3170/DR3280/DR580/DR520 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>GPT-0499</v>
+        <v>GPD-0021</v>
       </c>
       <c r="B242" t="str">
-        <v>KYOCERA TONER TK1505 BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>HP DRUM 164A - CE314A CP1025 BLACK ΣΥΜΒΑΤΟ 14000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>GPT-0500</v>
+        <v>GPD-0022</v>
       </c>
       <c r="B243" t="str">
-        <v>RICOH TONER SP150 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER DRUM DR130 BLACK ΣΥΜΒΑΤΟ 17000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>GPT-0501</v>
+        <v>GPD-0023</v>
       </c>
       <c r="B244" t="str">
-        <v>XEROX TONER 3150 109R00747 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK DRUM DR8302/DR230/DELL1700/D4283 BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>GPT-0502</v>
+        <v>GPD-0024</v>
       </c>
       <c r="B245" t="str">
-        <v>XEROX TONER MFP 3200 113R00730 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI DRUM 5500/C5800 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>GPT-0503</v>
+        <v>GPD-0025</v>
       </c>
       <c r="B246" t="str">
-        <v>XEROX TONER 3300 106R01412 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI DRUM 5500/C5800 CYAN ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>GPT-0504</v>
+        <v>GPD-0026</v>
       </c>
       <c r="B247" t="str">
-        <v>LEXMARK TONER X203 - X203A11G BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>OKI DRUM 5500/C5800 MAGENTA ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>GPT-0505</v>
+        <v>GPD-0027</v>
       </c>
       <c r="B248" t="str">
-        <v>LEXMARK TONER CX310  / CX410 / CX510 80C2SK0 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>OKI DRUM 5500/C5800 YELLOW ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>GPT-0506</v>
+        <v>GPD-0028</v>
       </c>
       <c r="B249" t="str">
-        <v>LEXMARK TONER CX310 / CX410 / CX510 80C2SC0 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK DRUM E260 BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>GPT-0507</v>
+        <v>GPD-0029</v>
       </c>
       <c r="B250" t="str">
-        <v>LEXMARK TONER CX310 / CX410 / CX510 80C2SM0 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI DRUM B401/MB441/MB451 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>GPT-0508</v>
+        <v>GPD-0030</v>
       </c>
       <c r="B251" t="str">
-        <v>LEXMARK TONER CX310 / CX410 / CX510 80C2SY0 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK DRUM E120 12026XW BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>GPT-0509</v>
+        <v>GPD-0031</v>
       </c>
       <c r="B252" t="str">
-        <v>LEXMARK TONER CS 310/410/510 70C2HK0 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG DRUM CLT 407DR / 409DR BLACK ΣΥΜΒΑΤΟ 24000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>GPT-0510</v>
+        <v>GPI-0011</v>
       </c>
       <c r="B253" t="str">
-        <v>LEXMARK TONER CS 310/410/510 70C2HC0 CYAN ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T01281 BLACK ΣΥΜΒΑΤΟ 10.5ml</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>GPT-0511</v>
+        <v>GPI-0012</v>
       </c>
       <c r="B254" t="str">
-        <v>LEXMARK TONER CS 310/410/510 70C2HM0 MAGENTA ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T01282 CYAN ΣΥΜΒΑΤΟ 8ml</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>GPT-0512</v>
+        <v>GPI-0013</v>
       </c>
       <c r="B255" t="str">
-        <v>LEXMARK TONER CS 310/410/510 70C2HY0 YELLOW ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T01283 MAGENTA ΣΥΜΒΑΤΟ 8ml</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>GPT-0513</v>
+        <v>GPI-0014</v>
       </c>
       <c r="B256" t="str">
-        <v>LEXMARK TONER  X466 - X463A11G X463A21G BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T01284 YELLOW ΣΥΜΒΑΤΟ 8ml</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>GPT-0514</v>
+        <v>GPI-0015</v>
       </c>
       <c r="B257" t="str">
-        <v>EPSON TONER M1200 S050523 C13S050523 BLACK ΣΥΜΒΑΤΟ 3200 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T01811 BLACK ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>GPT-0534</v>
+        <v>GPI-0016</v>
       </c>
       <c r="B258" t="str">
-        <v>HP TONER C4096A BLACK ΣΥΜΒΑΤΟ</v>
+        <v>EPSON INK T01812 CYAN ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>GPT-0540</v>
+        <v>GPI-0017</v>
       </c>
       <c r="B259" t="str">
-        <v>XEROX PHASER 4400 - 113R00628 BLACK ΣΥΜΒΑΤΟ</v>
+        <v>EPSON INK T01813 MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>DTS-0010</v>
+        <v>GPI-0018</v>
       </c>
       <c r="B260" t="str">
-        <v>OKI RIBBON 09002303 BLACK ΣΥΜΒΑΤΗ</v>
+        <v>EPSON INK T01814 YELLOW ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>DTS-0016</v>
+        <v>GPI-0019</v>
       </c>
       <c r="B261" t="str">
-        <v>EPSON RIBBON LQ800 - 8750/7753 BLACK ΣΥΜΒΑΤΗ</v>
+        <v>EPSON INK No 26XL - T2621XL BLACK ΣΥΜΒΑΤΟ 22ml</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>DTS-0022</v>
+        <v>GPI-0020</v>
       </c>
       <c r="B262" t="str">
-        <v>EPSON INK 79XL - T7891XXL BLACK ΣΥΜΒΑΤΟ</v>
+        <v>EPSON INK No 26XL - T2631XL PHOTO BLACK ΣΥΜΒΑΤΟ 10ml -</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>DTS-0023</v>
+        <v>GPI-0021</v>
       </c>
       <c r="B263" t="str">
-        <v>EPSON INK 79XL - T7892XXL CYAN ΣΥΜΒΑΤΟ</v>
+        <v>EPSON INK No 26XL - T2632XL CYAN ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>DTS-0024</v>
+        <v>GPI-0022</v>
       </c>
       <c r="B264" t="str">
-        <v>EPSON INK 79XL - T7893XXL MAGENTA ΣΥΜΒΑΤΟ</v>
+        <v>EPSON INK No 26XL - T2633XL MAGENTA  ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>GPD-0001</v>
+        <v>GPI-0023</v>
       </c>
       <c r="B265" t="str">
-        <v>OKI DRUM B410/420/430/440/MB460/470/480 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK No 26XL - T2634XL YELLOW ΣΥΜΒΑΤΟ 10ml</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>GPD-0002</v>
+        <v>GPI-0024</v>
       </c>
       <c r="B266" t="str">
-        <v>OKI DRUM B411/431/461/471/491 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 363XL - C8721 BLACK ΣΥΜΒΑΤΟ 35ml</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>GPD-0003</v>
+        <v>GPI-0025</v>
       </c>
       <c r="B267" t="str">
-        <v>SAMSUNG DRUM R116 BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 363XL - C8774E LIGHT CYAN ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>GPD-0004</v>
+        <v>GPI-0026</v>
       </c>
       <c r="B268" t="str">
-        <v>OKI DRUM B4400/4500/4550/4600 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 363XL - C8775E LIGHT MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>GPD-0005</v>
+        <v>GPI-0027</v>
       </c>
       <c r="B269" t="str">
-        <v>PANASONIC DRUM FAD412 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 363XL - C8771E CYAN ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>GPD-0006</v>
+        <v>GPI-0028</v>
       </c>
       <c r="B270" t="str">
-        <v>PANASONIC DRUM FAD84X BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 363XL - C8772E MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>GPD-0007</v>
+        <v>GPI-0029</v>
       </c>
       <c r="B271" t="str">
-        <v>PANASONIC DRUM FAD93X BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 363XL - C8773E YELLOW ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>GPD-0008</v>
+        <v>GPI-0030</v>
       </c>
       <c r="B272" t="str">
-        <v>PANASONIC DRUM FAD89X BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 932XL - CN053AA BLACK ΣΥΜΒΑΤΟ 32ml</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>GPD-0009</v>
+        <v>GPI-0031</v>
       </c>
       <c r="B273" t="str">
-        <v>LEXMARK DRUM CE250/450 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 933XL - CN054AA CYAN ΣΥΜΒΑΤΟ 16ml</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>GPD-0010</v>
+        <v>GPI-0068</v>
       </c>
       <c r="B274" t="str">
-        <v>XEROX DRUM 3215/3260 - 101R00474 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>CANON INK PG-540XL ΜΑΥΡΟ ΣΥΜΒΑΤΟ 600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>GPD-0012</v>
+        <v>GPI-0072</v>
       </c>
       <c r="B275" t="str">
-        <v>HP DRUM CB384A BLACK ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 935XL - C2P21AA MAGENTA ΣΥΜΒΑΤΟ  18ml</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>GPD-0013</v>
+        <v>GPI-0087</v>
       </c>
       <c r="B276" t="str">
-        <v>BROTHER DRUM DR570/DR3000/DR6000/DR7000 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG INK M41/SF370/371/375TP BLACK ΣΥΜΒΑΤΟ 17ml</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>GPD-0014</v>
+        <v>GPI-0113</v>
       </c>
       <c r="B277" t="str">
-        <v>BROTHER DRUM B720/DR3300/3350/51J BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK INK No 23 - 18C1523 BLACK ΣΥΜΒΑΤΟ  21ml</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>GPD-0015</v>
+        <v>GPI-0151</v>
       </c>
       <c r="B278" t="str">
-        <v>BROTHER DRUM DR2000/DR350/DR2005 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>CANON INK BCI-3e - 03/06 PHOTO CYAN ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>GPD-0016</v>
+        <v>GPI-0152</v>
       </c>
       <c r="B279" t="str">
-        <v>BROTHER DRUM DR2120/DR360/DR2100 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>CANON INK BCI-3e - 03/06 PHOTO MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>GPD-0017</v>
+        <v>GPI-0160</v>
       </c>
       <c r="B280" t="str">
-        <v>BROTHER DRUM DR2220/DR450/DR2200/DR2255 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER INK LC1000/LC970XL MAGENTA ΣΥΜΒΑΤΟ 20ml</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>GPD-0018</v>
+        <v>GPI-0162</v>
       </c>
       <c r="B281" t="str">
-        <v>BROTHER DRUM DR1050 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER INK LC61/LC1100/LC980XL BLACK ΣΥΜΒΑΤΟ 28ml</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>GPD-0019</v>
+        <v>GPI-0163</v>
       </c>
       <c r="B282" t="str">
-        <v>BROTHER DRUM DR2300/DR630 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER INK LC61/LC1100/LC980XL CYAN ΣΥΜΒΑΤΟ 12ml</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>GPD-0020</v>
+        <v>GPI-0164</v>
       </c>
       <c r="B283" t="str">
-        <v>BROTHER DRUM DR3100/DR3200/DR3170/DR3280/DR580/DR520 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER INK LC61/LC1100/LC980XL MAGENTA ΣΥΜΒΑΤΟ 12ml</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>GPD-0021</v>
+        <v>GPI-0165</v>
       </c>
       <c r="B284" t="str">
-        <v>HP DRUM 164A - CE314A CP1025 BLACK ΣΥΜΒΑΤΟ 14000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER INK LC61/LC1100/LC980XL YELLOW ΣΥΜΒΑΤΟ 12ml</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>GPD-0022</v>
+        <v>GPI-0204</v>
       </c>
       <c r="B285" t="str">
-        <v>BROTHER DRUM DR130 BLACK ΣΥΜΒΑΤΟ 17000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK INK No 36XL - 18C2170 BLACK ΣΥΜΒΑΤΟ 21ml</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>GPD-0023</v>
+        <v>GPI-0235</v>
       </c>
       <c r="B286" t="str">
-        <v>LEXMARK DRUM DR8302/DR230/DELL1700/D4283 BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T0711/T0712/T0713/T0714 COLOR ΣΥΜΒΑΤΟ  SET 10 ΤΜΧ (4* T0711 /2* T0712/2* T0713/2* T0714)</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>GPD-0024</v>
+        <v>GPI-0236</v>
       </c>
       <c r="B287" t="str">
-        <v>OKI DRUM 5500/C5800 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>CANON INK 0525BK/526BK/526C/526M/526Y COLOR ΣΥΜΒΑΤΟ SET 10 ΤΜΧ(2*0525BK/2*526BK/2*526C/2*526M/2*526Υ</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="str">
-        <v>GPD-0025</v>
+        <v>GPI-0237</v>
       </c>
       <c r="B288" t="str">
-        <v>OKI DRUM 5500/C5800 CYAN ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 650 - CZ101AE BLACK ΣΥΜΒΑΤΟ 360 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>GPD-0026</v>
+        <v>GPI-0238</v>
       </c>
       <c r="B289" t="str">
-        <v>OKI DRUM 5500/C5800 MAGENTA ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>HP INK No 650 - CZ102AE COLOR ΣΥΜΒΑΤΟ 200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>GPD-0027</v>
+        <v>GPR-0001</v>
       </c>
       <c r="B290" t="str">
-        <v>OKI DRUM 5500/C5800 YELLOW ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>PHILIPS RIBBON  PFA351 MAGIC 5 BLACK ΣΥΜΒΑΤΗ 140 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>GPD-0028</v>
+        <v>GPR-0005</v>
       </c>
       <c r="B291" t="str">
-        <v>LEXMARK DRUM E260 BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON RIBBON FX2190 C13S015327 BLACK ΣΥΜΒΑΤΗ 32 m</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="str">
-        <v>GPD-0029</v>
+        <v>GPT-0001</v>
       </c>
       <c r="B292" t="str">
-        <v>OKI DRUM B401/MB441/MB451 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER M1400/MX14 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="str">
-        <v>GPD-0030</v>
+        <v>GPT-0002</v>
       </c>
       <c r="B293" t="str">
-        <v>LEXMARK DRUM E120 12026XW BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER M2000 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="str">
-        <v>GPD-0031</v>
+        <v>GPT-0003</v>
       </c>
       <c r="B294" t="str">
-        <v>SAMSUNG DRUM CLT 407DR / 409DR BLACK ΣΥΜΒΑΤΟ 24000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q2612A/FX10/FX9/104 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="str">
-        <v>GPI-0003</v>
+        <v>GPT-0004</v>
       </c>
       <c r="B295" t="str">
-        <v>EPSON INK T0713/T0893 MAGENTA ΣΥΜΒΑΤΟ 14ml</v>
+        <v>HP TONER CE285A/RG725 BLACK ΣΥΜΒΑΤΟ 1600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="str">
-        <v>GPI-0004</v>
+        <v>GPT-0005</v>
       </c>
       <c r="B296" t="str">
-        <v>EPSON INK T0714/T0894 YELLOW ΣΥΜΒΑΤΟ 14ml</v>
+        <v>HP TONER CE278A/RG728 BLACK ΣΥΜΒΑΤΟ 2100 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>GPI-0005</v>
+        <v>GPT-0006</v>
       </c>
       <c r="B297" t="str">
-        <v>EPSON INK T0801 BLACK ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP TONER CE505A BLACK ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>GPI-0006</v>
+        <v>GPT-0007</v>
       </c>
       <c r="B298" t="str">
-        <v>EPSON INK T0802 CYAN ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP TONER CB540A BLACK ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>GPI-0007</v>
+        <v>GPT-0008</v>
       </c>
       <c r="B299" t="str">
-        <v>EPSON INK T0803 MAGENTA ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP TONER CB541A CYAN ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="str">
-        <v>GPI-0008</v>
+        <v>GPT-0009</v>
       </c>
       <c r="B300" t="str">
-        <v>EPSON INK T0804 YELLOW ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP TONER CB542A YELLOW ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>GPI-0009</v>
+        <v>GPT-0010</v>
       </c>
       <c r="B301" t="str">
-        <v>EPSON INK T0805 LIGHT CYAN ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP TONER CB543A MAGENTA ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>GPI-0010</v>
+        <v>GPT-0011</v>
       </c>
       <c r="B302" t="str">
-        <v>EPSON INK T0806 LIGHT MAGENTA ΣΥΜΒΑΤΟ 15ml</v>
+        <v>HP TONER CF350A BLACK ΣΥΜΒΑΤΟ 1300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>GPI-0011</v>
+        <v>GPT-0012</v>
       </c>
       <c r="B303" t="str">
-        <v>EPSON INK T01281 BLACK ΣΥΜΒΑΤΟ 10.5ml</v>
+        <v>HP TONER CF351A CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>GPI-0012</v>
+        <v>GPT-0013</v>
       </c>
       <c r="B304" t="str">
-        <v>EPSON INK T01282 CYAN ΣΥΜΒΑΤΟ 8ml</v>
+        <v>HP TONER CF352A YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="str">
-        <v>GPI-0013</v>
+        <v>GPT-0014</v>
       </c>
       <c r="B305" t="str">
-        <v>EPSON INK T01283 MAGENTA ΣΥΜΒΑΤΟ 8ml</v>
+        <v>HP TONER CF353A MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>GPI-0014</v>
+        <v>GPT-0015</v>
       </c>
       <c r="B306" t="str">
-        <v>EPSON INK T01284 YELLOW ΣΥΜΒΑΤΟ 8ml</v>
+        <v>HP TONER Q5949X/7553X BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>GPI-0015</v>
+        <v>GPT-0016</v>
       </c>
       <c r="B307" t="str">
-        <v>EPSON INK T01811 BLACK ΣΥΜΒΑΤΟ 14ml</v>
+        <v>HP TONER CF283A BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>GPI-0016</v>
+        <v>GPT-0017</v>
       </c>
       <c r="B308" t="str">
-        <v>EPSON INK T01812 CYAN ΣΥΜΒΑΤΟ 10ml</v>
+        <v>LEXMARK TONER E120 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="str">
-        <v>GPI-0017</v>
+        <v>GPT-0018</v>
       </c>
       <c r="B309" t="str">
-        <v>EPSON INK T01813 MAGENTA ΣΥΜΒΑΤΟ 10ml</v>
+        <v>LEXMARK TONER CE230 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>GPI-0018</v>
+        <v>GPT-0019</v>
       </c>
       <c r="B310" t="str">
-        <v>EPSON INK T01814 YELLOW ΣΥΜΒΑΤΟ 10ml</v>
+        <v>LEXMARK TONER CE250/CE350 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="str">
-        <v>GPI-0020</v>
+        <v>GPT-0020</v>
       </c>
       <c r="B311" t="str">
-        <v>EPSON INK No 26XL - T2631XL PHOTO BLACK ΣΥΜΒΑΤΟ 10ml -</v>
+        <v>OKI TONER B401/MB441/451 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="str">
-        <v>GPI-0022</v>
+        <v>GPT-0021</v>
       </c>
       <c r="B312" t="str">
-        <v>EPSON INK No 26XL - T2633XL MAGENTA  ΣΥΜΒΑΤΟ 10ml</v>
+        <v>RICOH TONER PH-1220D BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="str">
-        <v>GPI-0023</v>
+        <v>GPT-0022</v>
       </c>
       <c r="B313" t="str">
-        <v>EPSON INK No 26XL - T2634XL YELLOW ΣΥΜΒΑΤΟ 10ml</v>
+        <v>RICOH TONER PH-1230D BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>GPI-0025</v>
+        <v>GPT-0023</v>
       </c>
       <c r="B314" t="str">
-        <v>HP INK No 363XL - C8774E LIGHT CYAN ΣΥΜΒΑΤΟ 13ml</v>
+        <v>RICOH TONER PH-2220D BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>GPI-0026</v>
+        <v>GPT-0024</v>
       </c>
       <c r="B315" t="str">
-        <v>HP INK No 363XL - C8775E LIGHT MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
+        <v>SAMSUNG TONER ML1660/MLT-D1042S BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>GPI-0068</v>
+        <v>GPT-0025</v>
       </c>
       <c r="B316" t="str">
-        <v>CANON INK PG-540XL ΜΑΥΡΟ ΣΥΜΒΑΤΟ 600 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML1710/1510/1520 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>GPI-0072</v>
+        <v>GPT-0026</v>
       </c>
       <c r="B317" t="str">
-        <v>HP INK No 935XL - C2P21AA MAGENTA ΣΥΜΒΑΤΟ  18ml</v>
+        <v>SAMSUNG TONER MLT-D101S BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="str">
-        <v>GPI-0087</v>
+        <v>GPT-0027</v>
       </c>
       <c r="B318" t="str">
-        <v>SAMSUNG INK M41/SF370/371/375TP BLACK ΣΥΜΒΑΤΟ 17ml</v>
+        <v>SAMSUNG TONER MLT-D111S BLACK ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>GPI-0113</v>
+        <v>GPT-0028</v>
       </c>
       <c r="B319" t="str">
-        <v>LEXMARK INK No 23 - 18C1523 BLACK ΣΥΜΒΑΤΟ  21ml</v>
+        <v>SAMSUNG TONER MLT-D116L BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>GPI-0151</v>
+        <v>GPT-0029</v>
       </c>
       <c r="B320" t="str">
-        <v>CANON INK BCI-3e - 03/06 PHOTO CYAN ΣΥΜΒΑΤΟ 13ml</v>
+        <v>SAMSUNG TONER MLT-D204L BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>GPI-0152</v>
+        <v>GPT-0030</v>
       </c>
       <c r="B321" t="str">
-        <v>CANON INK BCI-3e - 03/06 PHOTO MAGENTA ΣΥΜΒΑΤΟ 13ml</v>
+        <v>SAMSUNG TONER MLTD205A/205L BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>GPI-0160</v>
+        <v>GPT-0031</v>
       </c>
       <c r="B322" t="str">
-        <v>BROTHER INK LC1000/LC970XL MAGENTA ΣΥΜΒΑΤΟ 20ml</v>
+        <v>SAMSUNG TONER CLP325/CLP320/4072 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="str">
-        <v>GPI-0162</v>
+        <v>GPT-0032</v>
       </c>
       <c r="B323" t="str">
-        <v>BROTHER INK LC61/LC1100/LC980XL BLACK ΣΥΜΒΑΤΟ 28ml</v>
+        <v>SAMSUNG TONER CLP325/CLP320/4072 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="str">
-        <v>GPI-0163</v>
+        <v>GPT-0033</v>
       </c>
       <c r="B324" t="str">
-        <v>BROTHER INK LC61/LC1100/LC980XL CYAN ΣΥΜΒΑΤΟ 12ml</v>
+        <v>SAMSUNG TONER CLP325/CLP320/4072 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="str">
-        <v>GPI-0164</v>
+        <v>GPT-0034</v>
       </c>
       <c r="B325" t="str">
-        <v>BROTHER INK LC61/LC1100/LC980XL MAGENTA ΣΥΜΒΑΤΟ 12ml</v>
+        <v>SAMSUNG TONER CLP325/CLP320/4072 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="str">
-        <v>GPI-0165</v>
+        <v>GPT-0035</v>
       </c>
       <c r="B326" t="str">
-        <v>BROTHER INK LC61/LC1100/LC980XL YELLOW ΣΥΜΒΑΤΟ 12ml</v>
+        <v>SAMSUNG TONER CLP406S/CLP360/365/3305 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="str">
-        <v>GPI-0204</v>
+        <v>GPT-0036</v>
       </c>
       <c r="B327" t="str">
-        <v>LEXMARK INK No 36XL - 18C2170 BLACK ΣΥΜΒΑΤΟ 21ml</v>
+        <v>SAMSUNG TONER CLP406S/CLP360/365/3305 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="str">
-        <v>GPI-0235</v>
+        <v>GPT-0037</v>
       </c>
       <c r="B328" t="str">
-        <v>EPSON INK T0711/T0712/T0713/T0714 COLOR ΣΥΜΒΑΤΟ  SET 10 ΤΜΧ (4* T0711 /2* T0712/2* T0713/2* T0714)</v>
+        <v>SAMSUNG TONER CLP406S/CLP360/365/3305 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="str">
-        <v>GPI-0236</v>
+        <v>GPT-0038</v>
       </c>
       <c r="B329" t="str">
-        <v>CANON INK 0525BK/526BK/526C/526M/526Y COLOR ΣΥΜΒΑΤΟ SET 10 ΤΜΧ(2*0525BK/2*526BK/2*526C/2*526M/2*526Υ</v>
+        <v>SAMSUNG TONER CLP406S/CLP360/365/3305 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="str">
-        <v>GPI-0237</v>
+        <v>GPT-0040</v>
       </c>
       <c r="B330" t="str">
-        <v>HP INK No 650 - CZ101AE BLACK ΣΥΜΒΑΤΟ 360 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3100 106R01379 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="str">
-        <v>GPI-0238</v>
+        <v>GPT-0042</v>
       </c>
       <c r="B331" t="str">
-        <v>HP INK No 650 - CZ102AE COLOR ΣΥΜΒΑΤΟ 200 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE310A CP1025 126A  BLACK ΣΥΜΒΑΤΟ 1200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="str">
-        <v>GPR-0001</v>
+        <v>GPT-0043</v>
       </c>
       <c r="B332" t="str">
-        <v>PHILIPS RIBBON  PFA351 MAGIC 5 BLACK ΣΥΜΒΑΤΗ 140 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML1910/MLT-D1052L/SCX4600/SCX4623 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="str">
-        <v>GPR-0005</v>
+        <v>GPT-0044</v>
       </c>
       <c r="B333" t="str">
-        <v>EPSON RIBBON FX2190 C13S015327 BLACK ΣΥΜΒΑΤΗ 32 m</v>
+        <v>SAMSUNG TONER CLP506L/680/6260 CYAN ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="str">
-        <v>GPT-0001</v>
+        <v>GPT-0045</v>
       </c>
       <c r="B334" t="str">
-        <v>EPSON TONER M1400/MX14 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP506L/680/6260 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="str">
-        <v>GPT-0002</v>
+        <v>GPT-0046</v>
       </c>
       <c r="B335" t="str">
-        <v>EPSON TONER M2000 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP506L/680/6260 MAGENTA ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="str">
-        <v>GPT-0003</v>
+        <v>GPT-0047</v>
       </c>
       <c r="B336" t="str">
-        <v>HP TONER Q2612A/FX10/FX9/104 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP506L/680/6260 YELLOW ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="str">
-        <v>GPT-0004</v>
+        <v>GPT-0048</v>
       </c>
       <c r="B337" t="str">
-        <v>HP TONER CE285A/RG725 BLACK ΣΥΜΒΑΤΟ 1600 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE311A CP1025 126A CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="str">
-        <v>GPT-0005</v>
+        <v>GPT-0049</v>
       </c>
       <c r="B338" t="str">
-        <v>HP TONER CE278A/RG728 BLACK ΣΥΜΒΑΤΟ 2100 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE312A CP1025 126A YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="str">
-        <v>GPT-0006</v>
+        <v>GPT-0050</v>
       </c>
       <c r="B339" t="str">
-        <v>HP TONER CE505A BLACK ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE313A CP1025 126A MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="str">
-        <v>GPT-0007</v>
+        <v>GPT-0051</v>
       </c>
       <c r="B340" t="str">
-        <v>HP TONER CB540A BLACK ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER E260X BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="str">
-        <v>GPT-0008</v>
+        <v>GPT-0052</v>
       </c>
       <c r="B341" t="str">
-        <v>HP TONER CB541A CYAN ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF280A BLACK ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="str">
-        <v>GPT-0009</v>
+        <v>GPT-0053</v>
       </c>
       <c r="B342" t="str">
-        <v>HP TONER CB542A YELLOW ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML1640 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="str">
-        <v>GPT-0010</v>
+        <v>GPT-0054</v>
       </c>
       <c r="B343" t="str">
-        <v>HP TONER CB543A MAGENTA ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6470 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="str">
-        <v>GPT-0011</v>
+        <v>GPT-0055</v>
       </c>
       <c r="B344" t="str">
-        <v>HP TONER CF350A BLACK ΣΥΜΒΑΤΟ 1300 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C301/321 CYAN ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="str">
-        <v>GPT-0012</v>
+        <v>GPT-0056</v>
       </c>
       <c r="B345" t="str">
-        <v>HP TONER CF351A CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C301/321 MAGENTA ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="str">
-        <v>GPT-0013</v>
+        <v>GPT-0057</v>
       </c>
       <c r="B346" t="str">
-        <v>HP TONER CF352A YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C301/321 YELLOW ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="str">
-        <v>GPT-0014</v>
+        <v>GPT-0058</v>
       </c>
       <c r="B347" t="str">
-        <v>HP TONER CF353A MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C310/C330/C510/C530 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="str">
-        <v>GPT-0015</v>
+        <v>GPT-0059</v>
       </c>
       <c r="B348" t="str">
-        <v>HP TONER Q5949X/7553X BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C310/C330/C510/C530 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="str">
-        <v>GPT-0016</v>
+        <v>GPT-0060</v>
       </c>
       <c r="B349" t="str">
-        <v>HP TONER CF283A BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C310/C330/C510/C530 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="str">
-        <v>GPT-0017</v>
+        <v>GPT-0061</v>
       </c>
       <c r="B350" t="str">
-        <v>LEXMARK TONER E120 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C310/C330/C510/C530 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="str">
-        <v>GPT-0018</v>
+        <v>GPT-0062</v>
       </c>
       <c r="B351" t="str">
-        <v>LEXMARK TONER CE230 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF280X BLACK ΣΥΜΒΑΤΟ 6900 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="str">
-        <v>GPT-0019</v>
+        <v>GPT-0063</v>
       </c>
       <c r="B352" t="str">
-        <v>LEXMARK TONER CE250/CE350 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B410/430/440/MB460/470/480 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="str">
-        <v>GPT-0020</v>
+        <v>GPT-0065</v>
       </c>
       <c r="B353" t="str">
-        <v>OKI TONER B401/MB441/451 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER C540H2KG BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="str">
-        <v>GPT-0021</v>
+        <v>GPT-0066</v>
       </c>
       <c r="B354" t="str">
-        <v>RICOH TONER PH-1220D BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER C540H2CG CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="str">
-        <v>GPT-0022</v>
+        <v>GPT-0067</v>
       </c>
       <c r="B355" t="str">
-        <v>RICOH TONER PH-1230D BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER C540H2MG MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="str">
-        <v>GPT-0023</v>
+        <v>GPT-0068</v>
       </c>
       <c r="B356" t="str">
-        <v>RICOH TONER PH-2220D BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C1700 - 50611 YELLOW ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="str">
-        <v>GPT-0024</v>
+        <v>GPT-0069</v>
       </c>
       <c r="B357" t="str">
-        <v>SAMSUNG TONER ML1660/MLT-D1042S BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C1700 - 50612 MAGENTA ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="str">
-        <v>GPT-0025</v>
+        <v>GPT-0070</v>
       </c>
       <c r="B358" t="str">
-        <v>SAMSUNG TONER ML1710/1510/1520 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER EPL6200L BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="str">
-        <v>GPT-0026</v>
+        <v>GPT-0071</v>
       </c>
       <c r="B359" t="str">
-        <v>SAMSUNG TONER MLT-D101S BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK435 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="str">
-        <v>GPT-0027</v>
+        <v>GPT-0072</v>
       </c>
       <c r="B360" t="str">
-        <v>SAMSUNG TONER MLT-D111S BLACK ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK715 BLACK ΣΥΜΒΑΤΟ 34000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="str">
-        <v>GPT-0028</v>
+        <v>GPT-0075</v>
       </c>
       <c r="B361" t="str">
-        <v>SAMSUNG TONER MLT-D116L BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B430/MB460/470 BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="str">
-        <v>GPT-0029</v>
+        <v>GPT-0076</v>
       </c>
       <c r="B362" t="str">
-        <v>SAMSUNG TONER MLT-D204L BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B411/431 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="str">
-        <v>GPT-0030</v>
+        <v>GPT-0077</v>
       </c>
       <c r="B363" t="str">
-        <v>SAMSUNG TONER MLTD205A/205L BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B431 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="str">
-        <v>GPT-0031</v>
+        <v>GPT-0078</v>
       </c>
       <c r="B364" t="str">
-        <v>SAMSUNG TONER CLP325/CLP320/4072 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 6000/6010/6015 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="str">
-        <v>GPT-0032</v>
+        <v>GPT-0079</v>
       </c>
       <c r="B365" t="str">
-        <v>SAMSUNG TONER CLP325/CLP320/4072 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 6000/6010/6015 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="str">
-        <v>GPT-0033</v>
+        <v>GPT-0080</v>
       </c>
       <c r="B366" t="str">
-        <v>SAMSUNG TONER CLP325/CLP320/4072 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 6000/6010/6015 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="str">
-        <v>GPT-0034</v>
+        <v>GPT-0081</v>
       </c>
       <c r="B367" t="str">
-        <v>SAMSUNG TONER CLP325/CLP320/4072 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 6000/6010/6015 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="str">
-        <v>GPT-0035</v>
+        <v>GPT-0082</v>
       </c>
       <c r="B368" t="str">
-        <v>SAMSUNG TONER CLP406S/CLP360/365/3305 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER MFP 6121 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="str">
-        <v>GPT-0036</v>
+        <v>GPT-0083</v>
       </c>
       <c r="B369" t="str">
-        <v>SAMSUNG TONER CLP406S/CLP360/365/3305 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER MFP 6121 CYAN ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="str">
-        <v>GPT-0037</v>
+        <v>GPT-0084</v>
       </c>
       <c r="B370" t="str">
-        <v>SAMSUNG TONER CLP406S/CLP360/365/3305 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER MFP 6121 YELLOW ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="str">
-        <v>GPT-0038</v>
+        <v>GPT-0085</v>
       </c>
       <c r="B371" t="str">
-        <v>SAMSUNG TONER CLP406S/CLP360/365/3305 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER 1600 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="str">
-        <v>GPT-0040</v>
+        <v>GPT-0086</v>
       </c>
       <c r="B372" t="str">
-        <v>XEROX TONER 3100 106R01379 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER 1600 CYAN ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="str">
-        <v>GPT-0042</v>
+        <v>GPT-0087</v>
       </c>
       <c r="B373" t="str">
-        <v>HP TONER CE310A CP1025 126A  BLACK ΣΥΜΒΑΤΟ 1200 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER 1600 MAGENTA ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="str">
-        <v>GPT-0043</v>
+        <v>GPT-0088</v>
       </c>
       <c r="B374" t="str">
-        <v>SAMSUNG TONER ML1910/MLT-D1052L/SCX4600/SCX4623 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER 1600 YELLOW ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="str">
-        <v>GPT-0044</v>
+        <v>GPT-0089</v>
       </c>
       <c r="B375" t="str">
-        <v>SAMSUNG TONER CLP506L/680/6260 CYAN ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 6125N BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="str">
-        <v>GPT-0045</v>
+        <v>GPT-0090</v>
       </c>
       <c r="B376" t="str">
-        <v>SAMSUNG TONER CLP506L/680/6260 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 6125N CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="str">
-        <v>GPT-0046</v>
+        <v>GPT-0092</v>
       </c>
       <c r="B377" t="str">
-        <v>SAMSUNG TONER CLP506L/680/6260 MAGENTA ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 6125N YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="str">
-        <v>GPT-0047</v>
+        <v>GPT-0093</v>
       </c>
       <c r="B378" t="str">
-        <v>SAMSUNG TONER CLP506L/680/6260 YELLOW ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER C7115X BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="str">
-        <v>GPT-0048</v>
+        <v>GPT-0094</v>
       </c>
       <c r="B379" t="str">
-        <v>HP TONER CE311A CP1025 126A CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q2624X BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="str">
-        <v>GPT-0049</v>
+        <v>GPT-0095</v>
       </c>
       <c r="B380" t="str">
-        <v>HP TONER CE312A CP1025 126A YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q7551X BLACK ΣΥΜΒΑΤΟ 13000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="str">
-        <v>GPT-0050</v>
+        <v>GPT-0096</v>
       </c>
       <c r="B381" t="str">
-        <v>HP TONER CE313A CP1025 126A MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER C4092A BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="str">
-        <v>GPT-0051</v>
+        <v>GPT-0097</v>
       </c>
       <c r="B382" t="str">
-        <v>LEXMARK TONER E260X BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER C7115A BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="str">
-        <v>GPT-0052</v>
+        <v>GPT-0099</v>
       </c>
       <c r="B383" t="str">
-        <v>HP TONER CF280A BLACK ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML2850D/2851DN BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="str">
-        <v>GPT-0053</v>
+        <v>GPT-0100</v>
       </c>
       <c r="B384" t="str">
-        <v>SAMSUNG TONER ML1640 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE400X/507X BLACK ΣΥΜΒΑΤΟ 11000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="str">
-        <v>GPT-0054</v>
+        <v>GPT-0101</v>
       </c>
       <c r="B385" t="str">
-        <v>HP TONER Q6470 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE401A/507A CYAN ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="str">
-        <v>GPT-0055</v>
+        <v>GPT-0102</v>
       </c>
       <c r="B386" t="str">
-        <v>OKI TONER C301/321 CYAN ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D205X/205E BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="str">
-        <v>GPT-0056</v>
+        <v>GPT-0103</v>
       </c>
       <c r="B387" t="str">
-        <v>OKI TONER C301/321 MAGENTA ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6000 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="str">
-        <v>GPT-0057</v>
+        <v>GPT-0104</v>
       </c>
       <c r="B388" t="str">
-        <v>OKI TONER C301/321 YELLOW ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6001 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="str">
-        <v>GPT-0058</v>
+        <v>GPT-0105</v>
       </c>
       <c r="B389" t="str">
-        <v>OKI TONER C310/C330/C510/C530 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6002 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="str">
-        <v>GPT-0059</v>
+        <v>GPT-0106</v>
       </c>
       <c r="B390" t="str">
-        <v>OKI TONER C310/C330/C510/C530 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6003 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="str">
-        <v>GPT-0060</v>
+        <v>GPT-0107</v>
       </c>
       <c r="B391" t="str">
-        <v>OKI TONER C310/C330/C510/C530 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6471 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="str">
-        <v>GPT-0061</v>
+        <v>GPT-0108</v>
       </c>
       <c r="B392" t="str">
-        <v>OKI TONER C310/C330/C510/C530 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6472 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="str">
-        <v>GPT-0062</v>
+        <v>GPT-0109</v>
       </c>
       <c r="B393" t="str">
-        <v>HP TONER CF280X BLACK ΣΥΜΒΑΤΟ 6900 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6473 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="str">
-        <v>GPT-0063</v>
+        <v>GPT-0110</v>
       </c>
       <c r="B394" t="str">
-        <v>OKI TONER B410/430/440/MB460/470/480 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CB400A BLACK ΣΥΜΒΑΤΟ 7500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="str">
-        <v>GPT-0065</v>
+        <v>GPT-0111</v>
       </c>
       <c r="B395" t="str">
-        <v>LEXMARK TONER C540H2KG BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CB401A CYAN ΣΥΜΒΑΤΟ 7500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="str">
-        <v>GPT-0066</v>
+        <v>GPT-0112</v>
       </c>
       <c r="B396" t="str">
-        <v>LEXMARK TONER C540H2CG CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CB402A YELLOW ΣΥΜΒΑΤΟ 7500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="str">
-        <v>GPT-0067</v>
+        <v>GPT-0113</v>
       </c>
       <c r="B397" t="str">
-        <v>LEXMARK TONER C540H2MG MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CB403A MAGENTA ΣΥΜΒΑΤΟ 7500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="str">
-        <v>GPT-0068</v>
+        <v>GPT-0114</v>
       </c>
       <c r="B398" t="str">
-        <v>EPSON TONER C1700 - 50611 YELLOW ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE402A/507A YELLOW ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="str">
-        <v>GPT-0069</v>
+        <v>GPT-0115</v>
       </c>
       <c r="B399" t="str">
-        <v>EPSON TONER C1700 - 50612 MAGENTA ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE403A/507A MAGENTA ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="str">
-        <v>GPT-0070</v>
+        <v>GPT-0116</v>
       </c>
       <c r="B400" t="str">
-        <v>EPSON TONER EPL6200L BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B6200 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="str">
-        <v>GPT-0071</v>
+        <v>GPT-0117</v>
       </c>
       <c r="B401" t="str">
-        <v>KYOCERA TONER TK435 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D103L BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="str">
-        <v>GPT-0072</v>
+        <v>GPT-0118</v>
       </c>
       <c r="B402" t="str">
-        <v>KYOCERA TONER TK715 BLACK ΣΥΜΒΑΤΟ 34000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6180 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="str">
-        <v>GPT-0075</v>
+        <v>GPT-0119</v>
       </c>
       <c r="B403" t="str">
-        <v>OKI TONER B430/MB460/470 BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6180 CYAN ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="str">
-        <v>GPT-0076</v>
+        <v>GPT-0120</v>
       </c>
       <c r="B404" t="str">
-        <v>OKI TONER B411/431 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6180 MAGENTA ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="str">
-        <v>GPT-0077</v>
+        <v>GPT-0121</v>
       </c>
       <c r="B405" t="str">
-        <v>OKI TONER B431 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6180 YELLOW ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="str">
-        <v>GPT-0078</v>
+        <v>GPT-0122</v>
       </c>
       <c r="B406" t="str">
-        <v>XEROX PHASER TONER 6000/6010/6015 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6280 BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="str">
-        <v>GPT-0079</v>
+        <v>GPT-0123</v>
       </c>
       <c r="B407" t="str">
-        <v>XEROX PHASER TONER 6000/6010/6015 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6280 CYAN ΣΥΜΒΑΤΟ 5900 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="str">
-        <v>GPT-0080</v>
+        <v>GPT-0124</v>
       </c>
       <c r="B408" t="str">
-        <v>XEROX PHASER TONER 6000/6010/6015 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6280 MAGENTA ΣΥΜΒΑΤΟ 5900 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="str">
-        <v>GPT-0081</v>
+        <v>GPT-0125</v>
       </c>
       <c r="B409" t="str">
-        <v>XEROX PHASER TONER 6000/6010/6015 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6280 YELLOW  ΣΥΜΒΑΤΟ 5900 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="str">
-        <v>GPT-0082</v>
+        <v>GPT-0126</v>
       </c>
       <c r="B410" t="str">
-        <v>XEROX PHASER TONER MFP 6121 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 3010 / 3040 BLACK ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="str">
-        <v>GPT-0083</v>
+        <v>GPT-0127</v>
       </c>
       <c r="B411" t="str">
-        <v>XEROX PHASER TONER MFP 6121 CYAN ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK410 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="str">
-        <v>GPT-0084</v>
+        <v>GPT-0128</v>
       </c>
       <c r="B412" t="str">
-        <v>XEROX PHASER TONER MFP 6121 YELLOW ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE505X BLACK ΣΥΜΒΑΤΟ 6500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="str">
-        <v>GPT-0085</v>
+        <v>GPT-0129</v>
       </c>
       <c r="B413" t="str">
-        <v>KONICA MINOLTA TONER 1600 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE285A/CRG725/CB435A/436/CAN712/CAN713 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="str">
-        <v>GPT-0086</v>
+        <v>GPT-0130</v>
       </c>
       <c r="B414" t="str">
-        <v>KONICA MINOLTA TONER 1600 CYAN ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C301/321 BLACK ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="str">
-        <v>GPT-0087</v>
+        <v>GPT-0131</v>
       </c>
       <c r="B415" t="str">
-        <v>KONICA MINOLTA TONER 1600 MAGENTA ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE255A BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="str">
-        <v>GPT-0088</v>
+        <v>GPT-0132</v>
       </c>
       <c r="B416" t="str">
-        <v>KONICA MINOLTA TONER 1600 YELLOW ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE255X BLACK ΣΥΜΒΑΤΟ 12500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="str">
-        <v>GPT-0089</v>
+        <v>GPT-0133</v>
       </c>
       <c r="B417" t="str">
-        <v>XEROX PHASER TONER 6125N BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q5949A/7553A BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="str">
-        <v>GPT-0090</v>
+        <v>GPT-0134</v>
       </c>
       <c r="B418" t="str">
-        <v>XEROX PHASER TONER 6125N CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF380X BLACK ΣΥΜΒΑΤΟ 4400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="str">
-        <v>GPT-0092</v>
+        <v>GPT-0135</v>
       </c>
       <c r="B419" t="str">
-        <v>XEROX PHASER TONER 6125N YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q2612X/FX9/FX10/104 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="str">
-        <v>GPT-0093</v>
+        <v>GPT-0136</v>
       </c>
       <c r="B420" t="str">
-        <v>HP TONER C7115X BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C900/50097 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="str">
-        <v>GPT-0094</v>
+        <v>GPT-0137</v>
       </c>
       <c r="B421" t="str">
-        <v>HP TONER Q2624X BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C900/50098 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="str">
-        <v>GPT-0095</v>
+        <v>GPT-0138</v>
       </c>
       <c r="B422" t="str">
-        <v>HP TONER Q7551X BLACK ΣΥΜΒΑΤΟ 13000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C900/50099 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="str">
-        <v>GPT-0096</v>
+        <v>GPT-0139</v>
       </c>
       <c r="B423" t="str">
-        <v>HP TONER C4092A BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C900/50100 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="str">
-        <v>GPT-0097</v>
+        <v>GPT-0140</v>
       </c>
       <c r="B424" t="str">
-        <v>HP TONER C7115A BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF381A CYAN ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="str">
-        <v>GPT-0099</v>
+        <v>GPT-0141</v>
       </c>
       <c r="B425" t="str">
-        <v>SAMSUNG TONER ML2850D/2851DN BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF382A YELLOW ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="str">
-        <v>GPT-0100</v>
+        <v>GPT-0142</v>
       </c>
       <c r="B426" t="str">
-        <v>HP TONER CE400X/507X BLACK ΣΥΜΒΑΤΟ 11000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF383A MAGENTA ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="str">
-        <v>GPT-0101</v>
+        <v>GPT-0143</v>
       </c>
       <c r="B427" t="str">
-        <v>HP TONER CE401A/507A CYAN ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER PH - 1270D BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="str">
-        <v>GPT-0102</v>
+        <v>GPT-0144</v>
       </c>
       <c r="B428" t="str">
-        <v>SAMSUNG TONER MLT-D205X/205E BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CC364A BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΛΕΣ</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="str">
-        <v>GPT-0103</v>
+        <v>GPT-0145</v>
       </c>
       <c r="B429" t="str">
-        <v>HP TONER Q6000 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF360A BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="str">
-        <v>GPT-0104</v>
+        <v>GPT-0146</v>
       </c>
       <c r="B430" t="str">
-        <v>HP TONER Q6001 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF360X BLACK ΣΥΜΒΑΤΟ 12500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="str">
-        <v>GPT-0105</v>
+        <v>GPT-0147</v>
       </c>
       <c r="B431" t="str">
-        <v>HP TONER Q6002 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF410A BLACK ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΛΕΣ</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="str">
-        <v>GPT-0106</v>
+        <v>GPT-0148</v>
       </c>
       <c r="B432" t="str">
-        <v>HP TONER Q6003 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF410X BLACK ΣΥΜΒΑΤΟ 6500 ΣΕΛΙΛΕΣ</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="str">
-        <v>GPT-0107</v>
+        <v>GPT-0149</v>
       </c>
       <c r="B433" t="str">
-        <v>HP TONER Q6471 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF226A BLACK ΣΥΜΒΑΤΟ 3100 ΣΕΛΙΛΕΣ</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="str">
-        <v>GPT-0108</v>
+        <v>GPT-0150</v>
       </c>
       <c r="B434" t="str">
-        <v>HP TONER Q6472 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER 28A - CF228A BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="str">
-        <v>GPT-0109</v>
+        <v>GPT-0151</v>
       </c>
       <c r="B435" t="str">
-        <v>HP TONER Q6473 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF281A BLACK ΣΥΜΒΑΤΟ 10500 ΣΕΛΙΛΕΣ</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="str">
-        <v>GPT-0110</v>
+        <v>GPT-0153</v>
       </c>
       <c r="B436" t="str">
-        <v>HP TONER CB400A BLACK ΣΥΜΒΑΤΟ 7500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3250 - 106R01374 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="str">
-        <v>GPT-0111</v>
+        <v>GPT-0155</v>
       </c>
       <c r="B437" t="str">
-        <v>HP TONER CB401A CYAN ΣΥΜΒΑΤΟ 7500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF361A CYAN ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="str">
-        <v>GPT-0112</v>
+        <v>GPT-0156</v>
       </c>
       <c r="B438" t="str">
-        <v>HP TONER CB402A YELLOW ΣΥΜΒΑΤΟ 7500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF362A YELLOW ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="str">
-        <v>GPT-0113</v>
+        <v>GPT-0157</v>
       </c>
       <c r="B439" t="str">
-        <v>HP TONER CB403A MAGENTA ΣΥΜΒΑΤΟ 7500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF363A MAGENTA ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="str">
-        <v>GPT-0114</v>
+        <v>GPT-0158</v>
       </c>
       <c r="B440" t="str">
-        <v>HP TONER CE402A/507A YELLOW ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF361X CYAN ΣΥΜΒΑΤΟ 9500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="str">
-        <v>GPT-0115</v>
+        <v>GPT-0159</v>
       </c>
       <c r="B441" t="str">
-        <v>HP TONER CE403A/507A MAGENTA ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF362X YELLOW ΣΥΜΒΑΤΟ 9500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="str">
-        <v>GPT-0116</v>
+        <v>GPT-0160</v>
       </c>
       <c r="B442" t="str">
-        <v>OKI TONER B6200 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF363X MAGENTA ΣΥΜΒΑΤΟ 9500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="str">
-        <v>GPT-0117</v>
+        <v>GPT-0161</v>
       </c>
       <c r="B443" t="str">
-        <v>SAMSUNG TONER MLT-D103L BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF411A CYAN ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="str">
-        <v>GPT-0118</v>
+        <v>GPT-0162</v>
       </c>
       <c r="B444" t="str">
-        <v>XEROX TONER 6180 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF412A YELLOW ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="str">
-        <v>GPT-0119</v>
+        <v>GPT-0163</v>
       </c>
       <c r="B445" t="str">
-        <v>XEROX TONER 6180 CYAN ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF413A MAGENTA ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="str">
-        <v>GPT-0120</v>
+        <v>GPT-0164</v>
       </c>
       <c r="B446" t="str">
-        <v>XEROX TONER 6180 MAGENTA ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF411X CYAN ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="str">
-        <v>GPT-0121</v>
+        <v>GPT-0165</v>
       </c>
       <c r="B447" t="str">
-        <v>XEROX TONER 6180 YELLOW ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF412X YELLOW ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="str">
-        <v>GPT-0122</v>
+        <v>GPT-0166</v>
       </c>
       <c r="B448" t="str">
-        <v>XEROX TONER 6280 BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF413X MAGENTA ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="str">
-        <v>GPT-0123</v>
+        <v>GPT-0167</v>
       </c>
       <c r="B449" t="str">
-        <v>XEROX TONER 6280 CYAN ΣΥΜΒΑΤΟ 5900 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF226X BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="str">
-        <v>GPT-0124</v>
+        <v>GPT-0168</v>
       </c>
       <c r="B450" t="str">
-        <v>XEROX TONER 6280 MAGENTA ΣΥΜΒΑΤΟ 5900 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF287A BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="str">
-        <v>GPT-0125</v>
+        <v>GPT-0169</v>
       </c>
       <c r="B451" t="str">
-        <v>XEROX TONER 6280 YELLOW  ΣΥΜΒΑΤΟ 5900 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3315/3325 - 106R02311 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="str">
-        <v>GPT-0126</v>
+        <v>GPT-0170</v>
       </c>
       <c r="B452" t="str">
-        <v>XEROX PHASER TONER 3010 / 3040 BLACK ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT D203L BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="str">
-        <v>GPT-0127</v>
+        <v>GPT-0171</v>
       </c>
       <c r="B453" t="str">
-        <v>KYOCERA TONER TK410 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CC530A/CRG718 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="str">
-        <v>GPT-0128</v>
+        <v>GPT-0172</v>
       </c>
       <c r="B454" t="str">
-        <v>HP TONER CE505X BLACK ΣΥΜΒΑΤΟ 6500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CC531A/CRG718 CYAN ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="str">
-        <v>GPT-0129</v>
+        <v>GPT-0173</v>
       </c>
       <c r="B455" t="str">
-        <v>HP TONER CE285A/CRG725/CB435A/436/CAN712/CAN713 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CC532A/CRG718 YELLOW ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="str">
-        <v>GPT-0130</v>
+        <v>GPT-0174</v>
       </c>
       <c r="B456" t="str">
-        <v>OKI TONER C301/321 BLACK ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CC533A/CRG718 MAGENTA ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="str">
-        <v>GPT-0131</v>
+        <v>GPT-0178</v>
       </c>
       <c r="B457" t="str">
-        <v>HP TONER CE255A BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT D209 D5 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="str">
-        <v>GPT-0132</v>
+        <v>GPT-0180</v>
       </c>
       <c r="B458" t="str">
-        <v>HP TONER CE255X BLACK ΣΥΜΒΑΤΟ 12500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3320 - 106R02307  BLACK   ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="str">
-        <v>GPT-0133</v>
+        <v>GPT-0181</v>
       </c>
       <c r="B459" t="str">
-        <v>HP TONER Q5949A/7553A BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER 201X - CF400X BLACK ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="str">
-        <v>GPT-0134</v>
+        <v>GPT-0182</v>
       </c>
       <c r="B460" t="str">
-        <v>HP TONER CF380X BLACK ΣΥΜΒΑΤΟ 4400 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER 201X - CF401X CYAN ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="str">
-        <v>GPT-0135</v>
+        <v>GPT-0183</v>
       </c>
       <c r="B461" t="str">
-        <v>HP TONER Q2612X/FX9/FX10/104 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER 201X - CF402X YELLOW ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="str">
-        <v>GPT-0136</v>
+        <v>GPT-0184</v>
       </c>
       <c r="B462" t="str">
-        <v>EPSON TONER C900/50097 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER 201X - CF403X MAGENTA ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="str">
-        <v>GPT-0137</v>
+        <v>GPT-0185</v>
       </c>
       <c r="B463" t="str">
-        <v>EPSON TONER C900/50098 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF283X BLACK ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="str">
-        <v>GPT-0138</v>
+        <v>GPT-0186</v>
       </c>
       <c r="B464" t="str">
-        <v>EPSON TONER C900/50099 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D117 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="str">
-        <v>GPT-0139</v>
+        <v>GPT-0187</v>
       </c>
       <c r="B465" t="str">
-        <v>EPSON TONER C900/50100 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3210 / 3220 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="str">
-        <v>GPT-0140</v>
+        <v>GPT-0188</v>
       </c>
       <c r="B466" t="str">
-        <v>HP TONER CF381A CYAN ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER CS 310 YELLOW ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="str">
-        <v>GPT-0141</v>
+        <v>GPT-0189</v>
       </c>
       <c r="B467" t="str">
-        <v>HP TONER CF382A YELLOW ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER MX310/ MX410/ MX510 - 60F2H00 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="str">
-        <v>GPT-0142</v>
+        <v>GPT-0195</v>
       </c>
       <c r="B468" t="str">
-        <v>HP TONER CF383A MAGENTA ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER MS310 - 50F2H00 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="str">
-        <v>GPT-0143</v>
+        <v>GPT-0196</v>
       </c>
       <c r="B469" t="str">
-        <v>RICOH TONER PH - 1270D BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER Y MFP C2030/C2050/C2530/C2550 YELLOW ΣΥΜΒΑΤΟ 5500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="str">
-        <v>GPT-0144</v>
+        <v>GPT-0197</v>
       </c>
       <c r="B470" t="str">
-        <v>HP TONER CC364A BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΛΕΣ</v>
+        <v>RICOH TONER M MFP C2030/C2050/C2530/C2550 MAGENTA ΣΥΜΒΑΤΟ 5500 ΣΕΛΙΔΕΣ -</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="str">
-        <v>GPT-0145</v>
+        <v>GPT-0198</v>
       </c>
       <c r="B471" t="str">
-        <v>HP TONER CF360A BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER SP1000A BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="str">
-        <v>GPT-0146</v>
+        <v>GPT-0200</v>
       </c>
       <c r="B472" t="str">
-        <v>HP TONER CF360X BLACK ΣΥΜΒΑΤΟ 12500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML1610/ML2010/SCX4521 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="str">
-        <v>GPT-0147</v>
+        <v>GPT-0201</v>
       </c>
       <c r="B473" t="str">
-        <v>HP TONER CF410A BLACK ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΛΕΣ</v>
+        <v>SAMSUNG TONER CLT 404S BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="str">
-        <v>GPT-0148</v>
+        <v>GPT-0202</v>
       </c>
       <c r="B474" t="str">
-        <v>HP TONER CF410X BLACK ΣΥΜΒΑΤΟ 6500 ΣΕΛΙΛΕΣ</v>
+        <v>RICOH TONER PH-3210D BLACK ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="str">
-        <v>GPT-0149</v>
+        <v>GPT-0206</v>
       </c>
       <c r="B475" t="str">
-        <v>HP TONER CF226A BLACK ΣΥΜΒΑΤΟ 3100 ΣΕΛΙΛΕΣ</v>
+        <v>HP TONER CE320 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="str">
-        <v>GPT-0150</v>
+        <v>GPT-0207</v>
       </c>
       <c r="B476" t="str">
-        <v>HP TONER 28A - CF228A BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE321 CYAN ΣΥΜΒΑΤΟ 1300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="str">
-        <v>GPT-0151</v>
+        <v>GPT-0208</v>
       </c>
       <c r="B477" t="str">
-        <v>HP TONER CF281A BLACK ΣΥΜΒΑΤΟ 10500 ΣΕΛΙΛΕΣ</v>
+        <v>HP TONER CE323 MAGENTA ΣΥΜΒΑΤΟ 1300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="str">
-        <v>GPT-0153</v>
+        <v>GPT-0209</v>
       </c>
       <c r="B478" t="str">
-        <v>XEROX TONER 3250 - 106R01374 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE322A YELLOW ΣΥΜΒΑΤΟ 1300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="str">
-        <v>GPT-0155</v>
+        <v>GPT-0216</v>
       </c>
       <c r="B479" t="str">
-        <v>HP TONER CF361A CYAN ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER SP100E BLACK ΣΥΜΒΑΤΟ 1200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="str">
-        <v>GPT-0156</v>
+        <v>GPT-0217</v>
       </c>
       <c r="B480" t="str">
-        <v>HP TONER CF362A YELLOW ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER MFP CB380A BLACK ΣΥΜΒΑΤΟ 16500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="str">
-        <v>GPT-0157</v>
+        <v>GPT-0218</v>
       </c>
       <c r="B481" t="str">
-        <v>HP TONER CF363A MAGENTA ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER MFP CB381A CYAN ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="str">
-        <v>GPT-0158</v>
+        <v>GPT-0219</v>
       </c>
       <c r="B482" t="str">
-        <v>HP TONER CF361X CYAN ΣΥΜΒΑΤΟ 9500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER MFP CB382A YELLOW ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="str">
-        <v>GPT-0159</v>
+        <v>GPT-0220</v>
       </c>
       <c r="B483" t="str">
-        <v>HP TONER CF362X YELLOW ΣΥΜΒΑΤΟ 9500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER MFP CB383A MAGENTA ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="str">
-        <v>GPT-0160</v>
+        <v>GPT-0221</v>
       </c>
       <c r="B484" t="str">
-        <v>HP TONER CF363X MAGENTA ΣΥΜΒΑΤΟ 9500 ΣΕΛΙΔΕΣ</v>
+        <v>CANON TONER FX3 BLACK ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="str">
-        <v>GPT-0161</v>
+        <v>GPT-0222</v>
       </c>
       <c r="B485" t="str">
-        <v>HP TONER CF411A CYAN ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER SCX4300/MLT-D109 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="str">
-        <v>GPT-0162</v>
+        <v>GPT-0223</v>
       </c>
       <c r="B486" t="str">
-        <v>HP TONER CF412A YELLOW ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
+        <v>CANON TONER FX8 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="str">
-        <v>GPT-0163</v>
+        <v>GPT-0224</v>
       </c>
       <c r="B487" t="str">
-        <v>HP TONER CF413A MAGENTA ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF210X BLACK ΣΥΜΒΑΤΟ 2400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="str">
-        <v>GPT-0164</v>
+        <v>GPT-0225</v>
       </c>
       <c r="B488" t="str">
-        <v>HP TONER CF411X CYAN ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF211A CYAN ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="str">
-        <v>GPT-0165</v>
+        <v>GPT-0226</v>
       </c>
       <c r="B489" t="str">
-        <v>HP TONER CF412X YELLOW ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF212A YELLOW  ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="str">
-        <v>GPT-0166</v>
+        <v>GPT-0227</v>
       </c>
       <c r="B490" t="str">
-        <v>HP TONER CF413X MAGENTA ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CF213A MAGENTA ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="str">
-        <v>GPT-0167</v>
+        <v>GPT-0228</v>
       </c>
       <c r="B491" t="str">
-        <v>HP TONER CF226X BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE741A CYAN ΣΥΜΒΑΤΟ 7300 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="str">
-        <v>GPT-0168</v>
+        <v>GPT-0229</v>
       </c>
       <c r="B492" t="str">
-        <v>HP TONER CF287A BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK130 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="str">
-        <v>GPT-0169</v>
+        <v>GPT-0230</v>
       </c>
       <c r="B493" t="str">
-        <v>XEROX TONER 3315/3325 - 106R02311 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK160 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="str">
-        <v>GPT-0170</v>
+        <v>GPT-0231</v>
       </c>
       <c r="B494" t="str">
-        <v>SAMSUNG TONER MLT D203L BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q2610A BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="str">
-        <v>GPT-0171</v>
+        <v>GPT-0233</v>
       </c>
       <c r="B495" t="str">
-        <v>HP TONER CC530A/CRG718 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER SP300 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="str">
-        <v>GPT-0172</v>
+        <v>GPT-0234</v>
       </c>
       <c r="B496" t="str">
-        <v>HP TONER CC531A/CRG718 CYAN ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER N2550 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="str">
-        <v>GPT-0173</v>
+        <v>GPT-0235</v>
       </c>
       <c r="B497" t="str">
-        <v>HP TONER CC532A/CRG718 YELLOW ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC TONER FAT411 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="str">
-        <v>GPT-0174</v>
+        <v>GPT-0236</v>
       </c>
       <c r="B498" t="str">
-        <v>HP TONER CC533A/CRG718 MAGENTA ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC TONER FAT83 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="str">
-        <v>GPT-0178</v>
+        <v>GPT-0237</v>
       </c>
       <c r="B499" t="str">
-        <v>SAMSUNG TONER MLT D209 D5 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC TONER FAT88 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="str">
-        <v>GPT-0180</v>
+        <v>GPT-0238</v>
       </c>
       <c r="B500" t="str">
-        <v>XEROX TONER 3320 - 106R02307  BLACK   ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC TONER KX FAT92 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="str">
-        <v>GPT-0181</v>
+        <v>GPT-0239</v>
       </c>
       <c r="B501" t="str">
-        <v>HP TONER 201X - CF400X BLACK ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP 504S/410/415/4195 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="str">
-        <v>GPT-0182</v>
+        <v>GPT-0240</v>
       </c>
       <c r="B502" t="str">
-        <v>HP TONER 201X - CF401X CYAN ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP 504S/410/415/4195 CYAN ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="str">
-        <v>GPT-0183</v>
+        <v>GPT-0241</v>
       </c>
       <c r="B503" t="str">
-        <v>HP TONER 201X - CF402X YELLOW ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP 504S/410/415/4195 MAGENTA  ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="str">
-        <v>GPT-0184</v>
+        <v>GPT-0242</v>
       </c>
       <c r="B504" t="str">
-        <v>HP TONER 201X - CF403X MAGENTA ΣΥΜΒΑΤΟ 2300 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP 504S/410/415/4195 YELLOW  ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="str">
-        <v>GPT-0185</v>
+        <v>GPT-0243</v>
       </c>
       <c r="B505" t="str">
-        <v>HP TONER CF283X BLACK ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN6600/TN460/560/570/TN3060 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="str">
-        <v>GPT-0186</v>
+        <v>GPT-0244</v>
       </c>
       <c r="B506" t="str">
-        <v>SAMSUNG TONER MLT-D117 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE250X BLACK ΣΥΜΒΑΤΟ 10500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="str">
-        <v>GPT-0187</v>
+        <v>GPT-0245</v>
       </c>
       <c r="B507" t="str">
-        <v>XEROX TONER 3210 / 3220 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE251A CYAN ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="str">
-        <v>GPT-0188</v>
+        <v>GPT-0246</v>
       </c>
       <c r="B508" t="str">
-        <v>LEXMARK TONER CS 310 YELLOW ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE252A YELLOW ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="str">
-        <v>GPT-0189</v>
+        <v>GPT-0247</v>
       </c>
       <c r="B509" t="str">
-        <v>LEXMARK TONER MX310/ MX410/ MX510 - 60F2H00 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE253A MAGENTA ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="str">
-        <v>GPT-0195</v>
+        <v>GPT-0250</v>
       </c>
       <c r="B510" t="str">
-        <v>LEXMARK TONER MS310 - 50F2H00 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER C4129X BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="str">
-        <v>GPT-0196</v>
+        <v>GPT-0251</v>
       </c>
       <c r="B511" t="str">
-        <v>RICOH TONER Y MFP C2030/C2050/C2530/C2550 YELLOW ΣΥΜΒΑΤΟ 5500 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK-170 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="str">
-        <v>GPT-0197</v>
+        <v>GPT-0252</v>
       </c>
       <c r="B512" t="str">
-        <v>RICOH TONER M MFP C2030/C2050/C2530/C2550 MAGENTA ΣΥΜΒΑΤΟ 5500 ΣΕΛΙΔΕΣ -</v>
+        <v>KYOCERA TONER TK18 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="str">
-        <v>GPT-0198</v>
+        <v>GPT-0253</v>
       </c>
       <c r="B513" t="str">
-        <v>RICOH TONER SP1000A BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK17 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="str">
-        <v>GPT-0200</v>
+        <v>GPT-0254</v>
       </c>
       <c r="B514" t="str">
-        <v>SAMSUNG TONER ML1610/ML2010/SCX4521 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B4100/4200/4250/4300/4350 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="str">
-        <v>GPT-0201</v>
+        <v>GPT-0255</v>
       </c>
       <c r="B515" t="str">
-        <v>SAMSUNG TONER CLT 404S BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C3300/3400/3450 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="str">
-        <v>GPT-0202</v>
+        <v>GPT-0256</v>
       </c>
       <c r="B516" t="str">
-        <v>RICOH TONER PH-3210D BLACK ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C3300/3400/3450 CYAN ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="str">
-        <v>GPT-0206</v>
+        <v>GPT-0257</v>
       </c>
       <c r="B517" t="str">
-        <v>HP TONER CE320 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C3300/3400/3450 MAGENTA ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="str">
-        <v>GPT-0207</v>
+        <v>GPT-0258</v>
       </c>
       <c r="B518" t="str">
-        <v>HP TONER CE321 CYAN ΣΥΜΒΑΤΟ 1300 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C3300/3400/3450 YELLOW ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="str">
-        <v>GPT-0208</v>
+        <v>GPT-0259</v>
       </c>
       <c r="B519" t="str">
-        <v>HP TONER CE323 MAGENTA ΣΥΜΒΑΤΟ 1300 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER C MFP C2030/C2050/C2530/C2550 CYAN ΣΥΜΒΑΤΟ 5500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="str">
-        <v>GPT-0209</v>
+        <v>GPT-0260</v>
       </c>
       <c r="B520" t="str">
-        <v>HP TONER CE322A YELLOW ΣΥΜΒΑΤΟ 1300 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK120 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="str">
-        <v>GPT-0216</v>
+        <v>GPT-0261</v>
       </c>
       <c r="B521" t="str">
-        <v>RICOH TONER SP100E BLACK ΣΥΜΒΑΤΟ 1200 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q5942X BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="str">
-        <v>GPT-0217</v>
+        <v>GPT-0262</v>
       </c>
       <c r="B522" t="str">
-        <v>HP TONER MFP CB380A BLACK ΣΥΜΒΑΤΟ 16500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D203E BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="str">
-        <v>GPT-0218</v>
+        <v>GPT-0263</v>
       </c>
       <c r="B523" t="str">
-        <v>HP TONER MFP CB381A CYAN ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C1700 - 50614 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="str">
-        <v>GPT-0219</v>
+        <v>GPT-0264</v>
       </c>
       <c r="B524" t="str">
-        <v>HP TONER MFP CB382A YELLOW ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE390A BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="str">
-        <v>GPT-0220</v>
+        <v>GPT-0265</v>
       </c>
       <c r="B525" t="str">
-        <v>HP TONER MFP CB383A MAGENTA ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML3470 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="str">
-        <v>GPT-0221</v>
+        <v>GPT-0267</v>
       </c>
       <c r="B526" t="str">
-        <v>CANON TONER FX3 BLACK ΣΥΜΒΑΤΟ 2700 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C2800 - ES051158 YELLOW ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="str">
-        <v>GPT-0222</v>
+        <v>GPT-0268</v>
       </c>
       <c r="B527" t="str">
-        <v>SAMSUNG TONER SCX4300/MLT-D109 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C2800 - ES051159 MAGENTA ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="str">
-        <v>GPT-0223</v>
+        <v>GPT-0269</v>
       </c>
       <c r="B528" t="str">
-        <v>CANON TONER FX8 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C2800 - ES051160 CYAN ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="str">
-        <v>GPT-0224</v>
+        <v>GPT-0270</v>
       </c>
       <c r="B529" t="str">
-        <v>HP TONER CF210X BLACK ΣΥΜΒΑΤΟ 2400 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C2800 - ES051161 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="str">
-        <v>GPT-0225</v>
+        <v>GPT-0271</v>
       </c>
       <c r="B530" t="str">
-        <v>HP TONER CF211A CYAN ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER C8543X BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="str">
-        <v>GPT-0226</v>
+        <v>GPT-0272</v>
       </c>
       <c r="B531" t="str">
-        <v>HP TONER CF212A YELLOW  ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN3170/3130/TN580 BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="str">
-        <v>GPT-0227</v>
+        <v>GPT-0273</v>
       </c>
       <c r="B532" t="str">
-        <v>HP TONER CF213A MAGENTA ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3215 - 106R02777 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="str">
-        <v>GPT-0228</v>
+        <v>GPT-0274</v>
       </c>
       <c r="B533" t="str">
-        <v>HP TONER CE741A CYAN ΣΥΜΒΑΤΟ 7300 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q7551A BLACK ΣΥΜΒΑΤΟ 6500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="str">
-        <v>GPT-0229</v>
+        <v>GPT-0275</v>
       </c>
       <c r="B534" t="str">
-        <v>KYOCERA TONER TK130 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C510/C530/MC561 CYAN ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="str">
-        <v>GPT-0230</v>
+        <v>GPT-0276</v>
       </c>
       <c r="B535" t="str">
-        <v>KYOCERA TONER TK160 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER C1700 - 50613 CYAN ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="str">
-        <v>GPT-0231</v>
+        <v>GPT-0277</v>
       </c>
       <c r="B536" t="str">
-        <v>HP TONER Q2610A BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE390X BLACK ΣΥΜΒΑΤΟ 24000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="str">
-        <v>GPT-0233</v>
+        <v>GPT-0278</v>
       </c>
       <c r="B537" t="str">
-        <v>RICOH TONER SP300 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q2613A BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="str">
-        <v>GPT-0234</v>
+        <v>GPT-0279</v>
       </c>
       <c r="B538" t="str">
-        <v>EPSON TONER N2550 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>CANON TONER EP26A/EP27/25X BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="str">
-        <v>GPT-0235</v>
+        <v>GPT-0280</v>
       </c>
       <c r="B539" t="str">
-        <v>PANASONIC TONER FAT411 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 3380 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="str">
-        <v>GPT-0236</v>
+        <v>GPT-0281</v>
       </c>
       <c r="B540" t="str">
-        <v>PANASONIC TONER FAT83 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 2220/ΤΝ 450/ΤΝ 2200/ΤΝ 2010 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="str">
-        <v>GPT-0237</v>
+        <v>GPT-0282</v>
       </c>
       <c r="B541" t="str">
-        <v>PANASONIC TONER FAT88 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN2120/TN360 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="str">
-        <v>GPT-0238</v>
+        <v>GPT-0283</v>
       </c>
       <c r="B542" t="str">
-        <v>PANASONIC TONER KX FAT92 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN2000 / TN350 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="str">
-        <v>GPT-0239</v>
+        <v>GPT-0284</v>
       </c>
       <c r="B543" t="str">
-        <v>SAMSUNG TONER CLP 504S/410/415/4195 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 650/3290/TN 3280/TN 3170 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="str">
-        <v>GPT-0240</v>
+        <v>GPT-0285</v>
       </c>
       <c r="B544" t="str">
-        <v>SAMSUNG TONER CLP 504S/410/415/4195 CYAN ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN620 /TN3230 /TN3240 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="str">
-        <v>GPT-0241</v>
+        <v>GPT-0286</v>
       </c>
       <c r="B545" t="str">
-        <v>SAMSUNG TONER CLP 504S/410/415/4195 MAGENTA  ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 8000/TN 300/200/250 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="str">
-        <v>GPT-0242</v>
+        <v>GPT-0287</v>
       </c>
       <c r="B546" t="str">
-        <v>SAMSUNG TONER CLP 504S/410/415/4195 YELLOW  ΣΥΜΒΑΤΟ 1800 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN1050 (TN1030)  BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="str">
-        <v>GPT-0243</v>
+        <v>GPT-0288</v>
       </c>
       <c r="B547" t="str">
-        <v>BROTHER TONER TN6600/TN460/560/570/TN3060 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MP2501 BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="str">
-        <v>GPT-0244</v>
+        <v>GPT-0289</v>
       </c>
       <c r="B548" t="str">
-        <v>HP TONER CE250X BLACK ΣΥΜΒΑΤΟ 10500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML 3050 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="str">
-        <v>GPT-0245</v>
+        <v>GPT-0290</v>
       </c>
       <c r="B549" t="str">
-        <v>HP TONER CE251A CYAN ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D2082L BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="str">
-        <v>GPT-0246</v>
+        <v>GPT-0291</v>
       </c>
       <c r="B550" t="str">
-        <v>HP TONER CE252A YELLOW ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER SCX4725A BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="str">
-        <v>GPT-0247</v>
+        <v>GPT-0292</v>
       </c>
       <c r="B551" t="str">
-        <v>HP TONER CE253A MAGENTA ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP300 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="str">
-        <v>GPT-0250</v>
+        <v>GPT-0293</v>
       </c>
       <c r="B552" t="str">
-        <v>HP TONER C4129X BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP300 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="str">
-        <v>GPT-0251</v>
+        <v>GPT-0294</v>
       </c>
       <c r="B553" t="str">
-        <v>KYOCERA TONER TK-170 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP300 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="str">
-        <v>GPT-0252</v>
+        <v>GPT-0295</v>
       </c>
       <c r="B554" t="str">
-        <v>KYOCERA TONER TK18 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP300 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="str">
-        <v>GPT-0253</v>
+        <v>GPT-0296</v>
       </c>
       <c r="B555" t="str">
-        <v>KYOCERA TONER TK17 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML1630/SCX4500 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="str">
-        <v>GPT-0254</v>
+        <v>GPT-0297</v>
       </c>
       <c r="B556" t="str">
-        <v>OKI TONER B4100/4200/4250/4300/4350 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML2250 D5 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="str">
-        <v>GPT-0255</v>
+        <v>GPT-0298</v>
       </c>
       <c r="B557" t="str">
-        <v>OKI TONER C3300/3400/3450 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D307L BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="str">
-        <v>GPT-0256</v>
+        <v>GPT-0299</v>
       </c>
       <c r="B558" t="str">
-        <v>OKI TONER C3300/3400/3450 CYAN ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MLT-D305L BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ -</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="str">
-        <v>GPT-0257</v>
+        <v>GPT-0300</v>
       </c>
       <c r="B559" t="str">
-        <v>OKI TONER C3300/3400/3450 MAGENTA ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER D1320 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="str">
-        <v>GPT-0258</v>
+        <v>GPT-0301</v>
       </c>
       <c r="B560" t="str">
-        <v>OKI TONER C3300/3400/3450 YELLOW ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER D1320 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="str">
-        <v>GPT-0259</v>
+        <v>GPT-0302</v>
       </c>
       <c r="B561" t="str">
-        <v>RICOH TONER C MFP C2030/C2050/C2530/C2550 CYAN ΣΥΜΒΑΤΟ 5500 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER 1260 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="str">
-        <v>GPT-0260</v>
+        <v>GPT-0303</v>
       </c>
       <c r="B562" t="str">
-        <v>KYOCERA TONER TK120 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER 1250/1350 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="str">
-        <v>GPT-0261</v>
+        <v>GPT-0304</v>
       </c>
       <c r="B563" t="str">
-        <v>HP TONER Q5942X BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER 1250/1350 CYAN ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="str">
-        <v>GPT-0262</v>
+        <v>GPT-0305</v>
       </c>
       <c r="B564" t="str">
-        <v>SAMSUNG TONER MLT-D203E BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER 1250/1350 MAGENTA ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="str">
-        <v>GPT-0263</v>
+        <v>GPT-0306</v>
       </c>
       <c r="B565" t="str">
-        <v>EPSON TONER C1700 - 50614 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER 1250/1350 YELLOW ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="str">
-        <v>GPT-0264</v>
+        <v>GPT-0307</v>
       </c>
       <c r="B566" t="str">
-        <v>HP TONER CE390A BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER M2300 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="str">
-        <v>GPT-0265</v>
+        <v>GPT-0308</v>
       </c>
       <c r="B567" t="str">
-        <v>SAMSUNG TONER ML3470 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER M2400 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="str">
-        <v>GPT-0267</v>
+        <v>GPT-0309</v>
       </c>
       <c r="B568" t="str">
-        <v>EPSON TONER C2800 - ES051158 YELLOW ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER M200 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="str">
-        <v>GPT-0268</v>
+        <v>GPT-0310</v>
       </c>
       <c r="B569" t="str">
-        <v>EPSON TONER C2800 - ES051159 MAGENTA ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>SHARP TONER SAR016LT BLACK ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="str">
-        <v>GPT-0269</v>
+        <v>GPT-0311</v>
       </c>
       <c r="B570" t="str">
-        <v>EPSON TONER C2800 - ES051160 CYAN ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>SHARP TONER SAR270LT BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="str">
-        <v>GPT-0270</v>
+        <v>GPT-0312</v>
       </c>
       <c r="B571" t="str">
-        <v>EPSON TONER C2800 - ES051161 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER PH-1250D BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="str">
-        <v>GPT-0271</v>
+        <v>GPT-0313</v>
       </c>
       <c r="B572" t="str">
-        <v>HP TONER C8543X BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER PH-3200D BLACK ΣΥΜΒΑΤΟ 27000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="str">
-        <v>GPT-0272</v>
+        <v>GPT-0314</v>
       </c>
       <c r="B573" t="str">
-        <v>BROTHER TONER TN3170/3130/TN580 BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER PH-3205D BLACK ΣΥΜΒΑΤΟ 23000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="str">
-        <v>GPT-0273</v>
+        <v>GPT-0315</v>
       </c>
       <c r="B574" t="str">
-        <v>XEROX TONER 3215 - 106R02777 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP SP3400/3410/3500 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="str">
-        <v>GPT-0274</v>
+        <v>GPT-0316</v>
       </c>
       <c r="B575" t="str">
-        <v>HP TONER Q7551A BLACK ΣΥΜΒΑΤΟ 6500 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC TONER KX FA76A BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="str">
-        <v>GPT-0275</v>
+        <v>GPT-0317</v>
       </c>
       <c r="B576" t="str">
-        <v>OKI TONER C510/C530/MC561 CYAN ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B2500/2520FP/2540 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="str">
-        <v>GPT-0276</v>
+        <v>GPT-0318</v>
       </c>
       <c r="B577" t="str">
-        <v>EPSON TONER C1700 - 50613 CYAN ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK340 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="str">
-        <v>GPT-0277</v>
+        <v>GPT-0319</v>
       </c>
       <c r="B578" t="str">
-        <v>HP TONER CE390X BLACK ΣΥΜΒΑΤΟ 24000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK350 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="str">
-        <v>GPT-0278</v>
+        <v>GPT-0320</v>
       </c>
       <c r="B579" t="str">
-        <v>HP TONER Q2613A BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK - 360 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="str">
-        <v>GPT-0279</v>
+        <v>GPT-0321</v>
       </c>
       <c r="B580" t="str">
-        <v>CANON TONER EP26A/EP27/25X BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER MFP TK1140 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="str">
-        <v>GPT-0280</v>
+        <v>GPT-0322</v>
       </c>
       <c r="B581" t="str">
-        <v>BROTHER TONER TN 3380 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER MFP TK1030/TK1130 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="str">
-        <v>GPT-0281</v>
+        <v>GPT-0323</v>
       </c>
       <c r="B582" t="str">
-        <v>BROTHER TONER TN 2220/ΤΝ 450/ΤΝ 2200/ΤΝ 2010 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER TN 116 BLACK ΣΥΜΒΑΤΟ 11000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="str">
-        <v>GPT-0282</v>
+        <v>GPT-0324</v>
       </c>
       <c r="B583" t="str">
-        <v>BROTHER TONER TN2120/TN360 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER TN 118 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="str">
-        <v>GPT-0283</v>
+        <v>GPT-0325</v>
       </c>
       <c r="B584" t="str">
-        <v>BROTHER TONER TN2000 / TN350 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER TN 211 BLACK ΣΥΜΒΑΤΟ 17500 ΣΕΛΙΔΕΣ -</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="str">
-        <v>GPT-0284</v>
+        <v>GPT-0326</v>
       </c>
       <c r="B585" t="str">
-        <v>BROTHER TONER TN 650/3290/TN 3280/TN 3170 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER TN 217 BLACK ΣΥΜΒΑΤΟ 17500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="str">
-        <v>GPT-0285</v>
+        <v>GPT-0327</v>
       </c>
       <c r="B586" t="str">
-        <v>BROTHER TONER TN620 /TN3230 /TN3240 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>KONICA MINOLTA TONER TN320 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="str">
-        <v>GPT-0286</v>
+        <v>GPT-0330</v>
       </c>
       <c r="B587" t="str">
-        <v>BROTHER TONER TN 8000/TN 300/200/250 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q1338A BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="str">
-        <v>GPT-0287</v>
+        <v>GPT-0331</v>
       </c>
       <c r="B588" t="str">
-        <v>BROTHER TONER TN1050 (TN1030)  BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER M2300S BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="str">
-        <v>GPT-0288</v>
+        <v>GPT-0332</v>
       </c>
       <c r="B589" t="str">
-        <v>RICOH TONER MP2501 BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER CE264X BLACK ΣΥΜΒΑΤΟ 17000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="str">
-        <v>GPT-0289</v>
+        <v>GPT-0333</v>
       </c>
       <c r="B590" t="str">
-        <v>SAMSUNG TONER ML 3050 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER 305X CE410X BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="str">
-        <v>GPT-0290</v>
+        <v>GPT-0334</v>
       </c>
       <c r="B591" t="str">
-        <v>SAMSUNG TONER MLT-D2082L BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER 305X CE411A CYAN ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="str">
-        <v>GPT-0291</v>
+        <v>GPT-0335</v>
       </c>
       <c r="B592" t="str">
-        <v>SAMSUNG TONER SCX4725A BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER 305A CE412A YELLOW ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="str">
-        <v>GPT-0292</v>
+        <v>GPT-0336</v>
       </c>
       <c r="B593" t="str">
-        <v>SAMSUNG TONER CLP300 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER 305A CE413A MAGENTA ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="str">
-        <v>GPT-0293</v>
+        <v>GPT-0337</v>
       </c>
       <c r="B594" t="str">
-        <v>SAMSUNG TONER CLP300 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER SCX4200 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="str">
-        <v>GPT-0294</v>
+        <v>GPT-0338</v>
       </c>
       <c r="B595" t="str">
-        <v>SAMSUNG TONER CLP300 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6511A BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="str">
-        <v>GPT-0295</v>
+        <v>GPT-0339</v>
       </c>
       <c r="B596" t="str">
-        <v>SAMSUNG TONER CLP300 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER C6130 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="str">
-        <v>GPT-0296</v>
+        <v>GPT-0340</v>
       </c>
       <c r="B597" t="str">
-        <v>SAMSUNG TONER ML1630/SCX4500 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER C6130 CYAN ΣΥΜΒΑΤΟ 1900 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="str">
-        <v>GPT-0297</v>
+        <v>GPT-0341</v>
       </c>
       <c r="B598" t="str">
-        <v>SAMSUNG TONER ML2250 D5 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER C6130 MAGENTA ΣΥΜΒΑΤΟ 1900 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="str">
-        <v>GPT-0298</v>
+        <v>GPT-0342</v>
       </c>
       <c r="B599" t="str">
-        <v>SAMSUNG TONER MLT-D307L BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER C6130 YELLOW ΣΥΜΒΑΤΟ 1900 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="str">
-        <v>GPT-0299</v>
+        <v>GPT-0343</v>
       </c>
       <c r="B600" t="str">
-        <v>SAMSUNG TONER MLT-D305L BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ -</v>
+        <v>SAMSUNG TONER MLT-D2082S BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="str">
-        <v>GPT-0300</v>
+        <v>GPT-0344</v>
       </c>
       <c r="B601" t="str">
-        <v>DELL TONER D1320 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER PH-2210D BLACK ΣΥΜΒΑΤΟ 11000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="str">
-        <v>GPT-0301</v>
+        <v>GPT-0345</v>
       </c>
       <c r="B602" t="str">
-        <v>DELL TONER D1320 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER BK MFP C2030/C2050/C2530/C2550 BLACK ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="str">
-        <v>GPT-0302</v>
+        <v>GPT-0346</v>
       </c>
       <c r="B603" t="str">
-        <v>DELL TONER 1260 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP C2000/2500/3000 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="str">
-        <v>GPT-0303</v>
+        <v>GPT-0347</v>
       </c>
       <c r="B604" t="str">
-        <v>DELL TONER 1250/1350 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP C2000/2500/3000 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="str">
-        <v>GPT-0304</v>
+        <v>GPT-0348</v>
       </c>
       <c r="B605" t="str">
-        <v>DELL TONER 1250/1350 CYAN ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP C2000/2500/3000 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="str">
-        <v>GPT-0305</v>
+        <v>GPT-0349</v>
       </c>
       <c r="B606" t="str">
-        <v>DELL TONER 1250/1350 MAGENTA ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP C2000/2500/3000 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="str">
-        <v>GPT-0306</v>
+        <v>GPT-0350</v>
       </c>
       <c r="B607" t="str">
-        <v>DELL TONER 1250/1350 YELLOW ΣΥΜΒΑΤΟ 1400 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP CL4000 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="str">
-        <v>GPT-0307</v>
+        <v>GPT-0351</v>
       </c>
       <c r="B608" t="str">
-        <v>EPSON TONER M2300 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP CL4000 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="str">
-        <v>GPT-0308</v>
+        <v>GPT-0352</v>
       </c>
       <c r="B609" t="str">
-        <v>EPSON TONER M2400 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP CL4000 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="str">
-        <v>GPT-0309</v>
+        <v>GPT-0353</v>
       </c>
       <c r="B610" t="str">
-        <v>EPSON TONER M200 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP CL4000 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="str">
-        <v>GPT-0310</v>
+        <v>GPT-0354</v>
       </c>
       <c r="B611" t="str">
-        <v>SHARP TONER SAR016LT BLACK ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP SP3500/3510 BLACK ΣΥΜΒΑΤΟ 6400 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="str">
-        <v>GPT-0311</v>
+        <v>GPT-0355</v>
       </c>
       <c r="B612" t="str">
-        <v>SHARP TONER SAR270LT BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 331/321 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="str">
-        <v>GPT-0312</v>
+        <v>GPT-0356</v>
       </c>
       <c r="B613" t="str">
-        <v>RICOH TONER PH-1250D BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 331/321 CYAN ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="str">
-        <v>GPT-0313</v>
+        <v>GPT-0357</v>
       </c>
       <c r="B614" t="str">
-        <v>RICOH TONER PH-3200D BLACK ΣΥΜΒΑΤΟ 27000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 331/321 MAGENTA ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="str">
-        <v>GPT-0314</v>
+        <v>GPT-0358</v>
       </c>
       <c r="B615" t="str">
-        <v>RICOH TONER PH-3205D BLACK ΣΥΜΒΑΤΟ 23000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 331/321 YELLOW ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="str">
-        <v>GPT-0315</v>
+        <v>GPT-0359</v>
       </c>
       <c r="B616" t="str">
-        <v>RICOH TONER MFP SP3400/3410/3500 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 336/326 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="str">
-        <v>GPT-0316</v>
+        <v>GPT-0360</v>
       </c>
       <c r="B617" t="str">
-        <v>PANASONIC TONER KX FA76A BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 336/326 CYAN ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="str">
-        <v>GPT-0317</v>
+        <v>GPT-0361</v>
       </c>
       <c r="B618" t="str">
-        <v>OKI TONER B2500/2520FP/2540 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 336/326 MAGENTA ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="str">
-        <v>GPT-0318</v>
+        <v>GPT-0362</v>
       </c>
       <c r="B619" t="str">
-        <v>KYOCERA TONER TK340 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN 336/326 YELLOW ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="str">
-        <v>GPT-0319</v>
+        <v>GPT-0363</v>
       </c>
       <c r="B620" t="str">
-        <v>KYOCERA TONER TK350 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN2310/TN2320 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="str">
-        <v>GPT-0320</v>
+        <v>GPT-0364</v>
       </c>
       <c r="B621" t="str">
-        <v>KYOCERA TONER TK - 360 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER C1660W BLACK ΣΥΜΒΑΤΟ 1250 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="str">
-        <v>GPT-0321</v>
+        <v>GPT-0365</v>
       </c>
       <c r="B622" t="str">
-        <v>KYOCERA TONER MFP TK1140 BLACK ΣΥΜΒΑΤΟ 7200 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER C1660W CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="str">
-        <v>GPT-0322</v>
+        <v>GPT-0366</v>
       </c>
       <c r="B623" t="str">
-        <v>KYOCERA TONER MFP TK1030/TK1130 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER C1660W MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="str">
-        <v>GPT-0323</v>
+        <v>GPT-0367</v>
       </c>
       <c r="B624" t="str">
-        <v>KONICA MINOLTA TONER TN 116 BLACK ΣΥΜΒΑΤΟ 11000 ΣΕΛΙΔΕΣ</v>
+        <v>DELL TONER C1660W YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="str">
-        <v>GPT-0324</v>
+        <v>GPT-0368</v>
       </c>
       <c r="B625" t="str">
-        <v>KONICA MINOLTA TONER TN 118 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK 580 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="str">
-        <v>GPT-0325</v>
+        <v>GPT-0369</v>
       </c>
       <c r="B626" t="str">
-        <v>KONICA MINOLTA TONER TN 211 BLACK ΣΥΜΒΑΤΟ 17500 ΣΕΛΙΔΕΣ -</v>
+        <v>KYOCERA TONER TK 580 CYAN ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="str">
-        <v>GPT-0326</v>
+        <v>GPT-0370</v>
       </c>
       <c r="B627" t="str">
-        <v>KONICA MINOLTA TONER TN 217 BLACK ΣΥΜΒΑΤΟ 17500 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK 580 MAGENTA ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="str">
-        <v>GPT-0327</v>
+        <v>GPT-0371</v>
       </c>
       <c r="B628" t="str">
-        <v>KONICA MINOLTA TONER TN320 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK 580 YELLOW ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="str">
-        <v>GPT-0330</v>
+        <v>GPT-0372</v>
       </c>
       <c r="B629" t="str">
-        <v>HP TONER Q1338A BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK560 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="str">
-        <v>GPT-0331</v>
+        <v>GPT-0373</v>
       </c>
       <c r="B630" t="str">
-        <v>EPSON TONER M2300S BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK560 CYAN ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="str">
-        <v>GPT-0332</v>
+        <v>GPT-0374</v>
       </c>
       <c r="B631" t="str">
-        <v>HP TONER CE264X BLACK ΣΥΜΒΑΤΟ 17000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK560 MAGENTA ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="str">
-        <v>GPT-0333</v>
+        <v>GPT-0375</v>
       </c>
       <c r="B632" t="str">
-        <v>HP TONER 305X CE410X BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK560 YELLOW ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="str">
-        <v>GPT-0334</v>
+        <v>GPT-0376</v>
       </c>
       <c r="B633" t="str">
-        <v>HP TONER 305X CE411A CYAN ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK 520 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="str">
-        <v>GPT-0335</v>
+        <v>GPT-0377</v>
       </c>
       <c r="B634" t="str">
-        <v>HP TONER 305A CE412A YELLOW ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK 520 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="str">
-        <v>GPT-0336</v>
+        <v>GPT-0378</v>
       </c>
       <c r="B635" t="str">
-        <v>HP TONER 305A CE413A MAGENTA ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK 520 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="str">
-        <v>GPT-0337</v>
+        <v>GPT-0379</v>
       </c>
       <c r="B636" t="str">
-        <v>SAMSUNG TONER SCX4200 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK 520 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="str">
-        <v>GPT-0338</v>
+        <v>GPT-0380</v>
       </c>
       <c r="B637" t="str">
-        <v>HP TONER Q6511A BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP C811 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="str">
-        <v>GPT-0339</v>
+        <v>GPT-0381</v>
       </c>
       <c r="B638" t="str">
-        <v>XEROX TONER C6130 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP C811 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="str">
-        <v>GPT-0340</v>
+        <v>GPT-0383</v>
       </c>
       <c r="B639" t="str">
-        <v>XEROX TONER C6130 CYAN ΣΥΜΒΑΤΟ 1900 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP C811 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="str">
-        <v>GPT-0341</v>
+        <v>GPT-0384</v>
       </c>
       <c r="B640" t="str">
-        <v>XEROX TONER C6130 MAGENTA ΣΥΜΒΑΤΟ 1900 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MFP C811 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="str">
-        <v>GPT-0342</v>
+        <v>GPT-0387</v>
       </c>
       <c r="B641" t="str">
-        <v>XEROX TONER C6130 YELLOW ΣΥΜΒΑΤΟ 1900 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER C540H2YG YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="str">
-        <v>GPT-0343</v>
+        <v>GPT-0388</v>
       </c>
       <c r="B642" t="str">
-        <v>SAMSUNG TONER MLT-D2082S BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER MFP 6121 MAGENTA ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="str">
-        <v>GPT-0344</v>
+        <v>GPT-0389</v>
       </c>
       <c r="B643" t="str">
-        <v>RICOH TONER PH-2210D BLACK ΣΥΜΒΑΤΟ 11000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 6125N MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="str">
-        <v>GPT-0345</v>
+        <v>GPT-0390</v>
       </c>
       <c r="B644" t="str">
-        <v>RICOH TONER BK MFP C2030/C2050/C2530/C2550 BLACK ΣΥΜΒΑΤΟ</v>
+        <v>SAMSUNG TONER CLP - 610/660 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="str">
-        <v>GPT-0346</v>
+        <v>GPT-0391</v>
       </c>
       <c r="B645" t="str">
-        <v>RICOH TONER MFP C2000/2500/3000 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP - 610/660 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="str">
-        <v>GPT-0347</v>
+        <v>GPT-0392</v>
       </c>
       <c r="B646" t="str">
-        <v>RICOH TONER MFP C2000/2500/3000 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP - 610/660 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="str">
-        <v>GPT-0348</v>
+        <v>GPT-0393</v>
       </c>
       <c r="B647" t="str">
-        <v>RICOH TONER MFP C2000/2500/3000 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP - 610/660 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="str">
-        <v>GPT-0349</v>
+        <v>GPT-0394</v>
       </c>
       <c r="B648" t="str">
-        <v>RICOH TONER MFP C2000/2500/3000 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6500 CYAN ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="str">
-        <v>GPT-0350</v>
+        <v>GPT-0395</v>
       </c>
       <c r="B649" t="str">
-        <v>RICOH TONER MFP CL4000 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3325 - 106R02313 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="str">
-        <v>GPT-0351</v>
+        <v>GPT-0396</v>
       </c>
       <c r="B650" t="str">
-        <v>RICOH TONER MFP CL4000 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6500 MAGENTA ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="str">
-        <v>GPT-0352</v>
+        <v>GPT-0397</v>
       </c>
       <c r="B651" t="str">
-        <v>RICOH TONER MFP CL4000 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6500 YELLOW ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="str">
-        <v>GPT-0353</v>
+        <v>GPT-0398</v>
       </c>
       <c r="B652" t="str">
-        <v>RICOH TONER MFP CL4000 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 6500 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="str">
-        <v>GPT-0354</v>
+        <v>GPT-0399</v>
       </c>
       <c r="B653" t="str">
-        <v>RICOH TONER MFP SP3500/3510 BLACK ΣΥΜΒΑΤΟ 6400 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3210/3220 BLACK ΣΥΜΒΑΤΟ 4100 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="str">
-        <v>GPT-0355</v>
+        <v>GPT-0400</v>
       </c>
       <c r="B654" t="str">
-        <v>BROTHER TONER TN 331/321 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 3320 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="str">
-        <v>GPT-0356</v>
+        <v>GPT-0401</v>
       </c>
       <c r="B655" t="str">
-        <v>BROTHER TONER TN 331/321 CYAN ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN241 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="str">
-        <v>GPT-0357</v>
+        <v>GPT-0402</v>
       </c>
       <c r="B656" t="str">
-        <v>BROTHER TONER TN 331/321 MAGENTA ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN245 CYAN ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="str">
-        <v>GPT-0358</v>
+        <v>GPT-0403</v>
       </c>
       <c r="B657" t="str">
-        <v>BROTHER TONER TN 331/321 YELLOW ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN245 MAGENTA ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="str">
-        <v>GPT-0359</v>
+        <v>GPT-0404</v>
       </c>
       <c r="B658" t="str">
-        <v>BROTHER TONER TN 336/326 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN245 YELLOW ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="str">
-        <v>GPT-0360</v>
+        <v>GPT-0405</v>
       </c>
       <c r="B659" t="str">
-        <v>BROTHER TONER TN 336/326 CYAN ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>HP TONER Q6511X BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="str">
-        <v>GPT-0361</v>
+        <v>GPT-0406</v>
       </c>
       <c r="B660" t="str">
-        <v>BROTHER TONER TN 336/326 MAGENTA ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER MS510 - 50F2X00 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="str">
-        <v>GPT-0362</v>
+        <v>GPT-0407</v>
       </c>
       <c r="B661" t="str">
-        <v>BROTHER TONER TN 336/326 YELLOW ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER XWC 5225/5230/5222 BLACK ΣΥΜΒΑΤΟ 30000ΣΕΛ</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="str">
-        <v>GPT-0363</v>
+        <v>GPT-0409</v>
       </c>
       <c r="B662" t="str">
-        <v>BROTHER TONER TN2310/TN2320 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 3020 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="str">
-        <v>GPT-0364</v>
+        <v>GPT-0410</v>
       </c>
       <c r="B663" t="str">
-        <v>DELL TONER C1660W BLACK ΣΥΜΒΑΤΟ 1250 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER MFP 7500 BLACK ΣΥΜΒΑΤΟ 17800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="str">
-        <v>GPT-0365</v>
+        <v>GPT-0411</v>
       </c>
       <c r="B664" t="str">
-        <v>DELL TONER C1660W CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER MFP 7500 CYAN ΣΥΜΒΑΤΟ 17800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="str">
-        <v>GPT-0366</v>
+        <v>GPT-0412</v>
       </c>
       <c r="B665" t="str">
-        <v>DELL TONER C1660W MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER MFP 7500 MAGENTA ΣΥΜΒΑΤΟ 17800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="str">
-        <v>GPT-0367</v>
+        <v>GPT-0413</v>
       </c>
       <c r="B666" t="str">
-        <v>DELL TONER C1660W YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER MFP 7500 YELLOW ΣΥΜΒΑΤΟ 17800 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="str">
-        <v>GPT-0368</v>
+        <v>GPT-0414</v>
       </c>
       <c r="B667" t="str">
-        <v>KYOCERA TONER TK 580 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 5550 BLACK ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="str">
-        <v>GPT-0369</v>
+        <v>GPT-0415</v>
       </c>
       <c r="B668" t="str">
-        <v>KYOCERA TONER TK 580 CYAN ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 5500 BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="str">
-        <v>GPT-0370</v>
+        <v>GPT-0416</v>
       </c>
       <c r="B669" t="str">
-        <v>KYOCERA TONER TK 580 MAGENTA ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7525/7535/7545/7556 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="str">
-        <v>GPT-0371</v>
+        <v>GPT-0417</v>
       </c>
       <c r="B670" t="str">
-        <v>KYOCERA TONER TK 580 YELLOW ΣΥΜΒΑΤΟ 2800 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7525/7535/7545/7556 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="str">
-        <v>GPT-0372</v>
+        <v>GPT-0418</v>
       </c>
       <c r="B671" t="str">
-        <v>KYOCERA TONER TK560 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7525/7535/7545/7556 YELLOW  ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="str">
-        <v>GPT-0373</v>
+        <v>GPT-0419</v>
       </c>
       <c r="B672" t="str">
-        <v>KYOCERA TONER TK560 CYAN ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7525/7535/7545/7556 BLACK ΣΥΜΒΑΤΟ 26000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="str">
-        <v>GPT-0374</v>
+        <v>GPT-0420</v>
       </c>
       <c r="B673" t="str">
-        <v>KYOCERA TONER TK560 MAGENTA ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7425/7428/7435 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="str">
-        <v>GPT-0375</v>
+        <v>GPT-0421</v>
       </c>
       <c r="B674" t="str">
-        <v>KYOCERA TONER TK560 YELLOW ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7425/7428/7435 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="str">
-        <v>GPT-0376</v>
+        <v>GPT-0422</v>
       </c>
       <c r="B675" t="str">
-        <v>KYOCERA TONER TK 520 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7425/7428/7435 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="str">
-        <v>GPT-0377</v>
+        <v>GPT-0423</v>
       </c>
       <c r="B676" t="str">
-        <v>KYOCERA TONER TK 520 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7425/7428/7435 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="str">
-        <v>GPT-0378</v>
+        <v>GPT-0424</v>
       </c>
       <c r="B677" t="str">
-        <v>KYOCERA TONER TK 520 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7328/7335/7345/7346 CYAN ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="str">
-        <v>GPT-0379</v>
+        <v>GPT-0425</v>
       </c>
       <c r="B678" t="str">
-        <v>KYOCERA TONER TK 520 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7328/7335/7345/7346 MAGENTA ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="str">
-        <v>GPT-0380</v>
+        <v>GPT-0426</v>
       </c>
       <c r="B679" t="str">
-        <v>RICOH TONER MFP C811 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7328/7335/7345/7346 YELLOW ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="str">
-        <v>GPT-0381</v>
+        <v>GPT-0427</v>
       </c>
       <c r="B680" t="str">
-        <v>RICOH TONER MFP C811 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP XC7328/7335/7345/7346 BLACK ΣΥΜΒΑΤΟ 26000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="str">
-        <v>GPT-0383</v>
+        <v>GPT-0428</v>
       </c>
       <c r="B681" t="str">
-        <v>RICOH TONER MFP C811 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 7760 CYAN ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="str">
-        <v>GPT-0384</v>
+        <v>GPT-0429</v>
       </c>
       <c r="B682" t="str">
-        <v>RICOH TONER MFP C811 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 7760 YELLOW ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="str">
-        <v>GPT-0387</v>
+        <v>GPT-0430</v>
       </c>
       <c r="B683" t="str">
-        <v>LEXMARK TONER C540H2YG YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 7760 MAGENTA ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="str">
-        <v>GPT-0388</v>
+        <v>GPT-0431</v>
       </c>
       <c r="B684" t="str">
-        <v>XEROX PHASER TONER MFP 6121 MAGENTA ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 7760 BLACK ΣΥΜΒΑΤΟ 32000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="str">
-        <v>GPT-0389</v>
+        <v>GPT-0432</v>
       </c>
       <c r="B685" t="str">
-        <v>XEROX PHASER TONER 6125N MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 7750 CYAN ΣΥΜΒΑΤΟ 22000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="str">
-        <v>GPT-0390</v>
+        <v>GPT-0433</v>
       </c>
       <c r="B686" t="str">
-        <v>SAMSUNG TONER CLP - 610/660 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 7750 MAGENTA ΣΥΜΒΑΤΟ 22000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="str">
-        <v>GPT-0391</v>
+        <v>GPT-0434</v>
       </c>
       <c r="B687" t="str">
-        <v>SAMSUNG TONER CLP - 610/660 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 7750 TONER YELLOW ΣΥΜΒΑΤΟ 22000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="str">
-        <v>GPT-0392</v>
+        <v>GPT-0435</v>
       </c>
       <c r="B688" t="str">
-        <v>SAMSUNG TONER CLP - 610/660 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX PHASER TONER 7750 BLACK ΣΥΜΒΑΤΟ 32000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="str">
-        <v>GPT-0393</v>
+        <v>GPT-0436</v>
       </c>
       <c r="B689" t="str">
-        <v>SAMSUNG TONER CLP - 610/660 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>SHARP TONER SAR202LT BLACK ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="str">
-        <v>GPT-0394</v>
+        <v>GPT-0437</v>
       </c>
       <c r="B690" t="str">
-        <v>XEROX TONER 6500 CYAN ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLT 404S CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="str">
-        <v>GPT-0395</v>
+        <v>GPT-0438</v>
       </c>
       <c r="B691" t="str">
-        <v>XEROX TONER 3325 - 106R02313 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLT 404S MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="str">
-        <v>GPT-0396</v>
+        <v>GPT-0439</v>
       </c>
       <c r="B692" t="str">
-        <v>XEROX TONER 6500 MAGENTA ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLT 404S YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="str">
-        <v>GPT-0397</v>
+        <v>GPT-0440</v>
       </c>
       <c r="B693" t="str">
-        <v>XEROX TONER 6500 YELLOW ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER MFP SCX6120/6220/6320/6322/6520 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="str">
-        <v>GPT-0398</v>
+        <v>GPT-0441</v>
       </c>
       <c r="B694" t="str">
-        <v>XEROX TONER 6500 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP350 CYAN ΣΥΜΒΑΤΟ 2000 ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="str">
-        <v>GPT-0399</v>
+        <v>GPT-0442</v>
       </c>
       <c r="B695" t="str">
-        <v>XEROX TONER 3210/3220 BLACK ΣΥΜΒΑΤΟ 4100 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP350 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="str">
-        <v>GPT-0400</v>
+        <v>GPT-0443</v>
       </c>
       <c r="B696" t="str">
-        <v>XEROX PHASER TONER 3320 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP350 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="str">
-        <v>GPT-0401</v>
+        <v>GPT-0444</v>
       </c>
       <c r="B697" t="str">
-        <v>BROTHER TONER TN241 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP350 BLACK ΣΥΜΒΑΤΟ 2000 ΣΥΜΒΑΤΟ</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="str">
-        <v>GPT-0402</v>
+        <v>GPT-0445</v>
       </c>
       <c r="B698" t="str">
-        <v>BROTHER TONER TN245 CYAN ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER ML1210 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="str">
-        <v>GPT-0403</v>
+        <v>GPT-0446</v>
       </c>
       <c r="B699" t="str">
-        <v>BROTHER TONER TN245 MAGENTA ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP315/LP310 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="str">
-        <v>GPT-0404</v>
+        <v>GPT-0447</v>
       </c>
       <c r="B700" t="str">
-        <v>BROTHER TONER TN245 YELLOW ΣΥΜΒΑΤΟ 2200 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP315/LP310 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="str">
-        <v>GPT-0405</v>
+        <v>GPT-0448</v>
       </c>
       <c r="B701" t="str">
-        <v>HP TONER Q6511X BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP315/LP310 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="str">
-        <v>GPT-0406</v>
+        <v>GPT-0449</v>
       </c>
       <c r="B702" t="str">
-        <v>LEXMARK TONER MS510 - 50F2X00 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG TONER CLP315/LP310 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="str">
-        <v>GPT-0407</v>
+        <v>GPT-0450</v>
       </c>
       <c r="B703" t="str">
-        <v>XEROX PHASER TONER XWC 5225/5230/5222 BLACK ΣΥΜΒΑΤΟ 30000ΣΕΛ</v>
+        <v>RICOH TONER SP201 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="str">
-        <v>GPT-0409</v>
+        <v>GPT-0451</v>
       </c>
       <c r="B704" t="str">
-        <v>XEROX PHASER TONER 3020 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER SP3200 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="str">
-        <v>GPT-0410</v>
+        <v>GPT-0452</v>
       </c>
       <c r="B705" t="str">
-        <v>XEROX PHASER TONER MFP 7500 BLACK ΣΥΜΒΑΤΟ 17800 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER SP311 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="str">
-        <v>GPT-0411</v>
+        <v>GPT-0453</v>
       </c>
       <c r="B706" t="str">
-        <v>XEROX PHASER TONER MFP 7500 CYAN ΣΥΜΒΑΤΟ 17800 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER MP5000 BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="str">
-        <v>GPT-0412</v>
+        <v>GPT-0454</v>
       </c>
       <c r="B707" t="str">
-        <v>XEROX PHASER TONER MFP 7500 MAGENTA ΣΥΜΒΑΤΟ 17800 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC TONER MFP DQ-TU15E BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="str">
-        <v>GPT-0413</v>
+        <v>GPT-0455</v>
       </c>
       <c r="B708" t="str">
-        <v>XEROX PHASER TONER MFP 7500 YELLOW ΣΥΜΒΑΤΟ 17800 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER PH-2205D BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="str">
-        <v>GPT-0414</v>
+        <v>GPT-0456</v>
       </c>
       <c r="B709" t="str">
-        <v>XEROX PHASER TONER 5550 BLACK ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B710/720/730 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="str">
-        <v>GPT-0415</v>
+        <v>GPT-0457</v>
       </c>
       <c r="B710" t="str">
-        <v>XEROX PHASER TONER 5500 BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B4400/4500/4550/4600 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="str">
-        <v>GPT-0416</v>
+        <v>GPT-0458</v>
       </c>
       <c r="B711" t="str">
-        <v>XEROX TONER MFP XC7525/7535/7545/7556 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER B4350/4300 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="str">
-        <v>GPT-0417</v>
+        <v>GPT-0459</v>
       </c>
       <c r="B712" t="str">
-        <v>XEROX TONER MFP XC7525/7535/7545/7556 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5100/3000/3200/5150/5200/5250/5300/5400 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="str">
-        <v>GPT-0418</v>
+        <v>GPT-0460</v>
       </c>
       <c r="B713" t="str">
-        <v>XEROX TONER MFP XC7525/7535/7545/7556 YELLOW  ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5100/3000/3200/5150/5200/5250/5300/5400 CYAN ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="str">
-        <v>GPT-0419</v>
+        <v>GPT-0461</v>
       </c>
       <c r="B714" t="str">
-        <v>XEROX TONER MFP XC7525/7535/7545/7556 BLACK ΣΥΜΒΑΤΟ 26000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5100/3000/3200/5150/5200/5250/5300/5400 MAGENTA ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="str">
-        <v>GPT-0420</v>
+        <v>GPT-0462</v>
       </c>
       <c r="B715" t="str">
-        <v>XEROX TONER MFP XC7425/7428/7435 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5100/3000/3200/5150/5200/5250/5300/5400 YELLOW ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="str">
-        <v>GPT-0421</v>
+        <v>GPT-0463</v>
       </c>
       <c r="B716" t="str">
-        <v>XEROX TONER MFP XC7425/7428/7435 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5600/5700 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="str">
-        <v>GPT-0422</v>
+        <v>GPT-0464</v>
       </c>
       <c r="B717" t="str">
-        <v>XEROX TONER MFP XC7425/7428/7435 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5600/5700 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="str">
-        <v>GPT-0423</v>
+        <v>GPT-0465</v>
       </c>
       <c r="B718" t="str">
-        <v>XEROX TONER MFP XC7425/7428/7435 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5600/5700 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="str">
-        <v>GPT-0424</v>
+        <v>GPT-0470</v>
       </c>
       <c r="B719" t="str">
-        <v>XEROX TONER MFP XC7328/7335/7345/7346 CYAN ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C510/C530/MC561 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="str">
-        <v>GPT-0425</v>
+        <v>GPT-0471</v>
       </c>
       <c r="B720" t="str">
-        <v>XEROX TONER MFP XC7328/7335/7345/7346 MAGENTA ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C510/C530/MC561 MAGENTA ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="str">
-        <v>GPT-0426</v>
+        <v>GPT-0472</v>
       </c>
       <c r="B721" t="str">
-        <v>XEROX TONER MFP XC7328/7335/7345/7346 YELLOW ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C510/C530/MC561 YELLOW ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="str">
-        <v>GPT-0427</v>
+        <v>GPT-0473</v>
       </c>
       <c r="B722" t="str">
-        <v>XEROX TONER MFP XC7328/7335/7345/7346 BLACK ΣΥΜΒΑΤΟ 26000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C110/130N BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="str">
-        <v>GPT-0428</v>
+        <v>GPT-0474</v>
       </c>
       <c r="B723" t="str">
-        <v>XEROX PHASER TONER 7760 CYAN ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C110/130N CYAN ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="str">
-        <v>GPT-0429</v>
+        <v>GPT-0475</v>
       </c>
       <c r="B724" t="str">
-        <v>XEROX PHASER TONER 7760 YELLOW ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C110/130N MAGENTA ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="str">
-        <v>GPT-0430</v>
+        <v>GPT-0476</v>
       </c>
       <c r="B725" t="str">
-        <v>XEROX PHASER TONER 7760 MAGENTA ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C110/130N YELLOW ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="str">
-        <v>GPT-0431</v>
+        <v>GPT-0477</v>
       </c>
       <c r="B726" t="str">
-        <v>XEROX PHASER TONER 7760 BLACK ΣΥΜΒΑΤΟ 32000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C910 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="str">
-        <v>GPT-0432</v>
+        <v>GPT-0478</v>
       </c>
       <c r="B727" t="str">
-        <v>XEROX PHASER TONER 7750 CYAN ΣΥΜΒΑΤΟ 22000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C910 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="str">
-        <v>GPT-0433</v>
+        <v>GPT-0479</v>
       </c>
       <c r="B728" t="str">
-        <v>XEROX PHASER TONER 7750 MAGENTA ΣΥΜΒΑΤΟ 22000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C910 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="str">
-        <v>GPT-0434</v>
+        <v>GPT-0480</v>
       </c>
       <c r="B729" t="str">
-        <v>XEROX PHASER TONER 7750 TONER YELLOW ΣΥΜΒΑΤΟ 22000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C910 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="str">
-        <v>GPT-0435</v>
+        <v>GPT-0481</v>
       </c>
       <c r="B730" t="str">
-        <v>XEROX PHASER TONER 7750 BLACK ΣΥΜΒΑΤΟ 32000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER MS510 - 50F2U00 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="str">
-        <v>GPT-0436</v>
+        <v>GPT-0482</v>
       </c>
       <c r="B731" t="str">
-        <v>SHARP TONER SAR202LT BLACK ΣΥΜΒΑΤΟ 16000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER LEX W850H BLACK ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="str">
-        <v>GPT-0437</v>
+        <v>GPT-0483</v>
       </c>
       <c r="B732" t="str">
-        <v>SAMSUNG TONER CLT 404S CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER T640X/642/644 BLACK ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="str">
-        <v>GPT-0438</v>
+        <v>GPT-0484</v>
       </c>
       <c r="B733" t="str">
-        <v>SAMSUNG TONER CLT 404S MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER T630X/632/634 BLACK ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="str">
-        <v>GPT-0439</v>
+        <v>GPT-0485</v>
       </c>
       <c r="B734" t="str">
-        <v>SAMSUNG TONER CLT 404S YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER LEX E450 BLACK ΣΥΜΒΑΤΟ 11000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="str">
-        <v>GPT-0440</v>
+        <v>GPT-0486</v>
       </c>
       <c r="B735" t="str">
-        <v>SAMSUNG TONER MFP SCX6120/6220/6320/6322/6520 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5600/5700 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="str">
-        <v>GPT-0441</v>
+        <v>GPT-0487</v>
       </c>
       <c r="B736" t="str">
-        <v>SAMSUNG TONER CLP350 CYAN ΣΥΜΒΑΤΟ 2000 ΣΥΜΒΑΤΟ</v>
+        <v>HP TONER CF279A BLACK ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="str">
-        <v>GPT-0442</v>
+        <v>GPT-0488</v>
       </c>
       <c r="B737" t="str">
-        <v>SAMSUNG TONER CLP350 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΥΜΒΑΤΟ</v>
+        <v>KYOCERA TONER TK-110 ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="str">
-        <v>GPT-0443</v>
+        <v>GPT-0489</v>
       </c>
       <c r="B738" t="str">
-        <v>SAMSUNG TONER CLP350 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΥΜΒΑΤΟ</v>
+        <v>BROTHER TONER TN135/115 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="str">
-        <v>GPT-0444</v>
+        <v>GPT-0490</v>
       </c>
       <c r="B739" t="str">
-        <v>SAMSUNG TONER CLP350 BLACK ΣΥΜΒΑΤΟ 2000 ΣΥΜΒΑΤΟ</v>
+        <v>BROTHER TONER TN135/115 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="str">
-        <v>GPT-0445</v>
+        <v>GPT-0491</v>
       </c>
       <c r="B740" t="str">
-        <v>SAMSUNG TONER ML1210 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN135/115 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="str">
-        <v>GPT-0446</v>
+        <v>GPT-0492</v>
       </c>
       <c r="B741" t="str">
-        <v>SAMSUNG TONER CLP315/LP310 CYAN ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN135/115 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="str">
-        <v>GPT-0447</v>
+        <v>GPT-0493</v>
       </c>
       <c r="B742" t="str">
-        <v>SAMSUNG TONER CLP315/LP310 MAGENTA ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER TONER TN6600/TN460 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="str">
-        <v>GPT-0448</v>
+        <v>GPT-0494</v>
       </c>
       <c r="B743" t="str">
-        <v>SAMSUNG TONER CLP315/LP310 YELLOW ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON TONER M300 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="str">
-        <v>GPT-0449</v>
+        <v>GPT-0495</v>
       </c>
       <c r="B744" t="str">
-        <v>SAMSUNG TONER CLP315/LP310 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5850/5950 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="str">
-        <v>GPT-0450</v>
+        <v>GPT-0496</v>
       </c>
       <c r="B745" t="str">
-        <v>RICOH TONER SP201 BLACK ΣΥΜΒΑΤΟ 2600 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5850/5950 CYAN ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="str">
-        <v>GPT-0451</v>
+        <v>GPT-0497</v>
       </c>
       <c r="B746" t="str">
-        <v>RICOH TONER SP3200 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5850/5950 MAGENTA ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="str">
-        <v>GPT-0452</v>
+        <v>GPT-0498</v>
       </c>
       <c r="B747" t="str">
-        <v>RICOH TONER SP311 BLACK ΣΥΜΒΑΤΟ 3500 ΣΕΛΙΔΕΣ</v>
+        <v>OKI TONER C5850/5950 YELLOW ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="str">
-        <v>GPT-0453</v>
+        <v>GPT-0499</v>
       </c>
       <c r="B748" t="str">
-        <v>RICOH TONER MP5000 BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
+        <v>KYOCERA TONER TK1505 BLACK ΣΥΜΒΑΤΟ 7000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="str">
-        <v>GPT-0454</v>
+        <v>GPT-0500</v>
       </c>
       <c r="B749" t="str">
-        <v>PANASONIC TONER MFP DQ-TU15E BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>RICOH TONER SP150 BLACK ΣΥΜΒΑΤΟ 1500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="str">
-        <v>GPT-0455</v>
+        <v>GPT-0501</v>
       </c>
       <c r="B750" t="str">
-        <v>RICOH TONER PH-2205D BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3150 109R00747 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="str">
-        <v>GPT-0456</v>
+        <v>GPT-0502</v>
       </c>
       <c r="B751" t="str">
-        <v>OKI TONER B710/720/730 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER MFP 3200 113R00730 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="str">
-        <v>GPT-0457</v>
+        <v>GPT-0503</v>
       </c>
       <c r="B752" t="str">
-        <v>OKI TONER B4400/4500/4550/4600 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX TONER 3300 106R01412 BLACK ΣΥΜΒΑΤΟ 8000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="str">
-        <v>GPT-0458</v>
+        <v>GPT-0504</v>
       </c>
       <c r="B753" t="str">
-        <v>OKI TONER B4350/4300 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER X203 - X203A11G BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="str">
-        <v>GPT-0459</v>
+        <v>GPT-0505</v>
       </c>
       <c r="B754" t="str">
-        <v>OKI TONER C5100/3000/3200/5150/5200/5250/5300/5400 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER CX310  / CX410 / CX510 80C2SK0 BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="str">
-        <v>GPT-0460</v>
+        <v>GPT-0506</v>
       </c>
       <c r="B755" t="str">
-        <v>OKI TONER C5100/3000/3200/5150/5200/5250/5300/5400 CYAN ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER CX310 / CX410 / CX510 80C2SC0 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="str">
-        <v>GPT-0461</v>
+        <v>GPT-0507</v>
       </c>
       <c r="B756" t="str">
-        <v>OKI TONER C5100/3000/3200/5150/5200/5250/5300/5400 MAGENTA ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER CX310 / CX410 / CX510 80C2SM0 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="str">
-        <v>GPT-0462</v>
+        <v>GPT-0508</v>
       </c>
       <c r="B757" t="str">
-        <v>OKI TONER C5100/3000/3200/5150/5200/5250/5300/5400 YELLOW ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER CX310 / CX410 / CX510 80C2SY0 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="str">
-        <v>GPT-0463</v>
+        <v>GPT-0509</v>
       </c>
       <c r="B758" t="str">
-        <v>OKI TONER C5600/5700 CYAN ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK TONER CS 310/410/510 70C2HK0 BLACK ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="str">
-        <v>GPT-0464</v>
+        <v>GPD-0001</v>
       </c>
       <c r="B759" t="str">
-        <v>OKI TONER C5600/5700 MAGENTA ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI DRUM B410/420/430/440/MB460/470/480 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="str">
-        <v>GPT-0465</v>
+        <v>GPD-0002</v>
       </c>
       <c r="B760" t="str">
-        <v>OKI TONER C5600/5700 YELLOW ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI DRUM B411/431/461/471/491 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="str">
-        <v>GPT-0470</v>
+        <v>GPD-0003</v>
       </c>
       <c r="B761" t="str">
-        <v>OKI TONER C510/C530/MC561 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>SAMSUNG DRUM R116 BLACK ΣΥΜΒΑΤΟ 9000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="str">
-        <v>GPT-0471</v>
+        <v>GPD-0004</v>
       </c>
       <c r="B762" t="str">
-        <v>OKI TONER C510/C530/MC561 MAGENTA ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>OKI DRUM B4400/4500/4550/4600 BLACK ΣΥΜΒΑΤΟ 25000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="str">
-        <v>GPT-0472</v>
+        <v>GPD-0005</v>
       </c>
       <c r="B763" t="str">
-        <v>OKI TONER C510/C530/MC561 YELLOW ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC DRUM FAD412 BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="str">
-        <v>GPT-0473</v>
+        <v>GPD-0006</v>
       </c>
       <c r="B764" t="str">
-        <v>OKI TONER C110/130N BLACK ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC DRUM FAD84X BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="str">
-        <v>GPT-0474</v>
+        <v>GPD-0007</v>
       </c>
       <c r="B765" t="str">
-        <v>OKI TONER C110/130N CYAN ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC DRUM FAD93X BLACK ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="str">
-        <v>GPT-0475</v>
+        <v>GPD-0008</v>
       </c>
       <c r="B766" t="str">
-        <v>OKI TONER C110/130N MAGENTA ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>PANASONIC DRUM FAD89X BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="str">
-        <v>GPT-0476</v>
+        <v>GPD-0009</v>
       </c>
       <c r="B767" t="str">
-        <v>OKI TONER C110/130N YELLOW ΣΥΜΒΑΤΟ 2500 ΣΕΛΙΔΕΣ</v>
+        <v>LEXMARK DRUM CE250/450 BLACK ΣΥΜΒΑΤΟ 3000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="str">
-        <v>GPT-0477</v>
+        <v>GPD-0010</v>
       </c>
       <c r="B768" t="str">
-        <v>OKI TONER C910 BLACK ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>XEROX DRUM 3215/3260 - 101R00474 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="str">
-        <v>GPT-0478</v>
+        <v>GPD-0012</v>
       </c>
       <c r="B769" t="str">
-        <v>OKI TONER C910 CYAN ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>HP DRUM CB384A BLACK ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="str">
-        <v>GPT-0479</v>
+        <v>GPD-0013</v>
       </c>
       <c r="B770" t="str">
-        <v>OKI TONER C910 MAGENTA ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER DRUM DR570/DR3000/DR6000/DR7000 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="str">
-        <v>GPT-0480</v>
+        <v>GPD-0014</v>
       </c>
       <c r="B771" t="str">
-        <v>OKI TONER C910 YELLOW ΣΥΜΒΑΤΟ 15000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER DRUM B720/DR3300/3350/51J BLACK ΣΥΜΒΑΤΟ 30000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="str">
-        <v>GPT-0481</v>
+        <v>GPD-0015</v>
       </c>
       <c r="B772" t="str">
-        <v>LEXMARK TONER MS510 - 50F2U00 BLACK ΣΥΜΒΑΤΟ 20000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER DRUM DR2000/DR350/DR2005 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="str">
-        <v>GPT-0482</v>
+        <v>GPD-0016</v>
       </c>
       <c r="B773" t="str">
-        <v>LEXMARK TONER LEX W850H BLACK ΣΥΜΒΑΤΟ 35000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER DRUM DR2120/DR360/DR2100 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="str">
-        <v>GPT-0483</v>
+        <v>GPD-0017</v>
       </c>
       <c r="B774" t="str">
-        <v>LEXMARK TONER T640X/642/644 BLACK ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER DRUM DR2220/DR450/DR2200/DR2255 BLACK ΣΥΜΒΑΤΟ 12000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="str">
-        <v>GPT-0484</v>
+        <v>GPD-0018</v>
       </c>
       <c r="B775" t="str">
-        <v>LEXMARK TONER T630X/632/634 BLACK ΣΥΜΒΑΤΟ 21000 ΣΕΛΙΔΕΣ</v>
+        <v>BROTHER DRUM DR1050 BLACK ΣΥΜΒΑΤΟ 10000 ΣΕΛΙΔΕΣ</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="str">
-        <v>GPT-0485</v>
+        <v>GPI-0002</v>
       </c>
       <c r="B776" t="str">
-        <v>LEXMARK TONER LEX E450 BLACK ΣΥΜΒΑΤΟ 11000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T0712/T0892 CYAN ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="str">
-        <v>GPT-0486</v>
+        <v>GPI-0003</v>
       </c>
       <c r="B777" t="str">
-        <v>OKI TONER C5600/5700 BLACK ΣΥΜΒΑΤΟ 2000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T0713/T0893 MAGENTA ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="str">
-        <v>GPT-0487</v>
+        <v>GPI-0004</v>
       </c>
       <c r="B778" t="str">
-        <v>HP TONER CF279A BLACK ΣΥΜΒΑΤΟ 1000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T0714/T0894 YELLOW ΣΥΜΒΑΤΟ 14ml</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="str">
-        <v>GPT-0488</v>
+        <v>GPI-0005</v>
       </c>
       <c r="B779" t="str">
-        <v>KYOCERA TONER TK-110 ΣΥΜΒΑΤΟ 6000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T0801 BLACK ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="str">
-        <v>GPT-0489</v>
+        <v>GPI-0006</v>
       </c>
       <c r="B780" t="str">
-        <v>BROTHER TONER TN135/115 BLACK ΣΥΜΒΑΤΟ 5000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T0802 CYAN ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="str">
-        <v>GPT-0490</v>
+        <v>GPI-0007</v>
       </c>
       <c r="B781" t="str">
-        <v>BROTHER TONER TN135/115 CYAN ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T0803 MAGENTA ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="str">
-        <v>GPT-0491</v>
+        <v>GPI-0008</v>
       </c>
       <c r="B782" t="str">
-        <v>BROTHER TONER TN135/115 MAGENTA ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T0804 YELLOW ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="str">
-        <v>GPT-0492</v>
+        <v>GPI-0009</v>
       </c>
       <c r="B783" t="str">
-        <v>BROTHER TONER TN135/115 YELLOW ΣΥΜΒΑΤΟ 4000 ΣΕΛΙΔΕΣ</v>
+        <v>EPSON INK T0805 LIGHT CYAN ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="str">
-        <v>GPI-0002</v>
+        <v>GPI-0010</v>
       </c>
       <c r="B784" t="str">
-        <v>EPSON INK T0712/T0892 CYAN ΣΥΜΒΑΤΟ 14ml</v>
+        <v>EPSON INK T0806 LIGHT MAGENTA ΣΥΜΒΑΤΟ 15ml</v>
       </c>
     </row>
   </sheetData>

--- a/server/files/orderExport.xlsx
+++ b/server/files/orderExport.xlsx
@@ -378,7 +378,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Receivers"/>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -397,18 +397,21 @@
         <v>VAT NUMBER</v>
       </c>
       <c r="E1" t="str">
+        <v>DOY NUMBER</v>
+      </c>
+      <c r="F1" t="str">
         <v>ADDRESS</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>ZIP CODE</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>LOCATION</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>PHONE #1</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>PHONE #2</v>
       </c>
     </row>
@@ -419,14 +422,20 @@
       <c r="B2" t="str">
         <v>ΒΑΣΙΛΕΙΟΥ  ΦΩΤΙΟΣ</v>
       </c>
-      <c r="E2" t="str">
+      <c r="D2" t="str">
+        <v>052368639</v>
+      </c>
+      <c r="F2" t="str">
         <v>ΧΡΙΣΤΟΒΑΣΙΛΗ 1</v>
       </c>
-      <c r="F2" t="str">
+      <c r="G2" t="str">
         <v>46100</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" t="str">
         <v>ΗΓΟΥΜΕΝΙΤΣΑ</v>
+      </c>
+      <c r="I2" t="str">
+        <v>2665027775</v>
       </c>
     </row>
     <row r="3">
@@ -436,14 +445,20 @@
       <c r="B3" t="str">
         <v>ΝΟΣΟΚΟΜΕΙΟ ΣΑΜΟΥ</v>
       </c>
-      <c r="E3" t="str">
+      <c r="D3" t="str">
+        <v>999340688</v>
+      </c>
+      <c r="F3" t="str">
         <v>ΣΥΝ/ΡΧΟΥ ΚΕΦΑΛΟΠΟΥΛΟΥ 17</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <v>83100</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <v>ΣΑΜΟΣ</v>
+      </c>
+      <c r="I3" t="str">
+        <v>2273083150</v>
       </c>
     </row>
     <row r="4">
@@ -453,13 +468,16 @@
       <c r="B4" t="str">
         <v>SPOT4TONER Ι Κ Ε</v>
       </c>
-      <c r="E4" t="str">
+      <c r="D4" t="str">
+        <v>800839540</v>
+      </c>
+      <c r="F4" t="str">
         <v>ΑΓΓΕΛΑΚΗ 3</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <v>54621</v>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <v>ΘΕΣΣΑΛΟΝΙΚΗ</v>
       </c>
     </row>
@@ -470,14 +488,20 @@
       <c r="B5" t="str">
         <v>ΤΑΤΣΗΣ  ΓΕΩΡΓΙΟΣ</v>
       </c>
-      <c r="E5" t="str">
+      <c r="D5" t="str">
+        <v>134312928</v>
+      </c>
+      <c r="F5" t="str">
         <v>ΦΛΕΜΙΝΓΚ ΚΑΙ ΠΕΡΙΦ ΟΔΟΣ 0</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <v>47100</v>
       </c>
-      <c r="G5" t="str">
+      <c r="H5" t="str">
         <v>ΑΡΤΑ</v>
+      </c>
+      <c r="I5" t="str">
+        <v>2681071591</v>
       </c>
     </row>
     <row r="6">
@@ -487,13 +511,16 @@
       <c r="B6" t="str">
         <v>ΕΠΙΜΕΛΗΤΗΡΙΟ ΙΩΑΝΝΙΝΩΝ</v>
       </c>
-      <c r="E6" t="str">
+      <c r="D6" t="str">
+        <v>090141710</v>
+      </c>
+      <c r="F6" t="str">
         <v>ΠΟΥΤΕΤΣΗ 14</v>
       </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
         <v>45333</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H6" t="str">
         <v>ΙΩΑΝΝΙΝΑ</v>
       </c>
     </row>
@@ -504,10 +531,13 @@
       <c r="B7" t="str">
         <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΕΡΚΥΡΑΣ</v>
       </c>
-      <c r="E7" t="str">
+      <c r="D7" t="str">
+        <v>999360466</v>
+      </c>
+      <c r="F7" t="str">
         <v>ΚΟΝΤΟΚΑΛΙ</v>
       </c>
-      <c r="F7" t="str">
+      <c r="G7" t="str">
         <v>49100</v>
       </c>
     </row>
@@ -518,11 +548,20 @@
       <c r="B8" t="str">
         <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΑΝΑΤΟΛΙΚΗΣ ΑΧΑΪΑΣ</v>
       </c>
-      <c r="E8" t="str">
+      <c r="D8" t="str">
+        <v>999894869</v>
+      </c>
+      <c r="F8" t="str">
         <v>ΑΝΩ ΒΟΥΛΩΜΕΝΟ</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <v>25100</v>
+      </c>
+      <c r="I8" t="str">
+        <v>2691059489</v>
+      </c>
+      <c r="J8" t="str">
+        <v>2691059491</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +571,20 @@
       <c r="B9" t="str">
         <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΒΟΛΟΥ</v>
       </c>
-      <c r="E9" t="str">
+      <c r="D9" t="str">
+        <v>999501452</v>
+      </c>
+      <c r="F9" t="str">
         <v>ΠΟΛΥΜΕΡΗ 134</v>
       </c>
-      <c r="F9" t="str">
+      <c r="G9" t="str">
         <v>38222</v>
+      </c>
+      <c r="I9" t="str">
+        <v>2421351117</v>
+      </c>
+      <c r="J9" t="str">
+        <v>2421351156</v>
       </c>
     </row>
     <row r="10">
@@ -546,14 +594,23 @@
       <c r="B10" t="str">
         <v>ΛΑΒΡΑΝΟΣ  ΧΡΙΣΤΟΔΟΥΛΟΣ ΣΠΥΡΙΔΩΝ</v>
       </c>
-      <c r="E10" t="str">
+      <c r="D10" t="str">
+        <v>135673258</v>
+      </c>
+      <c r="F10" t="str">
         <v>ΑΝΩ ΜΕΣΟΓΓΗ 00</v>
       </c>
-      <c r="F10" t="str">
+      <c r="G10" t="str">
         <v>49080</v>
       </c>
-      <c r="G10" t="str">
+      <c r="H10" t="str">
         <v>ΛΕΥΚΙΜΜΗ</v>
+      </c>
+      <c r="I10" t="str">
+        <v>26610 75233</v>
+      </c>
+      <c r="J10" t="str">
+        <v>694 47 47 290</v>
       </c>
     </row>
     <row r="11">
@@ -563,13 +620,16 @@
       <c r="B11" t="str">
         <v>ΥΠΟΥΡΓΕΙΟ ΔΙΚΑΙΟΣΥΝΗΣ</v>
       </c>
-      <c r="E11" t="str">
+      <c r="D11" t="str">
+        <v>090169674</v>
+      </c>
+      <c r="F11" t="str">
         <v>ΜΕΣΟΓΕΙΩΝ 96</v>
       </c>
-      <c r="F11" t="str">
+      <c r="G11" t="str">
         <v>11527</v>
       </c>
-      <c r="G11" t="str">
+      <c r="H11" t="str">
         <v>ΑΘΗΝΑ</v>
       </c>
     </row>
@@ -580,14 +640,20 @@
       <c r="B12" t="str">
         <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΑΡΔΙΤΣΑΣ</v>
       </c>
-      <c r="E12" t="str">
+      <c r="D12" t="str">
+        <v>999091563</v>
+      </c>
+      <c r="F12" t="str">
         <v>ΤΕΡΜΑ ΤΑΥΡΩΠΟΥ 0</v>
       </c>
-      <c r="F12" t="str">
+      <c r="G12" t="str">
         <v>43100</v>
       </c>
-      <c r="G12" t="str">
+      <c r="H12" t="str">
         <v>ΚΑΡΔΙΤΣΑ</v>
+      </c>
+      <c r="I12" t="str">
+        <v>2441351195</v>
       </c>
     </row>
     <row r="13">
@@ -597,13 +663,16 @@
       <c r="B13" t="str">
         <v>ΔΙΟΙΚ 6ΗΣ ΥΓΕΙΟΝ ΠΕΡΙΦ ΠΕΛΛΟΠ. ΙΩΝΙΩΝ ΔΥ</v>
       </c>
-      <c r="E13" t="str">
+      <c r="D13" t="str">
+        <v>999100797</v>
+      </c>
+      <c r="F13" t="str">
         <v>ΥΠΑΤΗΣ 1</v>
       </c>
-      <c r="F13" t="str">
+      <c r="G13" t="str">
         <v>26441</v>
       </c>
-      <c r="G13" t="str">
+      <c r="H13" t="str">
         <v>ΠΑΤΡΑ</v>
       </c>
     </row>
@@ -614,14 +683,20 @@
       <c r="B14" t="str">
         <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΕΝΤΡΟ ΥΓΕΙΑΣ ΛΗΜΝΟΥ</v>
       </c>
-      <c r="E14" t="str">
+      <c r="D14" t="str">
+        <v>997255081</v>
+      </c>
+      <c r="F14" t="str">
         <v>ΜΥΡΙΝΑ 0</v>
       </c>
-      <c r="F14" t="str">
+      <c r="G14" t="str">
         <v>81400</v>
       </c>
-      <c r="G14" t="str">
+      <c r="H14" t="str">
         <v>ΜΥΡΙΝΑ</v>
+      </c>
+      <c r="I14" t="str">
+        <v>2254350129</v>
       </c>
     </row>
     <row r="15">
@@ -631,14 +706,23 @@
       <c r="B15" t="str">
         <v>ΒΡΥΣΗΣ ΙΩΑΝΝΗΣ ΚΑΙ ΣΙΑ ΟΕ</v>
       </c>
-      <c r="E15" t="str">
+      <c r="D15" t="str">
+        <v>999858963</v>
+      </c>
+      <c r="F15" t="str">
         <v>ΚΥΠΡΟΥ 47</v>
       </c>
-      <c r="F15" t="str">
+      <c r="G15" t="str">
         <v>46100</v>
       </c>
-      <c r="G15" t="str">
+      <c r="H15" t="str">
         <v>ΗΓΟΥΜΕΝΙΤΣΑ</v>
+      </c>
+      <c r="I15" t="str">
+        <v>2665021345</v>
+      </c>
+      <c r="J15" t="str">
+        <v>6942471543</v>
       </c>
     </row>
     <row r="16">
@@ -648,14 +732,20 @@
       <c r="B16" t="str">
         <v>Γ ΖΑΒΑΝΤΙΑΣ-Χ ΚΑΡΑΦΥΛΛΙΔΗΣ ΟΕ</v>
       </c>
-      <c r="E16" t="str">
+      <c r="D16" t="str">
+        <v>084171745</v>
+      </c>
+      <c r="F16" t="str">
         <v>ΘΕΣΣΑΛΟΝΙΚΗΣ 31</v>
       </c>
-      <c r="F16" t="str">
+      <c r="G16" t="str">
         <v>60100</v>
       </c>
-      <c r="G16" t="str">
+      <c r="H16" t="str">
         <v>ΚΑΤΕΡΙΝΗ</v>
+      </c>
+      <c r="I16" t="str">
+        <v>2351078110</v>
       </c>
     </row>
     <row r="17">
@@ -665,14 +755,20 @@
       <c r="B17" t="str">
         <v>ΠΑΡΔΑΣ ΓΕΩΡΓΙΟΣ</v>
       </c>
-      <c r="E17" t="str">
+      <c r="D17" t="str">
+        <v>134811987</v>
+      </c>
+      <c r="F17" t="str">
         <v>20 ΟΚΤΩΒΡΙΟΥ 4</v>
       </c>
-      <c r="F17" t="str">
+      <c r="G17" t="str">
         <v>58100</v>
       </c>
-      <c r="G17" t="str">
+      <c r="H17" t="str">
         <v>ΓΙΑΝΝΙΤΣΑ</v>
+      </c>
+      <c r="I17" t="str">
+        <v>2382028158</v>
       </c>
     </row>
     <row r="18">
@@ -682,14 +778,23 @@
       <c r="B18" t="str">
         <v>PRIME POWER ΜΟΝΟΠΡΟΣΩΠΗ ΙΚΕ</v>
       </c>
-      <c r="E18" t="str">
+      <c r="D18" t="str">
+        <v>800481628</v>
+      </c>
+      <c r="F18" t="str">
         <v>ΙΛΙΟΥ ΚΑΙ Μ ΜΑΥΡΟΓΕΝΟΥΣ 1</v>
       </c>
-      <c r="F18" t="str">
+      <c r="G18" t="str">
         <v>16674</v>
       </c>
-      <c r="G18" t="str">
+      <c r="H18" t="str">
         <v>ΓΛΥΦΑΔΑ</v>
+      </c>
+      <c r="I18" t="str">
+        <v>2155105070</v>
+      </c>
+      <c r="J18" t="str">
+        <v>2109480958</v>
       </c>
     </row>
     <row r="19">
@@ -699,14 +804,20 @@
       <c r="B19" t="str">
         <v>ΜΩΡΑΙΤΗ  ΜΑΡΙΑ ΑΘΑΝΑΣΙΟΣ</v>
       </c>
-      <c r="E19" t="str">
+      <c r="D19" t="str">
+        <v>055472412</v>
+      </c>
+      <c r="F19" t="str">
         <v>ΑΓΙΑΣ ΣΟΦΙΑΣ 15</v>
       </c>
-      <c r="F19" t="str">
+      <c r="G19" t="str">
         <v>26441</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H19" t="str">
         <v>ΠΑΤΡΑ</v>
+      </c>
+      <c r="I19" t="str">
+        <v>2610433413</v>
       </c>
     </row>
     <row r="20">
@@ -716,14 +827,20 @@
       <c r="B20" t="str">
         <v>ΓΑΒΡΙΗΛΙΔΗΣ  ΑΝΕΣΤΗΣ ΚΩΝΣΤΑΝΤΙΝΟΣ</v>
       </c>
-      <c r="E20" t="str">
+      <c r="D20" t="str">
+        <v>066515981</v>
+      </c>
+      <c r="F20" t="str">
         <v>ΑΜΕΡ ΕΡΥΘΡΟΥ ΣΤΑΥΡΟΥ 104</v>
       </c>
-      <c r="F20" t="str">
+      <c r="G20" t="str">
         <v>65201</v>
       </c>
-      <c r="G20" t="str">
+      <c r="H20" t="str">
         <v>ΚΑΒΑΛΑ</v>
+      </c>
+      <c r="I20" t="str">
+        <v>2510222222</v>
       </c>
     </row>
     <row r="21">
@@ -733,14 +850,23 @@
       <c r="B21" t="str">
         <v>ΚΑΝΤΑΡΕΛΗΣ ΗΛΙΑΣ</v>
       </c>
-      <c r="E21" t="str">
+      <c r="D21" t="str">
+        <v>119085590</v>
+      </c>
+      <c r="F21" t="str">
         <v>ΑΧΑΡΑΒΗ</v>
       </c>
-      <c r="F21" t="str">
+      <c r="G21" t="str">
         <v>49081</v>
       </c>
-      <c r="G21" t="str">
+      <c r="H21" t="str">
         <v>ΚΑΡΟΥΣΑΔΕΣ</v>
+      </c>
+      <c r="I21" t="str">
+        <v>2663064381</v>
+      </c>
+      <c r="J21" t="str">
+        <v>6945993231</v>
       </c>
     </row>
     <row r="22">
@@ -750,14 +876,23 @@
       <c r="B22" t="str">
         <v>ΖΑΡΙΦΗΣ  ΜΙΧΑΗΛ ΓΕΩΡΓΙΟΣ</v>
       </c>
-      <c r="E22" t="str">
+      <c r="D22" t="str">
+        <v>077288320</v>
+      </c>
+      <c r="F22" t="str">
         <v>ΛΕΩΦΟΡΟΣ ΔΗΜΟΚΡΑΤΙΑΣ 57-59</v>
       </c>
-      <c r="F22" t="str">
+      <c r="G22" t="str">
         <v>18755</v>
       </c>
-      <c r="G22" t="str">
+      <c r="H22" t="str">
         <v>ΚΕΡΑΤΣΙΝΙ</v>
+      </c>
+      <c r="I22" t="str">
+        <v>2104629664</v>
+      </c>
+      <c r="J22" t="str">
+        <v>694 838 1318</v>
       </c>
     </row>
     <row r="23">
@@ -767,14 +902,20 @@
       <c r="B23" t="str">
         <v>Γ.Ν ΙΠΠΟΚΡΑΤΕΙΟ ΘΕΣ/ΝΙΚΗΣ</v>
       </c>
-      <c r="E23" t="str">
+      <c r="D23" t="str">
+        <v>999432325</v>
+      </c>
+      <c r="F23" t="str">
         <v>ΚΩΝΣΤΑΝΤΙΝΟΥΠΟΛΕΩΣ 49</v>
       </c>
-      <c r="F23" t="str">
+      <c r="G23" t="str">
         <v>54641</v>
       </c>
-      <c r="G23" t="str">
+      <c r="H23" t="str">
         <v>ΘΕΣΣΑΛΟΝΙΚΗ</v>
+      </c>
+      <c r="I23" t="str">
+        <v>231331261</v>
       </c>
     </row>
     <row r="24">
@@ -784,14 +925,20 @@
       <c r="B24" t="str">
         <v>ΚΑΚΟΛΥΡΗΣ ΓΡΗΓΟΡΗΣ</v>
       </c>
-      <c r="E24" t="str">
+      <c r="D24" t="str">
+        <v>046314215</v>
+      </c>
+      <c r="F24" t="str">
         <v>ΦΙΛΙΚΗΣ ΕΤΑΙΡΕΙΑΣ 2</v>
       </c>
-      <c r="F24" t="str">
+      <c r="G24" t="str">
         <v>27200</v>
       </c>
-      <c r="G24" t="str">
+      <c r="H24" t="str">
         <v>ΑΜΑΛΙΑΔΑ</v>
+      </c>
+      <c r="I24" t="str">
+        <v>2622021770</v>
       </c>
     </row>
     <row r="25">
@@ -801,14 +948,20 @@
       <c r="B25" t="str">
         <v>ΧΡΥΣΑΓΗΣ  ΝΙΚΟΛΑΟΣ</v>
       </c>
-      <c r="E25" t="str">
+      <c r="D25" t="str">
+        <v>102676914</v>
+      </c>
+      <c r="F25" t="str">
         <v>ΠΕΡΣΕΦΩΝΗΣ 10</v>
       </c>
-      <c r="F25" t="str">
+      <c r="G25" t="str">
         <v>66100</v>
       </c>
-      <c r="G25" t="str">
+      <c r="H25" t="str">
         <v>ΔΡΑΜΑ</v>
+      </c>
+      <c r="I25" t="str">
+        <v>6937352410</v>
       </c>
     </row>
     <row r="26">
@@ -818,14 +971,23 @@
       <c r="B26" t="str">
         <v>ΕΥΑΓΓΕΛΟΣ ΔΑΝΙΗΛ ΚΑΙ ΣΙΑ ΟΕ</v>
       </c>
-      <c r="E26" t="str">
+      <c r="D26" t="str">
+        <v>800187440</v>
+      </c>
+      <c r="F26" t="str">
         <v>ΛΕΩΦΟΡΟΣ ΔΗΜΟΚΡΑΤΙΑΣ 20</v>
       </c>
-      <c r="F26" t="str">
+      <c r="G26" t="str">
         <v>81400</v>
       </c>
-      <c r="G26" t="str">
+      <c r="H26" t="str">
         <v>ΜΥΡΙΝΑ - ΛΗΜΝΟΣ</v>
+      </c>
+      <c r="I26" t="str">
+        <v>2254024314</v>
+      </c>
+      <c r="J26" t="str">
+        <v>6942404436</v>
       </c>
     </row>
     <row r="27">
@@ -835,14 +997,20 @@
       <c r="B27" t="str">
         <v>ΓΕΩΡΓΙΟΣ ΜΠΑΛΗΣ-ΖΗΝΟΒΙΑ ΜΠΑΛΗ ΟΕ</v>
       </c>
-      <c r="E27" t="str">
+      <c r="D27" t="str">
+        <v>082648231</v>
+      </c>
+      <c r="F27" t="str">
         <v>ΔΑΜΑΡΕΩΣ 177</v>
       </c>
-      <c r="F27" t="str">
+      <c r="G27" t="str">
         <v>11632</v>
       </c>
-      <c r="G27" t="str">
+      <c r="H27" t="str">
         <v>ΑΘΗΝΑ</v>
+      </c>
+      <c r="I27" t="str">
+        <v>2107019503</v>
       </c>
     </row>
     <row r="28">
@@ -852,14 +1020,23 @@
       <c r="B28" t="str">
         <v>ΚΙΝΤΩΝΗ  ΠΑΝΑΓΙΩΤΑ</v>
       </c>
-      <c r="E28" t="str">
+      <c r="D28" t="str">
+        <v>068001639</v>
+      </c>
+      <c r="F28" t="str">
         <v>ΚΑΝΕΛΛΟΠΟΥΛΟΥ ΚΑΙ ΣΟΛΙΩΤΗ ΝΙΚΟΛΑΟΥ ΓΩΝΙΑ</v>
       </c>
-      <c r="F28" t="str">
+      <c r="G28" t="str">
         <v>25100</v>
       </c>
-      <c r="G28" t="str">
+      <c r="H28" t="str">
         <v>ΑΙΓΙΟ</v>
+      </c>
+      <c r="I28" t="str">
+        <v>2691024324</v>
+      </c>
+      <c r="J28" t="str">
+        <v>6986215161</v>
       </c>
     </row>
     <row r="29">
@@ -869,14 +1046,23 @@
       <c r="B29" t="str">
         <v>ΕΛΕΥΘΕΡΙΑΔΗΣ  ΧΑΡΑΛΑΜΠΟΣ</v>
       </c>
-      <c r="E29" t="str">
+      <c r="D29" t="str">
+        <v>142076872</v>
+      </c>
+      <c r="F29" t="str">
         <v>Λ. ΔΗΜΟΚΡΑΤΙΑΣ &amp; ΗΡΩΩΝ ΠΟΛΥΤΕΧΝΕΙΟΥ 27</v>
       </c>
-      <c r="F29" t="str">
+      <c r="G29" t="str">
         <v>19300</v>
       </c>
-      <c r="G29" t="str">
+      <c r="H29" t="str">
         <v>ΑΣΠΡΟΠΥΡΓΟΣ</v>
+      </c>
+      <c r="I29" t="str">
+        <v>6970896967</v>
+      </c>
+      <c r="J29" t="str">
+        <v>2155150270</v>
       </c>
     </row>
     <row r="30">
@@ -886,14 +1072,20 @@
       <c r="B30" t="str">
         <v>ΜΑΝΙΟΣ  ΓΕΩΡΓΙΟΣ</v>
       </c>
-      <c r="E30" t="str">
+      <c r="D30" t="str">
+        <v>036740915</v>
+      </c>
+      <c r="F30" t="str">
         <v>ΝΙΚΟΥ ΚΑΖΑΝΤΖΑΚΗ 2</v>
       </c>
-      <c r="F30" t="str">
+      <c r="G30" t="str">
         <v>85100</v>
       </c>
-      <c r="G30" t="str">
+      <c r="H30" t="str">
         <v>ΡΟΔΟΣ</v>
+      </c>
+      <c r="I30" t="str">
+        <v>2241036626</v>
       </c>
     </row>
     <row r="31">
@@ -903,14 +1095,23 @@
       <c r="B31" t="str">
         <v>ΤΣΕΡΕΜΕΓΚΛΗΣ  ΠΑΝΑΓΙΩΤΗΣ ΑΝΔΡΕΑΣ</v>
       </c>
-      <c r="E31" t="str">
+      <c r="D31" t="str">
+        <v>126524730</v>
+      </c>
+      <c r="F31" t="str">
         <v>ΥΨΗΛΑΝΤΟΥ 133</v>
       </c>
-      <c r="F31" t="str">
+      <c r="G31" t="str">
         <v>26221</v>
       </c>
-      <c r="G31" t="str">
+      <c r="H31" t="str">
         <v>ΠΑΤΡΑ</v>
+      </c>
+      <c r="I31" t="str">
+        <v>2610223378</v>
+      </c>
+      <c r="J31" t="str">
+        <v>6972052191</v>
       </c>
     </row>
     <row r="32">
@@ -920,14 +1121,23 @@
       <c r="B32" t="str">
         <v>ΠΑΠΑΙΩΑΝΝΟΥ  ΑΠΟΣΤΟΛΟΣ</v>
       </c>
-      <c r="E32" t="str">
+      <c r="D32" t="str">
+        <v>036067124</v>
+      </c>
+      <c r="F32" t="str">
         <v>Ν ΜΠΟΤΣΑΡΗ 34</v>
       </c>
-      <c r="F32" t="str">
+      <c r="G32" t="str">
         <v>30300</v>
       </c>
-      <c r="G32" t="str">
+      <c r="H32" t="str">
         <v>ΝΑΥΠΑΚΤΟΣ</v>
+      </c>
+      <c r="I32" t="str">
+        <v>2634026005</v>
+      </c>
+      <c r="J32" t="str">
+        <v>6946282202</v>
       </c>
     </row>
     <row r="33">
@@ -937,14 +1147,20 @@
       <c r="B33" t="str">
         <v>ΤΣΑΡΙΔΗΣ  ΓΕΩΡΓΙΟΣ ΕΥΣΤΑΘΙΟΣ</v>
       </c>
-      <c r="E33" t="str">
+      <c r="D33" t="str">
+        <v>143110333</v>
+      </c>
+      <c r="F33" t="str">
         <v>Ν ΠΑΝΑΓΙΩΤΟΥ 29</v>
       </c>
-      <c r="F33" t="str">
+      <c r="G33" t="str">
         <v>61100</v>
       </c>
-      <c r="G33" t="str">
+      <c r="H33" t="str">
         <v>ΚΙΛΚΙΣ</v>
+      </c>
+      <c r="I33" t="str">
+        <v>2341023283</v>
       </c>
     </row>
     <row r="34">
@@ -954,14 +1170,20 @@
       <c r="B34" t="str">
         <v>ΓΟΥΛΑΣ  ΓΕΩΡΓΙΟΣ</v>
       </c>
-      <c r="E34" t="str">
+      <c r="D34" t="str">
+        <v>119501159</v>
+      </c>
+      <c r="F34" t="str">
         <v>ΒΑΛΑΩΡΙΤΟΥ ΚΑΙ ΚΑΡΑΙΣΚΑΚΗ 12</v>
       </c>
-      <c r="F34" t="str">
+      <c r="G34" t="str">
         <v>45444</v>
       </c>
-      <c r="G34" t="str">
+      <c r="H34" t="str">
         <v>ΙΩΑΝΝΙΝΑ</v>
+      </c>
+      <c r="I34" t="str">
+        <v>2651031616</v>
       </c>
     </row>
     <row r="35">
@@ -971,14 +1193,20 @@
       <c r="B35" t="str">
         <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΑΧΕΠΑ</v>
       </c>
-      <c r="E35" t="str">
+      <c r="D35" t="str">
+        <v>090024750</v>
+      </c>
+      <c r="F35" t="str">
         <v>ΣΤΙΛΠ ΚΥΡΙΑΚΙΔΗ 1</v>
       </c>
-      <c r="F35" t="str">
+      <c r="G35" t="str">
         <v>54636</v>
       </c>
-      <c r="G35" t="str">
+      <c r="H35" t="str">
         <v>ΘΕΣΣΑΛΟΝΙΚΗ</v>
+      </c>
+      <c r="I35" t="str">
+        <v>2313303071</v>
       </c>
     </row>
     <row r="36">
@@ -988,14 +1216,20 @@
       <c r="B36" t="str">
         <v>ΣΑΜΑΡΑ  ΚΑΛΛΙΟΠΗ</v>
       </c>
-      <c r="E36" t="str">
+      <c r="D36" t="str">
+        <v>077938473</v>
+      </c>
+      <c r="F36" t="str">
         <v>Π ΠΑΤΡΩΝ ΓΕΡΜΑΝΟΥ 3</v>
       </c>
-      <c r="F36" t="str">
+      <c r="G36" t="str">
         <v>12241</v>
       </c>
-      <c r="G36" t="str">
+      <c r="H36" t="str">
         <v>ΑΙΓΑΛΕΩ</v>
+      </c>
+      <c r="I36" t="str">
+        <v>2111824762</v>
       </c>
     </row>
     <row r="37">
@@ -1005,14 +1239,20 @@
       <c r="B37" t="str">
         <v>CC-LIT Α.Ε.</v>
       </c>
-      <c r="E37" t="str">
+      <c r="D37" t="str">
+        <v>800354523</v>
+      </c>
+      <c r="F37" t="str">
         <v>ΚΙΣΣΑΒΟΥ 2</v>
       </c>
-      <c r="F37" t="str">
+      <c r="G37" t="str">
         <v>18346</v>
       </c>
-      <c r="G37" t="str">
+      <c r="H37" t="str">
         <v>ΜΟΣΧΑΤΟ</v>
+      </c>
+      <c r="I37" t="str">
+        <v>211 780 9180</v>
       </c>
     </row>
     <row r="38">
@@ -1022,14 +1262,20 @@
       <c r="B38" t="str">
         <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΗΛΕΙΑΣ</v>
       </c>
-      <c r="E38" t="str">
+      <c r="D38" t="str">
+        <v>999181810</v>
+      </c>
+      <c r="F38" t="str">
         <v>ΣΥΝΤΡΙΑΔΑ ΠΥΡΓΟΥ 0</v>
       </c>
-      <c r="F38" t="str">
+      <c r="G38" t="str">
         <v>27100</v>
       </c>
-      <c r="G38" t="str">
+      <c r="H38" t="str">
         <v>ΠΥΡΓΟΣ</v>
+      </c>
+      <c r="I38" t="str">
+        <v>2622360166</v>
       </c>
     </row>
     <row r="39">
@@ -1039,14 +1285,20 @@
       <c r="B39" t="str">
         <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΚΟΡΙΝΘΟΥ</v>
       </c>
-      <c r="E39" t="str">
+      <c r="D39" t="str">
+        <v>999049011</v>
+      </c>
+      <c r="F39" t="str">
         <v>Λ ΑΘΗΝΩΝ 53</v>
       </c>
-      <c r="F39" t="str">
+      <c r="G39" t="str">
         <v>20100</v>
       </c>
-      <c r="G39" t="str">
+      <c r="H39" t="str">
         <v>ΚΟΡΙΝΘΟΣ</v>
+      </c>
+      <c r="I39" t="str">
+        <v>2741361816</v>
       </c>
     </row>
     <row r="40">
@@ -1056,14 +1308,23 @@
       <c r="B40" t="str">
         <v>1η ΥΠΕ - ΓΕΝ. ΟΓΚΟΛΟΓΙΚΟ ΝΟΣΟΚΟΜΕΙΟ</v>
       </c>
-      <c r="E40" t="str">
+      <c r="D40" t="str">
+        <v>998965076</v>
+      </c>
+      <c r="F40" t="str">
         <v>ΘΕΣΗ ΚΑΛΥΦΤΑΚΗ 0</v>
       </c>
-      <c r="F40" t="str">
+      <c r="G40" t="str">
         <v>14564</v>
       </c>
-      <c r="G40" t="str">
+      <c r="H40" t="str">
         <v>ΚΗΦΙΣΙΑ</v>
+      </c>
+      <c r="I40" t="str">
+        <v>2103501708</v>
+      </c>
+      <c r="J40" t="str">
+        <v>2103501809</v>
       </c>
     </row>
     <row r="41">
@@ -1073,14 +1334,20 @@
       <c r="B41" t="str">
         <v>Γ.ΝΟΣΟΚ. ΑΤΤΙΚΗΣ ΣΙΣΜΑΝΟΓΛΕΙΟ</v>
       </c>
-      <c r="E41" t="str">
+      <c r="D41" t="str">
+        <v>998986625</v>
+      </c>
+      <c r="F41" t="str">
         <v>ΤΕΡΜΑ ΣΙΣΜΑΝΟΓΛΕΙΟΥ 0</v>
       </c>
-      <c r="F41" t="str">
+      <c r="G41" t="str">
         <v>15126</v>
       </c>
-      <c r="G41" t="str">
+      <c r="H41" t="str">
         <v>ΜΑΡΟΥΣΙ</v>
+      </c>
+      <c r="I41" t="str">
+        <v>2132058405</v>
       </c>
     </row>
     <row r="42">
@@ -1090,13 +1357,16 @@
       <c r="B42" t="str">
         <v>ΕΦΚΑ - ΕΝΙΑΙΟΣ ΦΟΡΕΑΣ ΚΟΙΝΩΝΙΚΗΣ ΑΣΦΑΛΙΣ</v>
       </c>
-      <c r="E42" t="str">
+      <c r="D42" t="str">
+        <v>997072577</v>
+      </c>
+      <c r="F42" t="str">
         <v>ΑΜΕΡΙΚΗΣ 12</v>
       </c>
-      <c r="F42" t="str">
+      <c r="G42" t="str">
         <v>10671</v>
       </c>
-      <c r="G42" t="str">
+      <c r="H42" t="str">
         <v>ΑΘΗΝΑ</v>
       </c>
     </row>
@@ -1107,14 +1377,23 @@
       <c r="B43" t="str">
         <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΠΕΛΛΑΣ</v>
       </c>
-      <c r="E43" t="str">
+      <c r="D43" t="str">
+        <v>999834338</v>
+      </c>
+      <c r="F43" t="str">
         <v>ΤΕΡΜΑ ΕΓΝΑΤΙΑΣ</v>
       </c>
-      <c r="F43" t="str">
+      <c r="G43" t="str">
         <v>58200</v>
       </c>
-      <c r="G43" t="str">
+      <c r="H43" t="str">
         <v>ΕΔΕΣΣΑ</v>
+      </c>
+      <c r="I43" t="str">
+        <v>2382350566</v>
+      </c>
+      <c r="J43" t="str">
+        <v>2382350567</v>
       </c>
     </row>
     <row r="44">
@@ -1124,14 +1403,20 @@
       <c r="B44" t="str">
         <v>ΓΕΝΙΚΟ ΝΟΣΟΚΟΜΕΙΟ ΛΑΚΩΝΙΑΣ</v>
       </c>
-      <c r="E44" t="str">
+      <c r="D44" t="str">
+        <v>999344780</v>
+      </c>
+      <c r="F44" t="str">
         <v>ΝΟΣΟΚΟΜΕΙΟ ΣΠΑΡΤΗΣ 0</v>
       </c>
-      <c r="F44" t="str">
+      <c r="G44" t="str">
         <v>23100</v>
       </c>
-      <c r="G44" t="str">
+      <c r="H44" t="str">
         <v>ΣΠΑΡΤΗ</v>
+      </c>
+      <c r="I44" t="str">
+        <v>2732360179</v>
       </c>
     </row>
     <row r="45">
@@ -1141,14 +1426,20 @@
       <c r="B45" t="str">
         <v>ΕΘΝΙΚΟΣ ΟΡΓΑΝΙΣΜΟΣ ΜΕΤΑΜΟΣΧΕΥΣΕΩΝ</v>
       </c>
-      <c r="E45" t="str">
+      <c r="D45" t="str">
+        <v>099633861</v>
+      </c>
+      <c r="F45" t="str">
         <v>ΤΣΟΧΑ 5</v>
       </c>
-      <c r="F45" t="str">
+      <c r="G45" t="str">
         <v>11521</v>
       </c>
-      <c r="G45" t="str">
+      <c r="H45" t="str">
         <v>ΑΘΗΝΑ</v>
+      </c>
+      <c r="I45" t="str">
+        <v>2132027017</v>
       </c>
     </row>
     <row r="46">
@@ -1158,14 +1449,20 @@
       <c r="B46" t="str">
         <v>Γ. ΠΑΠΑΝΙΚΟΛΑΟΥ ΝΟΣΟΚΟΜΕΙΟ ΘΕΣ/ΝΙΚΗΣ</v>
       </c>
-      <c r="E46" t="str">
+      <c r="D46" t="str">
+        <v>999294028</v>
+      </c>
+      <c r="F46" t="str">
         <v>ΕΞΟΧΗ 0</v>
       </c>
-      <c r="F46" t="str">
+      <c r="G46" t="str">
         <v>57010</v>
       </c>
-      <c r="G46" t="str">
+      <c r="H46" t="str">
         <v>ΕΞΟΧΗ</v>
+      </c>
+      <c r="I46" t="str">
+        <v>2313324112-376</v>
       </c>
     </row>
     <row r="47">
@@ -1175,14 +1472,23 @@
       <c r="B47" t="str">
         <v>ΠΑΠΑΒΑΣΙΛΕΙΟΥ  ΓΕΩΡΓΙΟΣ</v>
       </c>
-      <c r="E47" t="str">
+      <c r="D47" t="str">
+        <v>120900310</v>
+      </c>
+      <c r="F47" t="str">
         <v>ΧΙΛΗΣ 71</v>
       </c>
-      <c r="F47" t="str">
+      <c r="G47" t="str">
         <v>18755</v>
       </c>
-      <c r="G47" t="str">
+      <c r="H47" t="str">
         <v>ΚΕΡΑΤΣΙΝΙ</v>
+      </c>
+      <c r="I47" t="str">
+        <v>2130288808</v>
+      </c>
+      <c r="J47" t="str">
+        <v>6930691809</v>
       </c>
     </row>
     <row r="48">
@@ -1192,14 +1498,20 @@
       <c r="B48" t="str">
         <v>ΗΛΙΟΠΟΥΛΟΣ  ΓΕΩΡΓΙΟΣ ΕΥΣΤΑΘΙΟΣ</v>
       </c>
-      <c r="E48" t="str">
+      <c r="D48" t="str">
+        <v>106075362</v>
+      </c>
+      <c r="F48" t="str">
         <v>ΠΟΛΥΤΕΧΝΕΙΟΥ 6</v>
       </c>
-      <c r="F48" t="str">
+      <c r="G48" t="str">
         <v>50200</v>
       </c>
-      <c r="G48" t="str">
+      <c r="H48" t="str">
         <v>ΠΤΟΛΕΜΑΙΔΑ</v>
+      </c>
+      <c r="I48" t="str">
+        <v>2463080888</v>
       </c>
     </row>
     <row r="49">
@@ -1212,14 +1524,23 @@
       <c r="C49" t="str">
         <v>michael.tolis@gmail.com</v>
       </c>
-      <c r="E49" t="str">
+      <c r="D49" t="str">
+        <v>123123123123</v>
+      </c>
+      <c r="F49" t="str">
         <v>Kaiser Bridge</v>
       </c>
-      <c r="F49" t="str">
+      <c r="G49" t="str">
         <v>49100</v>
       </c>
-      <c r="G49" t="str">
+      <c r="H49" t="str">
         <v/>
+      </c>
+      <c r="I49" t="str">
+        <v>6975362321</v>
+      </c>
+      <c r="J49" t="str">
+        <v>6975362321</v>
       </c>
     </row>
     <row r="50">
@@ -1232,14 +1553,23 @@
       <c r="C50" t="str">
         <v>michael.tolis@gmail.com</v>
       </c>
-      <c r="E50" t="str">
+      <c r="D50" t="str">
+        <v>123123123123</v>
+      </c>
+      <c r="F50" t="str">
         <v>Kaiser Bridge</v>
       </c>
-      <c r="F50" t="str">
+      <c r="G50" t="str">
         <v>49100</v>
       </c>
-      <c r="G50" t="str">
+      <c r="H50" t="str">
         <v/>
+      </c>
+      <c r="I50" t="str">
+        <v>6975362321</v>
+      </c>
+      <c r="J50" t="str">
+        <v>6975362321</v>
       </c>
     </row>
     <row r="51">
@@ -1252,14 +1582,23 @@
       <c r="C51" t="str">
         <v>michael.tolis@gmail.com</v>
       </c>
-      <c r="E51" t="str">
+      <c r="D51" t="str">
+        <v>123123123123</v>
+      </c>
+      <c r="F51" t="str">
         <v>Kaiser Bridge</v>
       </c>
-      <c r="F51" t="str">
+      <c r="G51" t="str">
         <v>49100</v>
       </c>
-      <c r="G51" t="str">
+      <c r="H51" t="str">
         <v/>
+      </c>
+      <c r="I51" t="str">
+        <v>6975362321</v>
+      </c>
+      <c r="J51" t="str">
+        <v>6975362321</v>
       </c>
     </row>
     <row r="52">
@@ -1272,14 +1611,23 @@
       <c r="C52" t="str">
         <v>michael.tolis@gmail.com</v>
       </c>
-      <c r="E52" t="str">
+      <c r="D52" t="str">
+        <v>123123123123</v>
+      </c>
+      <c r="F52" t="str">
         <v>Kaiser Bridge</v>
       </c>
-      <c r="F52" t="str">
+      <c r="G52" t="str">
         <v>49100</v>
       </c>
-      <c r="G52" t="str">
+      <c r="H52" t="str">
         <v/>
+      </c>
+      <c r="I52" t="str">
+        <v>6975362321</v>
+      </c>
+      <c r="J52" t="str">
+        <v>6975362321</v>
       </c>
     </row>
     <row r="53">
@@ -1292,14 +1640,23 @@
       <c r="C53" t="str">
         <v>michael.tolis@gmail.com</v>
       </c>
-      <c r="E53" t="str">
+      <c r="D53" t="str">
+        <v>123123123123</v>
+      </c>
+      <c r="F53" t="str">
         <v>Kaiser Bridge</v>
       </c>
-      <c r="F53" t="str">
+      <c r="G53" t="str">
         <v>49100</v>
       </c>
-      <c r="G53" t="str">
+      <c r="H53" t="str">
         <v/>
+      </c>
+      <c r="I53" t="str">
+        <v>6975362321</v>
+      </c>
+      <c r="J53" t="str">
+        <v>6975362321</v>
       </c>
     </row>
   </sheetData>
